--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27428" windowHeight="11734"/>
+    <workbookView windowWidth="27428" windowHeight="11734" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
+    <sheet name="Coin change" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Longest Common Subsequence</t>
   </si>
@@ -89,6 +90,27 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>dp init</t>
+  </si>
+  <si>
+    <t>dp formula</t>
+  </si>
+  <si>
+    <t>min(12,1+dp[1-1])</t>
+  </si>
+  <si>
+    <t>min(12,1+dp[2-1],1+dp[2-2])</t>
+  </si>
+  <si>
+    <t>dp final</t>
+  </si>
+  <si>
+    <t>coins</t>
   </si>
 </sst>
 </file>
@@ -96,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,7 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,31 +161,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -218,7 +225,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -227,6 +234,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -234,29 +271,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,13 +300,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +402,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,13 +450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,72 +474,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,66 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,23 +512,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,22 +552,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,26 +601,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,141 +627,139 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1061,7 +1081,7 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="A34" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -1397,16 +1417,16 @@
       <c r="B48" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>4</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>3</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="3">
         <v>3</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1414,16 +1434,16 @@
       <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>5</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>4</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="3">
         <v>4</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1431,4 +1451,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
+  <cols>
+    <col min="1" max="1" width="10.7387387387387" customWidth="1"/>
+    <col min="3" max="3" width="18.045045045045" customWidth="1"/>
+    <col min="4" max="4" width="26.7837837837838" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,18 +4,46 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27428" windowHeight="11734" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="DP" sheetId="1" r:id="rId1"/>
-    <sheet name="Coin change" sheetId="2" r:id="rId2"/>
+    <sheet name="Fibonacci" sheetId="3" r:id="rId1"/>
+    <sheet name="DP" sheetId="1" r:id="rId2"/>
+    <sheet name="Coin change" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+  <si>
+    <t>dp[]</t>
+  </si>
+  <si>
+    <t>fib(0)</t>
+  </si>
+  <si>
+    <t>fib(1)</t>
+  </si>
+  <si>
+    <t>fib(2)</t>
+  </si>
+  <si>
+    <t>fib(3)</t>
+  </si>
+  <si>
+    <t>fib(4)</t>
+  </si>
+  <si>
+    <t>fib(5)</t>
+  </si>
+  <si>
+    <t>fib(6)</t>
+  </si>
+  <si>
+    <t>fib(7)</t>
+  </si>
   <si>
     <t>Longest Common Subsequence</t>
   </si>
@@ -107,7 +135,28 @@
     <t>min(12,1+dp[2-1],1+dp[2-2])</t>
   </si>
   <si>
+    <t>min(12,1+dp[3-1],1+dp[3-2])</t>
+  </si>
+  <si>
+    <t>min(12,1+dp[4-1],1+dp[4-2])</t>
+  </si>
+  <si>
+    <t>min(12,1+dp[5-1],1+dp[5-2],1+dp[5-5])</t>
+  </si>
+  <si>
+    <t>min(12,1+dp[6-1],1+dp[6-2],1+dp[6-5])</t>
+  </si>
+  <si>
+    <t>min(12,1+dp[7-1],1+dp[7-2],1+dp[7-5])</t>
+  </si>
+  <si>
+    <t>min(12,1+dp[8-1],1+dp[8-2],1+dp[8-5])</t>
+  </si>
+  <si>
     <t>dp final</t>
+  </si>
+  <si>
+    <t>dp[1] + dp[2]</t>
   </si>
   <si>
     <t>coins</t>
@@ -118,9 +167,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -155,7 +204,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,6 +233,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -177,53 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -232,14 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -262,34 +333,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,187 +349,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +554,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,30 +621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -574,6 +638,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -582,42 +655,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,139 +676,142 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,6 +871,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328930</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="938530" y="860425"/>
+          <a:ext cx="4342130" cy="2425700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1079,42 +1178,175 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f t="shared" ref="D1:M1" si="0">B1+C1</f>
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="12.9279279279279" customWidth="1"/>
-    <col min="5" max="5" width="11.3873873873874" customWidth="1"/>
-    <col min="6" max="6" width="11.036036036036" customWidth="1"/>
-    <col min="7" max="7" width="11.3063063063063" customWidth="1"/>
+    <col min="4" max="4" width="12.9238095238095" customWidth="1"/>
+    <col min="5" max="5" width="11.3904761904762" customWidth="1"/>
+    <col min="6" max="6" width="11.0380952380952" customWidth="1"/>
+    <col min="7" max="7" width="11.3047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1131,7 +1363,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -1148,7 +1380,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1165,7 +1397,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1182,7 +1414,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1199,7 +1431,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1216,36 +1448,36 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
         <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -1276,7 +1508,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1308,46 +1540,46 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -1364,7 +1596,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1381,7 +1613,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C46" s="3">
         <v>2</v>
@@ -1398,7 +1630,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C47" s="3">
         <v>3</v>
@@ -1415,7 +1647,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C48" s="3">
         <v>4</v>
@@ -1432,7 +1664,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3">
         <v>5</v>
@@ -1453,25 +1685,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7387387387387" customWidth="1"/>
-    <col min="3" max="3" width="18.045045045045" customWidth="1"/>
-    <col min="4" max="4" width="26.7837837837838" customWidth="1"/>
+    <col min="1" max="1" width="10.7428571428571" customWidth="1"/>
+    <col min="3" max="3" width="18.047619047619" customWidth="1"/>
+    <col min="4" max="6" width="26.7809523809524" customWidth="1"/>
+    <col min="7" max="10" width="36.352380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1512,7 +1745,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1551,23 +1784,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1578,10 +1829,33 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -16,33 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
-  <si>
-    <t>dp[]</t>
-  </si>
-  <si>
-    <t>fib(0)</t>
-  </si>
-  <si>
-    <t>fib(1)</t>
-  </si>
-  <si>
-    <t>fib(2)</t>
-  </si>
-  <si>
-    <t>fib(3)</t>
-  </si>
-  <si>
-    <t>fib(4)</t>
-  </si>
-  <si>
-    <t>fib(5)</t>
-  </si>
-  <si>
-    <t>fib(6)</t>
-  </si>
-  <si>
-    <t>fib(7)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>fib(n)</t>
   </si>
   <si>
     <t>Longest Common Subsequence</t>
@@ -168,9 +147,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -196,6 +175,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,7 +199,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,59 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -280,52 +305,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -334,7 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,121 +328,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,61 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,30 +533,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +576,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -636,11 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,7 +637,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,130 +655,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -878,15 +857,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>328930</xdr:colOff>
+      <xdr:colOff>319405</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:rowOff>8255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>394335</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -903,7 +882,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="938530" y="860425"/>
+          <a:off x="929005" y="770255"/>
           <a:ext cx="4342130" cy="2425700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1178,13 +1157,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1197,108 +1176,85 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:M1" si="0">B1+C1</f>
         <v>1</v>
       </c>
       <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>13</v>
+      </c>
+      <c r="K1">
+        <v>14</v>
+      </c>
+      <c r="L1">
+        <v>15</v>
+      </c>
+      <c r="M1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:M2" si="0">C2+B2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F1">
+      <c r="F2" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G1">
+      <c r="G2" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H2" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="I2" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J1">
+      <c r="J2" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K1">
+      <c r="K2" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L1">
+      <c r="L2" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M1">
+      <c r="M2" s="5">
         <f t="shared" si="0"/>
         <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2">
-        <v>14</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1327,26 +1283,26 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1363,7 +1319,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -1380,7 +1336,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1397,7 +1353,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1414,7 +1370,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1431,7 +1387,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1448,36 +1404,36 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
-        <v>24</v>
-      </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -1508,7 +1464,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1540,46 +1496,46 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -1596,7 +1552,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
@@ -1613,7 +1569,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3">
         <v>2</v>
@@ -1630,7 +1586,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C47" s="3">
         <v>3</v>
@@ -1647,7 +1603,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C48" s="3">
         <v>4</v>
@@ -1664,7 +1620,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C49" s="3">
         <v>5</v>
@@ -1704,7 +1660,7 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1745,7 +1701,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1786,39 +1742,39 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1850,12 +1806,12 @@
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fibonacci" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>n</t>
   </si>
@@ -27,22 +27,34 @@
     <t>Longest Common Subsequence</t>
   </si>
   <si>
+    <t>text1</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
+    <t>LCS("abcde", "ace") = 1 + LCS("bcde", "ce")</t>
+  </si>
+  <si>
+    <t>text2</t>
+  </si>
+  <si>
+    <t>LCS("bcde", "ce") = MAX[LCS("bcde","e"), LCS("cde","ce")]</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>LongestIncreasingSubsequence</t>
@@ -146,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -175,6 +187,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -183,64 +310,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,67 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -328,13 +340,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,169 +496,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,50 +549,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +584,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -624,169 +623,182 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1159,7 +1171,7 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1269,8 +1281,8 @@
   <sheetPr/>
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1281,190 +1293,245 @@
     <col min="7" max="7" width="11.3047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:6">
-      <c r="C3" t="s">
+    <row r="3" customFormat="1" spans="1:8">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="3:6">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="2:6">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D8" s="2">
+        <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
-      <c r="B5" t="s">
+    <row r="9" customFormat="1" spans="2:6">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:6">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:6">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="C11" s="2">
+        <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+    <row r="12" customFormat="1" spans="2:6">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
+    <row r="13" customFormat="1" spans="2:6">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="3">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>9</v>
       </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>3</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>7</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>101</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1496,142 +1563,142 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2">
         <v>0</v>
       </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2</v>
-      </c>
-      <c r="F45" s="3">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3">
+        <v>28</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="3">
+        <v>27</v>
+      </c>
+      <c r="C47" s="2">
         <v>3</v>
       </c>
-      <c r="D47" s="3">
-        <v>2</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="3">
+        <v>29</v>
+      </c>
+      <c r="C48" s="2">
         <v>4</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>3</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>3</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2">
         <v>5</v>
       </c>
-      <c r="C49" s="3">
-        <v>5</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>4</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1660,7 +1727,7 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1701,7 +1768,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1742,39 +1809,39 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1806,12 +1873,12 @@
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>n</t>
   </si>
@@ -60,40 +60,49 @@
     <t>LongestIncreasingSubsequence</t>
   </si>
   <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[3]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[5]</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>LIS</t>
-  </si>
-  <si>
-    <t>max(1+[6],1+[7])</t>
-  </si>
-  <si>
-    <t>max(1+[3],1+[4],1+[5],1+[6],1+[7])</t>
-  </si>
-  <si>
-    <t>max(1+[5],1+[6],1+[7])</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>nums[i]</t>
+  </si>
+  <si>
+    <t>LIS[i]</t>
+  </si>
+  <si>
+    <t>LIS[7]</t>
+  </si>
+  <si>
+    <t>LIS[6]</t>
+  </si>
+  <si>
+    <t>MAX(1, if nums[6] &lt; nums[7] then 1 + LIS[7])</t>
+  </si>
+  <si>
+    <t>LIS[5]</t>
+  </si>
+  <si>
+    <t>MAX(1, 1 + LIS[6], 1 + LIS[7])</t>
+  </si>
+  <si>
+    <t>LIS[4]</t>
+  </si>
+  <si>
+    <t>MAX(1, 1 + LIS[5], 1 + LIS[6], 1 + LIS[7])</t>
+  </si>
+  <si>
+    <t>LIS[3]</t>
+  </si>
+  <si>
+    <t>LIS[2]</t>
+  </si>
+  <si>
+    <t>MAX(1, 1 + LIS[3], 1 + LIS[4], 1 + LIS[5], 1 + LIS[6], 1 + LIS[7])</t>
+  </si>
+  <si>
+    <t>LIS[1]</t>
+  </si>
+  <si>
+    <t>LIS[0]</t>
   </si>
   <si>
     <t>EditDistance</t>
@@ -109,9 +118,6 @@
   </si>
   <si>
     <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>dp init</t>
@@ -158,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -187,27 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -216,6 +201,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,113 +336,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,49 +346,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,127 +502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +555,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,7 +583,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,22 +622,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,41 +642,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,139 +673,143 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1222,49 +1232,49 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="7">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -1279,10 +1289,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1469,236 +1479,294 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" t="s">
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1" spans="1:10">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:10">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <v>7</v>
+      </c>
+      <c r="H23" s="4">
+        <v>101</v>
+      </c>
+      <c r="I23" s="4">
+        <v>18</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1" spans="1:10">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1" spans="1:2">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:2">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="H23" t="s">
+    </row>
+    <row r="29" customFormat="1" spans="1:2">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
-      <c r="I23" t="s">
+      <c r="B29" t="s">
         <v>21</v>
       </c>
-      <c r="J23" t="s">
+    </row>
+    <row r="30" customFormat="1" spans="1:2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:2">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="C48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="2">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2">
-        <v>7</v>
-      </c>
-      <c r="H24" s="2">
-        <v>101</v>
-      </c>
-      <c r="I24" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6">
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>2</v>
-      </c>
-      <c r="F44" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" t="s">
+      <c r="D48" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>2</v>
-      </c>
-      <c r="F45" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="2">
-        <v>2</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="2">
-        <v>3</v>
-      </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <v>2</v>
-      </c>
-      <c r="F47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="2">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2">
-        <v>3</v>
-      </c>
-      <c r="F48" s="2">
-        <v>2</v>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C54" s="2">
         <v>5</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D54" s="2">
         <v>4</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E54" s="2">
         <v>4</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F54" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1727,7 +1795,7 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1768,7 +1836,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1809,39 +1877,39 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1873,12 +1941,12 @@
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>n</t>
   </si>
@@ -118,6 +118,27 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>WordBreak</t>
+  </si>
+  <si>
+    <t>wordDict = ["leet","code"]</t>
+  </si>
+  <si>
+    <t>s[i]</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>WB[i]</t>
+  </si>
+  <si>
+    <t>WB[0 + len("leet")]</t>
   </si>
   <si>
     <t>dp init</t>
@@ -164,12 +185,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +214,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF263238"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -201,11 +274,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,37 +312,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,22 +353,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,59 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -346,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,26 +582,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +615,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -614,15 +652,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,11 +673,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,12 +685,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,140 +703,144 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1232,49 +1263,49 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="9">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="9">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -1289,10 +1320,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1479,14 +1510,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
     <row r="20" customFormat="1" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="1"/>
     <row r="22" customFormat="1" spans="1:10">
       <c r="A22" t="s">
         <v>14</v>
@@ -1515,7 +1543,7 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1523,35 +1551,34 @@
       <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>10</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>9</v>
       </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
         <v>5</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>7</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>101</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>18</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" customFormat="1"/>
     <row r="25" customFormat="1" spans="1:10">
       <c r="A25" t="s">
         <v>16</v>
@@ -1562,7 +1589,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25">
@@ -1584,7 +1611,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="1"/>
     <row r="27" customFormat="1" spans="1:2">
       <c r="A27" t="s">
         <v>17</v>
@@ -1768,6 +1794,114 @@
       </c>
       <c r="F54" s="3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="11:11">
+      <c r="K66" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +1970,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1877,39 +2011,39 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1941,12 +2075,12 @@
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>n</t>
   </si>
@@ -24,7 +24,7 @@
     <t>fib(n)</t>
   </si>
   <si>
-    <t>Longest Common Subsequence</t>
+    <t>LongestCommonSubsequence</t>
   </si>
   <si>
     <t>text1</t>
@@ -123,22 +123,73 @@
     <t>WordBreak</t>
   </si>
   <si>
+    <t>s[i]</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>WB[i]</t>
+  </si>
+  <si>
+    <t>WB[0 + len("leet")]</t>
+  </si>
+  <si>
     <t>wordDict = ["leet","code"]</t>
   </si>
   <si>
-    <t>s[i]</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>WB[i]</t>
-  </si>
-  <si>
-    <t>WB[0 + len("leet")]</t>
+    <t>ClimbingStairs</t>
+  </si>
+  <si>
+    <t>1 or 2 steps</t>
+  </si>
+  <si>
+    <t>dp[i]</t>
+  </si>
+  <si>
+    <t>dp[1]+dp[2]</t>
+  </si>
+  <si>
+    <t>dp[2]+dp[3]</t>
+  </si>
+  <si>
+    <t>dp[3]+dp[4]</t>
+  </si>
+  <si>
+    <t>dp[4]+dp[5]</t>
+  </si>
+  <si>
+    <t>1 or 2 or 3 steps</t>
+  </si>
+  <si>
+    <t>dp[1]+dp[2]+dp[3]</t>
+  </si>
+  <si>
+    <t>dp[2]+dp[3]+dp[4]</t>
+  </si>
+  <si>
+    <t>dp[3]+dp[4]+dp[5]</t>
+  </si>
+  <si>
+    <t>ShortestCommonSupersequence</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>1) Find Longest Common Subsequence (lcs) of two given strings. For example, lcs of “aggtab” and “gxtxayb” is “gtab”. </t>
+  </si>
+  <si>
+    <t>2) Insert non-lcs characters (in their original order in strings) to the lcs found above, and return the result. So “gtab” becomes “agxgtxayb” which is shortest common supersequence.</t>
   </si>
   <si>
     <t>dp init</t>
@@ -185,9 +236,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
@@ -220,9 +271,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,13 +280,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,17 +293,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,8 +355,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,28 +402,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -355,14 +414,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,192 +424,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -582,11 +633,58 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,22 +693,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,21 +746,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +783,54 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -682,15 +839,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,147 +857,161 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1263,49 +1434,49 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2" s="23">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="23">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="23">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="23">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="23">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -1320,16 +1491,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="12.9238095238095" customWidth="1"/>
-    <col min="5" max="5" width="11.3904761904762" customWidth="1"/>
+    <col min="2" max="2" width="10.0761904761905" customWidth="1"/>
+    <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
+    <col min="4" max="4" width="15.3714285714286" customWidth="1"/>
+    <col min="5" max="5" width="11.5142857142857" customWidth="1"/>
     <col min="6" max="6" width="11.0380952380952" customWidth="1"/>
     <col min="7" max="7" width="11.3047619047619" customWidth="1"/>
   </cols>
@@ -1510,398 +1683,826 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="17" customFormat="1" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:10">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2">
+        <v>101</v>
+      </c>
+      <c r="I20" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>7</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:10">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="2">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2">
-        <v>101</v>
-      </c>
-      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:2">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:10">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:2">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:2">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:2">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="3:6">
-      <c r="C48" t="s">
+    <row r="37" spans="3:6">
+      <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E37" t="s">
         <v>31</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
-      <c r="B49" t="s">
+    <row r="38" spans="2:6">
+      <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
-        <v>2</v>
-      </c>
-      <c r="F49" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" t="s">
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>2</v>
-      </c>
-      <c r="F50" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" t="s">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="2">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" t="s">
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="2">
-        <v>3</v>
-      </c>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2</v>
-      </c>
-      <c r="F52" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" t="s">
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C42" s="2">
         <v>4</v>
       </c>
-      <c r="D53" s="2">
-        <v>3</v>
-      </c>
-      <c r="E53" s="2">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2">
-        <v>2</v>
+      <c r="D42" s="2">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75"/>
+    <row r="64" ht="15.75" spans="7:7">
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" ht="15.75" spans="6:7">
+      <c r="F65" s="9"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" ht="15.75" spans="5:7">
+      <c r="E66" s="9"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" ht="15.75" spans="4:7">
+      <c r="D67" s="9"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" ht="15.75" spans="2:7">
+      <c r="B68" s="12"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="4">
         <v>8</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C71">
         <v>5</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75"/>
+    <row r="77" ht="15.75" spans="7:7">
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" ht="15.75" spans="6:7">
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" ht="15.75" spans="5:7">
+      <c r="E79" s="9"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" ht="15.75" spans="4:7">
+      <c r="D80" s="9"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" ht="15.75" spans="2:7">
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="15"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
         <v>4</v>
       </c>
-      <c r="E54" s="2">
+      <c r="G82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="4">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
         <v>4</v>
       </c>
-      <c r="F54" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="11:11">
-      <c r="K66" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>3</v>
-      </c>
-      <c r="F67">
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10">
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" t="s">
         <v>4</v>
       </c>
-      <c r="G67">
+      <c r="H92" t="s">
+        <v>55</v>
+      </c>
+      <c r="I92" t="s">
         <v>5</v>
       </c>
-      <c r="H67">
-        <v>6</v>
-      </c>
-      <c r="I67">
-        <v>7</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="J92" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>36</v>
-      </c>
-      <c r="B68" s="6" t="s">
+    <row r="93" spans="2:10">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="16">
+        <v>4</v>
+      </c>
+      <c r="D93" s="17">
+        <v>3</v>
+      </c>
+      <c r="E93" s="17">
+        <v>3</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2</v>
+      </c>
+      <c r="G93" s="2">
+        <v>2</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="18">
+        <v>4</v>
+      </c>
+      <c r="D94" s="17">
+        <v>3</v>
+      </c>
+      <c r="E94" s="17">
+        <v>3</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2</v>
+      </c>
+      <c r="H94" s="2">
+        <v>1</v>
+      </c>
+      <c r="I94" s="2">
+        <v>1</v>
+      </c>
+      <c r="J94" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="19">
+        <v>4</v>
+      </c>
+      <c r="D95" s="20">
+        <v>3</v>
+      </c>
+      <c r="E95" s="20">
+        <v>3</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2</v>
+      </c>
+      <c r="G95" s="2">
+        <v>2</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C70" t="b">
-        <v>0</v>
-      </c>
-      <c r="D70" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>40</v>
+      <c r="C96" s="21">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="21">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2</v>
+      </c>
+      <c r="G97" s="2">
+        <v>2</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="21">
+        <v>1</v>
+      </c>
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+      <c r="J98" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="22">
+        <v>0</v>
+      </c>
+      <c r="D99" s="22">
+        <v>0</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="22">
+        <v>0</v>
+      </c>
+      <c r="G99" s="22">
+        <v>0</v>
+      </c>
+      <c r="H99" s="22">
+        <v>0</v>
+      </c>
+      <c r="I99" s="22">
+        <v>0</v>
+      </c>
+      <c r="J99" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1970,7 +2571,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2011,39 +2612,39 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2075,12 +2676,12 @@
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
+    <workbookView windowWidth="27428" windowHeight="11734" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fibonacci" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
   <si>
     <t>n</t>
   </si>
@@ -190,6 +190,105 @@
   </si>
   <si>
     <t>2) Insert non-lcs characters (in their original order in strings) to the lcs found above, and return the result. So “gtab” becomes “agxgtxayb” which is shortest common supersequence.</t>
+  </si>
+  <si>
+    <t>RodCutting</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>price[i]</t>
+  </si>
+  <si>
+    <t>dp[0]</t>
+  </si>
+  <si>
+    <t>dp[1]</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>price[1]+dp[0]</t>
+  </si>
+  <si>
+    <t>price = 1</t>
+  </si>
+  <si>
+    <t>dp[2]</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>price[1]+dp[1]</t>
+  </si>
+  <si>
+    <t>price = 5</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>price[2]</t>
+  </si>
+  <si>
+    <t>dp[3]</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>price[1]+dp[2]</t>
+  </si>
+  <si>
+    <t>price = 8</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>price[2]+dp[1]</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>price[3]</t>
+  </si>
+  <si>
+    <t>dp[4]</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>price[1]+dp[3]</t>
+  </si>
+  <si>
+    <t>price = 9</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>price[2]+dp[2]</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>price[3]+dp[1]</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>price[4]</t>
+  </si>
+  <si>
+    <t>dp[n] = max(price[i] + dp[n-i-1]) for all i in {0, 1 .. n-1}</t>
   </si>
   <si>
     <t>dp init</t>
@@ -236,12 +335,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,25 +370,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.8"/>
+      <color rgb="FF6897BB"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,32 +391,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,7 +407,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,10 +467,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,6 +481,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -421,6 +526,156 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -430,121 +685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,49 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,56 +844,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -831,15 +886,65 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,130 +962,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,11 +1112,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1106,8 +1211,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="929005" y="770255"/>
-          <a:ext cx="4342130" cy="2425700"/>
+          <a:off x="963930" y="747395"/>
+          <a:ext cx="4586605" cy="2357120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1387,7 +1492,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1491,20 +1596,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="10.0761904761905" customWidth="1"/>
-    <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
-    <col min="4" max="4" width="15.3714285714286" customWidth="1"/>
-    <col min="5" max="5" width="11.5142857142857" customWidth="1"/>
-    <col min="6" max="6" width="11.0380952380952" customWidth="1"/>
-    <col min="7" max="7" width="11.3047619047619" customWidth="1"/>
+    <col min="2" max="2" width="10.0720720720721" customWidth="1"/>
+    <col min="3" max="3" width="8.52252252252252" customWidth="1"/>
+    <col min="4" max="4" width="15.3693693693694" customWidth="1"/>
+    <col min="5" max="5" width="12.7027027027027" customWidth="1"/>
+    <col min="6" max="7" width="12.3153153153153" customWidth="1"/>
+    <col min="8" max="8" width="13.1261261261261" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -2085,26 +2190,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" ht="15.75"/>
-    <row r="64" ht="15.75" spans="7:7">
+    <row r="63" ht="15.3"/>
+    <row r="64" ht="15.3" spans="7:7">
       <c r="G64" s="7"/>
     </row>
-    <row r="65" ht="15.75" spans="6:7">
+    <row r="65" ht="15.3" spans="6:7">
       <c r="F65" s="9"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" ht="15.75" spans="5:7">
+    <row r="66" ht="15.3" spans="5:7">
       <c r="E66" s="9"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
     </row>
-    <row r="67" ht="15.75" spans="4:7">
+    <row r="67" ht="15.3" spans="4:7">
       <c r="D67" s="9"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
     </row>
-    <row r="68" ht="15.75" spans="2:7">
+    <row r="68" ht="15.3" spans="2:7">
       <c r="B68" s="12"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
@@ -2177,26 +2282,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" ht="15.75"/>
-    <row r="77" ht="15.75" spans="7:7">
+    <row r="76" ht="15.3"/>
+    <row r="77" ht="15.3" spans="7:7">
       <c r="G77" s="7"/>
     </row>
-    <row r="78" ht="15.75" spans="6:7">
+    <row r="78" ht="15.3" spans="6:7">
       <c r="F78" s="9"/>
       <c r="G78" s="10"/>
     </row>
-    <row r="79" ht="15.75" spans="5:7">
+    <row r="79" ht="15.3" spans="5:7">
       <c r="E79" s="9"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
     </row>
-    <row r="80" ht="15.75" spans="4:7">
+    <row r="80" ht="15.3" spans="4:7">
       <c r="D80" s="9"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" ht="15.75" spans="2:7">
+    <row r="81" ht="15.3" spans="2:7">
       <c r="B81" s="12"/>
       <c r="C81" s="13"/>
       <c r="D81" s="14"/>
@@ -2317,7 +2422,7 @@
       <c r="I93" s="2">
         <v>1</v>
       </c>
-      <c r="J93" s="22">
+      <c r="J93" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2325,7 +2430,7 @@
       <c r="B94" t="s">
         <v>53</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="17">
         <v>4</v>
       </c>
       <c r="D94" s="17">
@@ -2346,7 +2451,7 @@
       <c r="I94" s="2">
         <v>1</v>
       </c>
-      <c r="J94" s="22">
+      <c r="J94" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2354,13 +2459,13 @@
       <c r="B95" t="s">
         <v>53</v>
       </c>
-      <c r="C95" s="19">
+      <c r="C95" s="17">
         <v>4</v>
       </c>
-      <c r="D95" s="20">
-        <v>3</v>
-      </c>
-      <c r="E95" s="20">
+      <c r="D95" s="17">
+        <v>3</v>
+      </c>
+      <c r="E95" s="17">
         <v>3</v>
       </c>
       <c r="F95" s="2">
@@ -2375,7 +2480,7 @@
       <c r="I95" s="2">
         <v>1</v>
       </c>
-      <c r="J95" s="22">
+      <c r="J95" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2383,7 +2488,7 @@
       <c r="B96" t="s">
         <v>37</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="2">
         <v>3</v>
       </c>
       <c r="D96" s="2">
@@ -2404,7 +2509,7 @@
       <c r="I96" s="2">
         <v>1</v>
       </c>
-      <c r="J96" s="22">
+      <c r="J96" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2412,7 +2517,7 @@
       <c r="B97" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="2">
         <v>2</v>
       </c>
       <c r="D97" s="2">
@@ -2433,7 +2538,7 @@
       <c r="I97" s="2">
         <v>1</v>
       </c>
-      <c r="J97" s="22">
+      <c r="J97" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2441,7 +2546,7 @@
       <c r="B98" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="2">
         <v>1</v>
       </c>
       <c r="D98" s="2">
@@ -2462,7 +2567,7 @@
       <c r="I98" s="2">
         <v>1</v>
       </c>
-      <c r="J98" s="22">
+      <c r="J98" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2470,28 +2575,28 @@
       <c r="B99" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="22">
-        <v>0</v>
-      </c>
-      <c r="D99" s="22">
-        <v>0</v>
-      </c>
-      <c r="E99" s="22">
-        <v>0</v>
-      </c>
-      <c r="F99" s="22">
-        <v>0</v>
-      </c>
-      <c r="G99" s="22">
-        <v>0</v>
-      </c>
-      <c r="H99" s="22">
-        <v>0</v>
-      </c>
-      <c r="I99" s="22">
-        <v>0</v>
-      </c>
-      <c r="J99" s="22">
+      <c r="C99" s="18">
+        <v>0</v>
+      </c>
+      <c r="D99" s="18">
+        <v>0</v>
+      </c>
+      <c r="E99" s="18">
+        <v>0</v>
+      </c>
+      <c r="F99" s="18">
+        <v>0</v>
+      </c>
+      <c r="G99" s="18">
+        <v>0</v>
+      </c>
+      <c r="H99" s="18">
+        <v>0</v>
+      </c>
+      <c r="I99" s="18">
+        <v>0</v>
+      </c>
+      <c r="J99" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2503,6 +2608,307 @@
     <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7">
+      <c r="G108" s="19"/>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>59</v>
+      </c>
+      <c r="B109" s="20">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2">
+        <v>3</v>
+      </c>
+      <c r="E109" s="2">
+        <v>4</v>
+      </c>
+      <c r="F109" s="2">
+        <v>5</v>
+      </c>
+      <c r="G109" s="2">
+        <v>6</v>
+      </c>
+      <c r="H109" s="2">
+        <v>7</v>
+      </c>
+      <c r="I109" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>60</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>5</v>
+      </c>
+      <c r="D110" s="2">
+        <v>8</v>
+      </c>
+      <c r="E110" s="2">
+        <v>9</v>
+      </c>
+      <c r="F110" s="2">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2">
+        <v>17</v>
+      </c>
+      <c r="H110" s="2">
+        <v>17</v>
+      </c>
+      <c r="I110" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" s="20">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" t="s">
+        <v>64</v>
+      </c>
+      <c r="F115" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" s="20">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>67</v>
+      </c>
+      <c r="F118" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" t="s">
+        <v>70</v>
+      </c>
+      <c r="F119" t="s">
+        <v>71</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121" s="20">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="D121" s="22">
+        <v>3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>73</v>
+      </c>
+      <c r="G121" t="s">
+        <v>74</v>
+      </c>
+      <c r="H121">
+        <v>6</v>
+      </c>
+      <c r="I121" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="s">
+        <v>69</v>
+      </c>
+      <c r="D122" t="s">
+        <v>75</v>
+      </c>
+      <c r="F122" t="s">
+        <v>76</v>
+      </c>
+      <c r="G122" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="6:8">
+      <c r="F123" t="s">
+        <v>78</v>
+      </c>
+      <c r="G123" t="s">
+        <v>79</v>
+      </c>
+      <c r="H123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" s="20">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2">
+        <v>2</v>
+      </c>
+      <c r="D125" s="22">
+        <v>3</v>
+      </c>
+      <c r="E125" s="22">
+        <v>4</v>
+      </c>
+      <c r="G125" t="s">
+        <v>81</v>
+      </c>
+      <c r="H125" t="s">
+        <v>82</v>
+      </c>
+      <c r="I125">
+        <v>9</v>
+      </c>
+      <c r="J125" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" t="s">
+        <v>69</v>
+      </c>
+      <c r="D126" t="s">
+        <v>75</v>
+      </c>
+      <c r="E126" t="s">
+        <v>83</v>
+      </c>
+      <c r="G126" t="s">
+        <v>84</v>
+      </c>
+      <c r="H126" t="s">
+        <v>85</v>
+      </c>
+      <c r="I126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9">
+      <c r="G127" t="s">
+        <v>86</v>
+      </c>
+      <c r="H127" t="s">
+        <v>87</v>
+      </c>
+      <c r="I127">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9">
+      <c r="G128" t="s">
+        <v>88</v>
+      </c>
+      <c r="H128" t="s">
+        <v>89</v>
+      </c>
+      <c r="I128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2520,12 +2926,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="10.7428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.047619047619" customWidth="1"/>
-    <col min="4" max="6" width="26.7809523809524" customWidth="1"/>
-    <col min="7" max="10" width="36.352380952381" customWidth="1"/>
+    <col min="1" max="1" width="10.7387387387387" customWidth="1"/>
+    <col min="3" max="3" width="18.045045045045" customWidth="1"/>
+    <col min="4" max="6" width="26.7837837837838" customWidth="1"/>
+    <col min="7" max="10" width="36.3513513513514" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -2571,7 +2977,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2612,39 +3018,39 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2676,12 +3082,12 @@
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27428" windowHeight="11734" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fibonacci" sheetId="3" r:id="rId1"/>
     <sheet name="DP" sheetId="1" r:id="rId2"/>
-    <sheet name="Coin change" sheetId="2" r:id="rId3"/>
+    <sheet name="SCS" sheetId="4" r:id="rId3"/>
+    <sheet name="Coin change" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
   <si>
     <t>n</t>
   </si>
@@ -289,6 +290,48 @@
   </si>
   <si>
     <t>dp[n] = max(price[i] + dp[n-i-1]) for all i in {0, 1 .. n-1}</t>
+  </si>
+  <si>
+    <t>Examples:</t>
+  </si>
+  <si>
+    <t>Input: str1 = "abac", str2 = "cab"</t>
+  </si>
+  <si>
+    <t>Output: "cabac"</t>
+  </si>
+  <si>
+    <t>str1</t>
+  </si>
+  <si>
+    <t>str2</t>
+  </si>
+  <si>
+    <t>LCS</t>
+  </si>
+  <si>
+    <t>SCS</t>
+  </si>
+  <si>
+    <t>1) Find Longest Common Subsequence (lcs) of two given strings. For example, lcs of “abac” and “cab” is “ab”. </t>
+  </si>
+  <si>
+    <t>2) Insert non-lcs characters (in their original order in strings) to the lcs found above, and return the result. So “ab” becomes “cabac” which is shortest common supersequence.</t>
+  </si>
+  <si>
+    <t>Input:   str1 = "geek",  str2 = "eke"</t>
+  </si>
+  <si>
+    <t>Output: "geeke"</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>1) Find Longest Common Subsequence (lcs) of two given strings. For example, lcs of “geek” and “eke” is “ek”. </t>
+  </si>
+  <si>
+    <t>2) Insert non-lcs characters (in their original order in strings) to the lcs found above, and return the result. So “ek” becomes “geeke” which is shortest common supersequence.</t>
   </si>
   <si>
     <t>dp init</t>
@@ -335,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -377,9 +420,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -391,8 +479,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,8 +495,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,7 +520,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -437,52 +550,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -490,37 +557,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,7 +572,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,55 +644,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,43 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,13 +710,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,30 +740,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -735,6 +784,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -844,17 +906,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,6 +935,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,49 +969,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -941,10 +994,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -962,144 +1024,148 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -1110,13 +1176,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1211,8 +1275,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="963930" y="747395"/>
-          <a:ext cx="4586605" cy="2357120"/>
+          <a:off x="929005" y="770255"/>
+          <a:ext cx="4342130" cy="2425700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1492,7 +1556,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -1539,49 +1603,49 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23">
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="25">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="25">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -1596,20 +1660,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A93" sqref="$A93:$XFD105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.0720720720721" customWidth="1"/>
-    <col min="3" max="3" width="8.52252252252252" customWidth="1"/>
-    <col min="4" max="4" width="15.3693693693694" customWidth="1"/>
-    <col min="5" max="5" width="12.7027027027027" customWidth="1"/>
-    <col min="6" max="7" width="12.3153153153153" customWidth="1"/>
-    <col min="8" max="8" width="13.1261261261261" customWidth="1"/>
+    <col min="2" max="2" width="10.0761904761905" customWidth="1"/>
+    <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
+    <col min="4" max="4" width="15.3714285714286" customWidth="1"/>
+    <col min="5" max="5" width="12.7047619047619" customWidth="1"/>
+    <col min="6" max="7" width="12.3142857142857" customWidth="1"/>
+    <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -1621,19 +1685,19 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
@@ -1644,13 +1708,13 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
@@ -1675,19 +1739,19 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="8">
         <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="8">
         <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1695,19 +1759,19 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="8">
         <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="8">
         <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="8">
         <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1715,19 +1779,19 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="8">
         <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="8">
         <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="8">
         <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1735,19 +1799,19 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="8">
         <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="8">
         <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="8">
         <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1755,19 +1819,19 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="8">
         <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="8">
         <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="8">
         <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1775,1139 +1839,1139 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:10">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:10">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>7</v>
-      </c>
-      <c r="H20" s="2">
-        <v>101</v>
-      </c>
-      <c r="I20" s="2">
-        <v>18</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:10">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="8">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8">
         <v>3</v>
       </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:2">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:2">
+      <c r="G23" s="8">
+        <v>7</v>
+      </c>
+      <c r="H23" s="8">
+        <v>101</v>
+      </c>
+      <c r="I23" s="8">
+        <v>18</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:10">
       <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
       <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:2">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:2">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
-      <c r="C37" t="s">
+    <row r="40" spans="3:6">
+      <c r="C40" t="s">
         <v>12</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
         <v>30</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E40" t="s">
         <v>31</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F40" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2</v>
-      </c>
-      <c r="F38" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2</v>
-      </c>
-      <c r="F39" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="2">
+        <v>12</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2</v>
+      </c>
+      <c r="F41" s="8">
         <v>3</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2</v>
-      </c>
-      <c r="F41" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="2">
-        <v>4</v>
-      </c>
-      <c r="D42" s="2">
+        <v>33</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8">
         <v>3</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" s="8">
+        <v>2</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="8">
+        <v>4</v>
+      </c>
+      <c r="D45" s="8">
+        <v>3</v>
+      </c>
+      <c r="E45" s="8">
+        <v>3</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C46" s="8">
         <v>5</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D46" s="8">
         <v>4</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E46" s="8">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F46" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>6</v>
-      </c>
-      <c r="I49">
-        <v>7</v>
-      </c>
-      <c r="J49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" t="s">
+      <c r="B55" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F57" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" ht="15.3"/>
-    <row r="64" ht="15.3" spans="7:7">
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" ht="15.3" spans="6:7">
-      <c r="F65" s="9"/>
-      <c r="G65" s="10"/>
-    </row>
-    <row r="66" ht="15.3" spans="5:7">
-      <c r="E66" s="9"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="10"/>
-    </row>
-    <row r="67" ht="15.3" spans="4:7">
-      <c r="D67" s="9"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="10"/>
-    </row>
-    <row r="68" ht="15.3" spans="2:7">
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+    <row r="66" ht="15.75"/>
+    <row r="67" ht="15.75" spans="7:7">
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" ht="15.75" spans="6:7">
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
+    <row r="69" ht="15.75" spans="5:7">
+      <c r="E69" s="14"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" ht="15.75" spans="4:7">
+      <c r="D70" s="14"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" ht="15.75" spans="2:7">
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
         <v>14</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
         <v>3</v>
       </c>
-      <c r="F69">
+      <c r="F72">
         <v>4</v>
       </c>
-      <c r="G69">
+      <c r="G72">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B74" s="5">
         <v>8</v>
       </c>
-      <c r="C71">
+      <c r="C74">
         <v>5</v>
       </c>
-      <c r="D71">
+      <c r="D74">
         <v>3</v>
       </c>
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" t="s">
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
         <v>44</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" t="s">
         <v>45</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D75" t="s">
         <v>46</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E75" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="76" ht="15.3"/>
-    <row r="77" ht="15.3" spans="7:7">
-      <c r="G77" s="7"/>
-    </row>
-    <row r="78" ht="15.3" spans="6:7">
-      <c r="F78" s="9"/>
-      <c r="G78" s="10"/>
-    </row>
-    <row r="79" ht="15.3" spans="5:7">
-      <c r="E79" s="9"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="10"/>
-    </row>
-    <row r="80" ht="15.3" spans="4:7">
-      <c r="D80" s="9"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="10"/>
-    </row>
-    <row r="81" ht="15.3" spans="2:7">
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
+    <row r="79" ht="15.75"/>
+    <row r="80" ht="15.75" spans="7:7">
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" ht="15.75" spans="6:7">
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
+    <row r="82" ht="15.75" spans="5:7">
+      <c r="E82" s="14"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" ht="15.75" spans="4:7">
+      <c r="D83" s="14"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" ht="15.75" spans="2:7">
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="20"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
         <v>14</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
         <v>3</v>
       </c>
-      <c r="F82">
+      <c r="F85">
         <v>4</v>
       </c>
-      <c r="G82">
+      <c r="G85">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B87" s="5">
         <v>13</v>
       </c>
-      <c r="C84">
+      <c r="C87">
         <v>7</v>
       </c>
-      <c r="D84">
+      <c r="D87">
         <v>4</v>
       </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
-      <c r="B85" t="s">
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88" t="s">
         <v>49</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C88" t="s">
         <v>50</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="3:10">
-      <c r="C92" t="s">
+    <row r="95" spans="3:10">
+      <c r="C95" t="s">
         <v>53</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D95" t="s">
         <v>54</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E95" t="s">
         <v>37</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F95" t="s">
         <v>54</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G95" t="s">
         <v>4</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H95" t="s">
         <v>55</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I95" t="s">
         <v>5</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J95" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="16">
-        <v>4</v>
-      </c>
-      <c r="D93" s="17">
-        <v>3</v>
-      </c>
-      <c r="E93" s="17">
-        <v>3</v>
-      </c>
-      <c r="F93" s="2">
-        <v>2</v>
-      </c>
-      <c r="G93" s="2">
-        <v>2</v>
-      </c>
-      <c r="H93" s="2">
-        <v>1</v>
-      </c>
-      <c r="I93" s="2">
-        <v>1</v>
-      </c>
-      <c r="J93" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="17">
-        <v>4</v>
-      </c>
-      <c r="D94" s="17">
-        <v>3</v>
-      </c>
-      <c r="E94" s="17">
-        <v>3</v>
-      </c>
-      <c r="F94" s="2">
-        <v>2</v>
-      </c>
-      <c r="G94" s="2">
-        <v>2</v>
-      </c>
-      <c r="H94" s="2">
-        <v>1</v>
-      </c>
-      <c r="I94" s="2">
-        <v>1</v>
-      </c>
-      <c r="J94" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="17">
-        <v>4</v>
-      </c>
-      <c r="D95" s="17">
-        <v>3</v>
-      </c>
-      <c r="E95" s="17">
-        <v>3</v>
-      </c>
-      <c r="F95" s="2">
-        <v>2</v>
-      </c>
-      <c r="G95" s="2">
-        <v>2</v>
-      </c>
-      <c r="H95" s="2">
-        <v>1</v>
-      </c>
-      <c r="I95" s="2">
-        <v>1</v>
-      </c>
-      <c r="J95" s="18">
-        <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96" s="2">
+        <v>4</v>
+      </c>
+      <c r="C96" s="21">
+        <v>4</v>
+      </c>
+      <c r="D96" s="22">
         <v>3</v>
       </c>
-      <c r="D96" s="2">
+      <c r="E96" s="22">
         <v>3</v>
       </c>
-      <c r="E96" s="2">
-        <v>3</v>
-      </c>
-      <c r="F96" s="2">
-        <v>2</v>
-      </c>
-      <c r="G96" s="2">
-        <v>2</v>
-      </c>
-      <c r="H96" s="2">
-        <v>1</v>
-      </c>
-      <c r="I96" s="2">
-        <v>1</v>
-      </c>
-      <c r="J96" s="18">
+      <c r="F96" s="8">
+        <v>2</v>
+      </c>
+      <c r="G96" s="8">
+        <v>2</v>
+      </c>
+      <c r="H96" s="8">
+        <v>1</v>
+      </c>
+      <c r="I96" s="8">
+        <v>1</v>
+      </c>
+      <c r="J96" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="22">
         <v>4</v>
       </c>
-      <c r="C97" s="2">
-        <v>2</v>
-      </c>
-      <c r="D97" s="2">
-        <v>2</v>
-      </c>
-      <c r="E97" s="2">
-        <v>2</v>
-      </c>
-      <c r="F97" s="2">
-        <v>2</v>
-      </c>
-      <c r="G97" s="2">
-        <v>2</v>
-      </c>
-      <c r="H97" s="2">
-        <v>1</v>
-      </c>
-      <c r="I97" s="2">
-        <v>1</v>
-      </c>
-      <c r="J97" s="18">
+      <c r="D97" s="22">
+        <v>3</v>
+      </c>
+      <c r="E97" s="22">
+        <v>3</v>
+      </c>
+      <c r="F97" s="8">
+        <v>2</v>
+      </c>
+      <c r="G97" s="8">
+        <v>2</v>
+      </c>
+      <c r="H97" s="8">
+        <v>1</v>
+      </c>
+      <c r="I97" s="8">
+        <v>1</v>
+      </c>
+      <c r="J97" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="2">
-        <v>1</v>
-      </c>
-      <c r="D98" s="2">
-        <v>1</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2">
-        <v>1</v>
-      </c>
-      <c r="G98" s="2">
-        <v>1</v>
-      </c>
-      <c r="H98" s="2">
-        <v>1</v>
-      </c>
-      <c r="I98" s="2">
-        <v>1</v>
-      </c>
-      <c r="J98" s="18">
+        <v>53</v>
+      </c>
+      <c r="C98" s="22">
+        <v>4</v>
+      </c>
+      <c r="D98" s="22">
+        <v>3</v>
+      </c>
+      <c r="E98" s="22">
+        <v>3</v>
+      </c>
+      <c r="F98" s="8">
+        <v>2</v>
+      </c>
+      <c r="G98" s="8">
+        <v>2</v>
+      </c>
+      <c r="H98" s="8">
+        <v>1</v>
+      </c>
+      <c r="I98" s="8">
+        <v>1</v>
+      </c>
+      <c r="J98" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="8">
+        <v>3</v>
+      </c>
+      <c r="D99" s="8">
+        <v>3</v>
+      </c>
+      <c r="E99" s="8">
+        <v>3</v>
+      </c>
+      <c r="F99" s="8">
+        <v>2</v>
+      </c>
+      <c r="G99" s="8">
+        <v>2</v>
+      </c>
+      <c r="H99" s="8">
+        <v>1</v>
+      </c>
+      <c r="I99" s="8">
+        <v>1</v>
+      </c>
+      <c r="J99" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="8">
+        <v>2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>2</v>
+      </c>
+      <c r="E100" s="8">
+        <v>2</v>
+      </c>
+      <c r="F100" s="8">
+        <v>2</v>
+      </c>
+      <c r="G100" s="8">
+        <v>2</v>
+      </c>
+      <c r="H100" s="8">
+        <v>1</v>
+      </c>
+      <c r="I100" s="8">
+        <v>1</v>
+      </c>
+      <c r="J100" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="8">
+        <v>1</v>
+      </c>
+      <c r="D101" s="8">
+        <v>1</v>
+      </c>
+      <c r="E101" s="8">
+        <v>1</v>
+      </c>
+      <c r="F101" s="8">
+        <v>1</v>
+      </c>
+      <c r="G101" s="8">
+        <v>1</v>
+      </c>
+      <c r="H101" s="8">
+        <v>1</v>
+      </c>
+      <c r="I101" s="8">
+        <v>1</v>
+      </c>
+      <c r="J101" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="18">
-        <v>0</v>
-      </c>
-      <c r="D99" s="18">
-        <v>0</v>
-      </c>
-      <c r="E99" s="18">
-        <v>0</v>
-      </c>
-      <c r="F99" s="18">
-        <v>0</v>
-      </c>
-      <c r="G99" s="18">
-        <v>0</v>
-      </c>
-      <c r="H99" s="18">
-        <v>0</v>
-      </c>
-      <c r="I99" s="18">
-        <v>0</v>
-      </c>
-      <c r="J99" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="C102" s="23">
+        <v>0</v>
+      </c>
+      <c r="D102" s="23">
+        <v>0</v>
+      </c>
+      <c r="E102" s="23">
+        <v>0</v>
+      </c>
+      <c r="F102" s="23">
+        <v>0</v>
+      </c>
+      <c r="G102" s="23">
+        <v>0</v>
+      </c>
+      <c r="H102" s="23">
+        <v>0</v>
+      </c>
+      <c r="I102" s="23">
+        <v>0</v>
+      </c>
+      <c r="J102" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="1" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="7:7">
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" t="s">
+    <row r="111" spans="7:7">
+      <c r="G111" s="24"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
         <v>59</v>
       </c>
-      <c r="B109" s="20">
-        <v>1</v>
-      </c>
-      <c r="C109" s="2">
-        <v>2</v>
-      </c>
-      <c r="D109" s="2">
+      <c r="B112" s="22">
+        <v>1</v>
+      </c>
+      <c r="C112" s="8">
+        <v>2</v>
+      </c>
+      <c r="D112" s="8">
         <v>3</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E112" s="8">
         <v>4</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F112" s="8">
         <v>5</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G112" s="8">
         <v>6</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H112" s="8">
         <v>7</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I112" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110" t="s">
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
         <v>60</v>
       </c>
-      <c r="B110" s="2">
-        <v>1</v>
-      </c>
-      <c r="C110" s="2">
+      <c r="B113" s="8">
+        <v>1</v>
+      </c>
+      <c r="C113" s="8">
         <v>5</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D113" s="8">
         <v>8</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E113" s="8">
         <v>9</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F113" s="8">
         <v>10</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G113" s="8">
         <v>17</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H113" s="8">
         <v>17</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I113" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
         <v>14</v>
       </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111">
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
         <v>3</v>
       </c>
-      <c r="F111">
+      <c r="F114">
         <v>4</v>
       </c>
-      <c r="G111">
+      <c r="G114">
         <v>5</v>
       </c>
-      <c r="H111">
+      <c r="H114">
         <v>6</v>
       </c>
-      <c r="I111">
+      <c r="I114">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>61</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
         <v>62</v>
       </c>
-      <c r="B115" s="20">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="B118" s="22">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
         <v>63</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E118" t="s">
         <v>64</v>
       </c>
-      <c r="F115" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" t="s">
-        <v>66</v>
-      </c>
-      <c r="B118" s="20">
-        <v>1</v>
-      </c>
-      <c r="C118" s="2">
-        <v>2</v>
-      </c>
-      <c r="E118" t="s">
-        <v>67</v>
-      </c>
-      <c r="F118" t="s">
-        <v>68</v>
-      </c>
-      <c r="G118">
-        <v>2</v>
-      </c>
-      <c r="H118" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7">
+      <c r="F118" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
       <c r="B119" t="s">
         <v>65</v>
       </c>
-      <c r="C119" t="s">
-        <v>69</v>
-      </c>
-      <c r="E119" t="s">
-        <v>70</v>
-      </c>
-      <c r="F119" t="s">
-        <v>71</v>
-      </c>
-      <c r="G119">
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" s="22">
+        <v>1</v>
+      </c>
+      <c r="C121" s="8">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>67</v>
+      </c>
+      <c r="F121" t="s">
+        <v>68</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121" t="s">
-        <v>72</v>
-      </c>
-      <c r="B121" s="20">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2">
-        <v>2</v>
-      </c>
-      <c r="D121" s="22">
-        <v>3</v>
-      </c>
-      <c r="F121" t="s">
-        <v>73</v>
-      </c>
-      <c r="G121" t="s">
-        <v>74</v>
-      </c>
-      <c r="H121">
-        <v>6</v>
-      </c>
-      <c r="I121" s="21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="2:7">
       <c r="B122" t="s">
         <v>65</v>
       </c>
       <c r="C122" t="s">
         <v>69</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
+        <v>70</v>
+      </c>
+      <c r="F122" t="s">
+        <v>71</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>72</v>
+      </c>
+      <c r="B124" s="22">
+        <v>1</v>
+      </c>
+      <c r="C124" s="8">
+        <v>2</v>
+      </c>
+      <c r="D124" s="8">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>73</v>
+      </c>
+      <c r="G124" t="s">
+        <v>74</v>
+      </c>
+      <c r="H124">
+        <v>6</v>
+      </c>
+      <c r="I124" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" t="s">
+        <v>69</v>
+      </c>
+      <c r="D125" t="s">
         <v>75</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F125" t="s">
         <v>76</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G125" t="s">
         <v>77</v>
       </c>
-      <c r="H122">
+      <c r="H125">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="6:8">
-      <c r="F123" t="s">
+    <row r="126" spans="6:8">
+      <c r="F126" t="s">
         <v>78</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G126" t="s">
         <v>79</v>
       </c>
-      <c r="H123">
+      <c r="H126">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
-      <c r="A125" t="s">
+    <row r="128" spans="1:10">
+      <c r="A128" t="s">
         <v>80</v>
       </c>
-      <c r="B125" s="20">
-        <v>1</v>
-      </c>
-      <c r="C125" s="2">
-        <v>2</v>
-      </c>
-      <c r="D125" s="22">
+      <c r="B128" s="22">
+        <v>1</v>
+      </c>
+      <c r="C128" s="8">
+        <v>2</v>
+      </c>
+      <c r="D128" s="8">
         <v>3</v>
       </c>
-      <c r="E125" s="22">
+      <c r="E128" s="8">
         <v>4</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G128" t="s">
         <v>81</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H128" t="s">
         <v>82</v>
-      </c>
-      <c r="I125">
-        <v>9</v>
-      </c>
-      <c r="J125" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9">
-      <c r="B126" t="s">
-        <v>65</v>
-      </c>
-      <c r="C126" t="s">
-        <v>69</v>
-      </c>
-      <c r="D126" t="s">
-        <v>75</v>
-      </c>
-      <c r="E126" t="s">
-        <v>83</v>
-      </c>
-      <c r="G126" t="s">
-        <v>84</v>
-      </c>
-      <c r="H126" t="s">
-        <v>85</v>
-      </c>
-      <c r="I126">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="7:9">
-      <c r="G127" t="s">
-        <v>86</v>
-      </c>
-      <c r="H127" t="s">
-        <v>87</v>
-      </c>
-      <c r="I127">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="7:9">
-      <c r="G128" t="s">
-        <v>88</v>
-      </c>
-      <c r="H128" t="s">
-        <v>89</v>
       </c>
       <c r="I128">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
+      <c r="J128" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" t="s">
+        <v>69</v>
+      </c>
+      <c r="D129" t="s">
+        <v>75</v>
+      </c>
+      <c r="E129" t="s">
+        <v>83</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>85</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9">
+      <c r="G130" t="s">
+        <v>86</v>
+      </c>
+      <c r="H130" t="s">
+        <v>87</v>
+      </c>
+      <c r="I130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9">
+      <c r="G131" t="s">
+        <v>88</v>
+      </c>
+      <c r="H131" t="s">
+        <v>89</v>
+      </c>
+      <c r="I131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2920,18 +2984,447 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7387387387387" customWidth="1"/>
-    <col min="3" max="3" width="18.045045045045" customWidth="1"/>
-    <col min="4" max="6" width="26.7837837837838" customWidth="1"/>
-    <col min="7" max="10" width="36.3513513513514" customWidth="1"/>
+    <col min="1" max="1" width="10.7428571428571" customWidth="1"/>
+    <col min="3" max="3" width="18.047619047619" customWidth="1"/>
+    <col min="4" max="6" width="26.7809523809524" customWidth="1"/>
+    <col min="7" max="10" width="36.352380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -2977,7 +3470,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3018,39 +3511,39 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3082,12 +3575,12 @@
     </row>
     <row r="7" spans="5:5">
       <c r="E7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <v>1</v>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Fibonacci" sheetId="3" r:id="rId1"/>
     <sheet name="DP" sheetId="1" r:id="rId2"/>
     <sheet name="SCS" sheetId="4" r:id="rId3"/>
     <sheet name="Coin change" sheetId="2" r:id="rId4"/>
+    <sheet name="Edit Distance" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
   <si>
     <t>n</t>
   </si>
@@ -371,6 +372,27 @@
   </si>
   <si>
     <t>coins</t>
+  </si>
+  <si>
+    <t>word1</t>
+  </si>
+  <si>
+    <t>word2</t>
+  </si>
+  <si>
+    <t>ED("horse", "rose") = ED("hors","ros")</t>
+  </si>
+  <si>
+    <t>ED("hors", "ros") = ED("hor","ro")</t>
+  </si>
+  <si>
+    <t>1 + ED("ho","ro")</t>
+  </si>
+  <si>
+    <t>1 + ED("ho","r")</t>
+  </si>
+  <si>
+    <t>1 + ED("hor","r")</t>
   </si>
 </sst>
 </file>
@@ -378,10 +400,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -420,7 +442,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,22 +457,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,32 +470,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,16 +495,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,7 +534,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,30 +563,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,6 +573,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,7 +600,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +654,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,127 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,12 +781,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,6 +928,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -932,8 +993,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -954,47 +1017,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1006,15 +1028,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,144 +1046,145 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -1603,49 +1626,49 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="B2" s="26">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="26">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="26">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="26">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="26">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="26">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -1662,8 +1685,8 @@
   <sheetPr/>
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A93" sqref="$A93:$XFD105"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1685,19 +1708,19 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
@@ -1708,13 +1731,13 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
@@ -1739,19 +1762,19 @@
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1759,19 +1782,19 @@
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1779,19 +1802,19 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="4">
         <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="4">
         <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1799,19 +1822,19 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="4">
         <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1819,19 +1842,19 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="4">
         <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="4">
         <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
         <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1839,16 +1862,16 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1885,7 +1908,7 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1893,31 +1916,31 @@
       <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="4">
         <v>10</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="4">
         <v>9</v>
       </c>
-      <c r="D23" s="8">
-        <v>2</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="4">
         <v>7</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="4">
         <v>101</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="4">
         <v>18</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1931,7 +1954,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="8">
         <v>4</v>
       </c>
       <c r="E25">
@@ -2040,16 +2063,16 @@
       <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="8">
-        <v>0</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8">
-        <v>2</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2</v>
+      </c>
+      <c r="F41" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2057,16 +2080,16 @@
       <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1</v>
-      </c>
-      <c r="E42" s="8">
-        <v>2</v>
-      </c>
-      <c r="F42" s="8">
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="F42" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2074,16 +2097,16 @@
       <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="8">
-        <v>2</v>
-      </c>
-      <c r="D43" s="8">
-        <v>2</v>
-      </c>
-      <c r="E43" s="8">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8">
+      <c r="C43" s="4">
+        <v>2</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2091,16 +2114,16 @@
       <c r="B44" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="4">
         <v>3</v>
       </c>
-      <c r="D44" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" s="8">
-        <v>2</v>
-      </c>
-      <c r="F44" s="8">
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2108,16 +2131,16 @@
       <c r="B45" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="4">
         <v>4</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="4">
         <v>3</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="4">
         <v>3</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2125,16 +2148,16 @@
       <c r="B46" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="4">
         <v>5</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="4">
         <v>4</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="4">
         <v>4</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2179,28 +2202,28 @@
       <c r="A53" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2208,7 +2231,7 @@
       <c r="A55" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="5" t="b">
+      <c r="B55" s="8" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -2240,7 +2263,7 @@
       <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="12" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2256,30 +2279,30 @@
     </row>
     <row r="66" ht="15.75"/>
     <row r="67" ht="15.75" spans="7:7">
-      <c r="G67" s="13"/>
+      <c r="G67" s="14"/>
     </row>
     <row r="68" ht="15.75" spans="6:7">
-      <c r="F68" s="14"/>
-      <c r="G68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" ht="15.75" spans="5:7">
-      <c r="E69" s="14"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" ht="15.75" spans="4:7">
-      <c r="D70" s="14"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" ht="15.75" spans="2:7">
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="21"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -2308,7 +2331,7 @@
       <c r="A74" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="8">
         <v>8</v>
       </c>
       <c r="C74">
@@ -2348,30 +2371,30 @@
     </row>
     <row r="79" ht="15.75"/>
     <row r="80" ht="15.75" spans="7:7">
-      <c r="G80" s="13"/>
+      <c r="G80" s="14"/>
     </row>
     <row r="81" ht="15.75" spans="6:7">
-      <c r="F81" s="14"/>
-      <c r="G81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" ht="15.75" spans="5:7">
-      <c r="E82" s="14"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="16"/>
     </row>
     <row r="83" ht="15.75" spans="4:7">
-      <c r="D83" s="14"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="16"/>
     </row>
     <row r="84" ht="15.75" spans="2:7">
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="20"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -2400,7 +2423,7 @@
       <c r="A87" t="s">
         <v>43</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="8">
         <v>13</v>
       </c>
       <c r="C87">
@@ -2465,28 +2488,28 @@
       <c r="B96" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="22">
         <v>4</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="23">
         <v>3</v>
       </c>
-      <c r="E96" s="22">
+      <c r="E96" s="23">
         <v>3</v>
       </c>
-      <c r="F96" s="8">
-        <v>2</v>
-      </c>
-      <c r="G96" s="8">
-        <v>2</v>
-      </c>
-      <c r="H96" s="8">
-        <v>1</v>
-      </c>
-      <c r="I96" s="8">
-        <v>1</v>
-      </c>
-      <c r="J96" s="23">
+      <c r="F96" s="4">
+        <v>2</v>
+      </c>
+      <c r="G96" s="4">
+        <v>2</v>
+      </c>
+      <c r="H96" s="4">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4">
+        <v>1</v>
+      </c>
+      <c r="J96" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2494,28 +2517,28 @@
       <c r="B97" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="23">
         <v>4</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="23">
         <v>3</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E97" s="23">
         <v>3</v>
       </c>
-      <c r="F97" s="8">
-        <v>2</v>
-      </c>
-      <c r="G97" s="8">
-        <v>2</v>
-      </c>
-      <c r="H97" s="8">
-        <v>1</v>
-      </c>
-      <c r="I97" s="8">
-        <v>1</v>
-      </c>
-      <c r="J97" s="23">
+      <c r="F97" s="4">
+        <v>2</v>
+      </c>
+      <c r="G97" s="4">
+        <v>2</v>
+      </c>
+      <c r="H97" s="4">
+        <v>1</v>
+      </c>
+      <c r="I97" s="4">
+        <v>1</v>
+      </c>
+      <c r="J97" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2523,28 +2546,28 @@
       <c r="B98" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="23">
         <v>4</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="23">
         <v>3</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="23">
         <v>3</v>
       </c>
-      <c r="F98" s="8">
-        <v>2</v>
-      </c>
-      <c r="G98" s="8">
-        <v>2</v>
-      </c>
-      <c r="H98" s="8">
-        <v>1</v>
-      </c>
-      <c r="I98" s="8">
-        <v>1</v>
-      </c>
-      <c r="J98" s="23">
+      <c r="F98" s="4">
+        <v>2</v>
+      </c>
+      <c r="G98" s="4">
+        <v>2</v>
+      </c>
+      <c r="H98" s="4">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4">
+        <v>1</v>
+      </c>
+      <c r="J98" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2552,28 +2575,28 @@
       <c r="B99" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="8">
+      <c r="C99" s="4">
         <v>3</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="4">
         <v>3</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="4">
         <v>3</v>
       </c>
-      <c r="F99" s="8">
-        <v>2</v>
-      </c>
-      <c r="G99" s="8">
-        <v>2</v>
-      </c>
-      <c r="H99" s="8">
-        <v>1</v>
-      </c>
-      <c r="I99" s="8">
-        <v>1</v>
-      </c>
-      <c r="J99" s="23">
+      <c r="F99" s="4">
+        <v>2</v>
+      </c>
+      <c r="G99" s="4">
+        <v>2</v>
+      </c>
+      <c r="H99" s="4">
+        <v>1</v>
+      </c>
+      <c r="I99" s="4">
+        <v>1</v>
+      </c>
+      <c r="J99" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2581,28 +2604,28 @@
       <c r="B100" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="8">
-        <v>2</v>
-      </c>
-      <c r="D100" s="8">
-        <v>2</v>
-      </c>
-      <c r="E100" s="8">
-        <v>2</v>
-      </c>
-      <c r="F100" s="8">
-        <v>2</v>
-      </c>
-      <c r="G100" s="8">
-        <v>2</v>
-      </c>
-      <c r="H100" s="8">
-        <v>1</v>
-      </c>
-      <c r="I100" s="8">
-        <v>1</v>
-      </c>
-      <c r="J100" s="23">
+      <c r="C100" s="4">
+        <v>2</v>
+      </c>
+      <c r="D100" s="4">
+        <v>2</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="F100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" s="4">
+        <v>2</v>
+      </c>
+      <c r="H100" s="4">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1</v>
+      </c>
+      <c r="J100" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2610,28 +2633,28 @@
       <c r="B101" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="8">
-        <v>1</v>
-      </c>
-      <c r="D101" s="8">
-        <v>1</v>
-      </c>
-      <c r="E101" s="8">
-        <v>1</v>
-      </c>
-      <c r="F101" s="8">
-        <v>1</v>
-      </c>
-      <c r="G101" s="8">
-        <v>1</v>
-      </c>
-      <c r="H101" s="8">
-        <v>1</v>
-      </c>
-      <c r="I101" s="8">
-        <v>1</v>
-      </c>
-      <c r="J101" s="23">
+      <c r="C101" s="4">
+        <v>1</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="4">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1</v>
+      </c>
+      <c r="J101" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2639,28 +2662,28 @@
       <c r="B102" t="s">
         <v>12</v>
       </c>
-      <c r="C102" s="23">
-        <v>0</v>
-      </c>
-      <c r="D102" s="23">
-        <v>0</v>
-      </c>
-      <c r="E102" s="23">
-        <v>0</v>
-      </c>
-      <c r="F102" s="23">
-        <v>0</v>
-      </c>
-      <c r="G102" s="23">
-        <v>0</v>
-      </c>
-      <c r="H102" s="23">
-        <v>0</v>
-      </c>
-      <c r="I102" s="23">
-        <v>0</v>
-      </c>
-      <c r="J102" s="23">
+      <c r="C102" s="24">
+        <v>0</v>
+      </c>
+      <c r="D102" s="24">
+        <v>0</v>
+      </c>
+      <c r="E102" s="24">
+        <v>0</v>
+      </c>
+      <c r="F102" s="24">
+        <v>0</v>
+      </c>
+      <c r="G102" s="24">
+        <v>0</v>
+      </c>
+      <c r="H102" s="24">
+        <v>0</v>
+      </c>
+      <c r="I102" s="24">
+        <v>0</v>
+      </c>
+      <c r="J102" s="24">
         <v>0</v>
       </c>
     </row>
@@ -2680,34 +2703,34 @@
       </c>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="24"/>
+      <c r="G111" s="25"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>59</v>
       </c>
-      <c r="B112" s="22">
-        <v>1</v>
-      </c>
-      <c r="C112" s="8">
-        <v>2</v>
-      </c>
-      <c r="D112" s="8">
+      <c r="B112" s="23">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4">
+        <v>2</v>
+      </c>
+      <c r="D112" s="4">
         <v>3</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E112" s="4">
         <v>4</v>
       </c>
-      <c r="F112" s="8">
+      <c r="F112" s="4">
         <v>5</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G112" s="4">
         <v>6</v>
       </c>
-      <c r="H112" s="8">
+      <c r="H112" s="4">
         <v>7</v>
       </c>
-      <c r="I112" s="8">
+      <c r="I112" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2715,28 +2738,28 @@
       <c r="A113" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="8">
-        <v>1</v>
-      </c>
-      <c r="C113" s="8">
+      <c r="B113" s="4">
+        <v>1</v>
+      </c>
+      <c r="C113" s="4">
         <v>5</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="4">
         <v>8</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="4">
         <v>9</v>
       </c>
-      <c r="F113" s="8">
+      <c r="F113" s="4">
         <v>10</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="4">
         <v>17</v>
       </c>
-      <c r="H113" s="8">
+      <c r="H113" s="4">
         <v>17</v>
       </c>
-      <c r="I113" s="8">
+      <c r="I113" s="4">
         <v>20</v>
       </c>
     </row>
@@ -2781,7 +2804,7 @@
       <c r="A118" t="s">
         <v>62</v>
       </c>
-      <c r="B118" s="22">
+      <c r="B118" s="23">
         <v>1</v>
       </c>
       <c r="D118" t="s">
@@ -2790,7 +2813,7 @@
       <c r="E118" t="s">
         <v>64</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2803,10 +2826,10 @@
       <c r="A121" t="s">
         <v>66</v>
       </c>
-      <c r="B121" s="22">
-        <v>1</v>
-      </c>
-      <c r="C121" s="8">
+      <c r="B121" s="23">
+        <v>1</v>
+      </c>
+      <c r="C121" s="4">
         <v>2</v>
       </c>
       <c r="E121" t="s">
@@ -2818,7 +2841,7 @@
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="5">
+      <c r="H121" s="8">
         <v>5</v>
       </c>
     </row>
@@ -2843,13 +2866,13 @@
       <c r="A124" t="s">
         <v>72</v>
       </c>
-      <c r="B124" s="22">
-        <v>1</v>
-      </c>
-      <c r="C124" s="8">
-        <v>2</v>
-      </c>
-      <c r="D124" s="8">
+      <c r="B124" s="23">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4">
+        <v>2</v>
+      </c>
+      <c r="D124" s="4">
         <v>3</v>
       </c>
       <c r="F124" t="s">
@@ -2861,7 +2884,7 @@
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="5">
+      <c r="I124" s="8">
         <v>8</v>
       </c>
     </row>
@@ -2900,16 +2923,16 @@
       <c r="A128" t="s">
         <v>80</v>
       </c>
-      <c r="B128" s="22">
-        <v>1</v>
-      </c>
-      <c r="C128" s="8">
-        <v>2</v>
-      </c>
-      <c r="D128" s="8">
+      <c r="B128" s="23">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4">
+        <v>2</v>
+      </c>
+      <c r="D128" s="4">
         <v>3</v>
       </c>
-      <c r="E128" s="8">
+      <c r="E128" s="4">
         <v>4</v>
       </c>
       <c r="G128" t="s">
@@ -2921,7 +2944,7 @@
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="5">
+      <c r="J128" s="8">
         <v>10</v>
       </c>
     </row>
@@ -2986,7 +3009,7 @@
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -3016,16 +3039,16 @@
       <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3033,13 +3056,13 @@
       <c r="A9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3047,10 +3070,10 @@
       <c r="A11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3061,10 +3084,10 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
@@ -3085,13 +3108,13 @@
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
@@ -3099,16 +3122,16 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20">
@@ -3116,16 +3139,16 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
         <v>1</v>
       </c>
       <c r="F21">
@@ -3136,16 +3159,16 @@
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3153,16 +3176,16 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3179,7 +3202,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="10">
         <v>0</v>
       </c>
     </row>
@@ -3217,16 +3240,16 @@
       <c r="A37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3234,13 +3257,13 @@
       <c r="A38" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3248,10 +3271,10 @@
       <c r="A40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3265,10 +3288,10 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>102</v>
       </c>
       <c r="F41" t="s">
@@ -3286,10 +3309,10 @@
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E47" t="s">
@@ -3300,16 +3323,16 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="6">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="C48" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
         <v>1</v>
       </c>
       <c r="F48">
@@ -3317,16 +3340,16 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="2">
-        <v>2</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="C49" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
         <v>1</v>
       </c>
       <c r="F49">
@@ -3334,16 +3357,16 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="3">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
         <v>1</v>
       </c>
       <c r="F50">
@@ -3351,16 +3374,16 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4">
         <v>0</v>
       </c>
       <c r="F51">
@@ -3377,7 +3400,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="10">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3600,4 +3623,232 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DP.xlsx
+++ b/DP.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="28800" windowHeight="12495" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Fibonacci" sheetId="3" r:id="rId1"/>
-    <sheet name="DP" sheetId="1" r:id="rId2"/>
+    <sheet name="DP" sheetId="1" r:id="rId1"/>
+    <sheet name="Fibonacci" sheetId="3" r:id="rId2"/>
     <sheet name="SCS" sheetId="4" r:id="rId3"/>
     <sheet name="Coin change" sheetId="2" r:id="rId4"/>
     <sheet name="Edit Distance" sheetId="5" r:id="rId5"/>
@@ -20,277 +20,277 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
   <si>
+    <t>LongestCommonSubsequence</t>
+  </si>
+  <si>
+    <t>text1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>LCS("abcde", "ace") = 1 + LCS("bcde", "ce")</t>
+  </si>
+  <si>
+    <t>text2</t>
+  </si>
+  <si>
+    <t>LCS("bcde", "ce") = MAX[LCS("bcde","e"), LCS("cde","ce")]</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>LongestIncreasingSubsequence</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>nums[i]</t>
+  </si>
+  <si>
+    <t>LIS[i]</t>
+  </si>
+  <si>
+    <t>LIS[7]</t>
+  </si>
+  <si>
+    <t>LIS[6]</t>
+  </si>
+  <si>
+    <t>MAX(1, if nums[6] &lt; nums[7] then 1 + LIS[7])</t>
+  </si>
+  <si>
+    <t>LIS[5]</t>
+  </si>
+  <si>
+    <t>MAX(1, 1 + LIS[6], 1 + LIS[7])</t>
+  </si>
+  <si>
+    <t>LIS[4]</t>
+  </si>
+  <si>
+    <t>MAX(1, 1 + LIS[5], 1 + LIS[6], 1 + LIS[7])</t>
+  </si>
+  <si>
+    <t>LIS[3]</t>
+  </si>
+  <si>
+    <t>LIS[2]</t>
+  </si>
+  <si>
+    <t>MAX(1, 1 + LIS[3], 1 + LIS[4], 1 + LIS[5], 1 + LIS[6], 1 + LIS[7])</t>
+  </si>
+  <si>
+    <t>LIS[1]</t>
+  </si>
+  <si>
+    <t>LIS[0]</t>
+  </si>
+  <si>
+    <t>EditDistance</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>WordBreak</t>
+  </si>
+  <si>
+    <t>s[i]</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>WB[i]</t>
+  </si>
+  <si>
+    <t>WB[0 + len("leet")]</t>
+  </si>
+  <si>
+    <t>wordDict = ["leet","code"]</t>
+  </si>
+  <si>
+    <t>ClimbingStairs</t>
+  </si>
+  <si>
+    <t>1 or 2 steps</t>
+  </si>
+  <si>
+    <t>dp[i]</t>
+  </si>
+  <si>
+    <t>dp[1]+dp[2]</t>
+  </si>
+  <si>
+    <t>dp[2]+dp[3]</t>
+  </si>
+  <si>
+    <t>dp[3]+dp[4]</t>
+  </si>
+  <si>
+    <t>dp[4]+dp[5]</t>
+  </si>
+  <si>
+    <t>1 or 2 or 3 steps</t>
+  </si>
+  <si>
+    <t>dp[1]+dp[2]+dp[3]</t>
+  </si>
+  <si>
+    <t>dp[2]+dp[3]+dp[4]</t>
+  </si>
+  <si>
+    <t>dp[3]+dp[4]+dp[5]</t>
+  </si>
+  <si>
+    <t>ShortestCommonSupersequence</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>1) Find Longest Common Subsequence (lcs) of two given strings. For example, lcs of “aggtab” and “gxtxayb” is “gtab”. </t>
+  </si>
+  <si>
+    <t>2) Insert non-lcs characters (in their original order in strings) to the lcs found above, and return the result. So “gtab” becomes “agxgtxayb” which is shortest common supersequence.</t>
+  </si>
+  <si>
+    <t>RodCutting</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>price[i]</t>
+  </si>
+  <si>
+    <t>dp[0]</t>
+  </si>
+  <si>
+    <t>dp[1]</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>price[1]+dp[0]</t>
+  </si>
+  <si>
+    <t>price = 1</t>
+  </si>
+  <si>
+    <t>dp[2]</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>price[1]+dp[1]</t>
+  </si>
+  <si>
+    <t>price = 5</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>price[2]</t>
+  </si>
+  <si>
+    <t>dp[3]</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>price[1]+dp[2]</t>
+  </si>
+  <si>
+    <t>price = 8</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>price[2]+dp[1]</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>price[3]</t>
+  </si>
+  <si>
+    <t>dp[4]</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>price[1]+dp[3]</t>
+  </si>
+  <si>
+    <t>price = 9</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>price[2]+dp[2]</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>price[3]+dp[1]</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>price[4]</t>
+  </si>
+  <si>
+    <t>dp[n] = max(price[i] + dp[n-i-1]) for all i in {0, 1 .. n-1}</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
     <t>fib(n)</t>
-  </si>
-  <si>
-    <t>LongestCommonSubsequence</t>
-  </si>
-  <si>
-    <t>text1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>LCS("abcde", "ace") = 1 + LCS("bcde", "ce")</t>
-  </si>
-  <si>
-    <t>text2</t>
-  </si>
-  <si>
-    <t>LCS("bcde", "ce") = MAX[LCS("bcde","e"), LCS("cde","ce")]</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>LongestIncreasingSubsequence</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>nums[i]</t>
-  </si>
-  <si>
-    <t>LIS[i]</t>
-  </si>
-  <si>
-    <t>LIS[7]</t>
-  </si>
-  <si>
-    <t>LIS[6]</t>
-  </si>
-  <si>
-    <t>MAX(1, if nums[6] &lt; nums[7] then 1 + LIS[7])</t>
-  </si>
-  <si>
-    <t>LIS[5]</t>
-  </si>
-  <si>
-    <t>MAX(1, 1 + LIS[6], 1 + LIS[7])</t>
-  </si>
-  <si>
-    <t>LIS[4]</t>
-  </si>
-  <si>
-    <t>MAX(1, 1 + LIS[5], 1 + LIS[6], 1 + LIS[7])</t>
-  </si>
-  <si>
-    <t>LIS[3]</t>
-  </si>
-  <si>
-    <t>LIS[2]</t>
-  </si>
-  <si>
-    <t>MAX(1, 1 + LIS[3], 1 + LIS[4], 1 + LIS[5], 1 + LIS[6], 1 + LIS[7])</t>
-  </si>
-  <si>
-    <t>LIS[1]</t>
-  </si>
-  <si>
-    <t>LIS[0]</t>
-  </si>
-  <si>
-    <t>EditDistance</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>WordBreak</t>
-  </si>
-  <si>
-    <t>s[i]</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>WB[i]</t>
-  </si>
-  <si>
-    <t>WB[0 + len("leet")]</t>
-  </si>
-  <si>
-    <t>wordDict = ["leet","code"]</t>
-  </si>
-  <si>
-    <t>ClimbingStairs</t>
-  </si>
-  <si>
-    <t>1 or 2 steps</t>
-  </si>
-  <si>
-    <t>dp[i]</t>
-  </si>
-  <si>
-    <t>dp[1]+dp[2]</t>
-  </si>
-  <si>
-    <t>dp[2]+dp[3]</t>
-  </si>
-  <si>
-    <t>dp[3]+dp[4]</t>
-  </si>
-  <si>
-    <t>dp[4]+dp[5]</t>
-  </si>
-  <si>
-    <t>1 or 2 or 3 steps</t>
-  </si>
-  <si>
-    <t>dp[1]+dp[2]+dp[3]</t>
-  </si>
-  <si>
-    <t>dp[2]+dp[3]+dp[4]</t>
-  </si>
-  <si>
-    <t>dp[3]+dp[4]+dp[5]</t>
-  </si>
-  <si>
-    <t>ShortestCommonSupersequence</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>1) Find Longest Common Subsequence (lcs) of two given strings. For example, lcs of “aggtab” and “gxtxayb” is “gtab”. </t>
-  </si>
-  <si>
-    <t>2) Insert non-lcs characters (in their original order in strings) to the lcs found above, and return the result. So “gtab” becomes “agxgtxayb” which is shortest common supersequence.</t>
-  </si>
-  <si>
-    <t>RodCutting</t>
-  </si>
-  <si>
-    <t>len</t>
-  </si>
-  <si>
-    <t>price[i]</t>
-  </si>
-  <si>
-    <t>dp[0]</t>
-  </si>
-  <si>
-    <t>dp[1]</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>price[1]+dp[0]</t>
-  </si>
-  <si>
-    <t>price = 1</t>
-  </si>
-  <si>
-    <t>dp[2]</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>price[1]+dp[1]</t>
-  </si>
-  <si>
-    <t>price = 5</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>price[2]</t>
-  </si>
-  <si>
-    <t>dp[3]</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>price[1]+dp[2]</t>
-  </si>
-  <si>
-    <t>price = 8</t>
-  </si>
-  <si>
-    <t>2,1</t>
-  </si>
-  <si>
-    <t>price[2]+dp[1]</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>price[3]</t>
-  </si>
-  <si>
-    <t>dp[4]</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>price[1]+dp[3]</t>
-  </si>
-  <si>
-    <t>price = 9</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>price[2]+dp[2]</t>
-  </si>
-  <si>
-    <t>3,1</t>
-  </si>
-  <si>
-    <t>price[3]+dp[1]</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>price[4]</t>
-  </si>
-  <si>
-    <t>dp[n] = max(price[i] + dp[n-i-1]) for all i in {0, 1 .. n-1}</t>
   </si>
   <si>
     <t>Examples:</t>
@@ -400,9 +400,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -441,6 +441,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -449,7 +464,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,6 +493,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -470,40 +501,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,25 +526,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,21 +538,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,7 +557,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,7 +600,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,25 +756,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,145 +780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,6 +928,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -943,17 +952,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,36 +973,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,23 +1005,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1046,138 +1046,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1185,6 +1183,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -1204,9 +1205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,120 +1571,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
-      </c>
-      <c r="I1">
-        <v>12</v>
-      </c>
-      <c r="J1">
-        <v>13</v>
-      </c>
-      <c r="K1">
-        <v>14</v>
-      </c>
-      <c r="L1">
-        <v>15</v>
-      </c>
-      <c r="M1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26">
-        <f t="shared" ref="D2:M2" si="0">C2+B2</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="26">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F2" s="26">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G2" s="26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H2" s="26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I2" s="26">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J2" s="26">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="K2" s="26">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="L2" s="26">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="M2" s="26">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:F46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1701,188 +1589,188 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="3:6">
       <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:6">
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:6">
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
         <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:6">
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
         <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:6">
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
         <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:6">
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
         <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1908,45 +1796,45 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="13" t="s">
-        <v>12</v>
+      <c r="J22" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:10">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
         <v>10</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>9</v>
       </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
         <v>5</v>
       </c>
-      <c r="F23" s="4">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
         <v>7</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>101</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>18</v>
       </c>
-      <c r="J23" s="13" t="s">
-        <v>12</v>
+      <c r="J23" s="12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:10">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1954,7 +1842,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>4</v>
       </c>
       <c r="E25">
@@ -1978,7 +1866,7 @@
     </row>
     <row r="27" customFormat="1" spans="1:2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1986,189 +1874,189 @@
     </row>
     <row r="28" customFormat="1" spans="1:2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="3:6">
       <c r="C40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
         <v>30</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
-      <c r="F41" s="4">
+        <v>10</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-      <c r="F42" s="4">
+        <v>31</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="4">
-        <v>3</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2</v>
-      </c>
-      <c r="F44" s="4">
+        <v>28</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="4">
+        <v>30</v>
+      </c>
+      <c r="C45" s="2">
         <v>4</v>
       </c>
-      <c r="D45" s="4">
-        <v>3</v>
-      </c>
-      <c r="E45" s="4">
-        <v>3</v>
-      </c>
-      <c r="F45" s="4">
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="4">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2">
         <v>5</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>4</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>4</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2195,43 +2083,43 @@
         <v>7</v>
       </c>
       <c r="J52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="8" t="b">
+        <v>36</v>
+      </c>
+      <c r="B55" s="6" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -2261,52 +2149,52 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="15.75"/>
     <row r="67" ht="15.75" spans="7:7">
-      <c r="G67" s="14"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" ht="15.75" spans="6:7">
-      <c r="F68" s="15"/>
-      <c r="G68" s="16"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="15"/>
     </row>
     <row r="69" ht="15.75" spans="5:7">
-      <c r="E69" s="15"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="16"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="15"/>
     </row>
     <row r="70" ht="15.75" spans="4:7">
-      <c r="D70" s="15"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="16"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="15"/>
     </row>
     <row r="71" ht="15.75" spans="2:7">
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="21"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="20"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2329,9 +2217,9 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>43</v>
-      </c>
-      <c r="B74" s="8">
+        <v>41</v>
+      </c>
+      <c r="B74" s="6">
         <v>8</v>
       </c>
       <c r="C74">
@@ -2352,53 +2240,53 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D75" t="s">
         <v>44</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>45</v>
-      </c>
-      <c r="D75" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" ht="15.75"/>
     <row r="80" ht="15.75" spans="7:7">
-      <c r="G80" s="14"/>
+      <c r="G80" s="13"/>
     </row>
     <row r="81" ht="15.75" spans="6:7">
-      <c r="F81" s="15"/>
-      <c r="G81" s="16"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="15"/>
     </row>
     <row r="82" ht="15.75" spans="5:7">
-      <c r="E82" s="15"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="16"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83" ht="15.75" spans="4:7">
-      <c r="D83" s="15"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="16"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="15"/>
     </row>
     <row r="84" ht="15.75" spans="2:7">
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="21"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="20"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2421,9 +2309,9 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" s="8">
+        <v>41</v>
+      </c>
+      <c r="B87" s="6">
         <v>13</v>
       </c>
       <c r="C87">
@@ -2444,328 +2332,328 @@
     </row>
     <row r="88" spans="2:4">
       <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" t="s">
         <v>49</v>
-      </c>
-      <c r="C88" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="3:10">
       <c r="C95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" t="s">
+        <v>52</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s">
         <v>53</v>
       </c>
-      <c r="D95" t="s">
-        <v>54</v>
-      </c>
-      <c r="E95" t="s">
-        <v>37</v>
-      </c>
-      <c r="F95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G95" t="s">
-        <v>4</v>
-      </c>
-      <c r="H95" t="s">
-        <v>55</v>
-      </c>
       <c r="I95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="2:10">
       <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="21">
         <v>4</v>
       </c>
-      <c r="C96" s="22">
-        <v>4</v>
-      </c>
-      <c r="D96" s="23">
-        <v>3</v>
-      </c>
-      <c r="E96" s="23">
-        <v>3</v>
-      </c>
-      <c r="F96" s="4">
-        <v>2</v>
-      </c>
-      <c r="G96" s="4">
-        <v>2</v>
-      </c>
-      <c r="H96" s="4">
-        <v>1</v>
-      </c>
-      <c r="I96" s="4">
-        <v>1</v>
-      </c>
-      <c r="J96" s="24">
+      <c r="D96" s="22">
+        <v>3</v>
+      </c>
+      <c r="E96" s="22">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:10">
       <c r="B97" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" s="23">
+        <v>51</v>
+      </c>
+      <c r="C97" s="22">
         <v>4</v>
       </c>
-      <c r="D97" s="23">
-        <v>3</v>
-      </c>
-      <c r="E97" s="23">
-        <v>3</v>
-      </c>
-      <c r="F97" s="4">
-        <v>2</v>
-      </c>
-      <c r="G97" s="4">
-        <v>2</v>
-      </c>
-      <c r="H97" s="4">
-        <v>1</v>
-      </c>
-      <c r="I97" s="4">
-        <v>1</v>
-      </c>
-      <c r="J97" s="24">
+      <c r="D97" s="22">
+        <v>3</v>
+      </c>
+      <c r="E97" s="22">
+        <v>3</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2</v>
+      </c>
+      <c r="G97" s="2">
+        <v>2</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:10">
       <c r="B98" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" s="23">
+        <v>51</v>
+      </c>
+      <c r="C98" s="22">
         <v>4</v>
       </c>
-      <c r="D98" s="23">
-        <v>3</v>
-      </c>
-      <c r="E98" s="23">
-        <v>3</v>
-      </c>
-      <c r="F98" s="4">
-        <v>2</v>
-      </c>
-      <c r="G98" s="4">
-        <v>2</v>
-      </c>
-      <c r="H98" s="4">
-        <v>1</v>
-      </c>
-      <c r="I98" s="4">
-        <v>1</v>
-      </c>
-      <c r="J98" s="24">
+      <c r="D98" s="22">
+        <v>3</v>
+      </c>
+      <c r="E98" s="22">
+        <v>3</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2</v>
+      </c>
+      <c r="G98" s="2">
+        <v>2</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+      <c r="J98" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="4">
-        <v>3</v>
-      </c>
-      <c r="D99" s="4">
-        <v>3</v>
-      </c>
-      <c r="E99" s="4">
-        <v>3</v>
-      </c>
-      <c r="F99" s="4">
-        <v>2</v>
-      </c>
-      <c r="G99" s="4">
-        <v>2</v>
-      </c>
-      <c r="H99" s="4">
-        <v>1</v>
-      </c>
-      <c r="I99" s="4">
-        <v>1</v>
-      </c>
-      <c r="J99" s="24">
+        <v>35</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>3</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2</v>
+      </c>
+      <c r="G99" s="2">
+        <v>2</v>
+      </c>
+      <c r="H99" s="2">
+        <v>1</v>
+      </c>
+      <c r="I99" s="2">
+        <v>1</v>
+      </c>
+      <c r="J99" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="4">
-        <v>2</v>
-      </c>
-      <c r="D100" s="4">
-        <v>2</v>
-      </c>
-      <c r="E100" s="4">
-        <v>2</v>
-      </c>
-      <c r="F100" s="4">
-        <v>2</v>
-      </c>
-      <c r="G100" s="4">
-        <v>2</v>
-      </c>
-      <c r="H100" s="4">
-        <v>1</v>
-      </c>
-      <c r="I100" s="4">
-        <v>1</v>
-      </c>
-      <c r="J100" s="24">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2</v>
+      </c>
+      <c r="G100" s="2">
+        <v>2</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1</v>
+      </c>
+      <c r="J100" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="4">
-        <v>1</v>
-      </c>
-      <c r="D101" s="4">
-        <v>1</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-      <c r="F101" s="4">
-        <v>1</v>
-      </c>
-      <c r="G101" s="4">
-        <v>1</v>
-      </c>
-      <c r="H101" s="4">
-        <v>1</v>
-      </c>
-      <c r="I101" s="4">
-        <v>1</v>
-      </c>
-      <c r="J101" s="24">
+        <v>3</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2">
+        <v>1</v>
+      </c>
+      <c r="I101" s="2">
+        <v>1</v>
+      </c>
+      <c r="J101" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="24">
-        <v>0</v>
-      </c>
-      <c r="D102" s="24">
-        <v>0</v>
-      </c>
-      <c r="E102" s="24">
-        <v>0</v>
-      </c>
-      <c r="F102" s="24">
-        <v>0</v>
-      </c>
-      <c r="G102" s="24">
-        <v>0</v>
-      </c>
-      <c r="H102" s="24">
-        <v>0</v>
-      </c>
-      <c r="I102" s="24">
-        <v>0</v>
-      </c>
-      <c r="J102" s="24">
+        <v>10</v>
+      </c>
+      <c r="C102" s="23">
+        <v>0</v>
+      </c>
+      <c r="D102" s="23">
+        <v>0</v>
+      </c>
+      <c r="E102" s="23">
+        <v>0</v>
+      </c>
+      <c r="F102" s="23">
+        <v>0</v>
+      </c>
+      <c r="G102" s="23">
+        <v>0</v>
+      </c>
+      <c r="H102" s="23">
+        <v>0</v>
+      </c>
+      <c r="I102" s="23">
+        <v>0</v>
+      </c>
+      <c r="J102" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="25"/>
+      <c r="G111" s="24"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>59</v>
-      </c>
-      <c r="B112" s="23">
-        <v>1</v>
-      </c>
-      <c r="C112" s="4">
-        <v>2</v>
-      </c>
-      <c r="D112" s="4">
-        <v>3</v>
-      </c>
-      <c r="E112" s="4">
+        <v>57</v>
+      </c>
+      <c r="B112" s="22">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2">
+        <v>3</v>
+      </c>
+      <c r="E112" s="2">
         <v>4</v>
       </c>
-      <c r="F112" s="4">
+      <c r="F112" s="2">
         <v>5</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="2">
         <v>6</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H112" s="2">
         <v>7</v>
       </c>
-      <c r="I112" s="4">
+      <c r="I112" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113" s="4">
-        <v>1</v>
-      </c>
-      <c r="C113" s="4">
+        <v>58</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
         <v>5</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="2">
         <v>8</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="2">
         <v>9</v>
       </c>
-      <c r="F113" s="4">
+      <c r="F113" s="2">
         <v>10</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="2">
         <v>17</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="2">
         <v>17</v>
       </c>
-      <c r="I113" s="4">
+      <c r="I113" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2794,7 +2682,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2802,61 +2690,61 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
+        <v>60</v>
+      </c>
+      <c r="B118" s="22">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>61</v>
+      </c>
+      <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="B118" s="23">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>63</v>
-      </c>
-      <c r="E118" t="s">
-        <v>64</v>
-      </c>
-      <c r="F118" s="8">
+      <c r="F118" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" s="22">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>65</v>
+      </c>
+      <c r="F121" t="s">
         <v>66</v>
       </c>
-      <c r="B121" s="23">
-        <v>1</v>
-      </c>
-      <c r="C121" s="4">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s">
-        <v>67</v>
-      </c>
-      <c r="F121" t="s">
-        <v>68</v>
-      </c>
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="8">
+      <c r="H121" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="2:7">
       <c r="B122" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C122" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" t="s">
+        <v>68</v>
+      </c>
+      <c r="F122" t="s">
         <v>69</v>
-      </c>
-      <c r="E122" t="s">
-        <v>70</v>
-      </c>
-      <c r="F122" t="s">
-        <v>71</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -2864,45 +2752,45 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124" s="22">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2">
+        <v>3</v>
+      </c>
+      <c r="F124" t="s">
+        <v>71</v>
+      </c>
+      <c r="G124" t="s">
         <v>72</v>
-      </c>
-      <c r="B124" s="23">
-        <v>1</v>
-      </c>
-      <c r="C124" s="4">
-        <v>2</v>
-      </c>
-      <c r="D124" s="4">
-        <v>3</v>
-      </c>
-      <c r="F124" t="s">
-        <v>73</v>
-      </c>
-      <c r="G124" t="s">
-        <v>74</v>
       </c>
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="8">
+      <c r="I124" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="2:8">
       <c r="B125" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C125" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D125" t="s">
+        <v>73</v>
+      </c>
+      <c r="F125" t="s">
+        <v>74</v>
+      </c>
+      <c r="G125" t="s">
         <v>75</v>
-      </c>
-      <c r="F125" t="s">
-        <v>76</v>
-      </c>
-      <c r="G125" t="s">
-        <v>77</v>
       </c>
       <c r="H125">
         <v>6</v>
@@ -2910,10 +2798,10 @@
     </row>
     <row r="126" spans="6:8">
       <c r="F126" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G126" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H126">
         <v>8</v>
@@ -2921,51 +2809,51 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" s="22">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2">
+        <v>4</v>
+      </c>
+      <c r="G128" t="s">
+        <v>79</v>
+      </c>
+      <c r="H128" t="s">
         <v>80</v>
-      </c>
-      <c r="B128" s="23">
-        <v>1</v>
-      </c>
-      <c r="C128" s="4">
-        <v>2</v>
-      </c>
-      <c r="D128" s="4">
-        <v>3</v>
-      </c>
-      <c r="E128" s="4">
-        <v>4</v>
-      </c>
-      <c r="G128" t="s">
-        <v>81</v>
-      </c>
-      <c r="H128" t="s">
-        <v>82</v>
       </c>
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="2:9">
       <c r="B129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C129" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D129" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E129" t="s">
+        <v>81</v>
+      </c>
+      <c r="G129" t="s">
+        <v>82</v>
+      </c>
+      <c r="H129" t="s">
         <v>83</v>
-      </c>
-      <c r="G129" t="s">
-        <v>84</v>
-      </c>
-      <c r="H129" t="s">
-        <v>85</v>
       </c>
       <c r="I129">
         <v>10</v>
@@ -2973,10 +2861,10 @@
     </row>
     <row r="130" spans="7:9">
       <c r="G130" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H130" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I130">
         <v>9</v>
@@ -2984,10 +2872,10 @@
     </row>
     <row r="131" spans="7:9">
       <c r="G131" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H131" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I131">
         <v>9</v>
@@ -2995,12 +2883,122 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+      <c r="J1">
+        <v>13</v>
+      </c>
+      <c r="K1">
+        <v>14</v>
+      </c>
+      <c r="L1">
+        <v>15</v>
+      </c>
+      <c r="M1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <f t="shared" ref="D2:M2" si="0">C2+B2</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F2" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G2" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H2" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I2" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J2" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K2" s="9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L2" s="9">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="M2" s="9">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3009,15 +3007,15 @@
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -3039,42 +3037,42 @@
       <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>5</v>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3082,19 +3080,19 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>5</v>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
         <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -3108,30 +3106,30 @@
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>5</v>
+      <c r="D19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20">
@@ -3139,16 +3137,16 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="B21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21">
@@ -3157,41 +3155,41 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3202,7 +3200,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3211,19 +3209,19 @@
         <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
         <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -3240,16 +3238,16 @@
       <c r="A37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="B37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3257,24 +3255,24 @@
       <c r="A38" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>8</v>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3283,19 +3281,19 @@
         <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -3309,30 +3307,30 @@
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="9">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="B48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="7">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48">
@@ -3340,16 +3338,16 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="6">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="B49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49">
@@ -3357,16 +3355,16 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="4">
-        <v>2</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="B50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50">
@@ -3374,16 +3372,16 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51">
@@ -3392,7 +3390,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3400,7 +3398,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3412,19 +3410,19 @@
         <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
         <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3437,7 @@
   <dimension ref="A2:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
@@ -3452,7 +3450,7 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3631,14 +3629,14 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3646,19 +3644,19 @@
         <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3666,44 +3664,44 @@
         <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3733,117 +3731,117 @@
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2</v>
-      </c>
-      <c r="F18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="4">
+        <v>30</v>
+      </c>
+      <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
         <v>5</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>4</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>3</v>
       </c>
     </row>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="SCS" sheetId="4" r:id="rId3"/>
     <sheet name="Coin change" sheetId="2" r:id="rId4"/>
     <sheet name="Edit Distance" sheetId="5" r:id="rId5"/>
+    <sheet name="RodCutting" sheetId="6" r:id="rId6"/>
+    <sheet name="Knapsack" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="167">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -335,6 +337,9 @@
     <t>2) Insert non-lcs characters (in their original order in strings) to the lcs found above, and return the result. So “ek” becomes “geeke” which is shortest common supersequence.</t>
   </si>
   <si>
+    <t>CoinChange</t>
+  </si>
+  <si>
     <t>dp init</t>
   </si>
   <si>
@@ -393,19 +398,143 @@
   </si>
   <si>
     <t>1 + ED("hor","r")</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>2 5 7 8 10</t>
+  </si>
+  <si>
+    <t>N=5</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,2</t>
+  </si>
+  <si>
+    <t>1,1,3</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>1,2,2</t>
+  </si>
+  <si>
+    <t>price[2]+dp[0]</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price[3]+dp[0]</t>
+  </si>
+  <si>
+    <t>price[4]+dp[0]</t>
+  </si>
+  <si>
+    <t>dp[5]</t>
+  </si>
+  <si>
+    <t>price[1]+dp[4]</t>
+  </si>
+  <si>
+    <t>price[2]+dp[3]</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>price[3]+dp[2]</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>price[4]+dp[1]</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>price[5]+dp[0]</t>
+  </si>
+  <si>
+    <t>0-1 Knapsack Problem</t>
+  </si>
+  <si>
+    <t>n=5</t>
+  </si>
+  <si>
+    <t>c=15</t>
+  </si>
+  <si>
+    <t>v[i]</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>w[i]</t>
+  </si>
+  <si>
+    <t>kgs</t>
+  </si>
+  <si>
+    <t>Max value</t>
+  </si>
+  <si>
+    <t>Items (down)</t>
+  </si>
+  <si>
+    <t>Capacity =&gt;</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>v[1]=4, w[1]=12</t>
+  </si>
+  <si>
+    <t>v[2]=2, w[2]=1</t>
+  </si>
+  <si>
+    <t>v[3]=10, w[3]=4</t>
+  </si>
+  <si>
+    <t>v[4]=1, w[4]=1</t>
+  </si>
+  <si>
+    <t>v[5]=2, w[5]=2</t>
+  </si>
+  <si>
+    <t>Maximum value that can be obtained from ‘n’ items is the max of the following two values: </t>
+  </si>
+  <si>
+    <t>- Maximum value obtained by n-1 items and W weight (excluding nth item).</t>
+  </si>
+  <si>
+    <t>- Value of nth item plus maximum value obtained by n-1 items and W minus the weight of the nth item (including nth item).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +558,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF263238"/>
       <name val="Consolas"/>
@@ -441,9 +584,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,8 +605,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +644,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -479,15 +668,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,38 +698,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -543,14 +707,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,24 +721,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -600,67 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +755,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,13 +773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +803,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +845,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,43 +905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,8 +921,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -809,6 +952,147 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -881,19 +1165,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -937,17 +1208,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,68 +1277,29 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,140 +1317,159 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1189,22 +1479,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1298,6 +1588,53 @@
         <a:xfrm>
           <a:off x="929005" y="770255"/>
           <a:ext cx="4342130" cy="2425700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>116205</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1584325" y="723265"/>
+          <a:ext cx="4304030" cy="3704590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1596,19 +1933,19 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
@@ -1619,13 +1956,13 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -1650,19 +1987,19 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="22">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="21">
         <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="21">
         <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1670,19 +2007,19 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="21">
         <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="21">
         <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="21">
         <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1690,19 +2027,19 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="21">
         <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="21">
         <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="21">
         <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1710,19 +2047,19 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="21">
         <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="21">
         <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="21">
         <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1730,19 +2067,19 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="21">
         <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="21">
         <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="21">
         <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1750,16 +2087,16 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1796,7 +2133,7 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1804,31 +2141,31 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="21">
         <v>10</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="21">
         <v>9</v>
       </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="21">
+        <v>2</v>
+      </c>
+      <c r="E23" s="21">
         <v>5</v>
       </c>
-      <c r="F23" s="2">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="21">
+        <v>3</v>
+      </c>
+      <c r="G23" s="21">
         <v>7</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="21">
         <v>101</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="21">
         <v>18</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1842,7 +2179,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="25">
         <v>4</v>
       </c>
       <c r="E25">
@@ -1951,16 +2288,16 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="C41" s="21">
+        <v>0</v>
+      </c>
+      <c r="D41" s="21">
+        <v>1</v>
+      </c>
+      <c r="E41" s="21">
+        <v>2</v>
+      </c>
+      <c r="F41" s="21">
         <v>3</v>
       </c>
     </row>
@@ -1968,16 +2305,16 @@
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>2</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="C42" s="21">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21">
+        <v>1</v>
+      </c>
+      <c r="E42" s="21">
+        <v>2</v>
+      </c>
+      <c r="F42" s="21">
         <v>3</v>
       </c>
     </row>
@@ -1985,16 +2322,16 @@
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="2">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="C43" s="21">
+        <v>2</v>
+      </c>
+      <c r="D43" s="21">
+        <v>2</v>
+      </c>
+      <c r="E43" s="21">
+        <v>1</v>
+      </c>
+      <c r="F43" s="21">
         <v>2</v>
       </c>
     </row>
@@ -2002,16 +2339,16 @@
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="2">
-        <v>3</v>
-      </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2">
-        <v>2</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="C44" s="21">
+        <v>3</v>
+      </c>
+      <c r="D44" s="21">
+        <v>2</v>
+      </c>
+      <c r="E44" s="21">
+        <v>2</v>
+      </c>
+      <c r="F44" s="21">
         <v>2</v>
       </c>
     </row>
@@ -2019,16 +2356,16 @@
       <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="21">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="D45" s="21">
+        <v>3</v>
+      </c>
+      <c r="E45" s="21">
+        <v>3</v>
+      </c>
+      <c r="F45" s="21">
         <v>2</v>
       </c>
     </row>
@@ -2036,16 +2373,16 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="21">
         <v>5</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="21">
         <v>4</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="21">
         <v>4</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="22">
         <v>3</v>
       </c>
     </row>
@@ -2090,28 +2427,28 @@
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2119,7 +2456,7 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="6" t="b">
+      <c r="B55" s="25" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -2151,7 +2488,7 @@
       <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="30" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2167,30 +2504,30 @@
     </row>
     <row r="66" ht="15.75"/>
     <row r="67" ht="15.75" spans="7:7">
-      <c r="G67" s="13"/>
+      <c r="G67" s="32"/>
     </row>
     <row r="68" ht="15.75" spans="6:7">
-      <c r="F68" s="14"/>
-      <c r="G68" s="15"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="34"/>
     </row>
     <row r="69" ht="15.75" spans="5:7">
-      <c r="E69" s="14"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="15"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="34"/>
     </row>
     <row r="70" ht="15.75" spans="4:7">
-      <c r="D70" s="14"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="15"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="34"/>
     </row>
     <row r="71" ht="15.75" spans="2:7">
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -2219,7 +2556,7 @@
       <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="25">
         <v>8</v>
       </c>
       <c r="C74">
@@ -2259,30 +2596,30 @@
     </row>
     <row r="79" ht="15.75"/>
     <row r="80" ht="15.75" spans="7:7">
-      <c r="G80" s="13"/>
+      <c r="G80" s="32"/>
     </row>
     <row r="81" ht="15.75" spans="6:7">
-      <c r="F81" s="14"/>
-      <c r="G81" s="15"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34"/>
     </row>
     <row r="82" ht="15.75" spans="5:7">
-      <c r="E82" s="14"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="15"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="34"/>
     </row>
     <row r="83" ht="15.75" spans="4:7">
-      <c r="D83" s="14"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="15"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="34"/>
     </row>
     <row r="84" ht="15.75" spans="2:7">
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="20"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="38"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -2311,7 +2648,7 @@
       <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="25">
         <v>13</v>
       </c>
       <c r="C87">
@@ -2376,28 +2713,28 @@
       <c r="B96" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="39">
         <v>4</v>
       </c>
-      <c r="D96" s="22">
-        <v>3</v>
-      </c>
-      <c r="E96" s="22">
-        <v>3</v>
-      </c>
-      <c r="F96" s="2">
-        <v>2</v>
-      </c>
-      <c r="G96" s="2">
-        <v>2</v>
-      </c>
-      <c r="H96" s="2">
-        <v>1</v>
-      </c>
-      <c r="I96" s="2">
-        <v>1</v>
-      </c>
-      <c r="J96" s="23">
+      <c r="D96" s="40">
+        <v>3</v>
+      </c>
+      <c r="E96" s="40">
+        <v>3</v>
+      </c>
+      <c r="F96" s="21">
+        <v>2</v>
+      </c>
+      <c r="G96" s="21">
+        <v>2</v>
+      </c>
+      <c r="H96" s="21">
+        <v>1</v>
+      </c>
+      <c r="I96" s="21">
+        <v>1</v>
+      </c>
+      <c r="J96" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2405,28 +2742,28 @@
       <c r="B97" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="40">
         <v>4</v>
       </c>
-      <c r="D97" s="22">
-        <v>3</v>
-      </c>
-      <c r="E97" s="22">
-        <v>3</v>
-      </c>
-      <c r="F97" s="2">
-        <v>2</v>
-      </c>
-      <c r="G97" s="2">
-        <v>2</v>
-      </c>
-      <c r="H97" s="2">
-        <v>1</v>
-      </c>
-      <c r="I97" s="2">
-        <v>1</v>
-      </c>
-      <c r="J97" s="23">
+      <c r="D97" s="40">
+        <v>3</v>
+      </c>
+      <c r="E97" s="40">
+        <v>3</v>
+      </c>
+      <c r="F97" s="21">
+        <v>2</v>
+      </c>
+      <c r="G97" s="21">
+        <v>2</v>
+      </c>
+      <c r="H97" s="21">
+        <v>1</v>
+      </c>
+      <c r="I97" s="21">
+        <v>1</v>
+      </c>
+      <c r="J97" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2434,28 +2771,28 @@
       <c r="B98" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="40">
         <v>4</v>
       </c>
-      <c r="D98" s="22">
-        <v>3</v>
-      </c>
-      <c r="E98" s="22">
-        <v>3</v>
-      </c>
-      <c r="F98" s="2">
-        <v>2</v>
-      </c>
-      <c r="G98" s="2">
-        <v>2</v>
-      </c>
-      <c r="H98" s="2">
-        <v>1</v>
-      </c>
-      <c r="I98" s="2">
-        <v>1</v>
-      </c>
-      <c r="J98" s="23">
+      <c r="D98" s="40">
+        <v>3</v>
+      </c>
+      <c r="E98" s="40">
+        <v>3</v>
+      </c>
+      <c r="F98" s="21">
+        <v>2</v>
+      </c>
+      <c r="G98" s="21">
+        <v>2</v>
+      </c>
+      <c r="H98" s="21">
+        <v>1</v>
+      </c>
+      <c r="I98" s="21">
+        <v>1</v>
+      </c>
+      <c r="J98" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2463,28 +2800,28 @@
       <c r="B99" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="2">
-        <v>3</v>
-      </c>
-      <c r="D99" s="2">
-        <v>3</v>
-      </c>
-      <c r="E99" s="2">
-        <v>3</v>
-      </c>
-      <c r="F99" s="2">
-        <v>2</v>
-      </c>
-      <c r="G99" s="2">
-        <v>2</v>
-      </c>
-      <c r="H99" s="2">
-        <v>1</v>
-      </c>
-      <c r="I99" s="2">
-        <v>1</v>
-      </c>
-      <c r="J99" s="23">
+      <c r="C99" s="21">
+        <v>3</v>
+      </c>
+      <c r="D99" s="21">
+        <v>3</v>
+      </c>
+      <c r="E99" s="21">
+        <v>3</v>
+      </c>
+      <c r="F99" s="21">
+        <v>2</v>
+      </c>
+      <c r="G99" s="21">
+        <v>2</v>
+      </c>
+      <c r="H99" s="21">
+        <v>1</v>
+      </c>
+      <c r="I99" s="21">
+        <v>1</v>
+      </c>
+      <c r="J99" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2492,28 +2829,28 @@
       <c r="B100" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="2">
-        <v>2</v>
-      </c>
-      <c r="D100" s="2">
-        <v>2</v>
-      </c>
-      <c r="E100" s="2">
-        <v>2</v>
-      </c>
-      <c r="F100" s="2">
-        <v>2</v>
-      </c>
-      <c r="G100" s="2">
-        <v>2</v>
-      </c>
-      <c r="H100" s="2">
-        <v>1</v>
-      </c>
-      <c r="I100" s="2">
-        <v>1</v>
-      </c>
-      <c r="J100" s="23">
+      <c r="C100" s="21">
+        <v>2</v>
+      </c>
+      <c r="D100" s="21">
+        <v>2</v>
+      </c>
+      <c r="E100" s="21">
+        <v>2</v>
+      </c>
+      <c r="F100" s="21">
+        <v>2</v>
+      </c>
+      <c r="G100" s="21">
+        <v>2</v>
+      </c>
+      <c r="H100" s="21">
+        <v>1</v>
+      </c>
+      <c r="I100" s="21">
+        <v>1</v>
+      </c>
+      <c r="J100" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2521,28 +2858,28 @@
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="2">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2">
-        <v>1</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2">
-        <v>1</v>
-      </c>
-      <c r="G101" s="2">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2">
-        <v>1</v>
-      </c>
-      <c r="I101" s="2">
-        <v>1</v>
-      </c>
-      <c r="J101" s="23">
+      <c r="C101" s="21">
+        <v>1</v>
+      </c>
+      <c r="D101" s="21">
+        <v>1</v>
+      </c>
+      <c r="E101" s="21">
+        <v>1</v>
+      </c>
+      <c r="F101" s="21">
+        <v>1</v>
+      </c>
+      <c r="G101" s="21">
+        <v>1</v>
+      </c>
+      <c r="H101" s="21">
+        <v>1</v>
+      </c>
+      <c r="I101" s="21">
+        <v>1</v>
+      </c>
+      <c r="J101" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2550,28 +2887,28 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="23">
-        <v>0</v>
-      </c>
-      <c r="D102" s="23">
-        <v>0</v>
-      </c>
-      <c r="E102" s="23">
-        <v>0</v>
-      </c>
-      <c r="F102" s="23">
-        <v>0</v>
-      </c>
-      <c r="G102" s="23">
-        <v>0</v>
-      </c>
-      <c r="H102" s="23">
-        <v>0</v>
-      </c>
-      <c r="I102" s="23">
-        <v>0</v>
-      </c>
-      <c r="J102" s="23">
+      <c r="C102" s="41">
+        <v>0</v>
+      </c>
+      <c r="D102" s="41">
+        <v>0</v>
+      </c>
+      <c r="E102" s="41">
+        <v>0</v>
+      </c>
+      <c r="F102" s="41">
+        <v>0</v>
+      </c>
+      <c r="G102" s="41">
+        <v>0</v>
+      </c>
+      <c r="H102" s="41">
+        <v>0</v>
+      </c>
+      <c r="I102" s="41">
+        <v>0</v>
+      </c>
+      <c r="J102" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2591,34 +2928,34 @@
       </c>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="24"/>
+      <c r="G111" s="42"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="22">
-        <v>1</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2</v>
-      </c>
-      <c r="D112" s="2">
-        <v>3</v>
-      </c>
-      <c r="E112" s="2">
+      <c r="B112" s="40">
+        <v>1</v>
+      </c>
+      <c r="C112" s="21">
+        <v>2</v>
+      </c>
+      <c r="D112" s="21">
+        <v>3</v>
+      </c>
+      <c r="E112" s="21">
         <v>4</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="21">
         <v>5</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="21">
         <v>6</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="21">
         <v>7</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="21">
         <v>8</v>
       </c>
     </row>
@@ -2626,28 +2963,28 @@
       <c r="A113" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113" s="2">
+      <c r="B113" s="21">
+        <v>1</v>
+      </c>
+      <c r="C113" s="21">
         <v>5</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="21">
         <v>8</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="21">
         <v>9</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="21">
         <v>10</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="21">
         <v>17</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="21">
         <v>17</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="21">
         <v>20</v>
       </c>
     </row>
@@ -2692,7 +3029,7 @@
       <c r="A118" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="22">
+      <c r="B118" s="40">
         <v>1</v>
       </c>
       <c r="D118" t="s">
@@ -2701,7 +3038,7 @@
       <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118" s="25">
         <v>1</v>
       </c>
     </row>
@@ -2714,10 +3051,10 @@
       <c r="A121" t="s">
         <v>64</v>
       </c>
-      <c r="B121" s="22">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2">
+      <c r="B121" s="40">
+        <v>1</v>
+      </c>
+      <c r="C121" s="21">
         <v>2</v>
       </c>
       <c r="E121" t="s">
@@ -2729,7 +3066,7 @@
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="6">
+      <c r="H121" s="25">
         <v>5</v>
       </c>
     </row>
@@ -2754,13 +3091,13 @@
       <c r="A124" t="s">
         <v>70</v>
       </c>
-      <c r="B124" s="22">
-        <v>1</v>
-      </c>
-      <c r="C124" s="2">
-        <v>2</v>
-      </c>
-      <c r="D124" s="2">
+      <c r="B124" s="40">
+        <v>1</v>
+      </c>
+      <c r="C124" s="21">
+        <v>2</v>
+      </c>
+      <c r="D124" s="21">
         <v>3</v>
       </c>
       <c r="F124" t="s">
@@ -2772,7 +3109,7 @@
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="6">
+      <c r="I124" s="25">
         <v>8</v>
       </c>
     </row>
@@ -2811,16 +3148,16 @@
       <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="22">
-        <v>1</v>
-      </c>
-      <c r="C128" s="2">
-        <v>2</v>
-      </c>
-      <c r="D128" s="2">
-        <v>3</v>
-      </c>
-      <c r="E128" s="2">
+      <c r="B128" s="40">
+        <v>1</v>
+      </c>
+      <c r="C128" s="21">
+        <v>2</v>
+      </c>
+      <c r="D128" s="21">
+        <v>3</v>
+      </c>
+      <c r="E128" s="21">
         <v>4</v>
       </c>
       <c r="G128" t="s">
@@ -2832,7 +3169,7 @@
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="6">
+      <c r="J128" s="25">
         <v>10</v>
       </c>
     </row>
@@ -2948,49 +3285,49 @@
       <c r="A2" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9">
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="28">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="28">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="28">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="28">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -3037,16 +3374,16 @@
       <c r="A8" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3054,13 +3391,13 @@
       <c r="A9" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3068,10 +3405,10 @@
       <c r="A11" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3082,10 +3419,10 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
@@ -3106,13 +3443,13 @@
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
@@ -3120,16 +3457,16 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="B20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="26">
+        <v>2</v>
+      </c>
+      <c r="D20" s="23">
+        <v>2</v>
+      </c>
+      <c r="E20" s="21">
         <v>1</v>
       </c>
       <c r="F20">
@@ -3137,16 +3474,16 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="B21" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23">
         <v>1</v>
       </c>
       <c r="F21">
@@ -3157,16 +3494,16 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3174,16 +3511,16 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3200,7 +3537,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="27">
         <v>0</v>
       </c>
     </row>
@@ -3238,16 +3575,16 @@
       <c r="A37" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3255,13 +3592,13 @@
       <c r="A38" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3269,10 +3606,10 @@
       <c r="A40" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3286,10 +3623,10 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="21" t="s">
         <v>102</v>
       </c>
       <c r="F41" t="s">
@@ -3307,10 +3644,10 @@
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E47" t="s">
@@ -3321,16 +3658,16 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="7">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="C48" s="26">
+        <v>2</v>
+      </c>
+      <c r="D48" s="21">
+        <v>1</v>
+      </c>
+      <c r="E48" s="21">
         <v>1</v>
       </c>
       <c r="F48">
@@ -3338,16 +3675,16 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="4">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="C49" s="23">
+        <v>2</v>
+      </c>
+      <c r="D49" s="21">
+        <v>1</v>
+      </c>
+      <c r="E49" s="21">
         <v>1</v>
       </c>
       <c r="F49">
@@ -3355,16 +3692,16 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="2">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="C50" s="21">
+        <v>2</v>
+      </c>
+      <c r="D50" s="23">
+        <v>1</v>
+      </c>
+      <c r="E50" s="21">
         <v>1</v>
       </c>
       <c r="F50">
@@ -3372,16 +3709,16 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="C51" s="21">
+        <v>1</v>
+      </c>
+      <c r="D51" s="23">
+        <v>1</v>
+      </c>
+      <c r="E51" s="21">
         <v>0</v>
       </c>
       <c r="F51">
@@ -3398,7 +3735,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="27">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3434,7 +3771,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3448,172 +3785,180 @@
     <col min="7" max="10" width="36.352380952381" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>11</v>
-      </c>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>106</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" t="s">
-        <v>114</v>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" t="s">
         <v>115</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8" t="s">
         <v>117</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12">
         <v>5</v>
       </c>
     </row>
@@ -3628,7 +3973,7 @@
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3641,92 +3986,92 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -3747,16 +4092,16 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21">
+        <v>2</v>
+      </c>
+      <c r="F18" s="21">
         <v>3</v>
       </c>
     </row>
@@ -3764,16 +4109,16 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1</v>
+      </c>
+      <c r="E19" s="21">
+        <v>2</v>
+      </c>
+      <c r="F19" s="21">
         <v>3</v>
       </c>
     </row>
@@ -3781,16 +4126,16 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="C20" s="21">
+        <v>2</v>
+      </c>
+      <c r="D20" s="21">
+        <v>2</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
         <v>2</v>
       </c>
     </row>
@@ -3798,16 +4143,16 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="C21" s="21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="21">
         <v>2</v>
       </c>
     </row>
@@ -3815,16 +4160,16 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="21">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="D22" s="21">
+        <v>3</v>
+      </c>
+      <c r="E22" s="21">
+        <v>3</v>
+      </c>
+      <c r="F22" s="21">
         <v>2</v>
       </c>
     </row>
@@ -3832,16 +4177,16 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="21">
         <v>5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="21">
         <v>4</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="21">
         <v>4</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="22">
         <v>3</v>
       </c>
     </row>
@@ -3849,4 +4194,940 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.047619047619" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="13.8095238095238" customWidth="1"/>
+    <col min="9" max="9" width="18.0952380952381" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1"/>
+    <row r="3" ht="15.75" spans="2:12">
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="2:12">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="2:9">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="2:9">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="I6" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="2:9">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="I7" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="2:9">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13">
+        <v>5</v>
+      </c>
+      <c r="I8" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1" ht="15.75" spans="2:2">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="2:9">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="8:9">
+      <c r="H12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="8:9">
+      <c r="H13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="8:9">
+      <c r="H14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="8:9">
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="8:9">
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I17" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1" spans="1:2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="15.75"/>
+    <row r="22" customFormat="1" ht="15.75" spans="1:5">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="15.75"/>
+    <row r="24" customFormat="1" ht="15.75" spans="1:7">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16">
+        <v>2</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="17">
+        <v>5</v>
+      </c>
+      <c r="L25" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="12:13">
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:13">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="19">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13">
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="19">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13">
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" s="17">
+        <v>7</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="12:13">
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="15.75"/>
+    <row r="32" ht="15.75" spans="1:9">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="16">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9">
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9">
+      <c r="G35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1" ht="15.75"/>
+    <row r="38" ht="15.75" spans="1:10">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>132</v>
+      </c>
+      <c r="I38" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10">
+      <c r="H39" t="s">
+        <v>133</v>
+      </c>
+      <c r="I39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10">
+      <c r="H40" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10">
+      <c r="H41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" t="s">
+        <v>145</v>
+      </c>
+      <c r="J41" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10">
+      <c r="H42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="19">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="12.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="12:12">
+      <c r="L11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="12:12">
+      <c r="L12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17">
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="12:18">
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="3">
+        <v>4</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2">
+        <v>10</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="12:18">
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" s="3">
+        <v>12</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>4</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13">
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>7</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>11</v>
+      </c>
+      <c r="O28">
+        <v>12</v>
+      </c>
+      <c r="P28">
+        <v>13</v>
+      </c>
+      <c r="Q28">
+        <v>14</v>
+      </c>
+      <c r="R28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>4</v>
+      </c>
+      <c r="P30" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>4</v>
+      </c>
+      <c r="R30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="3">
+        <v>2</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2</v>
+      </c>
+      <c r="O31" s="3">
+        <v>4</v>
+      </c>
+      <c r="P31" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>6</v>
+      </c>
+      <c r="R31" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4">
+        <v>12</v>
+      </c>
+      <c r="I32" s="3">
+        <v>12</v>
+      </c>
+      <c r="J32" s="3">
+        <v>12</v>
+      </c>
+      <c r="K32" s="3">
+        <v>12</v>
+      </c>
+      <c r="L32" s="3">
+        <v>12</v>
+      </c>
+      <c r="M32" s="3">
+        <v>12</v>
+      </c>
+      <c r="N32" s="3">
+        <v>12</v>
+      </c>
+      <c r="O32" s="2">
+        <v>12</v>
+      </c>
+      <c r="P32" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>12</v>
+      </c>
+      <c r="R32" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3">
+        <v>12</v>
+      </c>
+      <c r="I33" s="4">
+        <v>13</v>
+      </c>
+      <c r="J33" s="3">
+        <v>13</v>
+      </c>
+      <c r="K33" s="3">
+        <v>13</v>
+      </c>
+      <c r="L33" s="3">
+        <v>13</v>
+      </c>
+      <c r="M33" s="3">
+        <v>13</v>
+      </c>
+      <c r="N33" s="3">
+        <v>13</v>
+      </c>
+      <c r="O33" s="3">
+        <v>13</v>
+      </c>
+      <c r="P33" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>13</v>
+      </c>
+      <c r="R33" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <v>12</v>
+      </c>
+      <c r="I34" s="3">
+        <v>13</v>
+      </c>
+      <c r="J34" s="3">
+        <v>14</v>
+      </c>
+      <c r="K34" s="4">
+        <v>15</v>
+      </c>
+      <c r="L34" s="3">
+        <v>15</v>
+      </c>
+      <c r="M34" s="3">
+        <v>15</v>
+      </c>
+      <c r="N34" s="3">
+        <v>15</v>
+      </c>
+      <c r="O34" s="3">
+        <v>15</v>
+      </c>
+      <c r="P34" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>15</v>
+      </c>
+      <c r="R34" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="6"/>
+    <workbookView windowWidth="27428" windowHeight="11734"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="172">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -287,6 +287,21 @@
   </si>
   <si>
     <t>dp[n] = max(price[i] + dp[n-i-1]) for all i in {0, 1 .. n-1}</t>
+  </si>
+  <si>
+    <t>HouseRobber</t>
+  </si>
+  <si>
+    <t>MAX(nums[1],dp[0])</t>
+  </si>
+  <si>
+    <t>MAX(nums[2]+dp[0],dp[1])</t>
+  </si>
+  <si>
+    <t>MAX(nums[3]+dp[1],dp[2])</t>
+  </si>
+  <si>
+    <t>MAX(nums[4]+dp[2],dp[3])</t>
   </si>
   <si>
     <t>n</t>
@@ -528,11 +543,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -584,6 +599,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -592,14 +623,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,9 +661,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,14 +730,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,83 +740,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -743,7 +758,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,19 +884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,61 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,61 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,19 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,8 +1217,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,6 +1243,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,21 +1301,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1272,40 +1311,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1320,131 +1335,131 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1466,9 +1481,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1494,6 +1506,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1586,8 +1600,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="929005" y="770255"/>
-          <a:ext cx="4342130" cy="2425700"/>
+          <a:off x="963930" y="747395"/>
+          <a:ext cx="4586605" cy="2357120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1633,8 +1647,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1584325" y="723265"/>
-          <a:ext cx="4304030" cy="3704590"/>
+          <a:off x="1647190" y="706120"/>
+          <a:ext cx="4572000" cy="3590290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1908,20 +1922,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="10.0761904761905" customWidth="1"/>
-    <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
-    <col min="4" max="4" width="15.3714285714286" customWidth="1"/>
-    <col min="5" max="5" width="12.7047619047619" customWidth="1"/>
-    <col min="6" max="7" width="12.3142857142857" customWidth="1"/>
-    <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
+    <col min="2" max="2" width="23.009009009009" customWidth="1"/>
+    <col min="3" max="3" width="8.52252252252252" customWidth="1"/>
+    <col min="4" max="4" width="15.3693693693694" customWidth="1"/>
+    <col min="5" max="5" width="12.7027027027027" customWidth="1"/>
+    <col min="6" max="7" width="12.3153153153153" customWidth="1"/>
+    <col min="8" max="8" width="13.1261261261261" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -1933,19 +1947,19 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
@@ -1956,13 +1970,13 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -1987,19 +2001,19 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="4">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="3">
         <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="3">
         <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2007,19 +2021,19 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="3">
         <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="3">
         <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="3">
         <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2027,19 +2041,19 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="3">
         <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="3">
         <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="3">
         <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2047,19 +2061,19 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="3">
         <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="3">
         <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="3">
         <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2067,19 +2081,19 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="3">
         <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="3">
         <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="3">
         <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2087,16 +2101,16 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2133,7 +2147,7 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2141,31 +2155,31 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="3">
         <v>10</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="3">
         <v>9</v>
       </c>
-      <c r="D23" s="21">
-        <v>2</v>
-      </c>
-      <c r="E23" s="21">
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3">
         <v>5</v>
       </c>
-      <c r="F23" s="21">
-        <v>3</v>
-      </c>
-      <c r="G23" s="21">
+      <c r="F23" s="3">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3">
         <v>7</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="3">
         <v>101</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="3">
         <v>18</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2179,7 +2193,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="22">
         <v>4</v>
       </c>
       <c r="E25">
@@ -2288,16 +2302,16 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="21">
-        <v>0</v>
-      </c>
-      <c r="D41" s="21">
-        <v>1</v>
-      </c>
-      <c r="E41" s="21">
-        <v>2</v>
-      </c>
-      <c r="F41" s="21">
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2305,16 +2319,16 @@
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="21">
-        <v>1</v>
-      </c>
-      <c r="D42" s="21">
-        <v>1</v>
-      </c>
-      <c r="E42" s="21">
-        <v>2</v>
-      </c>
-      <c r="F42" s="21">
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2322,16 +2336,16 @@
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="21">
-        <v>2</v>
-      </c>
-      <c r="D43" s="21">
-        <v>2</v>
-      </c>
-      <c r="E43" s="21">
-        <v>1</v>
-      </c>
-      <c r="F43" s="21">
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2339,16 +2353,16 @@
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="21">
-        <v>3</v>
-      </c>
-      <c r="D44" s="21">
-        <v>2</v>
-      </c>
-      <c r="E44" s="21">
-        <v>2</v>
-      </c>
-      <c r="F44" s="21">
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2356,16 +2370,16 @@
       <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="3">
         <v>4</v>
       </c>
-      <c r="D45" s="21">
-        <v>3</v>
-      </c>
-      <c r="E45" s="21">
-        <v>3</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2373,16 +2387,16 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="3">
         <v>5</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="3">
         <v>4</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="3">
         <v>4</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F46" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2427,28 +2441,28 @@
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2456,7 +2470,7 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="25" t="b">
+      <c r="B55" s="22" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -2488,7 +2502,7 @@
       <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="30" t="s">
+      <c r="F57" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2502,32 +2516,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" ht="15.75"/>
-    <row r="67" ht="15.75" spans="7:7">
-      <c r="G67" s="32"/>
-    </row>
-    <row r="68" ht="15.75" spans="6:7">
-      <c r="F68" s="33"/>
-      <c r="G68" s="34"/>
-    </row>
-    <row r="69" ht="15.75" spans="5:7">
-      <c r="E69" s="33"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="34"/>
-    </row>
-    <row r="70" ht="15.75" spans="4:7">
-      <c r="D70" s="33"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="34"/>
-    </row>
-    <row r="71" ht="15.75" spans="2:7">
-      <c r="B71" s="36"/>
+    <row r="66" ht="15.3"/>
+    <row r="67" ht="15.3" spans="7:7">
+      <c r="G67" s="29"/>
+    </row>
+    <row r="68" ht="15.3" spans="6:7">
+      <c r="F68" s="30"/>
+      <c r="G68" s="31"/>
+    </row>
+    <row r="69" ht="15.3" spans="5:7">
+      <c r="E69" s="30"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="31"/>
+    </row>
+    <row r="70" ht="15.3" spans="4:7">
+      <c r="D70" s="30"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="31"/>
+    </row>
+    <row r="71" ht="15.3" spans="2:7">
+      <c r="B71" s="33"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="35"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -2556,7 +2570,7 @@
       <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="22">
         <v>8</v>
       </c>
       <c r="C74">
@@ -2594,32 +2608,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" ht="15.75"/>
-    <row r="80" ht="15.75" spans="7:7">
-      <c r="G80" s="32"/>
-    </row>
-    <row r="81" ht="15.75" spans="6:7">
-      <c r="F81" s="33"/>
-      <c r="G81" s="34"/>
-    </row>
-    <row r="82" ht="15.75" spans="5:7">
-      <c r="E82" s="33"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="34"/>
-    </row>
-    <row r="83" ht="15.75" spans="4:7">
-      <c r="D83" s="33"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="34"/>
-    </row>
-    <row r="84" ht="15.75" spans="2:7">
-      <c r="B84" s="36"/>
+    <row r="79" ht="15.3"/>
+    <row r="80" ht="15.3" spans="7:7">
+      <c r="G80" s="29"/>
+    </row>
+    <row r="81" ht="15.3" spans="6:7">
+      <c r="F81" s="30"/>
+      <c r="G81" s="31"/>
+    </row>
+    <row r="82" ht="15.3" spans="5:7">
+      <c r="E82" s="30"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="31"/>
+    </row>
+    <row r="83" ht="15.3" spans="4:7">
+      <c r="D83" s="30"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="31"/>
+    </row>
+    <row r="84" ht="15.3" spans="2:7">
+      <c r="B84" s="33"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="38"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="35"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -2648,7 +2662,7 @@
       <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="22">
         <v>13</v>
       </c>
       <c r="C87">
@@ -2713,28 +2727,28 @@
       <c r="B96" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="39">
+      <c r="C96" s="36">
         <v>4</v>
       </c>
-      <c r="D96" s="40">
-        <v>3</v>
-      </c>
-      <c r="E96" s="40">
-        <v>3</v>
-      </c>
-      <c r="F96" s="21">
-        <v>2</v>
-      </c>
-      <c r="G96" s="21">
-        <v>2</v>
-      </c>
-      <c r="H96" s="21">
-        <v>1</v>
-      </c>
-      <c r="I96" s="21">
-        <v>1</v>
-      </c>
-      <c r="J96" s="41">
+      <c r="D96" s="37">
+        <v>3</v>
+      </c>
+      <c r="E96" s="37">
+        <v>3</v>
+      </c>
+      <c r="F96" s="3">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3">
+        <v>2</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+      <c r="I96" s="3">
+        <v>1</v>
+      </c>
+      <c r="J96" s="38">
         <v>0</v>
       </c>
     </row>
@@ -2742,28 +2756,28 @@
       <c r="B97" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="37">
         <v>4</v>
       </c>
-      <c r="D97" s="40">
-        <v>3</v>
-      </c>
-      <c r="E97" s="40">
-        <v>3</v>
-      </c>
-      <c r="F97" s="21">
-        <v>2</v>
-      </c>
-      <c r="G97" s="21">
-        <v>2</v>
-      </c>
-      <c r="H97" s="21">
-        <v>1</v>
-      </c>
-      <c r="I97" s="21">
-        <v>1</v>
-      </c>
-      <c r="J97" s="41">
+      <c r="D97" s="37">
+        <v>3</v>
+      </c>
+      <c r="E97" s="37">
+        <v>3</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3">
+        <v>2</v>
+      </c>
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
+      <c r="I97" s="3">
+        <v>1</v>
+      </c>
+      <c r="J97" s="38">
         <v>0</v>
       </c>
     </row>
@@ -2771,28 +2785,28 @@
       <c r="B98" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="40">
+      <c r="C98" s="37">
         <v>4</v>
       </c>
-      <c r="D98" s="40">
-        <v>3</v>
-      </c>
-      <c r="E98" s="40">
-        <v>3</v>
-      </c>
-      <c r="F98" s="21">
-        <v>2</v>
-      </c>
-      <c r="G98" s="21">
-        <v>2</v>
-      </c>
-      <c r="H98" s="21">
-        <v>1</v>
-      </c>
-      <c r="I98" s="21">
-        <v>1</v>
-      </c>
-      <c r="J98" s="41">
+      <c r="D98" s="37">
+        <v>3</v>
+      </c>
+      <c r="E98" s="37">
+        <v>3</v>
+      </c>
+      <c r="F98" s="3">
+        <v>2</v>
+      </c>
+      <c r="G98" s="3">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1</v>
+      </c>
+      <c r="J98" s="38">
         <v>0</v>
       </c>
     </row>
@@ -2800,28 +2814,28 @@
       <c r="B99" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="21">
-        <v>3</v>
-      </c>
-      <c r="D99" s="21">
-        <v>3</v>
-      </c>
-      <c r="E99" s="21">
-        <v>3</v>
-      </c>
-      <c r="F99" s="21">
-        <v>2</v>
-      </c>
-      <c r="G99" s="21">
-        <v>2</v>
-      </c>
-      <c r="H99" s="21">
-        <v>1</v>
-      </c>
-      <c r="I99" s="21">
-        <v>1</v>
-      </c>
-      <c r="J99" s="41">
+      <c r="C99" s="3">
+        <v>3</v>
+      </c>
+      <c r="D99" s="3">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3">
+        <v>3</v>
+      </c>
+      <c r="F99" s="3">
+        <v>2</v>
+      </c>
+      <c r="G99" s="3">
+        <v>2</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99" s="3">
+        <v>1</v>
+      </c>
+      <c r="J99" s="38">
         <v>0</v>
       </c>
     </row>
@@ -2829,28 +2843,28 @@
       <c r="B100" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="21">
-        <v>2</v>
-      </c>
-      <c r="D100" s="21">
-        <v>2</v>
-      </c>
-      <c r="E100" s="21">
-        <v>2</v>
-      </c>
-      <c r="F100" s="21">
-        <v>2</v>
-      </c>
-      <c r="G100" s="21">
-        <v>2</v>
-      </c>
-      <c r="H100" s="21">
-        <v>1</v>
-      </c>
-      <c r="I100" s="21">
-        <v>1</v>
-      </c>
-      <c r="J100" s="41">
+      <c r="C100" s="3">
+        <v>2</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2</v>
+      </c>
+      <c r="F100" s="3">
+        <v>2</v>
+      </c>
+      <c r="G100" s="3">
+        <v>2</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" s="3">
+        <v>1</v>
+      </c>
+      <c r="J100" s="38">
         <v>0</v>
       </c>
     </row>
@@ -2858,28 +2872,28 @@
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="21">
-        <v>1</v>
-      </c>
-      <c r="D101" s="21">
-        <v>1</v>
-      </c>
-      <c r="E101" s="21">
-        <v>1</v>
-      </c>
-      <c r="F101" s="21">
-        <v>1</v>
-      </c>
-      <c r="G101" s="21">
-        <v>1</v>
-      </c>
-      <c r="H101" s="21">
-        <v>1</v>
-      </c>
-      <c r="I101" s="21">
-        <v>1</v>
-      </c>
-      <c r="J101" s="41">
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101" s="3">
+        <v>1</v>
+      </c>
+      <c r="J101" s="38">
         <v>0</v>
       </c>
     </row>
@@ -2887,28 +2901,28 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="41">
-        <v>0</v>
-      </c>
-      <c r="D102" s="41">
-        <v>0</v>
-      </c>
-      <c r="E102" s="41">
-        <v>0</v>
-      </c>
-      <c r="F102" s="41">
-        <v>0</v>
-      </c>
-      <c r="G102" s="41">
-        <v>0</v>
-      </c>
-      <c r="H102" s="41">
-        <v>0</v>
-      </c>
-      <c r="I102" s="41">
-        <v>0</v>
-      </c>
-      <c r="J102" s="41">
+      <c r="C102" s="38">
+        <v>0</v>
+      </c>
+      <c r="D102" s="38">
+        <v>0</v>
+      </c>
+      <c r="E102" s="38">
+        <v>0</v>
+      </c>
+      <c r="F102" s="38">
+        <v>0</v>
+      </c>
+      <c r="G102" s="38">
+        <v>0</v>
+      </c>
+      <c r="H102" s="38">
+        <v>0</v>
+      </c>
+      <c r="I102" s="38">
+        <v>0</v>
+      </c>
+      <c r="J102" s="38">
         <v>0</v>
       </c>
     </row>
@@ -2928,34 +2942,34 @@
       </c>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="42"/>
+      <c r="G111" s="39"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="40">
-        <v>1</v>
-      </c>
-      <c r="C112" s="21">
-        <v>2</v>
-      </c>
-      <c r="D112" s="21">
-        <v>3</v>
-      </c>
-      <c r="E112" s="21">
+      <c r="B112" s="37">
+        <v>1</v>
+      </c>
+      <c r="C112" s="3">
+        <v>2</v>
+      </c>
+      <c r="D112" s="3">
+        <v>3</v>
+      </c>
+      <c r="E112" s="3">
         <v>4</v>
       </c>
-      <c r="F112" s="21">
+      <c r="F112" s="3">
         <v>5</v>
       </c>
-      <c r="G112" s="21">
+      <c r="G112" s="3">
         <v>6</v>
       </c>
-      <c r="H112" s="21">
+      <c r="H112" s="3">
         <v>7</v>
       </c>
-      <c r="I112" s="21">
+      <c r="I112" s="3">
         <v>8</v>
       </c>
     </row>
@@ -2963,28 +2977,28 @@
       <c r="A113" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="21">
-        <v>1</v>
-      </c>
-      <c r="C113" s="21">
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3">
         <v>5</v>
       </c>
-      <c r="D113" s="21">
+      <c r="D113" s="3">
         <v>8</v>
       </c>
-      <c r="E113" s="21">
+      <c r="E113" s="3">
         <v>9</v>
       </c>
-      <c r="F113" s="21">
+      <c r="F113" s="3">
         <v>10</v>
       </c>
-      <c r="G113" s="21">
+      <c r="G113" s="3">
         <v>17</v>
       </c>
-      <c r="H113" s="21">
+      <c r="H113" s="3">
         <v>17</v>
       </c>
-      <c r="I113" s="21">
+      <c r="I113" s="3">
         <v>20</v>
       </c>
     </row>
@@ -3029,7 +3043,7 @@
       <c r="A118" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="40">
+      <c r="B118" s="37">
         <v>1</v>
       </c>
       <c r="D118" t="s">
@@ -3038,7 +3052,7 @@
       <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="25">
+      <c r="F118" s="22">
         <v>1</v>
       </c>
     </row>
@@ -3051,10 +3065,10 @@
       <c r="A121" t="s">
         <v>64</v>
       </c>
-      <c r="B121" s="40">
-        <v>1</v>
-      </c>
-      <c r="C121" s="21">
+      <c r="B121" s="37">
+        <v>1</v>
+      </c>
+      <c r="C121" s="3">
         <v>2</v>
       </c>
       <c r="E121" t="s">
@@ -3066,7 +3080,7 @@
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="25">
+      <c r="H121" s="22">
         <v>5</v>
       </c>
     </row>
@@ -3091,13 +3105,13 @@
       <c r="A124" t="s">
         <v>70</v>
       </c>
-      <c r="B124" s="40">
-        <v>1</v>
-      </c>
-      <c r="C124" s="21">
-        <v>2</v>
-      </c>
-      <c r="D124" s="21">
+      <c r="B124" s="37">
+        <v>1</v>
+      </c>
+      <c r="C124" s="3">
+        <v>2</v>
+      </c>
+      <c r="D124" s="3">
         <v>3</v>
       </c>
       <c r="F124" t="s">
@@ -3109,7 +3123,7 @@
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="25">
+      <c r="I124" s="22">
         <v>8</v>
       </c>
     </row>
@@ -3148,16 +3162,16 @@
       <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="40">
-        <v>1</v>
-      </c>
-      <c r="C128" s="21">
-        <v>2</v>
-      </c>
-      <c r="D128" s="21">
-        <v>3</v>
-      </c>
-      <c r="E128" s="21">
+      <c r="B128" s="37">
+        <v>1</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2</v>
+      </c>
+      <c r="D128" s="3">
+        <v>3</v>
+      </c>
+      <c r="E128" s="3">
         <v>4</v>
       </c>
       <c r="G128" t="s">
@@ -3169,7 +3183,7 @@
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="25">
+      <c r="J128" s="22">
         <v>10</v>
       </c>
     </row>
@@ -3221,6 +3235,103 @@
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="40">
+        <v>2</v>
+      </c>
+      <c r="C142" s="40">
+        <v>7</v>
+      </c>
+      <c r="D142" s="40">
+        <v>9</v>
+      </c>
+      <c r="E142" s="40">
+        <v>3</v>
+      </c>
+      <c r="F142" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>59</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" t="s">
+        <v>90</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" t="s">
+        <v>91</v>
+      </c>
+      <c r="D146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" t="s">
+        <v>93</v>
+      </c>
+      <c r="D148" s="41">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3238,11 +3349,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3283,51 +3394,51 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="28">
+        <v>95</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="25">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="25">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -3348,7 +3459,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -3357,72 +3468,72 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
@@ -3434,22 +3545,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
@@ -3457,16 +3568,16 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="26">
-        <v>2</v>
-      </c>
-      <c r="D20" s="23">
-        <v>2</v>
-      </c>
-      <c r="E20" s="21">
+      <c r="B20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="23">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20">
@@ -3474,16 +3585,16 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
+      <c r="B21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21">
@@ -3494,16 +3605,16 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="21">
-        <v>1</v>
-      </c>
-      <c r="D22" s="21">
-        <v>1</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3511,16 +3622,16 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="21">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
-        <v>0</v>
-      </c>
-      <c r="F23" s="27">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24">
         <v>0</v>
       </c>
     </row>
@@ -3537,13 +3648,13 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -3563,59 +3674,59 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>102</v>
+      <c r="E37" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="21" t="s">
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>102</v>
+      <c r="C40" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -3623,11 +3734,11 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>102</v>
+      <c r="E41" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -3635,20 +3746,20 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>102</v>
+      <c r="D47" s="22" t="s">
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -3658,16 +3769,16 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="26">
-        <v>2</v>
-      </c>
-      <c r="D48" s="21">
-        <v>1</v>
-      </c>
-      <c r="E48" s="21">
+      <c r="C48" s="23">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
         <v>1</v>
       </c>
       <c r="F48">
@@ -3675,16 +3786,16 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="23">
-        <v>2</v>
-      </c>
-      <c r="D49" s="21">
-        <v>1</v>
-      </c>
-      <c r="E49" s="21">
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
         <v>1</v>
       </c>
       <c r="F49">
@@ -3692,16 +3803,16 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="21">
-        <v>2</v>
-      </c>
-      <c r="D50" s="23">
-        <v>1</v>
-      </c>
-      <c r="E50" s="21">
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
         <v>1</v>
       </c>
       <c r="F50">
@@ -3709,16 +3820,16 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="21">
-        <v>1</v>
-      </c>
-      <c r="D51" s="23">
-        <v>1</v>
-      </c>
-      <c r="E51" s="21">
+      <c r="B51" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
         <v>0</v>
       </c>
       <c r="F51">
@@ -3735,7 +3846,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="24">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3744,7 +3855,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -3756,7 +3867,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -3777,17 +3888,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="10.7428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.047619047619" customWidth="1"/>
-    <col min="4" max="6" width="26.7809523809524" customWidth="1"/>
-    <col min="7" max="10" width="36.352380952381" customWidth="1"/>
+    <col min="1" max="1" width="10.7387387387387" customWidth="1"/>
+    <col min="3" max="3" width="18.045045045045" customWidth="1"/>
+    <col min="4" max="6" width="26.7837837837838" customWidth="1"/>
+    <col min="7" max="10" width="36.3513513513514" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3836,7 +3947,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3877,39 +3988,39 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3941,12 +4052,12 @@
     </row>
     <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3977,7 +4088,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -3986,92 +4097,92 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -4092,16 +4203,16 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="21">
-        <v>1</v>
-      </c>
-      <c r="E18" s="21">
-        <v>2</v>
-      </c>
-      <c r="F18" s="21">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
         <v>3</v>
       </c>
     </row>
@@ -4109,16 +4220,16 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="21">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21">
-        <v>1</v>
-      </c>
-      <c r="E19" s="21">
-        <v>2</v>
-      </c>
-      <c r="F19" s="21">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
         <v>3</v>
       </c>
     </row>
@@ -4126,16 +4237,16 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="21">
-        <v>2</v>
-      </c>
-      <c r="D20" s="21">
-        <v>2</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4143,16 +4254,16 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="21">
-        <v>3</v>
-      </c>
-      <c r="D21" s="21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="21">
-        <v>2</v>
-      </c>
-      <c r="F21" s="21">
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4160,16 +4271,16 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="21">
-        <v>3</v>
-      </c>
-      <c r="E22" s="21">
-        <v>3</v>
-      </c>
-      <c r="F22" s="21">
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>2</v>
       </c>
     </row>
@@ -4177,16 +4288,16 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="3">
         <v>5</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="4">
         <v>3</v>
       </c>
     </row>
@@ -4205,13 +4316,13 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
   <cols>
     <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.047619047619" customWidth="1"/>
+    <col min="6" max="6" width="15.045045045045" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.8095238095238" customWidth="1"/>
-    <col min="9" max="9" width="18.0952380952381" customWidth="1"/>
+    <col min="8" max="8" width="13.8108108108108" customWidth="1"/>
+    <col min="9" max="9" width="18.0990990990991" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -4219,16 +4330,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="1"/>
-    <row r="3" ht="15.75" spans="2:12">
+    <row r="3" ht="15.3" spans="2:12">
       <c r="B3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L3" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="2:12">
+    <row r="4" ht="15.3" spans="2:12">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -4236,10 +4346,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="2:9">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" ht="15.3" spans="2:9">
       <c r="B5" s="8"/>
       <c r="C5" s="9">
         <v>2</v>
@@ -4248,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="2:9">
+    <row r="6" ht="15.3" spans="2:9">
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9">
@@ -4258,7 +4368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:9">
+    <row r="7" ht="15.3" spans="2:9">
       <c r="B7" s="8"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -4269,7 +4379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:9">
+    <row r="8" ht="15.3" spans="2:9">
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4281,20 +4391,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="1"/>
-    <row r="10" customFormat="1" ht="15.75" spans="2:2">
+    <row r="10" customFormat="1" ht="15.3" spans="2:2">
       <c r="B10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="2:9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" ht="15.3" spans="2:9">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I11" s="19">
         <v>10</v>
@@ -4302,7 +4411,7 @@
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I12" s="19">
         <v>11</v>
@@ -4310,7 +4419,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I13" s="19">
         <v>11</v>
@@ -4318,7 +4427,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I14" s="19">
         <v>10</v>
@@ -4334,7 +4443,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I16" s="17">
         <v>12</v>
@@ -4342,14 +4451,12 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I17" s="17">
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
     <row r="20" customFormat="1" spans="1:2">
       <c r="A20" t="s">
         <v>59</v>
@@ -4358,15 +4465,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="1" ht="15.75"/>
-    <row r="22" customFormat="1" ht="15.75" spans="1:5">
+    <row r="21" ht="15.3"/>
+    <row r="22" customFormat="1" ht="15.3" spans="1:5">
       <c r="A22" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="18">
         <v>1</v>
       </c>
-      <c r="C22"/>
       <c r="D22" s="19" t="s">
         <v>62</v>
       </c>
@@ -4374,8 +4480,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="15.75"/>
-    <row r="24" customFormat="1" ht="15.75" spans="1:7">
+    <row r="23" ht="15.3"/>
+    <row r="24" customFormat="1" ht="15.3" spans="1:7">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -4383,7 +4489,6 @@
       <c r="C24" s="16">
         <v>2</v>
       </c>
-      <c r="D24"/>
       <c r="E24" t="s">
         <v>65</v>
       </c>
@@ -4399,7 +4504,7 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G25" s="17">
         <v>5</v>
@@ -4408,10 +4513,10 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="12:13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" ht="15.3" spans="12:13">
       <c r="L26">
         <v>1</v>
       </c>
@@ -4419,7 +4524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:13">
+    <row r="27" ht="15.3" spans="1:13">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -4466,7 +4571,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H29" s="17">
         <v>7</v>
@@ -4486,8 +4591,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="15.75"/>
-    <row r="32" ht="15.75" spans="1:9">
+    <row r="31" ht="15.3"/>
+    <row r="32" ht="15.3" spans="1:9">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -4534,17 +4639,16 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I35" s="19">
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="1"/>
-    <row r="37" customFormat="1" ht="15.75"/>
-    <row r="38" ht="15.75" spans="1:10">
+    <row r="37" ht="15.3"/>
+    <row r="38" ht="15.3" spans="1:10">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
@@ -4554,10 +4658,10 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J38" s="19">
         <v>12</v>
@@ -4565,10 +4669,10 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J39" s="19">
         <v>12</v>
@@ -4576,10 +4680,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I40" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J40" s="17">
         <v>12</v>
@@ -4587,10 +4691,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I41" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J41" s="19">
         <v>10</v>
@@ -4598,10 +4702,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I42" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J42" s="19">
         <v>10</v>
@@ -4618,30 +4722,30 @@
   <sheetPr/>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="12.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="16.4324324324324" customWidth="1"/>
+    <col min="2" max="2" width="15.2882882882883" customWidth="1"/>
+    <col min="12" max="12" width="12.7117117117117" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -4666,7 +4770,7 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M15" s="3">
         <v>4</v>
@@ -4684,12 +4788,12 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M16" s="3">
         <v>12</v>
@@ -4707,12 +4811,12 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M19" s="5">
         <v>15</v>
@@ -4720,10 +4824,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4776,7 +4880,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4832,7 +4936,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4888,7 +4992,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -4944,7 +5048,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -5000,7 +5104,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -5056,7 +5160,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5112,17 +5216,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="43" t="s">
-        <v>165</v>
+      <c r="A38" s="42" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="43" t="s">
-        <v>166</v>
+      <c r="A39" s="42" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27428" windowHeight="11734"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -543,10 +543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="26">
@@ -599,19 +599,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,84 +629,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,7 +647,89 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,14 +737,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,7 +758,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,31 +794,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,31 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,79 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,13 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,9 +1216,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,23 +1282,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1265,8 +1291,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1285,42 +1311,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,109 +1332,109 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,29 +1443,30 @@
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1484,7 +1485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1506,8 +1506,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1600,8 +1598,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="963930" y="747395"/>
-          <a:ext cx="4586605" cy="2357120"/>
+          <a:off x="929005" y="770255"/>
+          <a:ext cx="4342130" cy="2425700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,8 +1645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1647190" y="706120"/>
-          <a:ext cx="4572000" cy="3590290"/>
+          <a:off x="1584325" y="723265"/>
+          <a:ext cx="4304030" cy="3704590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1924,18 +1922,18 @@
   <sheetPr/>
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.009009009009" customWidth="1"/>
-    <col min="3" max="3" width="8.52252252252252" customWidth="1"/>
-    <col min="4" max="4" width="15.3693693693694" customWidth="1"/>
-    <col min="5" max="5" width="12.7027027027027" customWidth="1"/>
-    <col min="6" max="7" width="12.3153153153153" customWidth="1"/>
-    <col min="8" max="8" width="13.1261261261261" customWidth="1"/>
+    <col min="2" max="2" width="23.0095238095238" customWidth="1"/>
+    <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
+    <col min="4" max="4" width="15.3714285714286" customWidth="1"/>
+    <col min="5" max="5" width="12.7047619047619" customWidth="1"/>
+    <col min="6" max="7" width="12.3142857142857" customWidth="1"/>
+    <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -1947,19 +1945,19 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
@@ -1970,13 +1968,13 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -2001,19 +1999,19 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2021,19 +2019,19 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2041,19 +2039,19 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2061,19 +2059,19 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2081,19 +2079,19 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2101,16 +2099,16 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2155,28 +2153,28 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>10</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>9</v>
       </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
         <v>5</v>
       </c>
-      <c r="F23" s="3">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2">
         <v>7</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>101</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>18</v>
       </c>
       <c r="J23" s="28" t="s">
@@ -2193,7 +2191,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="23">
         <v>4</v>
       </c>
       <c r="E25">
@@ -2302,16 +2300,16 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2319,16 +2317,16 @@
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
         <v>3</v>
       </c>
     </row>
@@ -2336,16 +2334,16 @@
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="3">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2353,16 +2351,16 @@
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="3">
-        <v>3</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="C44" s="2">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2370,16 +2368,16 @@
       <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>4</v>
       </c>
-      <c r="D45" s="3">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
         <v>2</v>
       </c>
     </row>
@@ -2387,16 +2385,16 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>5</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>4</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>4</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2470,7 +2468,7 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="22" t="b">
+      <c r="B55" s="23" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -2516,28 +2514,28 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" ht="15.3"/>
-    <row r="67" ht="15.3" spans="7:7">
+    <row r="66" ht="15.75"/>
+    <row r="67" ht="15.75" spans="7:7">
       <c r="G67" s="29"/>
     </row>
-    <row r="68" ht="15.3" spans="6:7">
+    <row r="68" ht="15.75" spans="6:7">
       <c r="F68" s="30"/>
       <c r="G68" s="31"/>
     </row>
-    <row r="69" ht="15.3" spans="5:7">
+    <row r="69" ht="15.75" spans="5:7">
       <c r="E69" s="30"/>
       <c r="F69" s="32"/>
       <c r="G69" s="31"/>
     </row>
-    <row r="70" ht="15.3" spans="4:7">
+    <row r="70" ht="15.75" spans="4:7">
       <c r="D70" s="30"/>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
       <c r="G70" s="31"/>
     </row>
-    <row r="71" ht="15.3" spans="2:7">
+    <row r="71" ht="15.75" spans="2:7">
       <c r="B71" s="33"/>
-      <c r="C71" s="11"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
@@ -2570,7 +2568,7 @@
       <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="22">
+      <c r="B74" s="23">
         <v>8</v>
       </c>
       <c r="C74">
@@ -2608,28 +2606,28 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" ht="15.3"/>
-    <row r="80" ht="15.3" spans="7:7">
+    <row r="79" ht="15.75"/>
+    <row r="80" ht="15.75" spans="7:7">
       <c r="G80" s="29"/>
     </row>
-    <row r="81" ht="15.3" spans="6:7">
+    <row r="81" ht="15.75" spans="6:7">
       <c r="F81" s="30"/>
       <c r="G81" s="31"/>
     </row>
-    <row r="82" ht="15.3" spans="5:7">
+    <row r="82" ht="15.75" spans="5:7">
       <c r="E82" s="30"/>
       <c r="F82" s="32"/>
       <c r="G82" s="31"/>
     </row>
-    <row r="83" ht="15.3" spans="4:7">
+    <row r="83" ht="15.75" spans="4:7">
       <c r="D83" s="30"/>
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
       <c r="G83" s="31"/>
     </row>
-    <row r="84" ht="15.3" spans="2:7">
+    <row r="84" ht="15.75" spans="2:7">
       <c r="B84" s="33"/>
-      <c r="C84" s="11"/>
+      <c r="C84" s="12"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
@@ -2662,7 +2660,7 @@
       <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="22">
+      <c r="B87" s="23">
         <v>13</v>
       </c>
       <c r="C87">
@@ -2736,16 +2734,16 @@
       <c r="E96" s="37">
         <v>3</v>
       </c>
-      <c r="F96" s="3">
-        <v>2</v>
-      </c>
-      <c r="G96" s="3">
-        <v>2</v>
-      </c>
-      <c r="H96" s="3">
-        <v>1</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="F96" s="2">
+        <v>2</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1</v>
+      </c>
+      <c r="I96" s="2">
         <v>1</v>
       </c>
       <c r="J96" s="38">
@@ -2765,16 +2763,16 @@
       <c r="E97" s="37">
         <v>3</v>
       </c>
-      <c r="F97" s="3">
-        <v>2</v>
-      </c>
-      <c r="G97" s="3">
-        <v>2</v>
-      </c>
-      <c r="H97" s="3">
-        <v>1</v>
-      </c>
-      <c r="I97" s="3">
+      <c r="F97" s="2">
+        <v>2</v>
+      </c>
+      <c r="G97" s="2">
+        <v>2</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1</v>
+      </c>
+      <c r="I97" s="2">
         <v>1</v>
       </c>
       <c r="J97" s="38">
@@ -2794,16 +2792,16 @@
       <c r="E98" s="37">
         <v>3</v>
       </c>
-      <c r="F98" s="3">
-        <v>2</v>
-      </c>
-      <c r="G98" s="3">
-        <v>2</v>
-      </c>
-      <c r="H98" s="3">
-        <v>1</v>
-      </c>
-      <c r="I98" s="3">
+      <c r="F98" s="2">
+        <v>2</v>
+      </c>
+      <c r="G98" s="2">
+        <v>2</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2">
         <v>1</v>
       </c>
       <c r="J98" s="38">
@@ -2814,25 +2812,25 @@
       <c r="B99" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="3">
-        <v>3</v>
-      </c>
-      <c r="D99" s="3">
-        <v>3</v>
-      </c>
-      <c r="E99" s="3">
-        <v>3</v>
-      </c>
-      <c r="F99" s="3">
-        <v>2</v>
-      </c>
-      <c r="G99" s="3">
-        <v>2</v>
-      </c>
-      <c r="H99" s="3">
-        <v>1</v>
-      </c>
-      <c r="I99" s="3">
+      <c r="C99" s="2">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>3</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2</v>
+      </c>
+      <c r="G99" s="2">
+        <v>2</v>
+      </c>
+      <c r="H99" s="2">
+        <v>1</v>
+      </c>
+      <c r="I99" s="2">
         <v>1</v>
       </c>
       <c r="J99" s="38">
@@ -2843,25 +2841,25 @@
       <c r="B100" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="3">
-        <v>2</v>
-      </c>
-      <c r="D100" s="3">
-        <v>2</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2</v>
-      </c>
-      <c r="F100" s="3">
-        <v>2</v>
-      </c>
-      <c r="G100" s="3">
-        <v>2</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="C100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2</v>
+      </c>
+      <c r="G100" s="2">
+        <v>2</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1</v>
+      </c>
+      <c r="I100" s="2">
         <v>1</v>
       </c>
       <c r="J100" s="38">
@@ -2872,25 +2870,25 @@
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="3">
-        <v>1</v>
-      </c>
-      <c r="D101" s="3">
-        <v>1</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="3">
-        <v>1</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2">
+        <v>1</v>
+      </c>
+      <c r="I101" s="2">
         <v>1</v>
       </c>
       <c r="J101" s="38">
@@ -2951,25 +2949,25 @@
       <c r="B112" s="37">
         <v>1</v>
       </c>
-      <c r="C112" s="3">
-        <v>2</v>
-      </c>
-      <c r="D112" s="3">
-        <v>3</v>
-      </c>
-      <c r="E112" s="3">
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2">
+        <v>3</v>
+      </c>
+      <c r="E112" s="2">
         <v>4</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2">
         <v>5</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="2">
         <v>6</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="2">
         <v>7</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="2">
         <v>8</v>
       </c>
     </row>
@@ -2977,28 +2975,28 @@
       <c r="A113" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="3">
-        <v>1</v>
-      </c>
-      <c r="C113" s="3">
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2">
         <v>5</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="2">
         <v>8</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="2">
         <v>9</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="2">
         <v>10</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="2">
         <v>17</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="2">
         <v>17</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="2">
         <v>20</v>
       </c>
     </row>
@@ -3052,7 +3050,7 @@
       <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="22">
+      <c r="F118" s="23">
         <v>1</v>
       </c>
     </row>
@@ -3068,7 +3066,7 @@
       <c r="B121" s="37">
         <v>1</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="2">
         <v>2</v>
       </c>
       <c r="E121" t="s">
@@ -3080,7 +3078,7 @@
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="22">
+      <c r="H121" s="23">
         <v>5</v>
       </c>
     </row>
@@ -3108,10 +3106,10 @@
       <c r="B124" s="37">
         <v>1</v>
       </c>
-      <c r="C124" s="3">
-        <v>2</v>
-      </c>
-      <c r="D124" s="3">
+      <c r="C124" s="2">
+        <v>2</v>
+      </c>
+      <c r="D124" s="2">
         <v>3</v>
       </c>
       <c r="F124" t="s">
@@ -3123,7 +3121,7 @@
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="22">
+      <c r="I124" s="23">
         <v>8</v>
       </c>
     </row>
@@ -3165,13 +3163,13 @@
       <c r="B128" s="37">
         <v>1</v>
       </c>
-      <c r="C128" s="3">
-        <v>2</v>
-      </c>
-      <c r="D128" s="3">
-        <v>3</v>
-      </c>
-      <c r="E128" s="3">
+      <c r="C128" s="2">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2">
         <v>4</v>
       </c>
       <c r="G128" t="s">
@@ -3183,7 +3181,7 @@
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="22">
+      <c r="J128" s="23">
         <v>10</v>
       </c>
     </row>
@@ -3266,19 +3264,19 @@
       <c r="A142" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="40">
-        <v>2</v>
-      </c>
-      <c r="C142" s="40">
+      <c r="B142" s="2">
+        <v>2</v>
+      </c>
+      <c r="C142" s="2">
         <v>7</v>
       </c>
-      <c r="D142" s="40">
+      <c r="D142" s="2">
         <v>9</v>
       </c>
-      <c r="E142" s="40">
-        <v>3</v>
-      </c>
-      <c r="F142" s="40">
+      <c r="E142" s="2">
+        <v>3</v>
+      </c>
+      <c r="F142" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3330,7 +3328,7 @@
       <c r="B148" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="41">
+      <c r="D148" s="23">
         <v>12</v>
       </c>
     </row>
@@ -3349,7 +3347,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -3459,7 +3457,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -3485,16 +3483,16 @@
       <c r="A8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3502,13 +3500,13 @@
       <c r="A9" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3516,10 +3514,10 @@
       <c r="A11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3530,10 +3528,10 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
@@ -3554,13 +3552,13 @@
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
@@ -3568,16 +3566,16 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="23">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="B20" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="24">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20">
@@ -3585,16 +3583,16 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="B21" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21">
@@ -3605,16 +3603,16 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="24">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3622,16 +3620,16 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="24">
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3648,7 +3646,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3686,16 +3684,16 @@
       <c r="A37" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3703,13 +3701,13 @@
       <c r="A38" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3717,10 +3715,10 @@
       <c r="A40" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3734,10 +3732,10 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F41" t="s">
@@ -3755,10 +3753,10 @@
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E47" t="s">
@@ -3769,16 +3767,16 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="23">
-        <v>2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="C48" s="24">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
         <v>1</v>
       </c>
       <c r="F48">
@@ -3786,16 +3784,16 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="2">
-        <v>2</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="C49" s="4">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
         <v>1</v>
       </c>
       <c r="F49">
@@ -3803,16 +3801,16 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="3">
-        <v>2</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50">
@@ -3820,16 +3818,16 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
         <v>0</v>
       </c>
       <c r="F51">
@@ -3846,7 +3844,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3888,12 +3886,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7387387387387" customWidth="1"/>
-    <col min="3" max="3" width="18.045045045045" customWidth="1"/>
-    <col min="4" max="6" width="26.7837837837838" customWidth="1"/>
-    <col min="7" max="10" width="36.3513513513514" customWidth="1"/>
+    <col min="1" max="1" width="10.7428571428571" customWidth="1"/>
+    <col min="3" max="3" width="18.047619047619" customWidth="1"/>
+    <col min="4" max="6" width="26.7809523809524" customWidth="1"/>
+    <col min="7" max="10" width="36.352380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4088,7 +4086,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -4099,19 +4097,19 @@
       <c r="A3" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4119,44 +4117,44 @@
       <c r="A4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4203,16 +4201,16 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
         <v>3</v>
       </c>
     </row>
@@ -4220,16 +4218,16 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
         <v>3</v>
       </c>
     </row>
@@ -4237,16 +4235,16 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4254,16 +4252,16 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4271,16 +4269,16 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
         <v>2</v>
       </c>
     </row>
@@ -4288,16 +4286,16 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>5</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>3</v>
       </c>
     </row>
@@ -4316,13 +4314,13 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.045045045045" customWidth="1"/>
+    <col min="6" max="6" width="15.047619047619" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.8108108108108" customWidth="1"/>
-    <col min="9" max="9" width="18.0990990990991" customWidth="1"/>
+    <col min="8" max="8" width="13.8095238095238" customWidth="1"/>
+    <col min="9" max="9" width="18.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -4330,82 +4328,82 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" ht="15.3" spans="2:12">
+    <row r="3" ht="15.75" spans="2:12">
       <c r="B3" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.3" spans="2:12">
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19">
-        <v>2</v>
-      </c>
-      <c r="L4" s="20" t="s">
+    <row r="4" ht="15.75" spans="2:12">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="20">
+        <v>2</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" ht="15.3" spans="2:9">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="I5" s="19">
+    <row r="5" ht="15.75" spans="2:9">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15.3" spans="2:9">
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9">
-        <v>3</v>
-      </c>
-      <c r="I6" s="19">
+    <row r="6" ht="15.75" spans="2:9">
+      <c r="B6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.3" spans="2:9">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9">
+    <row r="7" ht="15.75" spans="2:9">
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10">
         <v>4</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15.3" spans="2:9">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13">
+    <row r="8" ht="15.75" spans="2:9">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14">
         <v>5</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.3" spans="2:2">
+    <row r="10" customFormat="1" ht="15.75" spans="2:2">
       <c r="B10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" ht="15.3" spans="2:9">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+    <row r="11" ht="15.75" spans="2:9">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
       <c r="H11" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="20">
         <v>10</v>
       </c>
     </row>
@@ -4413,7 +4411,7 @@
       <c r="H12" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="20">
         <v>11</v>
       </c>
     </row>
@@ -4421,7 +4419,7 @@
       <c r="H13" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="20">
         <v>11</v>
       </c>
     </row>
@@ -4429,7 +4427,7 @@
       <c r="H14" t="s">
         <v>137</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="20">
         <v>10</v>
       </c>
     </row>
@@ -4437,7 +4435,7 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="20">
         <v>10</v>
       </c>
     </row>
@@ -4445,7 +4443,7 @@
       <c r="H16" t="s">
         <v>138</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="18">
         <v>12</v>
       </c>
     </row>
@@ -4453,7 +4451,7 @@
       <c r="H17" t="s">
         <v>139</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="18">
         <v>12</v>
       </c>
     </row>
@@ -4461,32 +4459,32 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.3"/>
-    <row r="22" customFormat="1" ht="15.3" spans="1:5">
+      <c r="B20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75"/>
+    <row r="22" customFormat="1" ht="15.75" spans="1:5">
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="18">
-        <v>1</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="B22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" ht="15.3"/>
-    <row r="24" customFormat="1" ht="15.3" spans="1:7">
+      <c r="E22" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75"/>
+    <row r="24" customFormat="1" ht="15.75" spans="1:7">
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16">
+      <c r="B24" s="15"/>
+      <c r="C24" s="17">
         <v>2</v>
       </c>
       <c r="E24" t="s">
@@ -4495,7 +4493,7 @@
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="20">
         <v>4</v>
       </c>
     </row>
@@ -4506,7 +4504,7 @@
       <c r="F25" t="s">
         <v>140</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="18">
         <v>5</v>
       </c>
       <c r="L25" t="s">
@@ -4516,21 +4514,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" ht="15.3" spans="12:13">
+    <row r="26" ht="15.75" spans="12:13">
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" ht="15.3" spans="1:13">
+      <c r="M26" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:13">
       <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16">
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17">
         <v>3</v>
       </c>
       <c r="F27" t="s">
@@ -4539,13 +4537,13 @@
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="20">
         <v>7</v>
       </c>
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="20">
         <v>5</v>
       </c>
     </row>
@@ -4556,13 +4554,13 @@
       <c r="G28" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="20">
         <v>7</v>
       </c>
       <c r="L28">
         <v>3</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="20">
         <v>7</v>
       </c>
     </row>
@@ -4573,13 +4571,13 @@
       <c r="G29" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="18">
         <v>7</v>
       </c>
       <c r="L29">
         <v>4</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="20">
         <v>8</v>
       </c>
     </row>
@@ -4587,19 +4585,19 @@
       <c r="L30">
         <v>5</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="15.3"/>
-    <row r="32" ht="15.3" spans="1:9">
+    <row r="31" ht="15.75"/>
+    <row r="32" ht="15.75" spans="1:9">
       <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16">
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17">
         <v>4</v>
       </c>
       <c r="G32" t="s">
@@ -4608,7 +4606,7 @@
       <c r="H32" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="20">
         <v>9</v>
       </c>
     </row>
@@ -4619,7 +4617,7 @@
       <c r="H33" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="18">
         <v>10</v>
       </c>
     </row>
@@ -4630,7 +4628,7 @@
       <c r="H34" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="20">
         <v>9</v>
       </c>
     </row>
@@ -4641,20 +4639,20 @@
       <c r="H35" t="s">
         <v>143</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="15.3"/>
-    <row r="38" ht="15.3" spans="1:10">
+    <row r="37" ht="15.75"/>
+    <row r="38" ht="15.75" spans="1:10">
       <c r="A38" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="16">
+      <c r="B38" s="15"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17">
         <v>5</v>
       </c>
       <c r="H38" t="s">
@@ -4663,7 +4661,7 @@
       <c r="I38" t="s">
         <v>145</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="20">
         <v>12</v>
       </c>
     </row>
@@ -4674,7 +4672,7 @@
       <c r="I39" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="20">
         <v>12</v>
       </c>
     </row>
@@ -4685,7 +4683,7 @@
       <c r="I40" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="18">
         <v>12</v>
       </c>
     </row>
@@ -4696,7 +4694,7 @@
       <c r="I41" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="20">
         <v>10</v>
       </c>
     </row>
@@ -4707,7 +4705,7 @@
       <c r="I42" t="s">
         <v>152</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="20">
         <v>10</v>
       </c>
     </row>
@@ -4722,15 +4720,15 @@
   <sheetPr/>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.4324324324324" customWidth="1"/>
-    <col min="2" max="2" width="15.2882882882883" customWidth="1"/>
-    <col min="12" max="12" width="12.7117117117117" customWidth="1"/>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4772,19 +4770,19 @@
       <c r="L15" t="s">
         <v>156</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>4</v>
       </c>
-      <c r="N15" s="2">
-        <v>2</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
         <v>10</v>
       </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
         <v>2</v>
       </c>
       <c r="R15" t="s">
@@ -4795,19 +4793,19 @@
       <c r="L16" t="s">
         <v>158</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>12</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
         <v>4</v>
       </c>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
         <v>2</v>
       </c>
       <c r="R16" t="s">
@@ -4906,7 +4904,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>0</v>
       </c>
       <c r="K29">
@@ -4944,49 +4942,49 @@
       <c r="C30" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
         <v>4</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="2">
         <v>4</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="2">
         <v>4</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="2">
         <v>4</v>
       </c>
     </row>
@@ -4997,52 +4995,52 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
         <v>2</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" s="3">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3">
-        <v>2</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2</v>
-      </c>
-      <c r="M31" s="3">
-        <v>2</v>
-      </c>
-      <c r="N31" s="3">
-        <v>2</v>
-      </c>
-      <c r="O31" s="3">
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="4">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2">
+        <v>2</v>
+      </c>
+      <c r="O31" s="2">
         <v>4</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <v>6</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="2">
         <v>6</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5053,52 +5051,52 @@
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <v>2</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
         <v>10</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>12</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>12</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>12</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>12</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>12</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="2">
         <v>12</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="2">
         <v>12</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="4">
         <v>12</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="2">
         <v>12</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="2">
         <v>12</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="2">
         <v>12</v>
       </c>
     </row>
@@ -5109,52 +5107,52 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>2</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
         <v>10</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>12</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <v>13</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>13</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>13</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <v>13</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <v>13</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="2">
         <v>13</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="2">
         <v>13</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33" s="4">
         <v>13</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="2">
         <v>13</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="2">
         <v>13</v>
       </c>
     </row>
@@ -5165,52 +5163,52 @@
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3">
         <v>4</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>10</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>12</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>13</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>14</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="3">
         <v>15</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <v>15</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <v>15</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="2">
         <v>15</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="2">
         <v>15</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="2">
         <v>15</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="2">
         <v>15</v>
       </c>
-      <c r="R34" s="6">
+      <c r="R34" s="7">
         <v>15</v>
       </c>
     </row>
@@ -5220,12 +5218,12 @@
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="40" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="40" t="s">
         <v>171</v>
       </c>
     </row>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="Edit Distance" sheetId="5" r:id="rId5"/>
     <sheet name="RodCutting" sheetId="6" r:id="rId6"/>
     <sheet name="Knapsack" sheetId="7" r:id="rId7"/>
+    <sheet name="MinimumPartition" sheetId="8" r:id="rId8"/>
+    <sheet name="WordBreak" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="187">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -394,6 +396,18 @@
     <t>coins</t>
   </si>
   <si>
+    <t>amount=&gt;</t>
+  </si>
+  <si>
+    <t>1+dp[3-1],1+dp[3-2]</t>
+  </si>
+  <si>
+    <t>1+dp[3],1+dp[2]</t>
+  </si>
+  <si>
+    <t>3,3,1</t>
+  </si>
+  <si>
     <t>word1</t>
   </si>
   <si>
@@ -536,6 +550,39 @@
   </si>
   <si>
     <t>- Value of nth item plus maximum value obtained by n-1 items and W minus the weight of the nth item (including nth item).</t>
+  </si>
+  <si>
+    <t>2,4,2,3</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>s = "leetcode", wordDict = ["leet","code"]</t>
+  </si>
+  <si>
+    <t>leet</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>dp[0] = dp[0+4]</t>
+  </si>
+  <si>
+    <t>dp[3] = dp[i+word.length]</t>
+  </si>
+  <si>
+    <t>i=3</t>
+  </si>
+  <si>
+    <t>dp[3] = dp[7]</t>
   </si>
 </sst>
 </file>
@@ -543,8 +590,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -566,6 +613,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF263238"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -573,7 +627,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -587,21 +640,50 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF263238"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9.8"/>
       <color rgb="FF6897BB"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,15 +697,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +714,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,40 +769,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,53 +782,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,7 +805,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +925,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,163 +973,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,56 +1257,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1282,8 +1279,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,10 +1323,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,138 +1379,143 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1478,20 +1530,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -1502,7 +1553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1922,7 +1973,7 @@
   <sheetPr/>
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
@@ -1945,19 +1996,19 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
@@ -1968,13 +2019,13 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -1999,19 +2050,19 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="5">
         <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2019,19 +2070,19 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2039,19 +2090,19 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="5">
         <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2059,19 +2110,19 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="5">
         <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2079,19 +2130,19 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2099,16 +2150,16 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2145,7 +2196,7 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2153,31 +2204,31 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>10</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>9</v>
       </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5">
         <v>5</v>
       </c>
-      <c r="F23" s="2">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="5">
+        <v>3</v>
+      </c>
+      <c r="G23" s="5">
         <v>7</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <v>101</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>18</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2191,7 +2242,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="26">
         <v>4</v>
       </c>
       <c r="E25">
@@ -2300,16 +2351,16 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2317,16 +2368,16 @@
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>2</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2</v>
+      </c>
+      <c r="F42" s="5">
         <v>3</v>
       </c>
     </row>
@@ -2334,16 +2385,16 @@
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="2">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2351,16 +2402,16 @@
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="2">
-        <v>3</v>
-      </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2">
-        <v>2</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="C44" s="5">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2</v>
+      </c>
+      <c r="F44" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2368,16 +2419,16 @@
       <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="5">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
-        <v>3</v>
-      </c>
-      <c r="E45" s="2">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="D45" s="5">
+        <v>3</v>
+      </c>
+      <c r="E45" s="5">
+        <v>3</v>
+      </c>
+      <c r="F45" s="5">
         <v>2</v>
       </c>
     </row>
@@ -2385,16 +2436,16 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="5">
         <v>5</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="5">
         <v>4</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="5">
         <v>4</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2439,28 +2490,28 @@
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G53" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="26" t="s">
+      <c r="I53" s="29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2468,7 +2519,7 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="23" t="b">
+      <c r="B55" s="26" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -2500,7 +2551,7 @@
       <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2516,30 +2567,30 @@
     </row>
     <row r="66" ht="15.75"/>
     <row r="67" ht="15.75" spans="7:7">
-      <c r="G67" s="29"/>
+      <c r="G67" s="31"/>
     </row>
     <row r="68" ht="15.75" spans="6:7">
-      <c r="F68" s="30"/>
-      <c r="G68" s="31"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="33"/>
     </row>
     <row r="69" ht="15.75" spans="5:7">
-      <c r="E69" s="30"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="31"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="33"/>
     </row>
     <row r="70" ht="15.75" spans="4:7">
-      <c r="D70" s="30"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="33"/>
     </row>
     <row r="71" ht="15.75" spans="2:7">
-      <c r="B71" s="33"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="37"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -2568,7 +2619,7 @@
       <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="23">
+      <c r="B74" s="26">
         <v>8</v>
       </c>
       <c r="C74">
@@ -2608,30 +2659,30 @@
     </row>
     <row r="79" ht="15.75"/>
     <row r="80" ht="15.75" spans="7:7">
-      <c r="G80" s="29"/>
+      <c r="G80" s="31"/>
     </row>
     <row r="81" ht="15.75" spans="6:7">
-      <c r="F81" s="30"/>
-      <c r="G81" s="31"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="33"/>
     </row>
     <row r="82" ht="15.75" spans="5:7">
-      <c r="E82" s="30"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="31"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="33"/>
     </row>
     <row r="83" ht="15.75" spans="4:7">
-      <c r="D83" s="30"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="32"/>
-      <c r="G83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="33"/>
     </row>
     <row r="84" ht="15.75" spans="2:7">
-      <c r="B84" s="33"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="37"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -2660,7 +2711,7 @@
       <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="26">
         <v>13</v>
       </c>
       <c r="C87">
@@ -2725,28 +2776,28 @@
       <c r="B96" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="36">
+      <c r="C96" s="38">
         <v>4</v>
       </c>
-      <c r="D96" s="37">
-        <v>3</v>
-      </c>
-      <c r="E96" s="37">
-        <v>3</v>
-      </c>
-      <c r="F96" s="2">
-        <v>2</v>
-      </c>
-      <c r="G96" s="2">
-        <v>2</v>
-      </c>
-      <c r="H96" s="2">
-        <v>1</v>
-      </c>
-      <c r="I96" s="2">
-        <v>1</v>
-      </c>
-      <c r="J96" s="38">
+      <c r="D96" s="39">
+        <v>3</v>
+      </c>
+      <c r="E96" s="39">
+        <v>3</v>
+      </c>
+      <c r="F96" s="5">
+        <v>2</v>
+      </c>
+      <c r="G96" s="5">
+        <v>2</v>
+      </c>
+      <c r="H96" s="5">
+        <v>1</v>
+      </c>
+      <c r="I96" s="5">
+        <v>1</v>
+      </c>
+      <c r="J96" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2754,28 +2805,28 @@
       <c r="B97" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="37">
+      <c r="C97" s="39">
         <v>4</v>
       </c>
-      <c r="D97" s="37">
-        <v>3</v>
-      </c>
-      <c r="E97" s="37">
-        <v>3</v>
-      </c>
-      <c r="F97" s="2">
-        <v>2</v>
-      </c>
-      <c r="G97" s="2">
-        <v>2</v>
-      </c>
-      <c r="H97" s="2">
-        <v>1</v>
-      </c>
-      <c r="I97" s="2">
-        <v>1</v>
-      </c>
-      <c r="J97" s="38">
+      <c r="D97" s="39">
+        <v>3</v>
+      </c>
+      <c r="E97" s="39">
+        <v>3</v>
+      </c>
+      <c r="F97" s="5">
+        <v>2</v>
+      </c>
+      <c r="G97" s="5">
+        <v>2</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1</v>
+      </c>
+      <c r="I97" s="5">
+        <v>1</v>
+      </c>
+      <c r="J97" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2783,28 +2834,28 @@
       <c r="B98" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="37">
+      <c r="C98" s="39">
         <v>4</v>
       </c>
-      <c r="D98" s="37">
-        <v>3</v>
-      </c>
-      <c r="E98" s="37">
-        <v>3</v>
-      </c>
-      <c r="F98" s="2">
-        <v>2</v>
-      </c>
-      <c r="G98" s="2">
-        <v>2</v>
-      </c>
-      <c r="H98" s="2">
-        <v>1</v>
-      </c>
-      <c r="I98" s="2">
-        <v>1</v>
-      </c>
-      <c r="J98" s="38">
+      <c r="D98" s="39">
+        <v>3</v>
+      </c>
+      <c r="E98" s="39">
+        <v>3</v>
+      </c>
+      <c r="F98" s="5">
+        <v>2</v>
+      </c>
+      <c r="G98" s="5">
+        <v>2</v>
+      </c>
+      <c r="H98" s="5">
+        <v>1</v>
+      </c>
+      <c r="I98" s="5">
+        <v>1</v>
+      </c>
+      <c r="J98" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2812,28 +2863,28 @@
       <c r="B99" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="2">
-        <v>3</v>
-      </c>
-      <c r="D99" s="2">
-        <v>3</v>
-      </c>
-      <c r="E99" s="2">
-        <v>3</v>
-      </c>
-      <c r="F99" s="2">
-        <v>2</v>
-      </c>
-      <c r="G99" s="2">
-        <v>2</v>
-      </c>
-      <c r="H99" s="2">
-        <v>1</v>
-      </c>
-      <c r="I99" s="2">
-        <v>1</v>
-      </c>
-      <c r="J99" s="38">
+      <c r="C99" s="5">
+        <v>3</v>
+      </c>
+      <c r="D99" s="5">
+        <v>3</v>
+      </c>
+      <c r="E99" s="5">
+        <v>3</v>
+      </c>
+      <c r="F99" s="5">
+        <v>2</v>
+      </c>
+      <c r="G99" s="5">
+        <v>2</v>
+      </c>
+      <c r="H99" s="5">
+        <v>1</v>
+      </c>
+      <c r="I99" s="5">
+        <v>1</v>
+      </c>
+      <c r="J99" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2841,28 +2892,28 @@
       <c r="B100" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="2">
-        <v>2</v>
-      </c>
-      <c r="D100" s="2">
-        <v>2</v>
-      </c>
-      <c r="E100" s="2">
-        <v>2</v>
-      </c>
-      <c r="F100" s="2">
-        <v>2</v>
-      </c>
-      <c r="G100" s="2">
-        <v>2</v>
-      </c>
-      <c r="H100" s="2">
-        <v>1</v>
-      </c>
-      <c r="I100" s="2">
-        <v>1</v>
-      </c>
-      <c r="J100" s="38">
+      <c r="C100" s="5">
+        <v>2</v>
+      </c>
+      <c r="D100" s="5">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5">
+        <v>2</v>
+      </c>
+      <c r="F100" s="5">
+        <v>2</v>
+      </c>
+      <c r="G100" s="5">
+        <v>2</v>
+      </c>
+      <c r="H100" s="5">
+        <v>1</v>
+      </c>
+      <c r="I100" s="5">
+        <v>1</v>
+      </c>
+      <c r="J100" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2870,28 +2921,28 @@
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="2">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2">
-        <v>1</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2">
-        <v>1</v>
-      </c>
-      <c r="G101" s="2">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2">
-        <v>1</v>
-      </c>
-      <c r="I101" s="2">
-        <v>1</v>
-      </c>
-      <c r="J101" s="38">
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1</v>
+      </c>
+      <c r="G101" s="5">
+        <v>1</v>
+      </c>
+      <c r="H101" s="5">
+        <v>1</v>
+      </c>
+      <c r="I101" s="5">
+        <v>1</v>
+      </c>
+      <c r="J101" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2899,28 +2950,28 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="38">
-        <v>0</v>
-      </c>
-      <c r="D102" s="38">
-        <v>0</v>
-      </c>
-      <c r="E102" s="38">
-        <v>0</v>
-      </c>
-      <c r="F102" s="38">
-        <v>0</v>
-      </c>
-      <c r="G102" s="38">
-        <v>0</v>
-      </c>
-      <c r="H102" s="38">
-        <v>0</v>
-      </c>
-      <c r="I102" s="38">
-        <v>0</v>
-      </c>
-      <c r="J102" s="38">
+      <c r="C102" s="40">
+        <v>0</v>
+      </c>
+      <c r="D102" s="40">
+        <v>0</v>
+      </c>
+      <c r="E102" s="40">
+        <v>0</v>
+      </c>
+      <c r="F102" s="40">
+        <v>0</v>
+      </c>
+      <c r="G102" s="40">
+        <v>0</v>
+      </c>
+      <c r="H102" s="40">
+        <v>0</v>
+      </c>
+      <c r="I102" s="40">
+        <v>0</v>
+      </c>
+      <c r="J102" s="40">
         <v>0</v>
       </c>
     </row>
@@ -2940,34 +2991,34 @@
       </c>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="39"/>
+      <c r="G111" s="41"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="37">
-        <v>1</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2</v>
-      </c>
-      <c r="D112" s="2">
-        <v>3</v>
-      </c>
-      <c r="E112" s="2">
+      <c r="B112" s="39">
+        <v>1</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2</v>
+      </c>
+      <c r="D112" s="5">
+        <v>3</v>
+      </c>
+      <c r="E112" s="5">
         <v>4</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="5">
         <v>5</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="5">
         <v>6</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="5">
         <v>7</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="5">
         <v>8</v>
       </c>
     </row>
@@ -2975,28 +3026,28 @@
       <c r="A113" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113" s="2">
+      <c r="B113" s="5">
+        <v>1</v>
+      </c>
+      <c r="C113" s="5">
         <v>5</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="5">
         <v>8</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="5">
         <v>9</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="5">
         <v>10</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="5">
         <v>17</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="5">
         <v>17</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="5">
         <v>20</v>
       </c>
     </row>
@@ -3041,7 +3092,7 @@
       <c r="A118" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="37">
+      <c r="B118" s="39">
         <v>1</v>
       </c>
       <c r="D118" t="s">
@@ -3050,7 +3101,7 @@
       <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="23">
+      <c r="F118" s="26">
         <v>1</v>
       </c>
     </row>
@@ -3063,10 +3114,10 @@
       <c r="A121" t="s">
         <v>64</v>
       </c>
-      <c r="B121" s="37">
-        <v>1</v>
-      </c>
-      <c r="C121" s="2">
+      <c r="B121" s="39">
+        <v>1</v>
+      </c>
+      <c r="C121" s="5">
         <v>2</v>
       </c>
       <c r="E121" t="s">
@@ -3078,7 +3129,7 @@
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="23">
+      <c r="H121" s="26">
         <v>5</v>
       </c>
     </row>
@@ -3103,13 +3154,13 @@
       <c r="A124" t="s">
         <v>70</v>
       </c>
-      <c r="B124" s="37">
-        <v>1</v>
-      </c>
-      <c r="C124" s="2">
-        <v>2</v>
-      </c>
-      <c r="D124" s="2">
+      <c r="B124" s="39">
+        <v>1</v>
+      </c>
+      <c r="C124" s="5">
+        <v>2</v>
+      </c>
+      <c r="D124" s="5">
         <v>3</v>
       </c>
       <c r="F124" t="s">
@@ -3121,7 +3172,7 @@
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="23">
+      <c r="I124" s="26">
         <v>8</v>
       </c>
     </row>
@@ -3160,16 +3211,16 @@
       <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="37">
-        <v>1</v>
-      </c>
-      <c r="C128" s="2">
-        <v>2</v>
-      </c>
-      <c r="D128" s="2">
-        <v>3</v>
-      </c>
-      <c r="E128" s="2">
+      <c r="B128" s="39">
+        <v>1</v>
+      </c>
+      <c r="C128" s="5">
+        <v>2</v>
+      </c>
+      <c r="D128" s="5">
+        <v>3</v>
+      </c>
+      <c r="E128" s="5">
         <v>4</v>
       </c>
       <c r="G128" t="s">
@@ -3181,7 +3232,7 @@
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="23">
+      <c r="J128" s="26">
         <v>10</v>
       </c>
     </row>
@@ -3264,19 +3315,19 @@
       <c r="A142" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="2">
-        <v>2</v>
-      </c>
-      <c r="C142" s="2">
+      <c r="B142" s="5">
+        <v>2</v>
+      </c>
+      <c r="C142" s="5">
         <v>7</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="5">
         <v>9</v>
       </c>
-      <c r="E142" s="2">
-        <v>3</v>
-      </c>
-      <c r="F142" s="2">
+      <c r="E142" s="5">
+        <v>3</v>
+      </c>
+      <c r="F142" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3328,7 +3379,7 @@
       <c r="B148" t="s">
         <v>93</v>
       </c>
-      <c r="D148" s="23">
+      <c r="D148" s="26">
         <v>12</v>
       </c>
     </row>
@@ -3394,49 +3445,49 @@
       <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="25">
-        <v>0</v>
-      </c>
-      <c r="C2" s="25">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="28">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="28">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="28">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="28">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="28">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="28">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -3483,16 +3534,16 @@
       <c r="A8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3500,13 +3551,13 @@
       <c r="A9" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3514,10 +3565,10 @@
       <c r="A11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3528,10 +3579,10 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
@@ -3552,13 +3603,13 @@
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
@@ -3566,16 +3617,16 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="24">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="B20" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="27">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
         <v>1</v>
       </c>
       <c r="F20">
@@ -3583,16 +3634,16 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="B21" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
         <v>1</v>
       </c>
       <c r="F21">
@@ -3603,16 +3654,16 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3620,16 +3671,16 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3646,7 +3697,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3684,16 +3735,16 @@
       <c r="A37" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3701,13 +3752,13 @@
       <c r="A38" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3715,10 +3766,10 @@
       <c r="A40" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3732,10 +3783,10 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F41" t="s">
@@ -3753,10 +3804,10 @@
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="26" t="s">
         <v>107</v>
       </c>
       <c r="E47" t="s">
@@ -3767,16 +3818,16 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="24">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="C48" s="27">
+        <v>2</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
         <v>1</v>
       </c>
       <c r="F48">
@@ -3784,16 +3835,16 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="4">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
         <v>1</v>
       </c>
       <c r="F49">
@@ -3801,16 +3852,16 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="2">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
+      <c r="C50" s="5">
+        <v>2</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
         <v>1</v>
       </c>
       <c r="F50">
@@ -3818,16 +3869,16 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
         <v>0</v>
       </c>
       <c r="F51">
@@ -3844,7 +3895,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="9">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3880,15 +3931,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="18.047619047619" customWidth="1"/>
     <col min="4" max="6" width="26.7809523809524" customWidth="1"/>
     <col min="7" max="10" width="36.352380952381" customWidth="1"/>
@@ -4069,6 +4121,71 @@
     <row r="12" spans="2:2">
       <c r="B12">
         <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4095,92 +4212,92 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -4201,16 +4318,16 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4218,16 +4335,16 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4235,16 +4352,16 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4252,16 +4369,16 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4269,16 +4386,16 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="D22" s="5">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4286,16 +4403,16 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="5">
         <v>5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>4</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
         <v>4</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="6">
         <v>3</v>
       </c>
     </row>
@@ -4330,104 +4447,104 @@
     </row>
     <row r="3" ht="15.75" spans="2:12">
       <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="21">
+        <v>135</v>
+      </c>
+      <c r="L3" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="2:12">
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="20">
-        <v>2</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>132</v>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="23">
+        <v>2</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:9">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="I5" s="20">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="I5" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="2:9">
-      <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10">
-        <v>3</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13">
+        <v>3</v>
+      </c>
+      <c r="I6" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="2:9">
-      <c r="B7" s="9"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10">
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13">
         <v>4</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="2:9">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17">
         <v>5</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="2:2">
       <c r="B10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:9">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
       <c r="H11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="20">
+        <v>138</v>
+      </c>
+      <c r="I11" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="20">
+        <v>139</v>
+      </c>
+      <c r="I12" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="20">
+        <v>140</v>
+      </c>
+      <c r="I13" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="20">
+        <v>141</v>
+      </c>
+      <c r="I14" s="23">
         <v>10</v>
       </c>
     </row>
@@ -4435,23 +4552,23 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="18">
+        <v>142</v>
+      </c>
+      <c r="I16" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="18">
+        <v>143</v>
+      </c>
+      <c r="I17" s="21">
         <v>12</v>
       </c>
     </row>
@@ -4459,7 +4576,7 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="21">
         <v>0</v>
       </c>
     </row>
@@ -4468,13 +4585,13 @@
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="19">
-        <v>1</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="21">
         <v>2</v>
       </c>
     </row>
@@ -4483,8 +4600,8 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="17">
+      <c r="B24" s="18"/>
+      <c r="C24" s="20">
         <v>2</v>
       </c>
       <c r="E24" t="s">
@@ -4493,7 +4610,7 @@
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="23">
         <v>4</v>
       </c>
     </row>
@@ -4502,23 +4619,23 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="18">
+        <v>144</v>
+      </c>
+      <c r="G25" s="21">
         <v>5</v>
       </c>
       <c r="L25" t="s">
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="12:13">
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="23">
         <v>2</v>
       </c>
     </row>
@@ -4526,9 +4643,9 @@
       <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20">
         <v>3</v>
       </c>
       <c r="F27" t="s">
@@ -4537,13 +4654,13 @@
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="23">
         <v>7</v>
       </c>
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="23">
         <v>5</v>
       </c>
     </row>
@@ -4554,13 +4671,13 @@
       <c r="G28" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="23">
         <v>7</v>
       </c>
       <c r="L28">
         <v>3</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="23">
         <v>7</v>
       </c>
     </row>
@@ -4569,15 +4686,15 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="18">
+        <v>146</v>
+      </c>
+      <c r="H29" s="21">
         <v>7</v>
       </c>
       <c r="L29">
         <v>4</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="23">
         <v>8</v>
       </c>
     </row>
@@ -4585,7 +4702,7 @@
       <c r="L30">
         <v>5</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="23">
         <v>10</v>
       </c>
     </row>
@@ -4594,10 +4711,10 @@
       <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20">
         <v>4</v>
       </c>
       <c r="G32" t="s">
@@ -4606,7 +4723,7 @@
       <c r="H32" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="23">
         <v>9</v>
       </c>
     </row>
@@ -4617,7 +4734,7 @@
       <c r="H33" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="21">
         <v>10</v>
       </c>
     </row>
@@ -4628,7 +4745,7 @@
       <c r="H34" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="23">
         <v>9</v>
       </c>
     </row>
@@ -4637,75 +4754,75 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
-      </c>
-      <c r="I35" s="20">
+        <v>147</v>
+      </c>
+      <c r="I35" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="37" ht="15.75"/>
     <row r="38" ht="15.75" spans="1:10">
       <c r="A38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17">
+        <v>148</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I38" t="s">
-        <v>145</v>
-      </c>
-      <c r="J38" s="20">
+        <v>149</v>
+      </c>
+      <c r="J38" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I39" t="s">
-        <v>146</v>
-      </c>
-      <c r="J39" s="20">
+        <v>150</v>
+      </c>
+      <c r="J39" s="23">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
-      </c>
-      <c r="J40" s="18">
+        <v>152</v>
+      </c>
+      <c r="J40" s="21">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I41" t="s">
-        <v>150</v>
-      </c>
-      <c r="J41" s="20">
+        <v>154</v>
+      </c>
+      <c r="J41" s="23">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
-      </c>
-      <c r="J42" s="20">
+        <v>156</v>
+      </c>
+      <c r="J42" s="23">
         <v>10</v>
       </c>
     </row>
@@ -4720,7 +4837,7 @@
   <sheetPr/>
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -4733,17 +4850,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -4768,64 +4885,64 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" s="2">
+        <v>160</v>
+      </c>
+      <c r="M15" s="5">
         <v>4</v>
       </c>
-      <c r="N15" s="4">
-        <v>2</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="N15" s="7">
+        <v>2</v>
+      </c>
+      <c r="O15" s="7">
         <v>10</v>
       </c>
-      <c r="P15" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>158</v>
-      </c>
-      <c r="M16" s="2">
+        <v>162</v>
+      </c>
+      <c r="M16" s="5">
         <v>12</v>
       </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="O16" s="7">
         <v>4</v>
       </c>
-      <c r="P16" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M19" s="5">
+        <v>164</v>
+      </c>
+      <c r="M19" s="8">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4878,7 +4995,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4904,7 +5021,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="9">
         <v>0</v>
       </c>
       <c r="K29">
@@ -4934,297 +5051,297 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3">
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
         <v>4</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30" s="5">
         <v>4</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="5">
         <v>4</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2</v>
-      </c>
-      <c r="I31" s="2">
-        <v>2</v>
-      </c>
-      <c r="J31" s="2">
-        <v>2</v>
-      </c>
-      <c r="K31" s="4">
-        <v>2</v>
-      </c>
-      <c r="L31" s="2">
-        <v>2</v>
-      </c>
-      <c r="M31" s="2">
-        <v>2</v>
-      </c>
-      <c r="N31" s="2">
-        <v>2</v>
-      </c>
-      <c r="O31" s="2">
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>2</v>
+      </c>
+      <c r="J31" s="5">
+        <v>2</v>
+      </c>
+      <c r="K31" s="7">
+        <v>2</v>
+      </c>
+      <c r="L31" s="5">
+        <v>2</v>
+      </c>
+      <c r="M31" s="5">
+        <v>2</v>
+      </c>
+      <c r="N31" s="5">
+        <v>2</v>
+      </c>
+      <c r="O31" s="5">
         <v>4</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="6">
         <v>6</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="5">
         <v>6</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5">
         <v>10</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="6">
         <v>12</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="5">
         <v>12</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="5">
         <v>12</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="5">
         <v>12</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="5">
         <v>12</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="5">
         <v>12</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="5">
         <v>12</v>
       </c>
-      <c r="O32" s="4">
+      <c r="O32" s="7">
         <v>12</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32" s="5">
         <v>12</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="5">
         <v>12</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2</v>
+      </c>
+      <c r="G33" s="5">
         <v>10</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="5">
         <v>12</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="6">
         <v>13</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="5">
         <v>13</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="5">
         <v>13</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="5">
         <v>13</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="5">
         <v>13</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="5">
         <v>13</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="5">
         <v>13</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="7">
         <v>13</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="5">
         <v>13</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6">
         <v>4</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="5">
         <v>10</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="5">
         <v>12</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="5">
         <v>13</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="5">
         <v>14</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="6">
         <v>15</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="5">
         <v>15</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="5">
         <v>15</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="5">
         <v>15</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="5">
         <v>15</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34" s="5">
         <v>15</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="5">
         <v>15</v>
       </c>
-      <c r="R34" s="7">
+      <c r="R34" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="40" t="s">
-        <v>170</v>
+      <c r="A38" s="42" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="40" t="s">
-        <v>171</v>
+      <c r="A39" s="42" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5232,4 +5349,307 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M6" t="s">
+        <v>178</v>
+      </c>
+      <c r="N6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="13:13">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5">
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5">
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="206">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -294,16 +294,25 @@
     <t>HouseRobber</t>
   </si>
   <si>
-    <t>MAX(nums[1],dp[0])</t>
-  </si>
-  <si>
-    <t>MAX(nums[2]+dp[0],dp[1])</t>
-  </si>
-  <si>
-    <t>MAX(nums[3]+dp[1],dp[2])</t>
-  </si>
-  <si>
-    <t>MAX(nums[4]+dp[2],dp[3])</t>
+    <t>nums = [2,7,9,3,1]</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>3+dp[1]</t>
+  </si>
+  <si>
+    <t>nums[i]+dp[i-2]</t>
+  </si>
+  <si>
+    <t>9+dp[0]</t>
+  </si>
+  <si>
+    <t>dp[i-1]</t>
+  </si>
+  <si>
+    <t>nums[4]+dp[2]</t>
   </si>
   <si>
     <t>n</t>
@@ -357,55 +366,106 @@
     <t>CoinChange</t>
   </si>
   <si>
-    <t>dp init</t>
-  </si>
-  <si>
-    <t>dp formula</t>
-  </si>
-  <si>
-    <t>min(12,1+dp[1-1])</t>
-  </si>
-  <si>
-    <t>min(12,1+dp[2-1],1+dp[2-2])</t>
-  </si>
-  <si>
-    <t>min(12,1+dp[3-1],1+dp[3-2])</t>
-  </si>
-  <si>
-    <t>min(12,1+dp[4-1],1+dp[4-2])</t>
-  </si>
-  <si>
-    <t>min(12,1+dp[5-1],1+dp[5-2],1+dp[5-5])</t>
-  </si>
-  <si>
-    <t>min(12,1+dp[6-1],1+dp[6-2],1+dp[6-5])</t>
-  </si>
-  <si>
-    <t>min(12,1+dp[7-1],1+dp[7-2],1+dp[7-5])</t>
-  </si>
-  <si>
-    <t>min(12,1+dp[8-1],1+dp[8-2],1+dp[8-5])</t>
-  </si>
-  <si>
-    <t>dp final</t>
-  </si>
-  <si>
-    <t>dp[1] + dp[2]</t>
-  </si>
-  <si>
-    <t>coins</t>
-  </si>
-  <si>
-    <t>amount=&gt;</t>
-  </si>
-  <si>
-    <t>1+dp[3-1],1+dp[3-2]</t>
-  </si>
-  <si>
-    <t>1+dp[3],1+dp[2]</t>
-  </si>
-  <si>
-    <t>3,3,1</t>
+    <t>coins = [1,2,5], amount = 11</t>
+  </si>
+  <si>
+    <t>dp[11]</t>
+  </si>
+  <si>
+    <t>1+dp[11-1]</t>
+  </si>
+  <si>
+    <t>1+dp[11-2]</t>
+  </si>
+  <si>
+    <t>1+dp[11-5]</t>
+  </si>
+  <si>
+    <t>1+dp[3-1]</t>
+  </si>
+  <si>
+    <t>1+dp[amount-coin]</t>
+  </si>
+  <si>
+    <t>1+dp[3-2]</t>
+  </si>
+  <si>
+    <t>1+dp[4-1]</t>
+  </si>
+  <si>
+    <t>1+dp[4-2]</t>
+  </si>
+  <si>
+    <t>dp[5]</t>
+  </si>
+  <si>
+    <t>1+dp[5-1]</t>
+  </si>
+  <si>
+    <t>dp[6]</t>
+  </si>
+  <si>
+    <t>1+dp[6-1]</t>
+  </si>
+  <si>
+    <t>dp[7]</t>
+  </si>
+  <si>
+    <t>1+dp[7-1]</t>
+  </si>
+  <si>
+    <t>1+dp[5-2]</t>
+  </si>
+  <si>
+    <t>1+dp[6-2]</t>
+  </si>
+  <si>
+    <t>1+dp[7-2]</t>
+  </si>
+  <si>
+    <t>1+dp[5-5]</t>
+  </si>
+  <si>
+    <t>1+dp[6-5]</t>
+  </si>
+  <si>
+    <t>1+dp[7-5]</t>
+  </si>
+  <si>
+    <t>dp[8]</t>
+  </si>
+  <si>
+    <t>1+dp[8-1]</t>
+  </si>
+  <si>
+    <t>dp[9]</t>
+  </si>
+  <si>
+    <t>1+dp[9-1]</t>
+  </si>
+  <si>
+    <t>dp[10]</t>
+  </si>
+  <si>
+    <t>1+dp[10-1]</t>
+  </si>
+  <si>
+    <t>1+dp[8-2]</t>
+  </si>
+  <si>
+    <t>1+dp[9-2]</t>
+  </si>
+  <si>
+    <t>1+dp[10-2]</t>
+  </si>
+  <si>
+    <t>1+dp[8-5]</t>
+  </si>
+  <si>
+    <t>1+dp[9-5]</t>
+  </si>
+  <si>
+    <t>1+dp[10-5]</t>
   </si>
   <si>
     <t>word1</t>
@@ -466,9 +526,6 @@
   </si>
   <si>
     <t>price[4]+dp[0]</t>
-  </si>
-  <si>
-    <t>dp[5]</t>
   </si>
   <si>
     <t>price[1]+dp[4]</t>
@@ -590,11 +647,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -646,27 +703,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -682,16 +727,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,7 +790,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,32 +811,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -759,32 +833,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,6 +862,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -817,109 +892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,7 +910,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,25 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +1012,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,6 +1314,65 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1280,7 +1396,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1299,69 +1415,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1379,134 +1436,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1534,8 +1591,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1557,6 +1615,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1971,10 +2033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2196,7 +2258,7 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2228,7 +2290,7 @@
       <c r="I23" s="5">
         <v>18</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="31" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2242,7 +2304,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <v>4</v>
       </c>
       <c r="E25">
@@ -2490,28 +2552,28 @@
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="29" t="s">
+      <c r="C53" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="29" t="s">
+      <c r="G53" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="29" t="s">
+      <c r="I53" s="30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2519,7 +2581,7 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="26" t="b">
+      <c r="B55" s="25" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -2567,30 +2629,30 @@
     </row>
     <row r="66" ht="15.75"/>
     <row r="67" ht="15.75" spans="7:7">
-      <c r="G67" s="31"/>
+      <c r="G67" s="32"/>
     </row>
     <row r="68" ht="15.75" spans="6:7">
-      <c r="F68" s="32"/>
-      <c r="G68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="34"/>
     </row>
     <row r="69" ht="15.75" spans="5:7">
-      <c r="E69" s="32"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="34"/>
     </row>
     <row r="70" ht="15.75" spans="4:7">
-      <c r="D70" s="32"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="34"/>
     </row>
     <row r="71" ht="15.75" spans="2:7">
-      <c r="B71" s="35"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="15"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="38"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -2619,7 +2681,7 @@
       <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="26">
+      <c r="B74" s="25">
         <v>8</v>
       </c>
       <c r="C74">
@@ -2659,30 +2721,30 @@
     </row>
     <row r="79" ht="15.75"/>
     <row r="80" ht="15.75" spans="7:7">
-      <c r="G80" s="31"/>
+      <c r="G80" s="32"/>
     </row>
     <row r="81" ht="15.75" spans="6:7">
-      <c r="F81" s="32"/>
-      <c r="G81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34"/>
     </row>
     <row r="82" ht="15.75" spans="5:7">
-      <c r="E82" s="32"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="34"/>
     </row>
     <row r="83" ht="15.75" spans="4:7">
-      <c r="D83" s="32"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="34"/>
     </row>
     <row r="84" ht="15.75" spans="2:7">
-      <c r="B84" s="35"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="15"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="38"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -2711,7 +2773,7 @@
       <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="26">
+      <c r="B87" s="25">
         <v>13</v>
       </c>
       <c r="C87">
@@ -2776,13 +2838,13 @@
       <c r="B96" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="38">
+      <c r="C96" s="39">
         <v>4</v>
       </c>
-      <c r="D96" s="39">
-        <v>3</v>
-      </c>
-      <c r="E96" s="39">
+      <c r="D96" s="40">
+        <v>3</v>
+      </c>
+      <c r="E96" s="40">
         <v>3</v>
       </c>
       <c r="F96" s="5">
@@ -2797,7 +2859,7 @@
       <c r="I96" s="5">
         <v>1</v>
       </c>
-      <c r="J96" s="40">
+      <c r="J96" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2805,13 +2867,13 @@
       <c r="B97" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="39">
+      <c r="C97" s="40">
         <v>4</v>
       </c>
-      <c r="D97" s="39">
-        <v>3</v>
-      </c>
-      <c r="E97" s="39">
+      <c r="D97" s="40">
+        <v>3</v>
+      </c>
+      <c r="E97" s="40">
         <v>3</v>
       </c>
       <c r="F97" s="5">
@@ -2826,7 +2888,7 @@
       <c r="I97" s="5">
         <v>1</v>
       </c>
-      <c r="J97" s="40">
+      <c r="J97" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2834,13 +2896,13 @@
       <c r="B98" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="39">
+      <c r="C98" s="40">
         <v>4</v>
       </c>
-      <c r="D98" s="39">
-        <v>3</v>
-      </c>
-      <c r="E98" s="39">
+      <c r="D98" s="40">
+        <v>3</v>
+      </c>
+      <c r="E98" s="40">
         <v>3</v>
       </c>
       <c r="F98" s="5">
@@ -2855,7 +2917,7 @@
       <c r="I98" s="5">
         <v>1</v>
       </c>
-      <c r="J98" s="40">
+      <c r="J98" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2884,7 +2946,7 @@
       <c r="I99" s="5">
         <v>1</v>
       </c>
-      <c r="J99" s="40">
+      <c r="J99" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2913,7 +2975,7 @@
       <c r="I100" s="5">
         <v>1</v>
       </c>
-      <c r="J100" s="40">
+      <c r="J100" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2942,7 +3004,7 @@
       <c r="I101" s="5">
         <v>1</v>
       </c>
-      <c r="J101" s="40">
+      <c r="J101" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2950,28 +3012,28 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="40">
-        <v>0</v>
-      </c>
-      <c r="D102" s="40">
-        <v>0</v>
-      </c>
-      <c r="E102" s="40">
-        <v>0</v>
-      </c>
-      <c r="F102" s="40">
-        <v>0</v>
-      </c>
-      <c r="G102" s="40">
-        <v>0</v>
-      </c>
-      <c r="H102" s="40">
-        <v>0</v>
-      </c>
-      <c r="I102" s="40">
-        <v>0</v>
-      </c>
-      <c r="J102" s="40">
+      <c r="C102" s="41">
+        <v>0</v>
+      </c>
+      <c r="D102" s="41">
+        <v>0</v>
+      </c>
+      <c r="E102" s="41">
+        <v>0</v>
+      </c>
+      <c r="F102" s="41">
+        <v>0</v>
+      </c>
+      <c r="G102" s="41">
+        <v>0</v>
+      </c>
+      <c r="H102" s="41">
+        <v>0</v>
+      </c>
+      <c r="I102" s="41">
+        <v>0</v>
+      </c>
+      <c r="J102" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2991,13 +3053,13 @@
       </c>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="41"/>
+      <c r="G111" s="42"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="39">
+      <c r="B112" s="40">
         <v>1</v>
       </c>
       <c r="C112" s="5">
@@ -3092,7 +3154,7 @@
       <c r="A118" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="39">
+      <c r="B118" s="40">
         <v>1</v>
       </c>
       <c r="D118" t="s">
@@ -3101,7 +3163,7 @@
       <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="26">
+      <c r="F118" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3114,7 +3176,7 @@
       <c r="A121" t="s">
         <v>64</v>
       </c>
-      <c r="B121" s="39">
+      <c r="B121" s="40">
         <v>1</v>
       </c>
       <c r="C121" s="5">
@@ -3129,7 +3191,7 @@
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="26">
+      <c r="H121" s="25">
         <v>5</v>
       </c>
     </row>
@@ -3154,7 +3216,7 @@
       <c r="A124" t="s">
         <v>70</v>
       </c>
-      <c r="B124" s="39">
+      <c r="B124" s="40">
         <v>1</v>
       </c>
       <c r="C124" s="5">
@@ -3172,7 +3234,7 @@
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="26">
+      <c r="I124" s="25">
         <v>8</v>
       </c>
     </row>
@@ -3211,7 +3273,7 @@
       <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="39">
+      <c r="B128" s="40">
         <v>1</v>
       </c>
       <c r="C128" s="5">
@@ -3232,7 +3294,7 @@
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="26">
+      <c r="J128" s="25">
         <v>10</v>
       </c>
     </row>
@@ -3286,101 +3348,188 @@
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" customFormat="1" spans="1:1">
       <c r="A139" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" t="s">
+    <row r="140" customFormat="1"/>
+    <row r="141" customFormat="1" spans="1:1">
+      <c r="A141" s="43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" customFormat="1"/>
+    <row r="143" customFormat="1" spans="1:6">
+      <c r="A143" t="s">
         <v>12</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141">
-        <v>3</v>
-      </c>
-      <c r="F141">
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" t="s">
+    <row r="144" customFormat="1" spans="1:6">
+      <c r="A144" t="s">
         <v>13</v>
       </c>
-      <c r="B142" s="5">
-        <v>2</v>
-      </c>
-      <c r="C142" s="5">
+      <c r="B144" s="44">
+        <v>2</v>
+      </c>
+      <c r="C144" s="44">
         <v>7</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D144" s="44">
         <v>9</v>
       </c>
-      <c r="E142" s="5">
-        <v>3</v>
-      </c>
-      <c r="F142" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+      <c r="E144" s="44">
+        <v>3</v>
+      </c>
+      <c r="F144" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1"/>
+    <row r="146" customFormat="1" spans="1:4">
+      <c r="A146" t="s">
         <v>59</v>
       </c>
-      <c r="B144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
+      <c r="B146" s="45">
+        <v>2</v>
+      </c>
+      <c r="C146"/>
+      <c r="D146" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1"/>
+    <row r="148" customFormat="1" spans="1:5">
+      <c r="A148" t="s">
         <v>60</v>
       </c>
-      <c r="B145" t="s">
-        <v>90</v>
-      </c>
-      <c r="D145">
+      <c r="B148" s="45">
+        <v>2</v>
+      </c>
+      <c r="C148" s="45">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
+      <c r="D148"/>
+      <c r="E148" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" customFormat="1"/>
+    <row r="150" customFormat="1" spans="1:7">
+      <c r="A150" t="s">
         <v>64</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B150" s="45">
+        <v>2</v>
+      </c>
+      <c r="C150" s="45">
+        <v>7</v>
+      </c>
+      <c r="D150" s="45">
+        <v>9</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
         <v>91</v>
       </c>
-      <c r="D146">
+      <c r="G150" s="46">
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+    <row r="151" customFormat="1" spans="6:7">
+      <c r="F151">
+        <v>7</v>
+      </c>
+      <c r="G151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" customFormat="1"/>
+    <row r="153" spans="1:10">
+      <c r="A153" t="s">
         <v>70</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B153" s="45">
+        <v>2</v>
+      </c>
+      <c r="C153" s="45">
+        <v>7</v>
+      </c>
+      <c r="D153" s="45">
+        <v>9</v>
+      </c>
+      <c r="E153" s="45">
+        <v>3</v>
+      </c>
+      <c r="G153" t="s">
         <v>92</v>
       </c>
-      <c r="D147">
+      <c r="H153">
+        <v>10</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="7:10">
+      <c r="G154" t="s">
+        <v>94</v>
+      </c>
+      <c r="H154" s="46">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+      <c r="J154" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" customFormat="1"/>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
         <v>78</v>
       </c>
-      <c r="B148" t="s">
-        <v>93</v>
-      </c>
-      <c r="D148" s="26">
+      <c r="B156" s="45">
+        <v>2</v>
+      </c>
+      <c r="C156" s="45">
+        <v>7</v>
+      </c>
+      <c r="D156" s="45">
+        <v>9</v>
+      </c>
+      <c r="E156" s="45">
+        <v>3</v>
+      </c>
+      <c r="F156" s="45">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>96</v>
+      </c>
+      <c r="J156" s="46">
         <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="8:10">
+      <c r="H157" t="s">
+        <v>70</v>
+      </c>
+      <c r="J157">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3402,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3443,51 +3592,51 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="28">
-        <v>0</v>
-      </c>
-      <c r="C2" s="28">
-        <v>1</v>
-      </c>
-      <c r="D2" s="28">
+        <v>98</v>
+      </c>
+      <c r="B2" s="29">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="29">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="28">
+      <c r="J2" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="29">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="29">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="28">
+      <c r="M2" s="29">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -3517,22 +3666,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -3549,7 +3698,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -3563,18 +3712,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3594,22 +3743,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="26" t="s">
+      <c r="D19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
@@ -3617,10 +3766,10 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="27">
+      <c r="B20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="28">
         <v>2</v>
       </c>
       <c r="D20" s="7">
@@ -3634,7 +3783,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="5">
@@ -3703,7 +3852,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -3723,17 +3872,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>51</v>
@@ -3745,18 +3894,18 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -3764,18 +3913,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -3787,7 +3936,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -3795,20 +3944,20 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="26" t="s">
-        <v>107</v>
+      <c r="D47" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -3818,10 +3967,10 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="28">
         <v>2</v>
       </c>
       <c r="D48" s="5">
@@ -3835,7 +3984,7 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C49" s="7">
@@ -3852,7 +4001,7 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="5">
@@ -3869,8 +4018,8 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="26" t="s">
-        <v>107</v>
+      <c r="B51" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -3904,7 +4053,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -3916,7 +4065,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -3931,261 +4080,376 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7428571428571" customWidth="1"/>
-    <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="18.047619047619" customWidth="1"/>
-    <col min="4" max="6" width="26.7809523809524" customWidth="1"/>
-    <col min="7" max="10" width="36.352380952381" customWidth="1"/>
+    <col min="10" max="10" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="G5" s="5">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H5" s="5">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="I5" s="5">
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="J5" s="5">
         <v>8</v>
       </c>
-      <c r="K3">
+      <c r="K5" s="5">
         <v>9</v>
       </c>
-      <c r="L3">
+      <c r="L5" s="5">
         <v>10</v>
       </c>
-      <c r="M3">
+      <c r="M5" s="5">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>12</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>12</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="G5" t="s">
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K11" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="5:6">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="13:13">
+      <c r="M13" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" t="s">
         <v>119</v>
       </c>
-      <c r="J5" t="s">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="M14" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13">
+      <c r="F15" t="s">
         <v>121</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" t="s">
+      <c r="G15" s="25">
+        <v>2</v>
+      </c>
+      <c r="M15" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:9">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="G17" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="I17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="7:9">
+      <c r="G18" t="s">
         <v>123</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" t="s">
+      <c r="I18" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
+      <c r="B20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="5">
         <v>4</v>
       </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" t="s">
-        <v>68</v>
+      <c r="I24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="6">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4212,7 +4476,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -4232,7 +4496,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -4277,27 +4541,27 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -4447,7 +4711,7 @@
     </row>
     <row r="3" ht="15.75" spans="2:12">
       <c r="B3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L3" s="24">
         <v>5</v>
@@ -4461,7 +4725,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:9">
@@ -4508,7 +4772,7 @@
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="2:2">
       <c r="B10" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:9">
@@ -4518,7 +4782,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="I11" s="23">
         <v>10</v>
@@ -4526,7 +4790,7 @@
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="I12" s="23">
         <v>11</v>
@@ -4534,7 +4798,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I13" s="23">
         <v>11</v>
@@ -4542,7 +4806,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="I14" s="23">
         <v>10</v>
@@ -4558,7 +4822,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="I16" s="21">
         <v>12</v>
@@ -4566,7 +4830,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="I17" s="21">
         <v>12</v>
@@ -4619,7 +4883,7 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G25" s="21">
         <v>5</v>
@@ -4628,7 +4892,7 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="12:13">
@@ -4686,7 +4950,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="H29" s="21">
         <v>7</v>
@@ -4754,7 +5018,7 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="I35" s="23">
         <v>8</v>
@@ -4763,7 +5027,7 @@
     <row r="37" ht="15.75"/>
     <row r="38" ht="15.75" spans="1:10">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -4773,10 +5037,10 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="I38" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="J38" s="23">
         <v>12</v>
@@ -4784,10 +5048,10 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="J39" s="23">
         <v>12</v>
@@ -4795,10 +5059,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="I40" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="J40" s="21">
         <v>12</v>
@@ -4806,10 +5070,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="I41" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="J41" s="23">
         <v>10</v>
@@ -4817,10 +5081,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="J42" s="23">
         <v>10</v>
@@ -4850,17 +5114,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -4885,7 +5149,7 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M15" s="5">
         <v>4</v>
@@ -4903,12 +5167,12 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M16" s="5">
         <v>12</v>
@@ -4926,12 +5190,12 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M19" s="8">
         <v>15</v>
@@ -4939,10 +5203,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4995,7 +5259,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5051,7 +5315,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5107,7 +5371,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -5163,7 +5427,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -5219,7 +5483,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -5275,7 +5539,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5331,17 +5595,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="42" t="s">
-        <v>174</v>
+      <c r="A38" s="47" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="42" t="s">
-        <v>175</v>
+      <c r="A39" s="47" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5364,7 +5628,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -5413,40 +5677,40 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="I6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="N6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5457,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5468,7 +5732,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5479,7 +5743,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5490,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +5768,7 @@
   <sheetPr/>
   <dimension ref="A3:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -5517,7 +5781,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5552,7 +5816,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5584,10 +5848,10 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="13:13">
@@ -5627,15 +5891,15 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="5:5">
@@ -5645,7 +5909,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="240">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -313,6 +313,108 @@
   </si>
   <si>
     <t>nums[4]+dp[2]</t>
+  </si>
+  <si>
+    <t>MaxProductSubarray</t>
+  </si>
+  <si>
+    <t>2,3,-2,4</t>
+  </si>
+  <si>
+    <t>result=max(result, currentMax)</t>
+  </si>
+  <si>
+    <t>currMax</t>
+  </si>
+  <si>
+    <t>currMin</t>
+  </si>
+  <si>
+    <t>tmp1 = currMax*num</t>
+  </si>
+  <si>
+    <t>1*2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currMax=max(tmp1, tmp2, num) </t>
+  </si>
+  <si>
+    <t>max(2,4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp2 = currMin*num </t>
+  </si>
+  <si>
+    <t>currMin=min(tmp1,tmp2,num)</t>
+  </si>
+  <si>
+    <t>tmp1=2*3</t>
+  </si>
+  <si>
+    <t>currMax=max(6,6,3)</t>
+  </si>
+  <si>
+    <t>max(4,6)</t>
+  </si>
+  <si>
+    <t>tmp2=2*3</t>
+  </si>
+  <si>
+    <t>currMin=min(6,6,3)</t>
+  </si>
+  <si>
+    <t>tmp1=6*-2</t>
+  </si>
+  <si>
+    <t>currMax=max(-12,-6,-2)</t>
+  </si>
+  <si>
+    <t>max(6,-2)</t>
+  </si>
+  <si>
+    <t>tmp2=3*-2</t>
+  </si>
+  <si>
+    <t>currMin=min(-12,-6,-2)</t>
+  </si>
+  <si>
+    <t>tmp1=-2*4</t>
+  </si>
+  <si>
+    <t>currMax=max(-8,-48,4)</t>
+  </si>
+  <si>
+    <t>max(6,4)</t>
+  </si>
+  <si>
+    <t>tmp2=-12*4</t>
+  </si>
+  <si>
+    <t>currMin=min(-8,-48,4)</t>
+  </si>
+  <si>
+    <t>tmp1=-2*-4</t>
+  </si>
+  <si>
+    <t>currMax=max(8,48,-4)</t>
+  </si>
+  <si>
+    <t>max(6,48)</t>
+  </si>
+  <si>
+    <t>tmp2=-12*-4</t>
+  </si>
+  <si>
+    <t>currMin=min(8,48,-4)</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
   <si>
     <t>n</t>
@@ -647,11 +749,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -703,6 +805,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -712,10 +843,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -727,9 +858,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,30 +883,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,45 +904,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -833,6 +927,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -841,7 +943,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,7 +964,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,13 +982,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,43 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,109 +1138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,59 +1422,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1388,6 +1440,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1415,10 +1487,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1436,134 +1538,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1615,10 +1717,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2033,17 +2136,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J157"/>
+  <dimension ref="A1:Z195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="I160" sqref="I160"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="J197" sqref="J197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.0095238095238" customWidth="1"/>
     <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
-    <col min="4" max="4" width="15.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="27.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="12.7047619047619" customWidth="1"/>
     <col min="6" max="7" width="12.3142857142857" customWidth="1"/>
     <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
@@ -3353,13 +3456,11 @@
         <v>89</v>
       </c>
     </row>
-    <row r="140" customFormat="1"/>
     <row r="141" customFormat="1" spans="1:1">
-      <c r="A141" s="43" t="s">
+      <c r="A141" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="142" customFormat="1"/>
     <row r="143" customFormat="1" spans="1:6">
       <c r="A143" t="s">
         <v>12</v>
@@ -3384,70 +3485,64 @@
       <c r="A144" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="44">
-        <v>2</v>
-      </c>
-      <c r="C144" s="44">
+      <c r="B144" s="5">
+        <v>2</v>
+      </c>
+      <c r="C144" s="5">
         <v>7</v>
       </c>
-      <c r="D144" s="44">
+      <c r="D144" s="5">
         <v>9</v>
       </c>
-      <c r="E144" s="44">
-        <v>3</v>
-      </c>
-      <c r="F144" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" customFormat="1"/>
+      <c r="E144" s="5">
+        <v>3</v>
+      </c>
+      <c r="F144" s="5">
+        <v>1</v>
+      </c>
+    </row>
     <row r="146" customFormat="1" spans="1:4">
       <c r="A146" t="s">
         <v>59</v>
       </c>
-      <c r="B146" s="45">
-        <v>2</v>
-      </c>
-      <c r="C146"/>
-      <c r="D146" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" customFormat="1"/>
+      <c r="B146" s="7">
+        <v>2</v>
+      </c>
+      <c r="D146" s="25">
+        <v>2</v>
+      </c>
+    </row>
     <row r="148" customFormat="1" spans="1:5">
       <c r="A148" t="s">
         <v>60</v>
       </c>
-      <c r="B148" s="45">
-        <v>2</v>
-      </c>
-      <c r="C148" s="45">
+      <c r="B148" s="7">
+        <v>2</v>
+      </c>
+      <c r="C148" s="7">
         <v>7</v>
       </c>
-      <c r="D148"/>
-      <c r="E148" s="46">
+      <c r="E148" s="25">
         <v>7</v>
       </c>
     </row>
-    <row r="149" customFormat="1"/>
     <row r="150" customFormat="1" spans="1:7">
       <c r="A150" t="s">
         <v>64</v>
       </c>
-      <c r="B150" s="45">
-        <v>2</v>
-      </c>
-      <c r="C150" s="45">
+      <c r="B150" s="7">
+        <v>2</v>
+      </c>
+      <c r="C150" s="7">
         <v>7</v>
       </c>
-      <c r="D150" s="45">
+      <c r="D150" s="7">
         <v>9</v>
       </c>
-      <c r="E150"/>
       <c r="F150" t="s">
         <v>91</v>
       </c>
-      <c r="G150" s="46">
+      <c r="G150" s="25">
         <v>11</v>
       </c>
     </row>
@@ -3459,21 +3554,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" customFormat="1"/>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>70</v>
       </c>
-      <c r="B153" s="45">
-        <v>2</v>
-      </c>
-      <c r="C153" s="45">
+      <c r="B153" s="7">
+        <v>2</v>
+      </c>
+      <c r="C153" s="7">
         <v>7</v>
       </c>
-      <c r="D153" s="45">
+      <c r="D153" s="7">
         <v>9</v>
       </c>
-      <c r="E153" s="45">
+      <c r="E153" s="7">
         <v>3</v>
       </c>
       <c r="G153" t="s">
@@ -3490,37 +3584,36 @@
       <c r="G154" t="s">
         <v>94</v>
       </c>
-      <c r="H154" s="46">
+      <c r="H154" s="25">
         <v>11</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="155" customFormat="1"/>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>78</v>
       </c>
-      <c r="B156" s="45">
-        <v>2</v>
-      </c>
-      <c r="C156" s="45">
+      <c r="B156" s="7">
+        <v>2</v>
+      </c>
+      <c r="C156" s="7">
         <v>7</v>
       </c>
-      <c r="D156" s="45">
+      <c r="D156" s="7">
         <v>9</v>
       </c>
-      <c r="E156" s="45">
-        <v>3</v>
-      </c>
-      <c r="F156" s="45">
+      <c r="E156" s="7">
+        <v>3</v>
+      </c>
+      <c r="F156" s="7">
         <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>96</v>
       </c>
-      <c r="J156" s="46">
+      <c r="J156" s="25">
         <v>12</v>
       </c>
     </row>
@@ -3530,6 +3623,419 @@
       </c>
       <c r="J157">
         <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>13</v>
+      </c>
+      <c r="B167" s="5">
+        <v>2</v>
+      </c>
+      <c r="C167" s="5">
+        <v>3</v>
+      </c>
+      <c r="D167" s="5">
+        <v>-2</v>
+      </c>
+      <c r="E167" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="43">
+        <v>2</v>
+      </c>
+      <c r="C168" s="43">
+        <v>3</v>
+      </c>
+      <c r="D168" s="43">
+        <v>-2</v>
+      </c>
+      <c r="E168" s="25">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="43"/>
+      <c r="C169" s="43"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="43"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" s="26">
+        <v>4</v>
+      </c>
+      <c r="C170" s="26">
+        <v>6</v>
+      </c>
+      <c r="D170" s="26">
+        <v>6</v>
+      </c>
+      <c r="E170" s="5">
+        <v>6</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="171" spans="8:14">
+      <c r="H171" s="44">
+        <v>6</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" t="s">
+        <v>100</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172">
+        <v>-2</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>101</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" t="s">
+        <v>59</v>
+      </c>
+      <c r="B175" s="7">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>102</v>
+      </c>
+      <c r="E175" t="s">
+        <v>103</v>
+      </c>
+      <c r="F175" t="s">
+        <v>104</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="K175" t="s">
+        <v>105</v>
+      </c>
+      <c r="M175" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="4:9">
+      <c r="D176" t="s">
+        <v>106</v>
+      </c>
+      <c r="E176" t="s">
+        <v>103</v>
+      </c>
+      <c r="F176" t="s">
+        <v>107</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26">
+      <c r="A178" t="s">
+        <v>60</v>
+      </c>
+      <c r="B178" s="7">
+        <v>2</v>
+      </c>
+      <c r="C178" s="7">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s">
+        <v>108</v>
+      </c>
+      <c r="F178">
+        <v>6</v>
+      </c>
+      <c r="H178" t="s">
+        <v>109</v>
+      </c>
+      <c r="J178">
+        <v>6</v>
+      </c>
+      <c r="L178" t="s">
+        <v>110</v>
+      </c>
+      <c r="N178" s="25">
+        <v>6</v>
+      </c>
+      <c r="Z178" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="5:10">
+      <c r="E179" t="s">
+        <v>111</v>
+      </c>
+      <c r="F179">
+        <v>6</v>
+      </c>
+      <c r="H179" t="s">
+        <v>112</v>
+      </c>
+      <c r="J179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16">
+      <c r="A181" t="s">
+        <v>64</v>
+      </c>
+      <c r="B181" s="7">
+        <v>2</v>
+      </c>
+      <c r="C181" s="7">
+        <v>3</v>
+      </c>
+      <c r="D181" s="7">
+        <v>-2</v>
+      </c>
+      <c r="F181" t="s">
+        <v>113</v>
+      </c>
+      <c r="G181">
+        <v>-12</v>
+      </c>
+      <c r="I181" t="s">
+        <v>114</v>
+      </c>
+      <c r="L181">
+        <v>-2</v>
+      </c>
+      <c r="N181" t="s">
+        <v>115</v>
+      </c>
+      <c r="P181" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="6:12">
+      <c r="F182" t="s">
+        <v>116</v>
+      </c>
+      <c r="G182">
+        <v>-6</v>
+      </c>
+      <c r="I182" t="s">
+        <v>117</v>
+      </c>
+      <c r="L182">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="A184" t="s">
+        <v>70</v>
+      </c>
+      <c r="B184" s="7">
+        <v>2</v>
+      </c>
+      <c r="C184" s="7">
+        <v>3</v>
+      </c>
+      <c r="D184" s="7">
+        <v>-2</v>
+      </c>
+      <c r="E184" s="7">
+        <v>4</v>
+      </c>
+      <c r="G184" t="s">
+        <v>118</v>
+      </c>
+      <c r="H184">
+        <v>-8</v>
+      </c>
+      <c r="J184" t="s">
+        <v>119</v>
+      </c>
+      <c r="M184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q184" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="7:13">
+      <c r="G185" t="s">
+        <v>121</v>
+      </c>
+      <c r="H185">
+        <v>-48</v>
+      </c>
+      <c r="J185" t="s">
+        <v>122</v>
+      </c>
+      <c r="M185">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="187" spans="2:17">
+      <c r="B187" s="7">
+        <v>2</v>
+      </c>
+      <c r="C187" s="7">
+        <v>3</v>
+      </c>
+      <c r="D187" s="7">
+        <v>-2</v>
+      </c>
+      <c r="E187" s="28">
+        <v>-4</v>
+      </c>
+      <c r="G187" t="s">
+        <v>123</v>
+      </c>
+      <c r="H187">
+        <v>8</v>
+      </c>
+      <c r="J187" t="s">
+        <v>124</v>
+      </c>
+      <c r="M187">
+        <v>48</v>
+      </c>
+      <c r="O187" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q187" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="7:13">
+      <c r="G188" t="s">
+        <v>126</v>
+      </c>
+      <c r="H188">
+        <v>48</v>
+      </c>
+      <c r="J188" t="s">
+        <v>127</v>
+      </c>
+      <c r="M188">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+      <c r="I194" t="s">
+        <v>129</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195" t="s">
+        <v>33</v>
+      </c>
+      <c r="B195" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I195" t="s">
+        <v>130</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3551,7 +4057,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3592,7 +4098,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
@@ -3666,22 +4172,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -3698,7 +4204,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -3712,7 +4218,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -3723,7 +4229,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3743,12 +4249,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -3852,7 +4358,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -3872,17 +4378,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>51</v>
@@ -3894,18 +4400,18 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -3913,18 +4419,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -3936,7 +4442,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -3944,12 +4450,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -3957,7 +4463,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -4019,7 +4525,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="25" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -4053,7 +4559,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -4065,7 +4571,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -4093,12 +4599,12 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4191,10 +4697,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -4209,7 +4715,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -4229,7 +4735,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="K11" s="25">
         <v>3</v>
@@ -4256,13 +4762,13 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="M14" s="26">
         <v>2</v>
@@ -4270,7 +4776,7 @@
     </row>
     <row r="15" spans="6:13">
       <c r="F15" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="G15" s="25">
         <v>2</v>
@@ -4288,7 +4794,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -4296,7 +4802,7 @@
     </row>
     <row r="18" customFormat="1" spans="7:9">
       <c r="G18" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="I18" s="25">
         <v>2</v>
@@ -4304,28 +4810,28 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="G20" s="5">
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="K20" s="5">
         <v>3</v>
@@ -4334,21 +4840,21 @@
     <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="G21" s="5">
         <v>3</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="K21" s="5">
         <v>2</v>
@@ -4357,21 +4863,21 @@
     <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="G22" s="6">
         <v>2</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="K22" s="6">
         <v>2</v>
@@ -4379,28 +4885,28 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="G24" s="5">
         <v>4</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="K24" s="5">
         <v>4</v>
@@ -4409,21 +4915,21 @@
     <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="K25" s="5">
         <v>4</v>
@@ -4432,21 +4938,21 @@
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="G26" s="6">
         <v>3</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="K26" s="6">
         <v>2</v>
@@ -4476,7 +4982,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -4496,7 +5002,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -4541,27 +5047,27 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -4711,7 +5217,7 @@
     </row>
     <row r="3" ht="15.75" spans="2:12">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L3" s="24">
         <v>5</v>
@@ -4725,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:9">
@@ -4772,7 +5278,7 @@
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="2:2">
       <c r="B10" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:9">
@@ -4782,7 +5288,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="I11" s="23">
         <v>10</v>
@@ -4790,7 +5296,7 @@
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="I12" s="23">
         <v>11</v>
@@ -4798,7 +5304,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="I13" s="23">
         <v>11</v>
@@ -4806,7 +5312,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="I14" s="23">
         <v>10</v>
@@ -4822,7 +5328,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="I16" s="21">
         <v>12</v>
@@ -4830,7 +5336,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="I17" s="21">
         <v>12</v>
@@ -4883,7 +5389,7 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="G25" s="21">
         <v>5</v>
@@ -4892,7 +5398,7 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="12:13">
@@ -4950,7 +5456,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="H29" s="21">
         <v>7</v>
@@ -5018,7 +5524,7 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="I35" s="23">
         <v>8</v>
@@ -5027,7 +5533,7 @@
     <row r="37" ht="15.75"/>
     <row r="38" ht="15.75" spans="1:10">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -5037,10 +5543,10 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="I38" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="J38" s="23">
         <v>12</v>
@@ -5048,10 +5554,10 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="I39" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="J39" s="23">
         <v>12</v>
@@ -5059,10 +5565,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="I40" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="J40" s="21">
         <v>12</v>
@@ -5070,10 +5576,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="I41" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="J41" s="23">
         <v>10</v>
@@ -5081,10 +5587,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="I42" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="J42" s="23">
         <v>10</v>
@@ -5114,17 +5620,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -5149,7 +5655,7 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="M15" s="5">
         <v>4</v>
@@ -5167,12 +5673,12 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="M16" s="5">
         <v>12</v>
@@ -5190,12 +5696,12 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="M19" s="8">
         <v>15</v>
@@ -5203,10 +5709,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5259,7 +5765,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5315,7 +5821,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5371,7 +5877,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -5427,7 +5933,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -5483,7 +5989,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -5539,7 +6045,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -5595,17 +6101,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="47" t="s">
-        <v>193</v>
+      <c r="A38" s="46" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="47" t="s">
-        <v>194</v>
+      <c r="A39" s="46" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +6134,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -5677,40 +6183,40 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="G6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="H6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="J6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="K6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="L6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="N6" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5721,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5732,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5743,7 +6249,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5754,7 +6260,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5781,7 +6287,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5816,7 +6322,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5848,10 +6354,10 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="13:13">
@@ -5891,15 +6397,15 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="5:5">
@@ -5909,7 +6415,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="27428" windowHeight="11734"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="248">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -411,10 +411,34 @@
     <t>Longest Palindromic Substring</t>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
+    <t>odd length</t>
+  </si>
+  <si>
+    <t>i=2</t>
+  </si>
+  <si>
+    <t>2-(3-1)/2</t>
+  </si>
+  <si>
+    <t>b or a</t>
+  </si>
+  <si>
+    <t>bab</t>
+  </si>
+  <si>
+    <t>bab or aba</t>
+  </si>
+  <si>
+    <t>2+3/2</t>
+  </si>
+  <si>
+    <t>even length</t>
+  </si>
+  <si>
+    <t>c or b</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
   <si>
     <t>n</t>
@@ -749,10 +773,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="26">
@@ -813,22 +837,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,22 +860,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,7 +875,76 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,14 +952,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,52 +967,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,7 +988,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,13 +1126,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,79 +1156,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,73 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,11 +1444,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1467,8 +1506,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,31 +1541,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1541,131 +1565,131 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1719,6 +1743,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1814,8 +1841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="929005" y="770255"/>
-          <a:ext cx="4342130" cy="2425700"/>
+          <a:off x="963930" y="747395"/>
+          <a:ext cx="4586605" cy="2357120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1861,8 +1888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1584325" y="723265"/>
-          <a:ext cx="4304030" cy="3704590"/>
+          <a:off x="1647190" y="706120"/>
+          <a:ext cx="4572000" cy="3590290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2136,20 +2163,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z195"/>
+  <dimension ref="A1:Z224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="J197" sqref="J197"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
   <cols>
-    <col min="2" max="2" width="23.0095238095238" customWidth="1"/>
-    <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
-    <col min="4" max="4" width="27.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="12.7047619047619" customWidth="1"/>
-    <col min="6" max="7" width="12.3142857142857" customWidth="1"/>
-    <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
+    <col min="2" max="2" width="23.009009009009" customWidth="1"/>
+    <col min="3" max="3" width="8.52252252252252" customWidth="1"/>
+    <col min="4" max="4" width="27.5675675675676" customWidth="1"/>
+    <col min="5" max="5" width="12.7027027027027" customWidth="1"/>
+    <col min="6" max="7" width="12.3153153153153" customWidth="1"/>
+    <col min="8" max="8" width="13.1261261261261" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -2730,26 +2757,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" ht="15.75"/>
-    <row r="67" ht="15.75" spans="7:7">
+    <row r="66" ht="15.3"/>
+    <row r="67" ht="15.3" spans="7:7">
       <c r="G67" s="32"/>
     </row>
-    <row r="68" ht="15.75" spans="6:7">
+    <row r="68" ht="15.3" spans="6:7">
       <c r="F68" s="33"/>
       <c r="G68" s="34"/>
     </row>
-    <row r="69" ht="15.75" spans="5:7">
+    <row r="69" ht="15.3" spans="5:7">
       <c r="E69" s="33"/>
       <c r="F69" s="35"/>
       <c r="G69" s="34"/>
     </row>
-    <row r="70" ht="15.75" spans="4:7">
+    <row r="70" ht="15.3" spans="4:7">
       <c r="D70" s="33"/>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
       <c r="G70" s="34"/>
     </row>
-    <row r="71" ht="15.75" spans="2:7">
+    <row r="71" ht="15.3" spans="2:7">
       <c r="B71" s="36"/>
       <c r="C71" s="15"/>
       <c r="D71" s="37"/>
@@ -2822,26 +2849,26 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" ht="15.75"/>
-    <row r="80" ht="15.75" spans="7:7">
+    <row r="79" ht="15.3"/>
+    <row r="80" ht="15.3" spans="7:7">
       <c r="G80" s="32"/>
     </row>
-    <row r="81" ht="15.75" spans="6:7">
+    <row r="81" ht="15.3" spans="6:7">
       <c r="F81" s="33"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" ht="15.75" spans="5:7">
+    <row r="82" ht="15.3" spans="5:7">
       <c r="E82" s="33"/>
       <c r="F82" s="35"/>
       <c r="G82" s="34"/>
     </row>
-    <row r="83" ht="15.75" spans="4:7">
+    <row r="83" ht="15.3" spans="4:7">
       <c r="D83" s="33"/>
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
       <c r="G83" s="34"/>
     </row>
-    <row r="84" ht="15.75" spans="2:7">
+    <row r="84" ht="15.3" spans="2:7">
       <c r="B84" s="36"/>
       <c r="C84" s="15"/>
       <c r="D84" s="37"/>
@@ -3986,56 +4013,320 @@
         <v>128</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
-      <c r="A194" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
         <v>12</v>
       </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-      <c r="D194">
-        <v>2</v>
-      </c>
-      <c r="E194">
-        <v>3</v>
-      </c>
-      <c r="F194">
-        <v>4</v>
-      </c>
-      <c r="I194" t="s">
-        <v>129</v>
-      </c>
-      <c r="J194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
-      <c r="A195" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>3</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
         <v>33</v>
       </c>
-      <c r="B195" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E195" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F195" s="45" t="s">
+      <c r="B196" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E196" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F196" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I195" t="s">
+      <c r="I196" t="s">
         <v>130</v>
       </c>
-      <c r="J195">
-        <v>0</v>
+    </row>
+    <row r="197" spans="9:10">
+      <c r="I197" t="s">
+        <v>131</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" t="s">
+        <v>41</v>
+      </c>
+      <c r="B198" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D198" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E198" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="F198" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I198" t="s">
+        <v>135</v>
+      </c>
+      <c r="J198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6">
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199">
+        <v>3</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>59</v>
+      </c>
+      <c r="B201" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D201" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>60</v>
+      </c>
+      <c r="B203" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="E203" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>64</v>
+      </c>
+      <c r="B205" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D205" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F205" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>70</v>
+      </c>
+      <c r="B207" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="G207" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>78</v>
+      </c>
+      <c r="B209" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D209" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E209" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F209" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H209" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>33</v>
+      </c>
+      <c r="B213" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D213" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E213" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>41</v>
+      </c>
+      <c r="B215" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C215" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D215" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E215" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="216" customFormat="1" spans="2:5">
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>59</v>
+      </c>
+      <c r="B218" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D218" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>60</v>
+      </c>
+      <c r="B220" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E220" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>64</v>
+      </c>
+      <c r="B222" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D222" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F222" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>70</v>
+      </c>
+      <c r="B224" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D224" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G224" s="25" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4053,11 +4344,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4098,7 +4389,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
@@ -4163,7 +4454,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -4172,22 +4463,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -4204,7 +4495,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -4218,7 +4509,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -4229,7 +4520,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -4249,12 +4540,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -4358,7 +4649,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -4378,17 +4669,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>51</v>
@@ -4400,18 +4691,18 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -4419,18 +4710,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -4442,7 +4733,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -4450,12 +4741,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -4463,7 +4754,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -4525,7 +4816,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="25" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -4559,7 +4850,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -4571,7 +4862,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -4592,19 +4883,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
   <cols>
-    <col min="10" max="10" width="10.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="10.1441441441441" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4697,10 +4988,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -4715,7 +5006,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -4735,7 +5026,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K11" s="25">
         <v>3</v>
@@ -4762,13 +5053,13 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M14" s="26">
         <v>2</v>
@@ -4776,7 +5067,7 @@
     </row>
     <row r="15" spans="6:13">
       <c r="F15" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G15" s="25">
         <v>2</v>
@@ -4794,7 +5085,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="G17" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -4802,7 +5093,7 @@
     </row>
     <row r="18" customFormat="1" spans="7:9">
       <c r="G18" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I18" s="25">
         <v>2</v>
@@ -4810,28 +5101,28 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G20" s="5">
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="K20" s="5">
         <v>3</v>
@@ -4840,21 +5131,21 @@
     <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G21" s="5">
         <v>3</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K21" s="5">
         <v>2</v>
@@ -4863,21 +5154,21 @@
     <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G22" s="6">
         <v>2</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K22" s="6">
         <v>2</v>
@@ -4885,28 +5176,28 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G24" s="5">
         <v>4</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="K24" s="5">
         <v>4</v>
@@ -4915,21 +5206,21 @@
     <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K25" s="5">
         <v>4</v>
@@ -4938,21 +5229,21 @@
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G26" s="6">
         <v>3</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K26" s="6">
         <v>2</v>
@@ -4973,7 +5264,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -4982,7 +5273,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -5002,7 +5293,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -5047,27 +5338,27 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -5201,13 +5492,13 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
   <cols>
     <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.047619047619" customWidth="1"/>
+    <col min="6" max="6" width="15.045045045045" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.8095238095238" customWidth="1"/>
-    <col min="9" max="9" width="18.0952380952381" customWidth="1"/>
+    <col min="8" max="8" width="13.8108108108108" customWidth="1"/>
+    <col min="9" max="9" width="18.0990990990991" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -5215,15 +5506,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="2:12">
+    <row r="3" ht="15.3" spans="2:12">
       <c r="B3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L3" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="2:12">
+    <row r="4" ht="15.3" spans="2:12">
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -5231,10 +5522,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="2:9">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" ht="15.3" spans="2:9">
       <c r="B5" s="12"/>
       <c r="C5" s="13">
         <v>2</v>
@@ -5243,7 +5534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="2:9">
+    <row r="6" ht="15.3" spans="2:9">
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13">
@@ -5253,7 +5544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="2:9">
+    <row r="7" ht="15.3" spans="2:9">
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -5264,7 +5555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="2:9">
+    <row r="8" ht="15.3" spans="2:9">
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -5276,19 +5567,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.75" spans="2:2">
+    <row r="10" customFormat="1" ht="15.3" spans="2:2">
       <c r="B10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" spans="2:9">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" ht="15.3" spans="2:9">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
       <c r="H11" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I11" s="23">
         <v>10</v>
@@ -5296,7 +5587,7 @@
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I12" s="23">
         <v>11</v>
@@ -5304,7 +5595,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="I13" s="23">
         <v>11</v>
@@ -5312,7 +5603,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I14" s="23">
         <v>10</v>
@@ -5328,7 +5619,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="I16" s="21">
         <v>12</v>
@@ -5336,7 +5627,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I17" s="21">
         <v>12</v>
@@ -5350,8 +5641,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.75"/>
-    <row r="22" customFormat="1" ht="15.75" spans="1:5">
+    <row r="21" ht="15.3"/>
+    <row r="22" customFormat="1" ht="15.3" spans="1:5">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -5365,8 +5656,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="15.75"/>
-    <row r="24" customFormat="1" ht="15.75" spans="1:7">
+    <row r="23" ht="15.3"/>
+    <row r="24" customFormat="1" ht="15.3" spans="1:7">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -5389,7 +5680,7 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G25" s="21">
         <v>5</v>
@@ -5398,10 +5689,10 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="12:13">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" ht="15.3" spans="12:13">
       <c r="L26">
         <v>1</v>
       </c>
@@ -5409,7 +5700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="15.75" spans="1:13">
+    <row r="27" ht="15.3" spans="1:13">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -5456,7 +5747,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H29" s="21">
         <v>7</v>
@@ -5476,8 +5767,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="15.75"/>
-    <row r="32" ht="15.75" spans="1:9">
+    <row r="31" ht="15.3"/>
+    <row r="32" ht="15.3" spans="1:9">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -5524,16 +5815,16 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="I35" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="15.75"/>
-    <row r="38" ht="15.75" spans="1:10">
+    <row r="37" ht="15.3"/>
+    <row r="38" ht="15.3" spans="1:10">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -5543,10 +5834,10 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I38" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="J38" s="23">
         <v>12</v>
@@ -5554,10 +5845,10 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="I39" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J39" s="23">
         <v>12</v>
@@ -5565,10 +5856,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J40" s="21">
         <v>12</v>
@@ -5576,10 +5867,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I41" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="J41" s="23">
         <v>10</v>
@@ -5587,10 +5878,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="I42" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="J42" s="23">
         <v>10</v>
@@ -5611,26 +5902,26 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
   <cols>
-    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="12.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="16.4324324324324" customWidth="1"/>
+    <col min="2" max="2" width="15.2882882882883" customWidth="1"/>
+    <col min="12" max="12" width="12.7117117117117" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -5655,7 +5946,7 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M15" s="5">
         <v>4</v>
@@ -5673,12 +5964,12 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M16" s="5">
         <v>12</v>
@@ -5696,12 +5987,12 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M19" s="8">
         <v>15</v>
@@ -5709,10 +6000,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5765,7 +6056,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5821,7 +6112,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5877,7 +6168,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -5933,7 +6224,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -5989,7 +6280,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -6045,7 +6336,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -6101,17 +6392,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="46" t="s">
-        <v>227</v>
+      <c r="A38" s="47" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="46" t="s">
-        <v>228</v>
+      <c r="A39" s="47" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6130,11 +6421,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6183,40 +6474,40 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="I6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="J6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="K6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="N6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6227,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6238,7 +6529,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6249,7 +6540,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6260,7 +6551,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6278,7 +6569,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
@@ -6287,7 +6578,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6322,7 +6613,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6354,10 +6645,10 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="13:13">
@@ -6397,15 +6688,15 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="5:5">
@@ -6415,7 +6706,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27428" windowHeight="11734"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="253">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -411,13 +411,10 @@
     <t>Longest Palindromic Substring</t>
   </si>
   <si>
-    <t>odd length</t>
-  </si>
-  <si>
-    <t>i=2</t>
-  </si>
-  <si>
-    <t>2-(3-1)/2</t>
+    <t>even length=expand from center with 2 chars as center</t>
+  </si>
+  <si>
+    <t>odd length=expand from center with 1 char as center</t>
   </si>
   <si>
     <t>b or a</t>
@@ -426,19 +423,37 @@
     <t>bab</t>
   </si>
   <si>
-    <t>bab or aba</t>
-  </si>
-  <si>
-    <t>2+3/2</t>
-  </si>
-  <si>
-    <t>even length</t>
-  </si>
-  <si>
-    <t>c or b</t>
-  </si>
-  <si>
-    <t>bb</t>
+    <t>aba or bab</t>
+  </si>
+  <si>
+    <t>L=i</t>
+  </si>
+  <si>
+    <t>i=1</t>
+  </si>
+  <si>
+    <t>R=i</t>
+  </si>
+  <si>
+    <t>R=i+1</t>
+  </si>
+  <si>
+    <t>s[L]==s[R]</t>
+  </si>
+  <si>
+    <t>len=3</t>
+  </si>
+  <si>
+    <t>L=i-1</t>
+  </si>
+  <si>
+    <t>L=2</t>
+  </si>
+  <si>
+    <t>aba</t>
+  </si>
+  <si>
+    <t>R=2</t>
   </si>
   <si>
     <t>n</t>
@@ -773,11 +788,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -830,36 +845,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,45 +861,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,9 +875,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,6 +891,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -952,7 +922,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,7 +982,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -988,7 +1003,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,37 +1039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,13 +1057,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,13 +1081,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,25 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,13 +1129,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,19 +1147,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1463,7 +1478,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,27 +1502,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,16 +1536,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1562,134 +1577,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1746,7 +1761,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
@@ -1841,8 +1858,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="963930" y="747395"/>
-          <a:ext cx="4586605" cy="2357120"/>
+          <a:off x="929005" y="770255"/>
+          <a:ext cx="4342130" cy="2425700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1888,8 +1905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1647190" y="706120"/>
-          <a:ext cx="4572000" cy="3590290"/>
+          <a:off x="1584325" y="723265"/>
+          <a:ext cx="4304030" cy="3704590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2163,20 +2180,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z224"/>
+  <dimension ref="A1:Z211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.009009009009" customWidth="1"/>
-    <col min="3" max="3" width="8.52252252252252" customWidth="1"/>
-    <col min="4" max="4" width="27.5675675675676" customWidth="1"/>
-    <col min="5" max="5" width="12.7027027027027" customWidth="1"/>
-    <col min="6" max="7" width="12.3153153153153" customWidth="1"/>
-    <col min="8" max="8" width="13.1261261261261" customWidth="1"/>
+    <col min="2" max="2" width="23.0095238095238" customWidth="1"/>
+    <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
+    <col min="4" max="4" width="27.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="12.7047619047619" customWidth="1"/>
+    <col min="6" max="7" width="12.3142857142857" customWidth="1"/>
+    <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -2757,26 +2774,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" ht="15.3"/>
-    <row r="67" ht="15.3" spans="7:7">
+    <row r="66" ht="15.75"/>
+    <row r="67" ht="15.75" spans="7:7">
       <c r="G67" s="32"/>
     </row>
-    <row r="68" ht="15.3" spans="6:7">
+    <row r="68" ht="15.75" spans="6:7">
       <c r="F68" s="33"/>
       <c r="G68" s="34"/>
     </row>
-    <row r="69" ht="15.3" spans="5:7">
+    <row r="69" ht="15.75" spans="5:7">
       <c r="E69" s="33"/>
       <c r="F69" s="35"/>
       <c r="G69" s="34"/>
     </row>
-    <row r="70" ht="15.3" spans="4:7">
+    <row r="70" ht="15.75" spans="4:7">
       <c r="D70" s="33"/>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
       <c r="G70" s="34"/>
     </row>
-    <row r="71" ht="15.3" spans="2:7">
+    <row r="71" ht="15.75" spans="2:7">
       <c r="B71" s="36"/>
       <c r="C71" s="15"/>
       <c r="D71" s="37"/>
@@ -2849,26 +2866,26 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" ht="15.3"/>
-    <row r="80" ht="15.3" spans="7:7">
+    <row r="79" ht="15.75"/>
+    <row r="80" ht="15.75" spans="7:7">
       <c r="G80" s="32"/>
     </row>
-    <row r="81" ht="15.3" spans="6:7">
+    <row r="81" ht="15.75" spans="6:7">
       <c r="F81" s="33"/>
       <c r="G81" s="34"/>
     </row>
-    <row r="82" ht="15.3" spans="5:7">
+    <row r="82" ht="15.75" spans="5:7">
       <c r="E82" s="33"/>
       <c r="F82" s="35"/>
       <c r="G82" s="34"/>
     </row>
-    <row r="83" ht="15.3" spans="4:7">
+    <row r="83" ht="15.75" spans="4:7">
       <c r="D83" s="33"/>
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
       <c r="G83" s="34"/>
     </row>
-    <row r="84" ht="15.3" spans="2:7">
+    <row r="84" ht="15.75" spans="2:7">
       <c r="B84" s="36"/>
       <c r="C84" s="15"/>
       <c r="D84" s="37"/>
@@ -4013,320 +4030,236 @@
         <v>128</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="1" t="s">
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>33</v>
+      </c>
+      <c r="B195" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I195" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
-      <c r="A195" t="s">
-        <v>12</v>
-      </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-      <c r="D195">
-        <v>2</v>
-      </c>
-      <c r="E195">
-        <v>3</v>
-      </c>
-      <c r="F195">
+    <row r="196" spans="9:9">
+      <c r="I196" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>41</v>
+      </c>
+      <c r="B197" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D197" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E197" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F197" s="47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="198" spans="8:13">
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198">
+        <v>3</v>
+      </c>
+      <c r="L198">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="A196" t="s">
-        <v>33</v>
-      </c>
-      <c r="B196" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D196" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E196" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F196" s="45" t="s">
+      <c r="M198">
         <v>5</v>
       </c>
-      <c r="I196" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="197" spans="9:10">
-      <c r="I197" t="s">
+    </row>
+    <row r="199" spans="1:13">
+      <c r="A199" t="s">
+        <v>59</v>
+      </c>
+      <c r="B199" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="H199" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I199" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J199" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="K199" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L199" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M199" s="45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>60</v>
+      </c>
+      <c r="B201" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201"/>
+      <c r="E201" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="J197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
-      <c r="A198" t="s">
-        <v>41</v>
-      </c>
-      <c r="B198" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" s="46" t="s">
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203" t="s">
+        <v>64</v>
+      </c>
+      <c r="B203" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203"/>
+      <c r="F203" t="s">
+        <v>134</v>
+      </c>
+      <c r="G203" t="s">
+        <v>135</v>
+      </c>
+      <c r="J203" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D198" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="E198" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F198" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="I198" t="s">
-        <v>135</v>
-      </c>
-      <c r="J198">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6">
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199">
-        <v>1</v>
-      </c>
-      <c r="D199">
-        <v>3</v>
-      </c>
-      <c r="E199">
-        <v>3</v>
-      </c>
-      <c r="F199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="A201" t="s">
-        <v>59</v>
-      </c>
-      <c r="B201" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D201" s="25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>60</v>
-      </c>
-      <c r="B203" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E203" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205" t="s">
-        <v>64</v>
-      </c>
-      <c r="B205" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D205" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F205" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+    </row>
+    <row r="204" spans="6:9">
+      <c r="F204" t="s">
+        <v>136</v>
+      </c>
+      <c r="G204" t="s">
+        <v>137</v>
+      </c>
+      <c r="H204" t="s">
+        <v>138</v>
+      </c>
+      <c r="I204" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="205" spans="7:7">
+      <c r="G205" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
         <v>70</v>
       </c>
-      <c r="B207" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G207" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
+      <c r="B207" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G207" t="s">
+        <v>95</v>
+      </c>
+      <c r="H207" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
         <v>78</v>
       </c>
-      <c r="B209" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C209" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D209" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E209" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F209" s="45" t="s">
+      <c r="B210" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H209" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>12</v>
-      </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="C212">
-        <v>1</v>
-      </c>
-      <c r="D212">
-        <v>2</v>
-      </c>
-      <c r="E212">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>33</v>
-      </c>
-      <c r="B213" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D213" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" s="45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>41</v>
-      </c>
-      <c r="B215" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C215" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D215" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E215" s="45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="216" customFormat="1" spans="2:5">
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216">
-        <v>1</v>
-      </c>
-      <c r="D216">
-        <v>2</v>
-      </c>
-      <c r="E216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>59</v>
-      </c>
-      <c r="B218" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D218" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>60</v>
-      </c>
-      <c r="B220" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C220" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" t="s">
-        <v>64</v>
-      </c>
-      <c r="B222" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C222" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D222" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F222" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" t="s">
-        <v>70</v>
-      </c>
-      <c r="B224" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C224" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D224" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E224" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="G224" s="25" t="s">
-        <v>138</v>
+      <c r="H210" t="s">
+        <v>141</v>
+      </c>
+      <c r="I210" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="211" spans="8:8">
+      <c r="H211" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4344,11 +4277,11 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4389,7 +4322,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
@@ -4454,7 +4387,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -4463,22 +4396,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -4495,7 +4428,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -4509,7 +4442,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -4520,7 +4453,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -4540,12 +4473,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -4649,7 +4582,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -4669,17 +4602,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>51</v>
@@ -4691,18 +4624,18 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -4710,18 +4643,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -4733,7 +4666,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -4741,12 +4674,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -4754,7 +4687,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -4816,7 +4749,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -4850,7 +4783,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -4862,7 +4795,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -4883,19 +4816,19 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="10" max="10" width="10.1441441441441" customWidth="1"/>
+    <col min="10" max="10" width="10.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4988,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -5006,7 +4939,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -5026,7 +4959,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K11" s="25">
         <v>3</v>
@@ -5053,13 +4986,13 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M14" s="26">
         <v>2</v>
@@ -5067,7 +5000,7 @@
     </row>
     <row r="15" spans="6:13">
       <c r="F15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G15" s="25">
         <v>2</v>
@@ -5085,7 +5018,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="G17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -5093,7 +5026,7 @@
     </row>
     <row r="18" customFormat="1" spans="7:9">
       <c r="G18" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I18" s="25">
         <v>2</v>
@@ -5101,28 +5034,28 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G20" s="5">
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K20" s="5">
         <v>3</v>
@@ -5131,21 +5064,21 @@
     <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G21" s="5">
         <v>3</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K21" s="5">
         <v>2</v>
@@ -5154,21 +5087,21 @@
     <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G22" s="6">
         <v>2</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K22" s="6">
         <v>2</v>
@@ -5176,28 +5109,28 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G24" s="5">
         <v>4</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="K24" s="5">
         <v>4</v>
@@ -5206,21 +5139,21 @@
     <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K25" s="5">
         <v>4</v>
@@ -5229,21 +5162,21 @@
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G26" s="6">
         <v>3</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K26" s="6">
         <v>2</v>
@@ -5264,7 +5197,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -5273,7 +5206,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -5293,7 +5226,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -5338,27 +5271,27 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -5492,13 +5425,13 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.045045045045" customWidth="1"/>
+    <col min="6" max="6" width="15.047619047619" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="13.8108108108108" customWidth="1"/>
-    <col min="9" max="9" width="18.0990990990991" customWidth="1"/>
+    <col min="8" max="8" width="13.8095238095238" customWidth="1"/>
+    <col min="9" max="9" width="18.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -5506,15 +5439,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" ht="15.3" spans="2:12">
+    <row r="3" ht="15.75" spans="2:12">
       <c r="B3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L3" s="24">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.3" spans="2:12">
+    <row r="4" ht="15.75" spans="2:12">
       <c r="B4" s="11">
         <v>1</v>
       </c>
@@ -5522,10 +5455,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" ht="15.3" spans="2:9">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="2:9">
       <c r="B5" s="12"/>
       <c r="C5" s="13">
         <v>2</v>
@@ -5534,7 +5467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="15.3" spans="2:9">
+    <row r="6" ht="15.75" spans="2:9">
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13">
@@ -5544,7 +5477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.3" spans="2:9">
+    <row r="7" ht="15.75" spans="2:9">
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -5555,7 +5488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="15.3" spans="2:9">
+    <row r="8" ht="15.75" spans="2:9">
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -5567,19 +5500,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="1" ht="15.3" spans="2:2">
+    <row r="10" customFormat="1" ht="15.75" spans="2:2">
       <c r="B10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" ht="15.3" spans="2:9">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="2:9">
       <c r="B11" s="18"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
       <c r="H11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I11" s="23">
         <v>10</v>
@@ -5587,7 +5520,7 @@
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I12" s="23">
         <v>11</v>
@@ -5595,7 +5528,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I13" s="23">
         <v>11</v>
@@ -5603,7 +5536,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I14" s="23">
         <v>10</v>
@@ -5619,7 +5552,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I16" s="21">
         <v>12</v>
@@ -5627,7 +5560,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I17" s="21">
         <v>12</v>
@@ -5641,8 +5574,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15.3"/>
-    <row r="22" customFormat="1" ht="15.3" spans="1:5">
+    <row r="21" ht="15.75"/>
+    <row r="22" customFormat="1" ht="15.75" spans="1:5">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -5656,8 +5589,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="15.3"/>
-    <row r="24" customFormat="1" ht="15.3" spans="1:7">
+    <row r="23" ht="15.75"/>
+    <row r="24" customFormat="1" ht="15.75" spans="1:7">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -5680,7 +5613,7 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G25" s="21">
         <v>5</v>
@@ -5689,10 +5622,10 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" ht="15.3" spans="12:13">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="12:13">
       <c r="L26">
         <v>1</v>
       </c>
@@ -5700,7 +5633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" ht="15.3" spans="1:13">
+    <row r="27" ht="15.75" spans="1:13">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -5747,7 +5680,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H29" s="21">
         <v>7</v>
@@ -5767,8 +5700,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" ht="15.3"/>
-    <row r="32" ht="15.3" spans="1:9">
+    <row r="31" ht="15.75"/>
+    <row r="32" ht="15.75" spans="1:9">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -5815,16 +5748,16 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I35" s="23">
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="15.3"/>
-    <row r="38" ht="15.3" spans="1:10">
+    <row r="37" ht="15.75"/>
+    <row r="38" ht="15.75" spans="1:10">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -5834,10 +5767,10 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I38" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J38" s="23">
         <v>12</v>
@@ -5845,10 +5778,10 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J39" s="23">
         <v>12</v>
@@ -5856,10 +5789,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I40" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J40" s="21">
         <v>12</v>
@@ -5867,10 +5800,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I41" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="J41" s="23">
         <v>10</v>
@@ -5878,10 +5811,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I42" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="J42" s="23">
         <v>10</v>
@@ -5902,26 +5835,26 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.4324324324324" customWidth="1"/>
-    <col min="2" max="2" width="15.2882882882883" customWidth="1"/>
-    <col min="12" max="12" width="12.7117117117117" customWidth="1"/>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="12.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -5946,7 +5879,7 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M15" s="5">
         <v>4</v>
@@ -5964,12 +5897,12 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M16" s="5">
         <v>12</v>
@@ -5987,12 +5920,12 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M19" s="8">
         <v>15</v>
@@ -6000,10 +5933,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6056,7 +5989,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6112,7 +6045,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6168,7 +6101,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -6224,7 +6157,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -6280,7 +6213,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -6336,7 +6269,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -6392,17 +6325,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="47" t="s">
-        <v>235</v>
+      <c r="A38" s="49" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="47" t="s">
-        <v>236</v>
+      <c r="A39" s="49" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6421,11 +6354,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="8.60952380952381" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6474,40 +6407,40 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="L6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="N6" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6518,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6529,7 +6462,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6540,7 +6473,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6551,7 +6484,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6569,7 +6502,7 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14414414414414" defaultRowHeight="14.55"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
@@ -6578,7 +6511,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6613,7 +6546,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6645,10 +6578,10 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="13:13">
@@ -6688,15 +6621,15 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="5:5">
@@ -6706,7 +6639,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="267">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -454,6 +454,48 @@
   </si>
   <si>
     <t>R=2</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>sum=22</t>
+  </si>
+  <si>
+    <t>target = sum/2</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>0,1,5,6</t>
+  </si>
+  <si>
+    <t>0,1,5,6,11,12,16,17</t>
+  </si>
+  <si>
+    <t>0,1,5,6,11,12,16,17,10,21,22</t>
+  </si>
+  <si>
+    <t>5+0</t>
+  </si>
+  <si>
+    <t>5+1</t>
+  </si>
+  <si>
+    <t>11+0</t>
+  </si>
+  <si>
+    <t>11+1</t>
+  </si>
+  <si>
+    <t>11+5</t>
+  </si>
+  <si>
+    <t>11+6</t>
   </si>
   <si>
     <t>n</t>
@@ -788,11 +830,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -844,24 +886,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,6 +915,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,16 +940,69 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,75 +1017,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1003,13 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1069,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,13 +1099,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,7 +1129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,13 +1141,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,79 +1213,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,30 +1540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1556,16 +1574,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1577,134 +1619,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1761,11 +1803,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2180,10 +2227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z211"/>
+  <dimension ref="A1:Z244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="E228" sqref="E228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2191,7 +2238,7 @@
     <col min="2" max="2" width="23.0095238095238" customWidth="1"/>
     <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
     <col min="4" max="4" width="27.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="12.7047619047619" customWidth="1"/>
+    <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
     <col min="6" max="7" width="12.3142857142857" customWidth="1"/>
     <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
   </cols>
@@ -4082,19 +4129,19 @@
       <c r="A197" t="s">
         <v>41</v>
       </c>
-      <c r="B197" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="46" t="s">
+      <c r="B197" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D197" s="46" t="s">
+      <c r="D197" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E197" s="46" t="s">
+      <c r="E197" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F197" s="47" t="s">
+      <c r="F197" s="28" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4122,15 +4169,12 @@
       <c r="A199" t="s">
         <v>59</v>
       </c>
-      <c r="B199" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199"/>
+      <c r="B199" s="46" t="s">
+        <v>3</v>
+      </c>
       <c r="D199" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E199"/>
-      <c r="F199"/>
       <c r="H199" s="45" t="s">
         <v>31</v>
       </c>
@@ -4154,13 +4198,12 @@
       <c r="A201" t="s">
         <v>60</v>
       </c>
-      <c r="B201" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D201"/>
+      <c r="B201" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="46" t="s">
+        <v>2</v>
+      </c>
       <c r="E201" s="25" t="s">
         <v>131</v>
       </c>
@@ -4169,16 +4212,15 @@
       <c r="A203" t="s">
         <v>64</v>
       </c>
-      <c r="B203" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E203"/>
+      <c r="B203" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="46" t="s">
+        <v>3</v>
+      </c>
       <c r="F203" t="s">
         <v>134</v>
       </c>
@@ -4212,16 +4254,16 @@
       <c r="A207" t="s">
         <v>70</v>
       </c>
-      <c r="B207" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="48" t="s">
+      <c r="B207" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" s="46" t="s">
         <v>2</v>
       </c>
       <c r="G207" t="s">
@@ -4235,19 +4277,19 @@
       <c r="A210" t="s">
         <v>78</v>
       </c>
-      <c r="B210" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F210" s="48" t="s">
+      <c r="B210" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" s="46" t="s">
         <v>5</v>
       </c>
       <c r="H210" t="s">
@@ -4260,6 +4302,208 @@
     <row r="211" spans="8:8">
       <c r="H211" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="47">
+        <v>1</v>
+      </c>
+      <c r="C222" s="47">
+        <v>5</v>
+      </c>
+      <c r="D222" s="47">
+        <v>11</v>
+      </c>
+      <c r="E222" s="47">
+        <v>5</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="223" spans="7:9">
+      <c r="G223" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I223" s="53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>147</v>
+      </c>
+      <c r="B225" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C225" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D225" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="E225" s="47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>59</v>
+      </c>
+      <c r="B227" s="48">
+        <v>1</v>
+      </c>
+      <c r="D227" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>60</v>
+      </c>
+      <c r="B229" s="48">
+        <v>1</v>
+      </c>
+      <c r="C229" s="49">
+        <v>5</v>
+      </c>
+      <c r="E229" t="s">
+        <v>152</v>
+      </c>
+      <c r="F229" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6">
+      <c r="E230" t="s">
+        <v>153</v>
+      </c>
+      <c r="F230" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>64</v>
+      </c>
+      <c r="B232" s="48">
+        <v>1</v>
+      </c>
+      <c r="C232" s="48">
+        <v>5</v>
+      </c>
+      <c r="D232" s="49">
+        <v>11</v>
+      </c>
+      <c r="F232" t="s">
+        <v>154</v>
+      </c>
+      <c r="G232" s="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="6:7">
+      <c r="F233" t="s">
+        <v>155</v>
+      </c>
+      <c r="G233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="6:7">
+      <c r="F234" t="s">
+        <v>156</v>
+      </c>
+      <c r="G234">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="6:7">
+      <c r="F235" t="s">
+        <v>157</v>
+      </c>
+      <c r="G235">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>70</v>
+      </c>
+      <c r="B237" s="48">
+        <v>1</v>
+      </c>
+      <c r="C237" s="48">
+        <v>5</v>
+      </c>
+      <c r="D237" s="48">
+        <v>11</v>
+      </c>
+      <c r="E237" s="49">
+        <v>5</v>
+      </c>
+      <c r="G237" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="238" spans="7:7">
+      <c r="G238">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="7:7">
+      <c r="G239" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="7:7">
+      <c r="G240">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="7:7">
+      <c r="G241">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="7:7">
+      <c r="G242">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="7:7">
+      <c r="G243" s="52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="7:7">
+      <c r="G244" s="52">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4525,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4322,7 +4566,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
@@ -4396,22 +4640,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>2</v>
@@ -4428,7 +4672,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -4442,7 +4686,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -4453,7 +4697,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -4473,12 +4717,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -4582,7 +4826,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -4602,17 +4846,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>51</v>
@@ -4624,18 +4868,18 @@
         <v>6</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>6</v>
@@ -4643,18 +4887,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -4666,7 +4910,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -4674,12 +4918,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -4687,7 +4931,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -4749,7 +4993,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="25" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C51" s="5">
         <v>1</v>
@@ -4783,7 +5027,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -4795,7 +5039,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -4823,12 +5067,12 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4921,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -4939,7 +5183,7 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -4959,7 +5203,7 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K11" s="25">
         <v>3</v>
@@ -4986,13 +5230,13 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M14" s="26">
         <v>2</v>
@@ -5000,7 +5244,7 @@
     </row>
     <row r="15" spans="6:13">
       <c r="F15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G15" s="25">
         <v>2</v>
@@ -5018,7 +5262,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -5026,7 +5270,7 @@
     </row>
     <row r="18" customFormat="1" spans="7:9">
       <c r="G18" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="I18" s="25">
         <v>2</v>
@@ -5034,28 +5278,28 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="G20" s="5">
         <v>2</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="K20" s="5">
         <v>3</v>
@@ -5064,21 +5308,21 @@
     <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="G21" s="5">
         <v>3</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="K21" s="5">
         <v>2</v>
@@ -5087,21 +5331,21 @@
     <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="G22" s="6">
         <v>2</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="K22" s="6">
         <v>2</v>
@@ -5109,28 +5353,28 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G24" s="5">
         <v>4</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="K24" s="5">
         <v>4</v>
@@ -5139,21 +5383,21 @@
     <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="G25" s="5">
         <v>3</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="K25" s="5">
         <v>4</v>
@@ -5162,21 +5406,21 @@
     <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C26" s="6">
         <v>3</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G26" s="6">
         <v>3</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="K26" s="6">
         <v>2</v>
@@ -5206,7 +5450,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
@@ -5226,7 +5470,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -5271,27 +5515,27 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -5441,7 +5685,7 @@
     </row>
     <row r="3" ht="15.75" spans="2:12">
       <c r="B3" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="L3" s="24">
         <v>5</v>
@@ -5455,7 +5699,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:9">
@@ -5502,7 +5746,7 @@
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="2:2">
       <c r="B10" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:9">
@@ -5512,7 +5756,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
       <c r="H11" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="I11" s="23">
         <v>10</v>
@@ -5520,7 +5764,7 @@
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I12" s="23">
         <v>11</v>
@@ -5528,7 +5772,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="I13" s="23">
         <v>11</v>
@@ -5536,7 +5780,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I14" s="23">
         <v>10</v>
@@ -5552,7 +5796,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="I16" s="21">
         <v>12</v>
@@ -5560,7 +5804,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="I17" s="21">
         <v>12</v>
@@ -5613,7 +5857,7 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G25" s="21">
         <v>5</v>
@@ -5622,7 +5866,7 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="12:13">
@@ -5680,7 +5924,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="H29" s="21">
         <v>7</v>
@@ -5748,7 +5992,7 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="I35" s="23">
         <v>8</v>
@@ -5757,7 +6001,7 @@
     <row r="37" ht="15.75"/>
     <row r="38" ht="15.75" spans="1:10">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
@@ -5767,10 +6011,10 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="I38" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="J38" s="23">
         <v>12</v>
@@ -5778,10 +6022,10 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="I39" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="J39" s="23">
         <v>12</v>
@@ -5789,10 +6033,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="I40" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="J40" s="21">
         <v>12</v>
@@ -5800,10 +6044,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="I41" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="J41" s="23">
         <v>10</v>
@@ -5811,10 +6055,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="I42" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="J42" s="23">
         <v>10</v>
@@ -5844,17 +6088,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -5879,7 +6123,7 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="M15" s="5">
         <v>4</v>
@@ -5897,12 +6141,12 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M16" s="5">
         <v>12</v>
@@ -5920,12 +6164,12 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="M19" s="8">
         <v>15</v>
@@ -5933,10 +6177,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -5989,7 +6233,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6045,7 +6289,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6101,7 +6345,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -6157,7 +6401,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -6213,7 +6457,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -6269,7 +6513,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -6325,17 +6569,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="49" t="s">
-        <v>240</v>
+      <c r="A38" s="54" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="49" t="s">
-        <v>241</v>
+      <c r="A39" s="54" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6358,7 +6602,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -6407,40 +6651,40 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="I6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="M6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="N6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6451,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6462,7 +6706,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6473,7 +6717,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6484,7 +6728,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6511,7 +6755,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6546,7 +6790,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6578,10 +6822,10 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="13:13">
@@ -6621,15 +6865,15 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="5:5">
@@ -6639,7 +6883,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Knapsack" sheetId="7" r:id="rId7"/>
     <sheet name="MinimumPartition" sheetId="8" r:id="rId8"/>
     <sheet name="WordBreak" sheetId="9" r:id="rId9"/>
+    <sheet name="MatrixMultiplication" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="365">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -498,9 +499,114 @@
     <t>11+6</t>
   </si>
   <si>
+    <t>CountingBits</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>2^0</t>
+  </si>
+  <si>
+    <t>if ((offset * 2) == n) {</t>
+  </si>
+  <si>
+    <t>2^1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    offset = n;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>2^2</t>
+  </si>
+  <si>
+    <t>dp[4] = 1 + dp[4-offset]</t>
+  </si>
+  <si>
+    <t>dp[5] = 1+ dp[5-4]</t>
+  </si>
+  <si>
+    <t>2^3</t>
+  </si>
+  <si>
+    <t>2^4</t>
+  </si>
+  <si>
+    <t>MatrixMultiplication</t>
+  </si>
+  <si>
+    <t>A[i]</t>
+  </si>
+  <si>
+    <t>[10, 20]</t>
+  </si>
+  <si>
+    <t>[20,30]</t>
+  </si>
+  <si>
+    <t>[30,40]</t>
+  </si>
+  <si>
+    <t>len=1</t>
+  </si>
+  <si>
+    <t>len=2</t>
+  </si>
+  <si>
+    <t>(0,1)</t>
+  </si>
+  <si>
+    <t>10*20*30</t>
+  </si>
+  <si>
+    <t>(1,2)</t>
+  </si>
+  <si>
+    <t>20*30*40</t>
+  </si>
+  <si>
+    <t>(0,(1,2))</t>
+  </si>
+  <si>
+    <t>24000 + 10*20*40</t>
+  </si>
+  <si>
+    <t>24000+8000</t>
+  </si>
+  <si>
+    <t>((0,1),2)</t>
+  </si>
+  <si>
+    <t>6000 + 10*30*40</t>
+  </si>
+  <si>
+    <t>6000 + 12000</t>
+  </si>
+  <si>
+    <t>(A1*A2)*A3</t>
+  </si>
+  <si>
+    <t>f(i,i)=0</t>
+  </si>
+  <si>
+    <t>f(i,k)=min[ f(i,j) + f(j+1,k) + (rows_i * cols_j * cols_k) ]</t>
+  </si>
+  <si>
+    <t>i&lt;=j&lt;k</t>
+  </si>
+  <si>
     <t>fib(n)</t>
   </si>
   <si>
@@ -823,6 +929,195 @@
   </si>
   <si>
     <t>dp[3] = dp[7]</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication</t>
+  </si>
+  <si>
+    <t>A (2*3)</t>
+  </si>
+  <si>
+    <t>B(3*2)</t>
+  </si>
+  <si>
+    <t>Dot Product = A * B</t>
+  </si>
+  <si>
+    <t>C (2*2)</t>
+  </si>
+  <si>
+    <t>1*7 + 2*9 + 3*11</t>
+  </si>
+  <si>
+    <t>1*8 + 2*10 + 3*12</t>
+  </si>
+  <si>
+    <t>total operations = 2*3*2</t>
+  </si>
+  <si>
+    <t>4*7 + 5*9 + 6*11</t>
+  </si>
+  <si>
+    <t>4*8 + 5*10 + 6*12</t>
+  </si>
+  <si>
+    <t>r_a*c_a*c_b</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>10*20</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>20*30</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>30*40</t>
+  </si>
+  <si>
+    <t>20*40</t>
+  </si>
+  <si>
+    <t>A1*A2*A3</t>
+  </si>
+  <si>
+    <t>10*20*30 = 6000 + 12000</t>
+  </si>
+  <si>
+    <t>10*30</t>
+  </si>
+  <si>
+    <t>10*30*40</t>
+  </si>
+  <si>
+    <t>A1*(A2*A3)</t>
+  </si>
+  <si>
+    <t>(10*20*40)+(20*30*40)</t>
+  </si>
+  <si>
+    <t>8000 + 24000</t>
+  </si>
+  <si>
+    <t>{1, 2, 3, 4, 3}</t>
+  </si>
+  <si>
+    <t>[1, 2]</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>[3,4]</t>
+  </si>
+  <si>
+    <t>[4,3]</t>
+  </si>
+  <si>
+    <t>(0*1)</t>
+  </si>
+  <si>
+    <t>1*2*3</t>
+  </si>
+  <si>
+    <t>f(i,j)=min[ f(i,k) + f(k+1,j) + (rows_i * cols_k * cols_j) ]</t>
+  </si>
+  <si>
+    <t>i&lt;=k&lt;j</t>
+  </si>
+  <si>
+    <t>(1*2)</t>
+  </si>
+  <si>
+    <t>2*3*4</t>
+  </si>
+  <si>
+    <t>(2*3)</t>
+  </si>
+  <si>
+    <t>3*4*3</t>
+  </si>
+  <si>
+    <t>(0*1*2)</t>
+  </si>
+  <si>
+    <t>(0*(1*2))</t>
+  </si>
+  <si>
+    <t>(1*2*4) + 24</t>
+  </si>
+  <si>
+    <t>8+24</t>
+  </si>
+  <si>
+    <t>((0*1)*2)</t>
+  </si>
+  <si>
+    <t>6 + (1*3*4)</t>
+  </si>
+  <si>
+    <t>6+12</t>
+  </si>
+  <si>
+    <t>(1*2*3)</t>
+  </si>
+  <si>
+    <t>(1*(2*3))</t>
+  </si>
+  <si>
+    <t>36 + (2*3*3)</t>
+  </si>
+  <si>
+    <t>36+18</t>
+  </si>
+  <si>
+    <t>((1*2)*3)</t>
+  </si>
+  <si>
+    <t>24 + (2*4*3)</t>
+  </si>
+  <si>
+    <t>24+24</t>
+  </si>
+  <si>
+    <t>len=4</t>
+  </si>
+  <si>
+    <t>(0*1*2*3)</t>
+  </si>
+  <si>
+    <t>(0*(1*2*3))</t>
+  </si>
+  <si>
+    <t>48+(1*2*3)</t>
+  </si>
+  <si>
+    <t>48+6</t>
+  </si>
+  <si>
+    <t>((0*1)*(2*3))</t>
+  </si>
+  <si>
+    <t>6+36+(1*3*3)</t>
+  </si>
+  <si>
+    <t>42+9</t>
+  </si>
+  <si>
+    <t>((0*1*2)*3)</t>
+  </si>
+  <si>
+    <t>18+(1*4*3)</t>
+  </si>
+  <si>
+    <t>18+12</t>
   </si>
 </sst>
 </file>
@@ -831,10 +1126,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -853,10 +1148,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
-      <color rgb="FF263238"/>
-      <name val="Consolas"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -867,11 +1163,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="9.75"/>
+      <color rgb="FF263238"/>
+      <name val="Consolas"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -886,9 +1181,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,36 +1274,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,44 +1305,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,37 +1319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,7 +1340,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,61 +1394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1448,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,37 +1514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,38 +1524,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1239,13 +1534,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1257,12 +1582,98 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1271,17 +1682,41 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1298,6 +1733,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1380,21 +1850,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1460,6 +1915,114 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1468,35 +2031,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1512,30 +2056,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1557,15 +2077,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1578,30 +2089,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1619,200 +2115,255 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2227,10 +2778,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z244"/>
+  <dimension ref="A1:Z289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="E228" sqref="E228"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="J288" sqref="J288:P289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2241,6 +2792,8 @@
     <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
     <col min="6" max="7" width="12.3142857142857" customWidth="1"/>
     <col min="8" max="8" width="13.1238095238095" customWidth="1"/>
+    <col min="9" max="9" width="16.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="13.7428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -2252,19 +2805,19 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
@@ -2275,13 +2828,13 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -2306,19 +2859,19 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="33">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="15">
         <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="15">
         <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2326,19 +2879,19 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="15">
         <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="15">
         <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="15">
         <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2346,19 +2899,19 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="15">
         <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="15">
         <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="15">
         <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2366,19 +2919,19 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="15">
         <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="15">
         <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="15">
         <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2386,19 +2939,19 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="15">
         <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="15">
         <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="15">
         <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2406,16 +2959,16 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2452,7 +3005,7 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="55" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2460,31 +3013,31 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="15">
         <v>10</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="15">
         <v>9</v>
       </c>
-      <c r="D23" s="5">
-        <v>2</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="15">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15">
         <v>5</v>
       </c>
-      <c r="F23" s="5">
-        <v>3</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="15">
+        <v>3</v>
+      </c>
+      <c r="G23" s="15">
         <v>7</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="15">
         <v>101</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="15">
         <v>18</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="55" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2498,7 +3051,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="28">
         <v>4</v>
       </c>
       <c r="E25">
@@ -2607,16 +3160,16 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="5">
-        <v>0</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5">
-        <v>2</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="C41" s="15">
+        <v>0</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15">
+        <v>2</v>
+      </c>
+      <c r="F41" s="15">
         <v>3</v>
       </c>
     </row>
@@ -2624,16 +3177,16 @@
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="5">
-        <v>2</v>
-      </c>
-      <c r="F42" s="5">
+      <c r="C42" s="15">
+        <v>1</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1</v>
+      </c>
+      <c r="E42" s="15">
+        <v>2</v>
+      </c>
+      <c r="F42" s="15">
         <v>3</v>
       </c>
     </row>
@@ -2641,16 +3194,16 @@
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="5">
-        <v>2</v>
-      </c>
-      <c r="D43" s="5">
-        <v>2</v>
-      </c>
-      <c r="E43" s="5">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="C43" s="15">
+        <v>2</v>
+      </c>
+      <c r="D43" s="15">
+        <v>2</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2658,16 +3211,16 @@
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="5">
-        <v>3</v>
-      </c>
-      <c r="D44" s="5">
-        <v>2</v>
-      </c>
-      <c r="E44" s="5">
-        <v>2</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="C44" s="15">
+        <v>3</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2</v>
+      </c>
+      <c r="E44" s="15">
+        <v>2</v>
+      </c>
+      <c r="F44" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2675,16 +3228,16 @@
       <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="15">
         <v>4</v>
       </c>
-      <c r="D45" s="5">
-        <v>3</v>
-      </c>
-      <c r="E45" s="5">
-        <v>3</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="D45" s="15">
+        <v>3</v>
+      </c>
+      <c r="E45" s="15">
+        <v>3</v>
+      </c>
+      <c r="F45" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2692,16 +3245,16 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="15">
         <v>5</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="15">
         <v>4</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="15">
         <v>4</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="33">
         <v>3</v>
       </c>
     </row>
@@ -2746,28 +3299,28 @@
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="30" t="s">
+      <c r="G53" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="30" t="s">
+      <c r="H53" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="30" t="s">
+      <c r="I53" s="54" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2775,7 +3328,7 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="25" t="b">
+      <c r="B55" s="28" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -2807,7 +3360,7 @@
       <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="31" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2823,30 +3376,30 @@
     </row>
     <row r="66" ht="15.75"/>
     <row r="67" ht="15.75" spans="7:7">
-      <c r="G67" s="32"/>
+      <c r="G67" s="56"/>
     </row>
     <row r="68" ht="15.75" spans="6:7">
-      <c r="F68" s="33"/>
-      <c r="G68" s="34"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="58"/>
     </row>
     <row r="69" ht="15.75" spans="5:7">
-      <c r="E69" s="33"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="34"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="58"/>
     </row>
     <row r="70" ht="15.75" spans="4:7">
-      <c r="D70" s="33"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="34"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="58"/>
     </row>
     <row r="71" ht="15.75" spans="2:7">
-      <c r="B71" s="36"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="61"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -2875,7 +3428,7 @@
       <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="28">
         <v>8</v>
       </c>
       <c r="C74">
@@ -2915,30 +3468,30 @@
     </row>
     <row r="79" ht="15.75"/>
     <row r="80" ht="15.75" spans="7:7">
-      <c r="G80" s="32"/>
+      <c r="G80" s="56"/>
     </row>
     <row r="81" ht="15.75" spans="6:7">
-      <c r="F81" s="33"/>
-      <c r="G81" s="34"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="58"/>
     </row>
     <row r="82" ht="15.75" spans="5:7">
-      <c r="E82" s="33"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="34"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="58"/>
     </row>
     <row r="83" ht="15.75" spans="4:7">
-      <c r="D83" s="33"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="34"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="58"/>
     </row>
     <row r="84" ht="15.75" spans="2:7">
-      <c r="B84" s="36"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="38"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="61"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -2967,7 +3520,7 @@
       <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="28">
         <v>13</v>
       </c>
       <c r="C87">
@@ -3032,28 +3585,28 @@
       <c r="B96" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="39">
+      <c r="C96" s="62">
         <v>4</v>
       </c>
-      <c r="D96" s="40">
-        <v>3</v>
-      </c>
-      <c r="E96" s="40">
-        <v>3</v>
-      </c>
-      <c r="F96" s="5">
-        <v>2</v>
-      </c>
-      <c r="G96" s="5">
-        <v>2</v>
-      </c>
-      <c r="H96" s="5">
-        <v>1</v>
-      </c>
-      <c r="I96" s="5">
-        <v>1</v>
-      </c>
-      <c r="J96" s="41">
+      <c r="D96" s="63">
+        <v>3</v>
+      </c>
+      <c r="E96" s="63">
+        <v>3</v>
+      </c>
+      <c r="F96" s="15">
+        <v>2</v>
+      </c>
+      <c r="G96" s="15">
+        <v>2</v>
+      </c>
+      <c r="H96" s="15">
+        <v>1</v>
+      </c>
+      <c r="I96" s="15">
+        <v>1</v>
+      </c>
+      <c r="J96" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3061,28 +3614,28 @@
       <c r="B97" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="63">
         <v>4</v>
       </c>
-      <c r="D97" s="40">
-        <v>3</v>
-      </c>
-      <c r="E97" s="40">
-        <v>3</v>
-      </c>
-      <c r="F97" s="5">
-        <v>2</v>
-      </c>
-      <c r="G97" s="5">
-        <v>2</v>
-      </c>
-      <c r="H97" s="5">
-        <v>1</v>
-      </c>
-      <c r="I97" s="5">
-        <v>1</v>
-      </c>
-      <c r="J97" s="41">
+      <c r="D97" s="63">
+        <v>3</v>
+      </c>
+      <c r="E97" s="63">
+        <v>3</v>
+      </c>
+      <c r="F97" s="15">
+        <v>2</v>
+      </c>
+      <c r="G97" s="15">
+        <v>2</v>
+      </c>
+      <c r="H97" s="15">
+        <v>1</v>
+      </c>
+      <c r="I97" s="15">
+        <v>1</v>
+      </c>
+      <c r="J97" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3090,28 +3643,28 @@
       <c r="B98" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="40">
+      <c r="C98" s="63">
         <v>4</v>
       </c>
-      <c r="D98" s="40">
-        <v>3</v>
-      </c>
-      <c r="E98" s="40">
-        <v>3</v>
-      </c>
-      <c r="F98" s="5">
-        <v>2</v>
-      </c>
-      <c r="G98" s="5">
-        <v>2</v>
-      </c>
-      <c r="H98" s="5">
-        <v>1</v>
-      </c>
-      <c r="I98" s="5">
-        <v>1</v>
-      </c>
-      <c r="J98" s="41">
+      <c r="D98" s="63">
+        <v>3</v>
+      </c>
+      <c r="E98" s="63">
+        <v>3</v>
+      </c>
+      <c r="F98" s="15">
+        <v>2</v>
+      </c>
+      <c r="G98" s="15">
+        <v>2</v>
+      </c>
+      <c r="H98" s="15">
+        <v>1</v>
+      </c>
+      <c r="I98" s="15">
+        <v>1</v>
+      </c>
+      <c r="J98" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3119,28 +3672,28 @@
       <c r="B99" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="5">
-        <v>3</v>
-      </c>
-      <c r="D99" s="5">
-        <v>3</v>
-      </c>
-      <c r="E99" s="5">
-        <v>3</v>
-      </c>
-      <c r="F99" s="5">
-        <v>2</v>
-      </c>
-      <c r="G99" s="5">
-        <v>2</v>
-      </c>
-      <c r="H99" s="5">
-        <v>1</v>
-      </c>
-      <c r="I99" s="5">
-        <v>1</v>
-      </c>
-      <c r="J99" s="41">
+      <c r="C99" s="15">
+        <v>3</v>
+      </c>
+      <c r="D99" s="15">
+        <v>3</v>
+      </c>
+      <c r="E99" s="15">
+        <v>3</v>
+      </c>
+      <c r="F99" s="15">
+        <v>2</v>
+      </c>
+      <c r="G99" s="15">
+        <v>2</v>
+      </c>
+      <c r="H99" s="15">
+        <v>1</v>
+      </c>
+      <c r="I99" s="15">
+        <v>1</v>
+      </c>
+      <c r="J99" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3148,28 +3701,28 @@
       <c r="B100" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="5">
-        <v>2</v>
-      </c>
-      <c r="D100" s="5">
-        <v>2</v>
-      </c>
-      <c r="E100" s="5">
-        <v>2</v>
-      </c>
-      <c r="F100" s="5">
-        <v>2</v>
-      </c>
-      <c r="G100" s="5">
-        <v>2</v>
-      </c>
-      <c r="H100" s="5">
-        <v>1</v>
-      </c>
-      <c r="I100" s="5">
-        <v>1</v>
-      </c>
-      <c r="J100" s="41">
+      <c r="C100" s="15">
+        <v>2</v>
+      </c>
+      <c r="D100" s="15">
+        <v>2</v>
+      </c>
+      <c r="E100" s="15">
+        <v>2</v>
+      </c>
+      <c r="F100" s="15">
+        <v>2</v>
+      </c>
+      <c r="G100" s="15">
+        <v>2</v>
+      </c>
+      <c r="H100" s="15">
+        <v>1</v>
+      </c>
+      <c r="I100" s="15">
+        <v>1</v>
+      </c>
+      <c r="J100" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3177,28 +3730,28 @@
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="5">
-        <v>1</v>
-      </c>
-      <c r="D101" s="5">
-        <v>1</v>
-      </c>
-      <c r="E101" s="5">
-        <v>1</v>
-      </c>
-      <c r="F101" s="5">
-        <v>1</v>
-      </c>
-      <c r="G101" s="5">
-        <v>1</v>
-      </c>
-      <c r="H101" s="5">
-        <v>1</v>
-      </c>
-      <c r="I101" s="5">
-        <v>1</v>
-      </c>
-      <c r="J101" s="41">
+      <c r="C101" s="15">
+        <v>1</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1</v>
+      </c>
+      <c r="E101" s="15">
+        <v>1</v>
+      </c>
+      <c r="F101" s="15">
+        <v>1</v>
+      </c>
+      <c r="G101" s="15">
+        <v>1</v>
+      </c>
+      <c r="H101" s="15">
+        <v>1</v>
+      </c>
+      <c r="I101" s="15">
+        <v>1</v>
+      </c>
+      <c r="J101" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3206,28 +3759,28 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="41">
-        <v>0</v>
-      </c>
-      <c r="D102" s="41">
-        <v>0</v>
-      </c>
-      <c r="E102" s="41">
-        <v>0</v>
-      </c>
-      <c r="F102" s="41">
-        <v>0</v>
-      </c>
-      <c r="G102" s="41">
-        <v>0</v>
-      </c>
-      <c r="H102" s="41">
-        <v>0</v>
-      </c>
-      <c r="I102" s="41">
-        <v>0</v>
-      </c>
-      <c r="J102" s="41">
+      <c r="C102" s="17">
+        <v>0</v>
+      </c>
+      <c r="D102" s="17">
+        <v>0</v>
+      </c>
+      <c r="E102" s="17">
+        <v>0</v>
+      </c>
+      <c r="F102" s="17">
+        <v>0</v>
+      </c>
+      <c r="G102" s="17">
+        <v>0</v>
+      </c>
+      <c r="H102" s="17">
+        <v>0</v>
+      </c>
+      <c r="I102" s="17">
+        <v>0</v>
+      </c>
+      <c r="J102" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3247,34 +3800,34 @@
       </c>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="42"/>
+      <c r="G111" s="64"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="40">
-        <v>1</v>
-      </c>
-      <c r="C112" s="5">
-        <v>2</v>
-      </c>
-      <c r="D112" s="5">
-        <v>3</v>
-      </c>
-      <c r="E112" s="5">
+      <c r="B112" s="63">
+        <v>1</v>
+      </c>
+      <c r="C112" s="15">
+        <v>2</v>
+      </c>
+      <c r="D112" s="15">
+        <v>3</v>
+      </c>
+      <c r="E112" s="15">
         <v>4</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="15">
         <v>5</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112" s="15">
         <v>6</v>
       </c>
-      <c r="H112" s="5">
+      <c r="H112" s="15">
         <v>7</v>
       </c>
-      <c r="I112" s="5">
+      <c r="I112" s="15">
         <v>8</v>
       </c>
     </row>
@@ -3282,28 +3835,28 @@
       <c r="A113" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="5">
-        <v>1</v>
-      </c>
-      <c r="C113" s="5">
+      <c r="B113" s="15">
+        <v>1</v>
+      </c>
+      <c r="C113" s="15">
         <v>5</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="15">
         <v>8</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E113" s="15">
         <v>9</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F113" s="15">
         <v>10</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113" s="15">
         <v>17</v>
       </c>
-      <c r="H113" s="5">
+      <c r="H113" s="15">
         <v>17</v>
       </c>
-      <c r="I113" s="5">
+      <c r="I113" s="15">
         <v>20</v>
       </c>
     </row>
@@ -3348,7 +3901,7 @@
       <c r="A118" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="40">
+      <c r="B118" s="63">
         <v>1</v>
       </c>
       <c r="D118" t="s">
@@ -3357,7 +3910,7 @@
       <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="25">
+      <c r="F118" s="28">
         <v>1</v>
       </c>
     </row>
@@ -3370,10 +3923,10 @@
       <c r="A121" t="s">
         <v>64</v>
       </c>
-      <c r="B121" s="40">
-        <v>1</v>
-      </c>
-      <c r="C121" s="5">
+      <c r="B121" s="63">
+        <v>1</v>
+      </c>
+      <c r="C121" s="15">
         <v>2</v>
       </c>
       <c r="E121" t="s">
@@ -3385,7 +3938,7 @@
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="25">
+      <c r="H121" s="28">
         <v>5</v>
       </c>
     </row>
@@ -3410,13 +3963,13 @@
       <c r="A124" t="s">
         <v>70</v>
       </c>
-      <c r="B124" s="40">
-        <v>1</v>
-      </c>
-      <c r="C124" s="5">
-        <v>2</v>
-      </c>
-      <c r="D124" s="5">
+      <c r="B124" s="63">
+        <v>1</v>
+      </c>
+      <c r="C124" s="15">
+        <v>2</v>
+      </c>
+      <c r="D124" s="15">
         <v>3</v>
       </c>
       <c r="F124" t="s">
@@ -3428,7 +3981,7 @@
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="25">
+      <c r="I124" s="28">
         <v>8</v>
       </c>
     </row>
@@ -3467,16 +4020,16 @@
       <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="40">
-        <v>1</v>
-      </c>
-      <c r="C128" s="5">
-        <v>2</v>
-      </c>
-      <c r="D128" s="5">
-        <v>3</v>
-      </c>
-      <c r="E128" s="5">
+      <c r="B128" s="63">
+        <v>1</v>
+      </c>
+      <c r="C128" s="15">
+        <v>2</v>
+      </c>
+      <c r="D128" s="15">
+        <v>3</v>
+      </c>
+      <c r="E128" s="15">
         <v>4</v>
       </c>
       <c r="G128" t="s">
@@ -3488,7 +4041,7 @@
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="25">
+      <c r="J128" s="28">
         <v>10</v>
       </c>
     </row>
@@ -3548,7 +4101,7 @@
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:1">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="31" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3576,19 +4129,19 @@
       <c r="A144" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="5">
-        <v>2</v>
-      </c>
-      <c r="C144" s="5">
+      <c r="B144" s="15">
+        <v>2</v>
+      </c>
+      <c r="C144" s="15">
         <v>7</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="15">
         <v>9</v>
       </c>
-      <c r="E144" s="5">
-        <v>3</v>
-      </c>
-      <c r="F144" s="5">
+      <c r="E144" s="15">
+        <v>3</v>
+      </c>
+      <c r="F144" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3596,10 +4149,10 @@
       <c r="A146" t="s">
         <v>59</v>
       </c>
-      <c r="B146" s="7">
-        <v>2</v>
-      </c>
-      <c r="D146" s="25">
+      <c r="B146" s="34">
+        <v>2</v>
+      </c>
+      <c r="D146" s="28">
         <v>2</v>
       </c>
     </row>
@@ -3607,13 +4160,13 @@
       <c r="A148" t="s">
         <v>60</v>
       </c>
-      <c r="B148" s="7">
-        <v>2</v>
-      </c>
-      <c r="C148" s="7">
+      <c r="B148" s="34">
+        <v>2</v>
+      </c>
+      <c r="C148" s="34">
         <v>7</v>
       </c>
-      <c r="E148" s="25">
+      <c r="E148" s="28">
         <v>7</v>
       </c>
     </row>
@@ -3621,19 +4174,19 @@
       <c r="A150" t="s">
         <v>64</v>
       </c>
-      <c r="B150" s="7">
-        <v>2</v>
-      </c>
-      <c r="C150" s="7">
+      <c r="B150" s="34">
+        <v>2</v>
+      </c>
+      <c r="C150" s="34">
         <v>7</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="34">
         <v>9</v>
       </c>
       <c r="F150" t="s">
         <v>91</v>
       </c>
-      <c r="G150" s="25">
+      <c r="G150" s="28">
         <v>11</v>
       </c>
     </row>
@@ -3649,16 +4202,16 @@
       <c r="A153" t="s">
         <v>70</v>
       </c>
-      <c r="B153" s="7">
-        <v>2</v>
-      </c>
-      <c r="C153" s="7">
+      <c r="B153" s="34">
+        <v>2</v>
+      </c>
+      <c r="C153" s="34">
         <v>7</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153" s="34">
         <v>9</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="34">
         <v>3</v>
       </c>
       <c r="G153" t="s">
@@ -3675,7 +4228,7 @@
       <c r="G154" t="s">
         <v>94</v>
       </c>
-      <c r="H154" s="25">
+      <c r="H154" s="28">
         <v>11</v>
       </c>
       <c r="J154" s="1" t="s">
@@ -3686,25 +4239,25 @@
       <c r="A156" t="s">
         <v>78</v>
       </c>
-      <c r="B156" s="7">
-        <v>2</v>
-      </c>
-      <c r="C156" s="7">
+      <c r="B156" s="34">
+        <v>2</v>
+      </c>
+      <c r="C156" s="34">
         <v>7</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156" s="34">
         <v>9</v>
       </c>
-      <c r="E156" s="7">
-        <v>3</v>
-      </c>
-      <c r="F156" s="7">
+      <c r="E156" s="34">
+        <v>3</v>
+      </c>
+      <c r="F156" s="34">
         <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>96</v>
       </c>
-      <c r="J156" s="25">
+      <c r="J156" s="28">
         <v>12</v>
       </c>
     </row>
@@ -3722,7 +4275,7 @@
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="31" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3747,53 +4300,53 @@
       <c r="A167" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="5">
-        <v>2</v>
-      </c>
-      <c r="C167" s="5">
-        <v>3</v>
-      </c>
-      <c r="D167" s="5">
+      <c r="B167" s="15">
+        <v>2</v>
+      </c>
+      <c r="C167" s="15">
+        <v>3</v>
+      </c>
+      <c r="D167" s="15">
         <v>-2</v>
       </c>
-      <c r="E167" s="5">
+      <c r="E167" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="43">
-        <v>2</v>
-      </c>
-      <c r="C168" s="43">
-        <v>3</v>
-      </c>
-      <c r="D168" s="43">
+      <c r="B168" s="65">
+        <v>2</v>
+      </c>
+      <c r="C168" s="65">
+        <v>3</v>
+      </c>
+      <c r="D168" s="65">
         <v>-2</v>
       </c>
-      <c r="E168" s="25">
+      <c r="E168" s="28">
         <v>-4</v>
       </c>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="43"/>
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
-      <c r="E169" s="43"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="65"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="26">
+      <c r="B170" s="50">
         <v>4</v>
       </c>
-      <c r="C170" s="26">
+      <c r="C170" s="50">
         <v>6</v>
       </c>
-      <c r="D170" s="26">
+      <c r="D170" s="50">
         <v>6</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="15">
         <v>6</v>
       </c>
       <c r="H170" s="1" t="s">
@@ -3801,7 +4354,7 @@
       </c>
     </row>
     <row r="171" spans="8:14">
-      <c r="H171" s="44">
+      <c r="H171" s="66">
         <v>6</v>
       </c>
       <c r="M171" s="1" t="s">
@@ -3849,7 +4402,7 @@
       <c r="A175" t="s">
         <v>59</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="34">
         <v>2</v>
       </c>
       <c r="D175" t="s">
@@ -3867,7 +4420,7 @@
       <c r="K175" t="s">
         <v>105</v>
       </c>
-      <c r="M175" s="25">
+      <c r="M175" s="28">
         <v>4</v>
       </c>
     </row>
@@ -3889,10 +4442,10 @@
       <c r="A178" t="s">
         <v>60</v>
       </c>
-      <c r="B178" s="7">
-        <v>2</v>
-      </c>
-      <c r="C178" s="7">
+      <c r="B178" s="34">
+        <v>2</v>
+      </c>
+      <c r="C178" s="34">
         <v>3</v>
       </c>
       <c r="E178" t="s">
@@ -3910,10 +4463,10 @@
       <c r="L178" t="s">
         <v>110</v>
       </c>
-      <c r="N178" s="25">
+      <c r="N178" s="28">
         <v>6</v>
       </c>
-      <c r="Z178" s="25">
+      <c r="Z178" s="28">
         <v>4</v>
       </c>
     </row>
@@ -3935,13 +4488,13 @@
       <c r="A181" t="s">
         <v>64</v>
       </c>
-      <c r="B181" s="7">
-        <v>2</v>
-      </c>
-      <c r="C181" s="7">
-        <v>3</v>
-      </c>
-      <c r="D181" s="7">
+      <c r="B181" s="34">
+        <v>2</v>
+      </c>
+      <c r="C181" s="34">
+        <v>3</v>
+      </c>
+      <c r="D181" s="34">
         <v>-2</v>
       </c>
       <c r="F181" t="s">
@@ -3959,7 +4512,7 @@
       <c r="N181" t="s">
         <v>115</v>
       </c>
-      <c r="P181" s="25">
+      <c r="P181" s="28">
         <v>6</v>
       </c>
     </row>
@@ -3981,16 +4534,16 @@
       <c r="A184" t="s">
         <v>70</v>
       </c>
-      <c r="B184" s="7">
-        <v>2</v>
-      </c>
-      <c r="C184" s="7">
-        <v>3</v>
-      </c>
-      <c r="D184" s="7">
+      <c r="B184" s="34">
+        <v>2</v>
+      </c>
+      <c r="C184" s="34">
+        <v>3</v>
+      </c>
+      <c r="D184" s="34">
         <v>-2</v>
       </c>
-      <c r="E184" s="7">
+      <c r="E184" s="34">
         <v>4</v>
       </c>
       <c r="G184" t="s">
@@ -4008,7 +4561,7 @@
       <c r="O184" t="s">
         <v>120</v>
       </c>
-      <c r="Q184" s="25">
+      <c r="Q184" s="28">
         <v>6</v>
       </c>
     </row>
@@ -4027,16 +4580,16 @@
       </c>
     </row>
     <row r="187" spans="2:17">
-      <c r="B187" s="7">
-        <v>2</v>
-      </c>
-      <c r="C187" s="7">
-        <v>3</v>
-      </c>
-      <c r="D187" s="7">
+      <c r="B187" s="34">
+        <v>2</v>
+      </c>
+      <c r="C187" s="34">
+        <v>3</v>
+      </c>
+      <c r="D187" s="34">
         <v>-2</v>
       </c>
-      <c r="E187" s="28">
+      <c r="E187" s="52">
         <v>-4</v>
       </c>
       <c r="G187" t="s">
@@ -4101,19 +4654,19 @@
       <c r="A195" t="s">
         <v>33</v>
       </c>
-      <c r="B195" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="E195" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F195" s="45" t="s">
+      <c r="B195" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F195" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I195" s="1" t="s">
@@ -4129,19 +4682,19 @@
       <c r="A197" t="s">
         <v>41</v>
       </c>
-      <c r="B197" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="5" t="s">
+      <c r="B197" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="E197" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F197" s="28" t="s">
+      <c r="F197" s="52" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4169,28 +4722,28 @@
       <c r="A199" t="s">
         <v>59</v>
       </c>
-      <c r="B199" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H199" s="45" t="s">
+      <c r="B199" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H199" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I199" s="45" t="s">
+      <c r="I199" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J199" s="45" t="s">
+      <c r="J199" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K199" s="45" t="s">
+      <c r="K199" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L199" s="45" t="s">
+      <c r="L199" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M199" s="45" t="s">
+      <c r="M199" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4198,13 +4751,13 @@
       <c r="A201" t="s">
         <v>60</v>
       </c>
-      <c r="B201" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E201" s="25" t="s">
+      <c r="B201" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E201" s="28" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4212,13 +4765,13 @@
       <c r="A203" t="s">
         <v>64</v>
       </c>
-      <c r="B203" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="46" t="s">
+      <c r="B203" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="67" t="s">
         <v>3</v>
       </c>
       <c r="F203" t="s">
@@ -4227,7 +4780,7 @@
       <c r="G203" t="s">
         <v>135</v>
       </c>
-      <c r="J203" s="25" t="s">
+      <c r="J203" s="28" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4254,22 +4807,22 @@
       <c r="A207" t="s">
         <v>70</v>
       </c>
-      <c r="B207" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="46" t="s">
+      <c r="B207" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G207" t="s">
         <v>95</v>
       </c>
-      <c r="H207" s="25" t="s">
+      <c r="H207" s="28" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4277,25 +4830,25 @@
       <c r="A210" t="s">
         <v>78</v>
       </c>
-      <c r="B210" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="F210" s="46" t="s">
+      <c r="B210" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" s="67" t="s">
         <v>5</v>
       </c>
       <c r="H210" t="s">
         <v>141</v>
       </c>
-      <c r="I210" s="25" t="s">
+      <c r="I210" s="28" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4330,16 +4883,16 @@
       <c r="A222" t="s">
         <v>13</v>
       </c>
-      <c r="B222" s="47">
-        <v>1</v>
-      </c>
-      <c r="C222" s="47">
+      <c r="B222" s="15">
+        <v>1</v>
+      </c>
+      <c r="C222" s="15">
         <v>5</v>
       </c>
-      <c r="D222" s="47">
+      <c r="D222" s="15">
         <v>11</v>
       </c>
-      <c r="E222" s="47">
+      <c r="E222" s="15">
         <v>5</v>
       </c>
       <c r="G222" s="1" t="s">
@@ -4350,7 +4903,7 @@
       <c r="G223" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I223" s="53">
+      <c r="I223" s="21">
         <v>11</v>
       </c>
     </row>
@@ -4358,16 +4911,16 @@
       <c r="A225" t="s">
         <v>147</v>
       </c>
-      <c r="B225" s="47" t="s">
+      <c r="B225" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C225" s="47" t="s">
+      <c r="C225" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D225" s="47" t="s">
+      <c r="D225" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E225" s="47" t="s">
+      <c r="E225" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4375,10 +4928,10 @@
       <c r="A227" t="s">
         <v>59</v>
       </c>
-      <c r="B227" s="48">
-        <v>1</v>
-      </c>
-      <c r="D227" s="25" t="s">
+      <c r="B227" s="34">
+        <v>1</v>
+      </c>
+      <c r="D227" s="28" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4386,16 +4939,16 @@
       <c r="A229" t="s">
         <v>60</v>
       </c>
-      <c r="B229" s="48">
-        <v>1</v>
-      </c>
-      <c r="C229" s="49">
+      <c r="B229" s="34">
+        <v>1</v>
+      </c>
+      <c r="C229" s="52">
         <v>5</v>
       </c>
       <c r="E229" t="s">
         <v>152</v>
       </c>
-      <c r="F229" s="50">
+      <c r="F229" s="28">
         <v>5</v>
       </c>
     </row>
@@ -4403,7 +4956,7 @@
       <c r="E230" t="s">
         <v>153</v>
       </c>
-      <c r="F230" s="50">
+      <c r="F230" s="28">
         <v>6</v>
       </c>
     </row>
@@ -4411,19 +4964,19 @@
       <c r="A232" t="s">
         <v>64</v>
       </c>
-      <c r="B232" s="48">
-        <v>1</v>
-      </c>
-      <c r="C232" s="48">
+      <c r="B232" s="34">
+        <v>1</v>
+      </c>
+      <c r="C232" s="34">
         <v>5</v>
       </c>
-      <c r="D232" s="49">
+      <c r="D232" s="52">
         <v>11</v>
       </c>
       <c r="F232" t="s">
         <v>154</v>
       </c>
-      <c r="G232" s="51">
+      <c r="G232" s="68">
         <v>11</v>
       </c>
     </row>
@@ -4455,16 +5008,16 @@
       <c r="A237" t="s">
         <v>70</v>
       </c>
-      <c r="B237" s="48">
-        <v>1</v>
-      </c>
-      <c r="C237" s="48">
+      <c r="B237" s="34">
+        <v>1</v>
+      </c>
+      <c r="C237" s="34">
         <v>5</v>
       </c>
-      <c r="D237" s="48">
+      <c r="D237" s="34">
         <v>11</v>
       </c>
-      <c r="E237" s="49">
+      <c r="E237" s="52">
         <v>5</v>
       </c>
       <c r="G237" t="s">
@@ -4477,7 +5030,7 @@
       </c>
     </row>
     <row r="239" spans="7:7">
-      <c r="G239" s="52">
+      <c r="G239" s="1">
         <v>10</v>
       </c>
     </row>
@@ -4497,17 +5050,1132 @@
       </c>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="52">
+      <c r="G243" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="244" spans="7:7">
-      <c r="G244" s="52">
+      <c r="G244" s="1">
         <v>22</v>
       </c>
     </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" spans="1:1">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" ht="15.75" spans="1:10">
+      <c r="A251" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B251" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C251" s="71"/>
+      <c r="D251" s="71"/>
+      <c r="E251" s="72"/>
+      <c r="G251" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" spans="1:7">
+      <c r="A252" s="1">
+        <v>0</v>
+      </c>
+      <c r="B252" s="51">
+        <v>0</v>
+      </c>
+      <c r="C252" s="51">
+        <v>0</v>
+      </c>
+      <c r="D252" s="51">
+        <v>0</v>
+      </c>
+      <c r="E252" s="51">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" spans="1:12">
+      <c r="A253" s="73">
+        <v>1</v>
+      </c>
+      <c r="B253" s="74">
+        <v>0</v>
+      </c>
+      <c r="C253" s="75">
+        <v>0</v>
+      </c>
+      <c r="D253" s="75">
+        <v>0</v>
+      </c>
+      <c r="E253" s="76">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+      <c r="H253" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
+      <c r="A254" s="1">
+        <v>2</v>
+      </c>
+      <c r="B254" s="11">
+        <v>0</v>
+      </c>
+      <c r="C254" s="12">
+        <v>0</v>
+      </c>
+      <c r="D254" s="78">
+        <v>1</v>
+      </c>
+      <c r="E254" s="79">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J254">
+        <v>2</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="255" ht="15.75" spans="1:12">
+      <c r="A255" s="1">
+        <v>3</v>
+      </c>
+      <c r="B255" s="80">
+        <v>0</v>
+      </c>
+      <c r="C255" s="81">
+        <v>0</v>
+      </c>
+      <c r="D255" s="82">
+        <v>1</v>
+      </c>
+      <c r="E255" s="83">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>2</v>
+      </c>
+      <c r="H255" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="J255">
+        <v>2</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="A256" s="85">
+        <v>4</v>
+      </c>
+      <c r="B256" s="11">
+        <v>0</v>
+      </c>
+      <c r="C256" s="78">
+        <v>1</v>
+      </c>
+      <c r="D256" s="12">
+        <v>0</v>
+      </c>
+      <c r="E256" s="79">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+      <c r="H256" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J256">
+        <v>4</v>
+      </c>
+      <c r="L256" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
+      <c r="A257" s="86">
+        <v>5</v>
+      </c>
+      <c r="B257" s="87">
+        <v>0</v>
+      </c>
+      <c r="C257" s="33">
+        <v>1</v>
+      </c>
+      <c r="D257" s="15">
+        <v>0</v>
+      </c>
+      <c r="E257" s="88">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>2</v>
+      </c>
+      <c r="H257" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="J257">
+        <v>4</v>
+      </c>
+      <c r="L257" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258" s="86">
+        <v>6</v>
+      </c>
+      <c r="B258" s="87">
+        <v>0</v>
+      </c>
+      <c r="C258" s="33">
+        <v>1</v>
+      </c>
+      <c r="D258" s="33">
+        <v>1</v>
+      </c>
+      <c r="E258" s="90">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>2</v>
+      </c>
+      <c r="H258" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="J258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" ht="15.75" spans="1:10">
+      <c r="A259" s="91">
+        <v>7</v>
+      </c>
+      <c r="B259" s="92">
+        <v>0</v>
+      </c>
+      <c r="C259" s="93">
+        <v>1</v>
+      </c>
+      <c r="D259" s="93">
+        <v>1</v>
+      </c>
+      <c r="E259" s="94">
+        <v>1</v>
+      </c>
+      <c r="G259">
+        <v>3</v>
+      </c>
+      <c r="H259" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="J259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="23">
+        <v>8</v>
+      </c>
+      <c r="B260" s="95">
+        <v>1</v>
+      </c>
+      <c r="C260" s="12">
+        <v>0</v>
+      </c>
+      <c r="D260" s="12">
+        <v>0</v>
+      </c>
+      <c r="E260" s="79">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>1</v>
+      </c>
+      <c r="H260" s="38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="96">
+        <v>9</v>
+      </c>
+      <c r="B261" s="97">
+        <v>1</v>
+      </c>
+      <c r="C261" s="15">
+        <v>0</v>
+      </c>
+      <c r="D261" s="15">
+        <v>0</v>
+      </c>
+      <c r="E261" s="88">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>2</v>
+      </c>
+      <c r="H261" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="96">
+        <v>10</v>
+      </c>
+      <c r="B262" s="97">
+        <v>1</v>
+      </c>
+      <c r="C262" s="15">
+        <v>0</v>
+      </c>
+      <c r="D262" s="33">
+        <v>1</v>
+      </c>
+      <c r="E262" s="90">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>2</v>
+      </c>
+      <c r="H262" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="96">
+        <v>11</v>
+      </c>
+      <c r="B263" s="97">
+        <v>1</v>
+      </c>
+      <c r="C263" s="15">
+        <v>0</v>
+      </c>
+      <c r="D263" s="33">
+        <v>1</v>
+      </c>
+      <c r="E263" s="33">
+        <v>1</v>
+      </c>
+      <c r="H263" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="96">
+        <v>12</v>
+      </c>
+      <c r="B264" s="97">
+        <v>1</v>
+      </c>
+      <c r="C264" s="33">
+        <v>1</v>
+      </c>
+      <c r="D264" s="15">
+        <v>0</v>
+      </c>
+      <c r="E264" s="90">
+        <v>0</v>
+      </c>
+      <c r="H264" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="96">
+        <v>13</v>
+      </c>
+      <c r="B265" s="97">
+        <v>1</v>
+      </c>
+      <c r="C265" s="33">
+        <v>1</v>
+      </c>
+      <c r="D265" s="15">
+        <v>0</v>
+      </c>
+      <c r="E265" s="88">
+        <v>1</v>
+      </c>
+      <c r="H265" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="96">
+        <v>14</v>
+      </c>
+      <c r="B266" s="97">
+        <v>1</v>
+      </c>
+      <c r="C266" s="33">
+        <v>1</v>
+      </c>
+      <c r="D266" s="33">
+        <v>1</v>
+      </c>
+      <c r="E266" s="90">
+        <v>0</v>
+      </c>
+      <c r="H266" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="267" ht="15.75" spans="1:8">
+      <c r="A267" s="26">
+        <v>15</v>
+      </c>
+      <c r="B267" s="98">
+        <v>1</v>
+      </c>
+      <c r="C267" s="82">
+        <v>1</v>
+      </c>
+      <c r="D267" s="82">
+        <v>1</v>
+      </c>
+      <c r="E267" s="83">
+        <v>1</v>
+      </c>
+      <c r="H267" s="84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="1">
+        <v>16</v>
+      </c>
+      <c r="H268" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>174</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="278" spans="3:7">
+      <c r="C278" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D278" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E278" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G278" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="279" ht="15.75" spans="3:7">
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="G279" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
+      <c r="A280" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280" s="11">
+        <v>0</v>
+      </c>
+      <c r="D280" s="12">
+        <v>6000</v>
+      </c>
+      <c r="E280" s="99">
+        <v>18000</v>
+      </c>
+      <c r="H280" t="s">
+        <v>180</v>
+      </c>
+      <c r="I280" t="s">
+        <v>181</v>
+      </c>
+      <c r="J280">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
+      <c r="A281" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281" s="87"/>
+      <c r="D281" s="15">
+        <v>0</v>
+      </c>
+      <c r="E281" s="90">
+        <v>24000</v>
+      </c>
+      <c r="H281" t="s">
+        <v>182</v>
+      </c>
+      <c r="I281" t="s">
+        <v>183</v>
+      </c>
+      <c r="J281">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="282" ht="15.75" spans="1:5">
+      <c r="A282" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282" s="80"/>
+      <c r="D282" s="81"/>
+      <c r="E282" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="7:7">
+      <c r="G283" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="284" spans="8:13">
+      <c r="H284" t="s">
+        <v>184</v>
+      </c>
+      <c r="I284" t="s">
+        <v>185</v>
+      </c>
+      <c r="K284" t="s">
+        <v>186</v>
+      </c>
+      <c r="M284">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="285" spans="8:13">
+      <c r="H285" t="s">
+        <v>187</v>
+      </c>
+      <c r="I285" t="s">
+        <v>188</v>
+      </c>
+      <c r="K285" t="s">
+        <v>189</v>
+      </c>
+      <c r="M285" s="28">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="287" ht="15.75" spans="8:8">
+      <c r="H287" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="288" spans="10:16">
+      <c r="J288" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K288" s="24"/>
+      <c r="L288" s="24"/>
+      <c r="M288" s="24"/>
+      <c r="N288" s="24"/>
+      <c r="O288" s="24"/>
+      <c r="P288" s="29"/>
+    </row>
+    <row r="289" ht="15.75" spans="10:16">
+      <c r="J289" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K289" s="27"/>
+      <c r="L289" s="27"/>
+      <c r="M289" s="27"/>
+      <c r="N289" s="27"/>
+      <c r="O289" s="27"/>
+      <c r="P289" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B251:E251"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.7047619047619" customWidth="1"/>
+    <col min="3" max="3" width="22.352380952381" customWidth="1"/>
+    <col min="10" max="10" width="14.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="13.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75"/>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="2:8">
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6</v>
+      </c>
+      <c r="G4" s="8">
+        <v>9</v>
+      </c>
+      <c r="H4" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="7:8">
+      <c r="G5" s="5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75"/>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="2:5">
+      <c r="B10" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75"/>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="2">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="2:3">
+      <c r="B13" s="5">
+        <v>139</v>
+      </c>
+      <c r="C13" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:2">
+      <c r="A17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:1">
+      <c r="A20" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22">
+        <v>6000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" t="s">
+        <v>323</v>
+      </c>
+      <c r="H22">
+        <v>12000</v>
+      </c>
+      <c r="I22" s="21">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="1">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="3:6">
+      <c r="C30" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" spans="3:20">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="29"/>
+    </row>
+    <row r="32" ht="15.75" spans="1:20">
+      <c r="A32" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12">
+        <v>18</v>
+      </c>
+      <c r="F32" s="13">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>332</v>
+      </c>
+      <c r="J32" t="s">
+        <v>333</v>
+      </c>
+      <c r="K32" s="25">
+        <v>6</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>24</v>
+      </c>
+      <c r="F33" s="16">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>336</v>
+      </c>
+      <c r="J33" t="s">
+        <v>337</v>
+      </c>
+      <c r="K33" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>36</v>
+      </c>
+      <c r="I34" t="s">
+        <v>338</v>
+      </c>
+      <c r="J34" t="s">
+        <v>339</v>
+      </c>
+      <c r="K34" s="25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" spans="1:6">
+      <c r="A35" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" spans="9:9">
+      <c r="I36" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13">
+      <c r="I37" t="s">
+        <v>340</v>
+      </c>
+      <c r="J37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" t="s">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s">
+        <v>343</v>
+      </c>
+      <c r="M37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13">
+      <c r="J38" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="K38" t="s">
+        <v>345</v>
+      </c>
+      <c r="L38" t="s">
+        <v>346</v>
+      </c>
+      <c r="M38" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13">
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M40">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="10:13">
+      <c r="J41" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="K41" t="s">
+        <v>352</v>
+      </c>
+      <c r="L41" t="s">
+        <v>353</v>
+      </c>
+      <c r="M41" s="25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75"/>
+    <row r="43" ht="15.75" spans="9:9">
+      <c r="I43" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="9:13">
+      <c r="I44" t="s">
+        <v>355</v>
+      </c>
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="10:13">
+      <c r="J45" t="s">
+        <v>359</v>
+      </c>
+      <c r="K45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L45" t="s">
+        <v>361</v>
+      </c>
+      <c r="M45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13">
+      <c r="J46" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s">
+        <v>364</v>
+      </c>
+      <c r="M46" s="25">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4525,7 +6193,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4566,51 +6234,51 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="29">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29">
+        <v>194</v>
+      </c>
+      <c r="B2" s="53">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53">
+        <v>1</v>
+      </c>
+      <c r="D2" s="53">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="53">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="53">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="53">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="29">
+      <c r="M2" s="53">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -4640,72 +6308,72 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="51" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
@@ -4717,22 +6385,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
@@ -4740,16 +6408,16 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="28">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="B20" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="52">
+        <v>2</v>
+      </c>
+      <c r="D20" s="34">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
         <v>1</v>
       </c>
       <c r="F20">
@@ -4757,16 +6425,16 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="B21" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="34">
         <v>1</v>
       </c>
       <c r="F21">
@@ -4777,16 +6445,16 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4794,16 +6462,16 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="36">
         <v>0</v>
       </c>
     </row>
@@ -4820,13 +6488,13 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -4846,59 +6514,59 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>171</v>
+      <c r="E37" s="34" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>171</v>
+      <c r="C40" s="15" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -4906,11 +6574,11 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>171</v>
+      <c r="E41" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -4918,20 +6586,20 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>171</v>
+      <c r="D47" s="28" t="s">
+        <v>206</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -4941,16 +6609,16 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="28">
-        <v>2</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="C48" s="52">
+        <v>2</v>
+      </c>
+      <c r="D48" s="15">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
         <v>1</v>
       </c>
       <c r="F48">
@@ -4958,16 +6626,16 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="7">
-        <v>2</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="C49" s="34">
+        <v>2</v>
+      </c>
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15">
         <v>1</v>
       </c>
       <c r="F49">
@@ -4975,16 +6643,16 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="5">
-        <v>2</v>
-      </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="C50" s="15">
+        <v>2</v>
+      </c>
+      <c r="D50" s="34">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15">
         <v>1</v>
       </c>
       <c r="F50">
@@ -4992,16 +6660,16 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="B51" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="15">
+        <v>1</v>
+      </c>
+      <c r="D51" s="34">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15">
         <v>0</v>
       </c>
       <c r="F51">
@@ -5018,7 +6686,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="36">
         <v>0</v>
       </c>
       <c r="F52">
@@ -5027,7 +6695,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -5039,7 +6707,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -5067,52 +6735,52 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>175</v>
+      <c r="A3" s="31" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>3</v>
+      </c>
+      <c r="F5" s="15">
         <v>4</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="15">
         <v>5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="15">
         <v>6</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="15">
         <v>7</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="15">
         <v>8</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="15">
         <v>9</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="15">
         <v>10</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5153,7 +6821,7 @@
       <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="28">
         <v>3</v>
       </c>
     </row>
@@ -5161,14 +6829,14 @@
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>177</v>
+      <c r="B9" s="28">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -5178,12 +6846,12 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="25">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5" t="s">
-        <v>178</v>
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -5193,19 +6861,19 @@
       <c r="A11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="E11" t="s">
         <v>65</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="K11" s="25">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="28">
         <v>3</v>
       </c>
     </row>
@@ -5213,12 +6881,12 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="13:13">
-      <c r="M13" s="26">
+      <c r="M13" s="50">
         <v>1</v>
       </c>
     </row>
@@ -5226,30 +6894,30 @@
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="F14" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="M14" s="26">
+        <v>216</v>
+      </c>
+      <c r="M14" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="6:13">
       <c r="F15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="25">
-        <v>2</v>
-      </c>
-      <c r="M15" s="26">
+        <v>217</v>
+      </c>
+      <c r="G15" s="28">
+        <v>2</v>
+      </c>
+      <c r="M15" s="50">
         <v>5</v>
       </c>
     </row>
@@ -5257,12 +6925,12 @@
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -5270,159 +6938,159 @@
     </row>
     <row r="18" customFormat="1" spans="7:9">
       <c r="G18" t="s">
-        <v>184</v>
-      </c>
-      <c r="I18" s="25">
+        <v>219</v>
+      </c>
+      <c r="I18" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="5">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="A20" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="5">
-        <v>3</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="5">
-        <v>3</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="15">
+        <v>3</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="6">
-        <v>2</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="K22" s="6">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="33">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="33">
+        <v>2</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="K22" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="5">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="A24" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="15">
+        <v>3</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" s="15">
         <v>4</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="I24" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="5">
-        <v>3</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G25" s="5">
-        <v>3</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" s="15">
+        <v>3</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" s="6">
-        <v>3</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="33">
+        <v>3</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="33">
+        <v>3</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" s="33">
         <v>2</v>
       </c>
     </row>
@@ -5450,92 +7118,92 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -5556,16 +7224,16 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>2</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2</v>
+      </c>
+      <c r="F18" s="15">
         <v>3</v>
       </c>
     </row>
@@ -5573,16 +7241,16 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2</v>
+      </c>
+      <c r="F19" s="15">
         <v>3</v>
       </c>
     </row>
@@ -5590,16 +7258,16 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="C20" s="15">
+        <v>2</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
         <v>2</v>
       </c>
     </row>
@@ -5607,16 +7275,16 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="C21" s="15">
+        <v>3</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15">
         <v>2</v>
       </c>
     </row>
@@ -5624,16 +7292,16 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="15">
         <v>4</v>
       </c>
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="D22" s="15">
+        <v>3</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3</v>
+      </c>
+      <c r="F22" s="15">
         <v>2</v>
       </c>
     </row>
@@ -5641,16 +7309,16 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="15">
         <v>5</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="15">
         <v>4</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="15">
         <v>4</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="33">
         <v>3</v>
       </c>
     </row>
@@ -5685,104 +7353,104 @@
     </row>
     <row r="3" ht="15.75" spans="2:12">
       <c r="B3" t="s">
-        <v>216</v>
-      </c>
-      <c r="L3" s="24">
+        <v>251</v>
+      </c>
+      <c r="L3" s="49">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="2:12">
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23">
-        <v>2</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>217</v>
+      <c r="B4" s="38">
+        <v>1</v>
+      </c>
+      <c r="I4" s="48">
+        <v>2</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:9">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13">
-        <v>2</v>
-      </c>
-      <c r="I5" s="23">
+      <c r="B5" s="39"/>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="I5" s="48">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="2:9">
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13">
-        <v>3</v>
-      </c>
-      <c r="I6" s="23">
+      <c r="B6" s="39"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="29">
+        <v>3</v>
+      </c>
+      <c r="I6" s="48">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="2:9">
-      <c r="B7" s="12"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13">
+      <c r="B7" s="39"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="29">
         <v>4</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="2:9">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17">
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42">
         <v>5</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="2:2">
       <c r="B10" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:9">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="H11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I11" s="23">
+        <v>254</v>
+      </c>
+      <c r="I11" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>220</v>
-      </c>
-      <c r="I12" s="23">
+        <v>255</v>
+      </c>
+      <c r="I12" s="48">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>221</v>
-      </c>
-      <c r="I13" s="23">
+        <v>256</v>
+      </c>
+      <c r="I13" s="48">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>222</v>
-      </c>
-      <c r="I14" s="23">
+        <v>257</v>
+      </c>
+      <c r="I14" s="48">
         <v>10</v>
       </c>
     </row>
@@ -5790,23 +7458,23 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>223</v>
-      </c>
-      <c r="I16" s="21">
+        <v>258</v>
+      </c>
+      <c r="I16" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>224</v>
-      </c>
-      <c r="I17" s="21">
+        <v>259</v>
+      </c>
+      <c r="I17" s="46">
         <v>12</v>
       </c>
     </row>
@@ -5814,7 +7482,7 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="46">
         <v>0</v>
       </c>
     </row>
@@ -5823,13 +7491,13 @@
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="B22" s="47">
+        <v>1</v>
+      </c>
+      <c r="D22" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="46">
         <v>2</v>
       </c>
     </row>
@@ -5838,8 +7506,8 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="20">
+      <c r="B24" s="43"/>
+      <c r="C24" s="45">
         <v>2</v>
       </c>
       <c r="E24" t="s">
@@ -5848,7 +7516,7 @@
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="48">
         <v>4</v>
       </c>
     </row>
@@ -5857,23 +7525,23 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" s="21">
+        <v>260</v>
+      </c>
+      <c r="G25" s="46">
         <v>5</v>
       </c>
       <c r="L25" t="s">
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="12:13">
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="48">
         <v>2</v>
       </c>
     </row>
@@ -5881,9 +7549,9 @@
       <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20">
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45">
         <v>3</v>
       </c>
       <c r="F27" t="s">
@@ -5892,13 +7560,13 @@
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="48">
         <v>7</v>
       </c>
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="48">
         <v>5</v>
       </c>
     </row>
@@ -5909,13 +7577,13 @@
       <c r="G28" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="48">
         <v>7</v>
       </c>
       <c r="L28">
         <v>3</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="48">
         <v>7</v>
       </c>
     </row>
@@ -5924,15 +7592,15 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" s="21">
+        <v>262</v>
+      </c>
+      <c r="H29" s="46">
         <v>7</v>
       </c>
       <c r="L29">
         <v>4</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="48">
         <v>8</v>
       </c>
     </row>
@@ -5940,7 +7608,7 @@
       <c r="L30">
         <v>5</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="48">
         <v>10</v>
       </c>
     </row>
@@ -5949,10 +7617,10 @@
       <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20">
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45">
         <v>4</v>
       </c>
       <c r="G32" t="s">
@@ -5961,7 +7629,7 @@
       <c r="H32" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="48">
         <v>9</v>
       </c>
     </row>
@@ -5972,7 +7640,7 @@
       <c r="H33" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="46">
         <v>10</v>
       </c>
     </row>
@@ -5983,7 +7651,7 @@
       <c r="H34" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="48">
         <v>9</v>
       </c>
     </row>
@@ -5992,75 +7660,75 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" s="23">
+        <v>263</v>
+      </c>
+      <c r="I35" s="48">
         <v>8</v>
       </c>
     </row>
     <row r="37" ht="15.75"/>
     <row r="38" ht="15.75" spans="1:10">
       <c r="A38" t="s">
-        <v>185</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20">
+        <v>220</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="I38" t="s">
-        <v>229</v>
-      </c>
-      <c r="J38" s="23">
+        <v>264</v>
+      </c>
+      <c r="J38" s="48">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="I39" t="s">
-        <v>230</v>
-      </c>
-      <c r="J39" s="23">
+        <v>265</v>
+      </c>
+      <c r="J39" s="48">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
-      </c>
-      <c r="J40" s="21">
+        <v>267</v>
+      </c>
+      <c r="J40" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="I41" t="s">
-        <v>234</v>
-      </c>
-      <c r="J41" s="23">
+        <v>269</v>
+      </c>
+      <c r="J41" s="48">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="I42" t="s">
-        <v>236</v>
-      </c>
-      <c r="J42" s="23">
+        <v>271</v>
+      </c>
+      <c r="J42" s="48">
         <v>10</v>
       </c>
     </row>
@@ -6088,17 +7756,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -6123,64 +7791,64 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>240</v>
-      </c>
-      <c r="M15" s="5">
+        <v>275</v>
+      </c>
+      <c r="M15" s="15">
         <v>4</v>
       </c>
-      <c r="N15" s="7">
-        <v>2</v>
-      </c>
-      <c r="O15" s="7">
+      <c r="N15" s="34">
+        <v>2</v>
+      </c>
+      <c r="O15" s="34">
         <v>10</v>
       </c>
-      <c r="P15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7">
+      <c r="P15" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="34">
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>242</v>
-      </c>
-      <c r="M16" s="5">
+        <v>277</v>
+      </c>
+      <c r="M16" s="15">
         <v>12</v>
       </c>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7">
+      <c r="N16" s="34">
+        <v>1</v>
+      </c>
+      <c r="O16" s="34">
         <v>4</v>
       </c>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7">
+      <c r="P16" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="34">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>244</v>
-      </c>
-      <c r="M19" s="8">
+        <v>279</v>
+      </c>
+      <c r="M19" s="35">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6233,7 +7901,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -6259,7 +7927,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="36">
         <v>0</v>
       </c>
       <c r="K29">
@@ -6289,297 +7957,297 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
-        <v>0</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
+      <c r="C30" s="15">
+        <v>0</v>
+      </c>
+      <c r="D30" s="15">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="34">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="33">
         <v>4</v>
       </c>
-      <c r="P30" s="5">
+      <c r="P30" s="15">
         <v>4</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="Q30" s="15">
         <v>4</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="15">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>2</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" s="5">
-        <v>2</v>
-      </c>
-      <c r="G31" s="5">
-        <v>2</v>
-      </c>
-      <c r="H31" s="5">
-        <v>2</v>
-      </c>
-      <c r="I31" s="5">
-        <v>2</v>
-      </c>
-      <c r="J31" s="5">
-        <v>2</v>
-      </c>
-      <c r="K31" s="7">
-        <v>2</v>
-      </c>
-      <c r="L31" s="5">
-        <v>2</v>
-      </c>
-      <c r="M31" s="5">
-        <v>2</v>
-      </c>
-      <c r="N31" s="5">
-        <v>2</v>
-      </c>
-      <c r="O31" s="5">
+      <c r="C31" s="15">
+        <v>0</v>
+      </c>
+      <c r="D31" s="15">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2</v>
+      </c>
+      <c r="F31" s="15">
+        <v>2</v>
+      </c>
+      <c r="G31" s="15">
+        <v>2</v>
+      </c>
+      <c r="H31" s="15">
+        <v>2</v>
+      </c>
+      <c r="I31" s="15">
+        <v>2</v>
+      </c>
+      <c r="J31" s="15">
+        <v>2</v>
+      </c>
+      <c r="K31" s="34">
+        <v>2</v>
+      </c>
+      <c r="L31" s="15">
+        <v>2</v>
+      </c>
+      <c r="M31" s="15">
+        <v>2</v>
+      </c>
+      <c r="N31" s="15">
+        <v>2</v>
+      </c>
+      <c r="O31" s="15">
         <v>4</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31" s="33">
         <v>6</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="Q31" s="15">
         <v>6</v>
       </c>
-      <c r="R31" s="5">
+      <c r="R31" s="15">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="5">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5">
-        <v>2</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15">
+        <v>2</v>
+      </c>
+      <c r="F32" s="15">
+        <v>2</v>
+      </c>
+      <c r="G32" s="15">
         <v>10</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="33">
         <v>12</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="15">
         <v>12</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="15">
         <v>12</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="15">
         <v>12</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="15">
         <v>12</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="15">
         <v>12</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="15">
         <v>12</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="34">
         <v>12</v>
       </c>
-      <c r="P32" s="5">
+      <c r="P32" s="15">
         <v>12</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="Q32" s="15">
         <v>12</v>
       </c>
-      <c r="R32" s="5">
+      <c r="R32" s="15">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
-        <v>2</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" s="5">
-        <v>2</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="C33" s="15">
+        <v>0</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2</v>
+      </c>
+      <c r="E33" s="15">
+        <v>2</v>
+      </c>
+      <c r="F33" s="15">
+        <v>2</v>
+      </c>
+      <c r="G33" s="15">
         <v>10</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="15">
         <v>12</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="33">
         <v>13</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="15">
         <v>13</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="15">
         <v>13</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="15">
         <v>13</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="15">
         <v>13</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="15">
         <v>13</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="15">
         <v>13</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="34">
         <v>13</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="Q33" s="15">
         <v>13</v>
       </c>
-      <c r="R33" s="5">
+      <c r="R33" s="15">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="5">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5">
-        <v>2</v>
-      </c>
-      <c r="E34" s="5">
-        <v>2</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <v>2</v>
+      </c>
+      <c r="E34" s="15">
+        <v>2</v>
+      </c>
+      <c r="F34" s="33">
         <v>4</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="15">
         <v>10</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="15">
         <v>12</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="15">
         <v>13</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="15">
         <v>14</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="33">
         <v>15</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="15">
         <v>15</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="15">
         <v>15</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="15">
         <v>15</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="15">
         <v>15</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="15">
         <v>15</v>
       </c>
-      <c r="Q34" s="5">
+      <c r="Q34" s="15">
         <v>15</v>
       </c>
-      <c r="R34" s="10">
+      <c r="R34" s="37">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="54" t="s">
-        <v>254</v>
+      <c r="A38" s="101" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="54" t="s">
-        <v>255</v>
+      <c r="A39" s="101" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -6602,11 +8270,11 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="2"/>
+      <c r="B3" s="31"/>
     </row>
     <row r="5" spans="3:14">
       <c r="C5">
@@ -6651,40 +8319,40 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="H6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="I6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="J6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="K6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="L6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="M6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="N6" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6695,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6706,7 +8374,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6717,7 +8385,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6728,7 +8396,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6754,8 +8422,8 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>259</v>
+      <c r="A5" s="31" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6790,42 +8458,42 @@
         <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="32" t="s">
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="13:13">
@@ -6835,7 +8503,7 @@
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="b">
+      <c r="B11" s="21" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
@@ -6865,15 +8533,15 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="5:5">
@@ -6883,7 +8551,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="DP" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="380">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -605,6 +605,51 @@
   </si>
   <si>
     <t>i&lt;=j&lt;k</t>
+  </si>
+  <si>
+    <t>PaintHouse</t>
+  </si>
+  <si>
+    <t>house[i]</t>
+  </si>
+  <si>
+    <t>[14,2,11]</t>
+  </si>
+  <si>
+    <t>[11,14,5]</t>
+  </si>
+  <si>
+    <t>[14,3,10]</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>11+min(2,11)=13</t>
+  </si>
+  <si>
+    <t>14+11=25</t>
+  </si>
+  <si>
+    <t>5+2=7</t>
+  </si>
+  <si>
+    <t>14+7=21</t>
+  </si>
+  <si>
+    <t>3+7=10</t>
+  </si>
+  <si>
+    <t>10+13=23</t>
   </si>
   <si>
     <t>fib(n)</t>
@@ -1125,11 +1170,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1181,8 +1226,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,9 +1241,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1206,13 +1274,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1241,24 +1302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,7 +1328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,6 +1336,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1304,28 +1364,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1340,19 +1385,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,115 +1433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,7 +1451,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,25 +1571,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,17 +2054,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2036,26 +2098,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2075,35 +2137,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2115,134 +2172,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2272,8 +2329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2336,7 +2391,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2353,7 +2407,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2362,8 +2415,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2778,16 +2836,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z289"/>
+  <dimension ref="A1:Z303"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="J288" sqref="J288:P289"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.0095238095238" customWidth="1"/>
-    <col min="3" max="3" width="8.52380952380952" customWidth="1"/>
+    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="19.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="27.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="26.2857142857143" customWidth="1"/>
     <col min="6" max="7" width="12.3142857142857" customWidth="1"/>
@@ -2859,7 +2918,7 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="31">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
@@ -3005,7 +3064,7 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="55" t="s">
+      <c r="J22" s="53" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3037,7 +3096,7 @@
       <c r="I23" s="15">
         <v>18</v>
       </c>
-      <c r="J23" s="55" t="s">
+      <c r="J23" s="53" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3051,7 +3110,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="25">
         <v>4</v>
       </c>
       <c r="E25">
@@ -3254,7 +3313,7 @@
       <c r="E46" s="15">
         <v>4</v>
       </c>
-      <c r="F46" s="33">
+      <c r="F46" s="31">
         <v>3</v>
       </c>
     </row>
@@ -3299,28 +3358,28 @@
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="54" t="s">
+      <c r="D53" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="54" t="s">
+      <c r="E53" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="54" t="s">
+      <c r="F53" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="54" t="s">
+      <c r="G53" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="54" t="s">
+      <c r="H53" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="54" t="s">
+      <c r="I53" s="52" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3328,7 +3387,7 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="28" t="b">
+      <c r="B55" s="25" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -3360,7 +3419,7 @@
       <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="31" t="s">
+      <c r="F57" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3376,30 +3435,30 @@
     </row>
     <row r="66" ht="15.75"/>
     <row r="67" ht="15.75" spans="7:7">
-      <c r="G67" s="56"/>
+      <c r="G67" s="54"/>
     </row>
     <row r="68" ht="15.75" spans="6:7">
-      <c r="F68" s="57"/>
-      <c r="G68" s="58"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="56"/>
     </row>
     <row r="69" ht="15.75" spans="5:7">
-      <c r="E69" s="57"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="58"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="56"/>
     </row>
     <row r="70" ht="15.75" spans="4:7">
-      <c r="D70" s="57"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="58"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="56"/>
     </row>
     <row r="71" ht="15.75" spans="2:7">
-      <c r="B71" s="27"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="59"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -3428,7 +3487,7 @@
       <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="28">
+      <c r="B74" s="25">
         <v>8</v>
       </c>
       <c r="C74">
@@ -3468,30 +3527,30 @@
     </row>
     <row r="79" ht="15.75"/>
     <row r="80" ht="15.75" spans="7:7">
-      <c r="G80" s="56"/>
+      <c r="G80" s="54"/>
     </row>
     <row r="81" ht="15.75" spans="6:7">
-      <c r="F81" s="57"/>
-      <c r="G81" s="58"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
     </row>
     <row r="82" ht="15.75" spans="5:7">
-      <c r="E82" s="57"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="58"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="56"/>
     </row>
     <row r="83" ht="15.75" spans="4:7">
-      <c r="D83" s="57"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="58"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="56"/>
     </row>
     <row r="84" ht="15.75" spans="2:7">
-      <c r="B84" s="27"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="61"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="58"/>
+      <c r="G84" s="59"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -3520,7 +3579,7 @@
       <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B87" s="25">
         <v>13</v>
       </c>
       <c r="C87">
@@ -3585,13 +3644,13 @@
       <c r="B96" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="62">
+      <c r="C96" s="60">
         <v>4</v>
       </c>
-      <c r="D96" s="63">
-        <v>3</v>
-      </c>
-      <c r="E96" s="63">
+      <c r="D96" s="61">
+        <v>3</v>
+      </c>
+      <c r="E96" s="61">
         <v>3</v>
       </c>
       <c r="F96" s="15">
@@ -3614,13 +3673,13 @@
       <c r="B97" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="63">
+      <c r="C97" s="61">
         <v>4</v>
       </c>
-      <c r="D97" s="63">
-        <v>3</v>
-      </c>
-      <c r="E97" s="63">
+      <c r="D97" s="61">
+        <v>3</v>
+      </c>
+      <c r="E97" s="61">
         <v>3</v>
       </c>
       <c r="F97" s="15">
@@ -3643,13 +3702,13 @@
       <c r="B98" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="63">
+      <c r="C98" s="61">
         <v>4</v>
       </c>
-      <c r="D98" s="63">
-        <v>3</v>
-      </c>
-      <c r="E98" s="63">
+      <c r="D98" s="61">
+        <v>3</v>
+      </c>
+      <c r="E98" s="61">
         <v>3</v>
       </c>
       <c r="F98" s="15">
@@ -3800,13 +3859,13 @@
       </c>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="64"/>
+      <c r="G111" s="62"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="63">
+      <c r="B112" s="61">
         <v>1</v>
       </c>
       <c r="C112" s="15">
@@ -3901,7 +3960,7 @@
       <c r="A118" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="63">
+      <c r="B118" s="61">
         <v>1</v>
       </c>
       <c r="D118" t="s">
@@ -3910,7 +3969,7 @@
       <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="28">
+      <c r="F118" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3923,7 +3982,7 @@
       <c r="A121" t="s">
         <v>64</v>
       </c>
-      <c r="B121" s="63">
+      <c r="B121" s="61">
         <v>1</v>
       </c>
       <c r="C121" s="15">
@@ -3938,7 +3997,7 @@
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="28">
+      <c r="H121" s="25">
         <v>5</v>
       </c>
     </row>
@@ -3963,7 +4022,7 @@
       <c r="A124" t="s">
         <v>70</v>
       </c>
-      <c r="B124" s="63">
+      <c r="B124" s="61">
         <v>1</v>
       </c>
       <c r="C124" s="15">
@@ -3981,7 +4040,7 @@
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="28">
+      <c r="I124" s="25">
         <v>8</v>
       </c>
     </row>
@@ -4020,7 +4079,7 @@
       <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="63">
+      <c r="B128" s="61">
         <v>1</v>
       </c>
       <c r="C128" s="15">
@@ -4041,7 +4100,7 @@
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="28">
+      <c r="J128" s="25">
         <v>10</v>
       </c>
     </row>
@@ -4101,7 +4160,7 @@
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:1">
-      <c r="A141" s="31" t="s">
+      <c r="A141" s="29" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4149,10 +4208,10 @@
       <c r="A146" t="s">
         <v>59</v>
       </c>
-      <c r="B146" s="34">
-        <v>2</v>
-      </c>
-      <c r="D146" s="28">
+      <c r="B146" s="32">
+        <v>2</v>
+      </c>
+      <c r="D146" s="25">
         <v>2</v>
       </c>
     </row>
@@ -4160,13 +4219,13 @@
       <c r="A148" t="s">
         <v>60</v>
       </c>
-      <c r="B148" s="34">
-        <v>2</v>
-      </c>
-      <c r="C148" s="34">
+      <c r="B148" s="32">
+        <v>2</v>
+      </c>
+      <c r="C148" s="32">
         <v>7</v>
       </c>
-      <c r="E148" s="28">
+      <c r="E148" s="25">
         <v>7</v>
       </c>
     </row>
@@ -4174,19 +4233,19 @@
       <c r="A150" t="s">
         <v>64</v>
       </c>
-      <c r="B150" s="34">
-        <v>2</v>
-      </c>
-      <c r="C150" s="34">
+      <c r="B150" s="32">
+        <v>2</v>
+      </c>
+      <c r="C150" s="32">
         <v>7</v>
       </c>
-      <c r="D150" s="34">
+      <c r="D150" s="32">
         <v>9</v>
       </c>
       <c r="F150" t="s">
         <v>91</v>
       </c>
-      <c r="G150" s="28">
+      <c r="G150" s="25">
         <v>11</v>
       </c>
     </row>
@@ -4202,16 +4261,16 @@
       <c r="A153" t="s">
         <v>70</v>
       </c>
-      <c r="B153" s="34">
-        <v>2</v>
-      </c>
-      <c r="C153" s="34">
+      <c r="B153" s="32">
+        <v>2</v>
+      </c>
+      <c r="C153" s="32">
         <v>7</v>
       </c>
-      <c r="D153" s="34">
+      <c r="D153" s="32">
         <v>9</v>
       </c>
-      <c r="E153" s="34">
+      <c r="E153" s="32">
         <v>3</v>
       </c>
       <c r="G153" t="s">
@@ -4228,7 +4287,7 @@
       <c r="G154" t="s">
         <v>94</v>
       </c>
-      <c r="H154" s="28">
+      <c r="H154" s="25">
         <v>11</v>
       </c>
       <c r="J154" s="1" t="s">
@@ -4239,25 +4298,25 @@
       <c r="A156" t="s">
         <v>78</v>
       </c>
-      <c r="B156" s="34">
-        <v>2</v>
-      </c>
-      <c r="C156" s="34">
+      <c r="B156" s="32">
+        <v>2</v>
+      </c>
+      <c r="C156" s="32">
         <v>7</v>
       </c>
-      <c r="D156" s="34">
+      <c r="D156" s="32">
         <v>9</v>
       </c>
-      <c r="E156" s="34">
-        <v>3</v>
-      </c>
-      <c r="F156" s="34">
+      <c r="E156" s="32">
+        <v>3</v>
+      </c>
+      <c r="F156" s="32">
         <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>96</v>
       </c>
-      <c r="J156" s="28">
+      <c r="J156" s="25">
         <v>12</v>
       </c>
     </row>
@@ -4275,7 +4334,7 @@
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="31" t="s">
+      <c r="A164" s="29" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4314,36 +4373,36 @@
       </c>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="65">
-        <v>2</v>
-      </c>
-      <c r="C168" s="65">
-        <v>3</v>
-      </c>
-      <c r="D168" s="65">
+      <c r="B168" s="63">
+        <v>2</v>
+      </c>
+      <c r="C168" s="63">
+        <v>3</v>
+      </c>
+      <c r="D168" s="63">
         <v>-2</v>
       </c>
-      <c r="E168" s="28">
+      <c r="E168" s="25">
         <v>-4</v>
       </c>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="65"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="65"/>
+      <c r="B169" s="63"/>
+      <c r="C169" s="63"/>
+      <c r="D169" s="63"/>
+      <c r="E169" s="63"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="50">
+      <c r="B170" s="48">
         <v>4</v>
       </c>
-      <c r="C170" s="50">
+      <c r="C170" s="48">
         <v>6</v>
       </c>
-      <c r="D170" s="50">
+      <c r="D170" s="48">
         <v>6</v>
       </c>
       <c r="E170" s="15">
@@ -4354,7 +4413,7 @@
       </c>
     </row>
     <row r="171" spans="8:14">
-      <c r="H171" s="66">
+      <c r="H171" s="64">
         <v>6</v>
       </c>
       <c r="M171" s="1" t="s">
@@ -4402,7 +4461,7 @@
       <c r="A175" t="s">
         <v>59</v>
       </c>
-      <c r="B175" s="34">
+      <c r="B175" s="32">
         <v>2</v>
       </c>
       <c r="D175" t="s">
@@ -4420,7 +4479,7 @@
       <c r="K175" t="s">
         <v>105</v>
       </c>
-      <c r="M175" s="28">
+      <c r="M175" s="25">
         <v>4</v>
       </c>
     </row>
@@ -4442,10 +4501,10 @@
       <c r="A178" t="s">
         <v>60</v>
       </c>
-      <c r="B178" s="34">
-        <v>2</v>
-      </c>
-      <c r="C178" s="34">
+      <c r="B178" s="32">
+        <v>2</v>
+      </c>
+      <c r="C178" s="32">
         <v>3</v>
       </c>
       <c r="E178" t="s">
@@ -4463,10 +4522,10 @@
       <c r="L178" t="s">
         <v>110</v>
       </c>
-      <c r="N178" s="28">
+      <c r="N178" s="25">
         <v>6</v>
       </c>
-      <c r="Z178" s="28">
+      <c r="Z178" s="25">
         <v>4</v>
       </c>
     </row>
@@ -4488,13 +4547,13 @@
       <c r="A181" t="s">
         <v>64</v>
       </c>
-      <c r="B181" s="34">
-        <v>2</v>
-      </c>
-      <c r="C181" s="34">
-        <v>3</v>
-      </c>
-      <c r="D181" s="34">
+      <c r="B181" s="32">
+        <v>2</v>
+      </c>
+      <c r="C181" s="32">
+        <v>3</v>
+      </c>
+      <c r="D181" s="32">
         <v>-2</v>
       </c>
       <c r="F181" t="s">
@@ -4512,7 +4571,7 @@
       <c r="N181" t="s">
         <v>115</v>
       </c>
-      <c r="P181" s="28">
+      <c r="P181" s="25">
         <v>6</v>
       </c>
     </row>
@@ -4534,16 +4593,16 @@
       <c r="A184" t="s">
         <v>70</v>
       </c>
-      <c r="B184" s="34">
-        <v>2</v>
-      </c>
-      <c r="C184" s="34">
-        <v>3</v>
-      </c>
-      <c r="D184" s="34">
+      <c r="B184" s="32">
+        <v>2</v>
+      </c>
+      <c r="C184" s="32">
+        <v>3</v>
+      </c>
+      <c r="D184" s="32">
         <v>-2</v>
       </c>
-      <c r="E184" s="34">
+      <c r="E184" s="32">
         <v>4</v>
       </c>
       <c r="G184" t="s">
@@ -4561,7 +4620,7 @@
       <c r="O184" t="s">
         <v>120</v>
       </c>
-      <c r="Q184" s="28">
+      <c r="Q184" s="25">
         <v>6</v>
       </c>
     </row>
@@ -4580,16 +4639,16 @@
       </c>
     </row>
     <row r="187" spans="2:17">
-      <c r="B187" s="34">
-        <v>2</v>
-      </c>
-      <c r="C187" s="34">
-        <v>3</v>
-      </c>
-      <c r="D187" s="34">
+      <c r="B187" s="32">
+        <v>2</v>
+      </c>
+      <c r="C187" s="32">
+        <v>3</v>
+      </c>
+      <c r="D187" s="32">
         <v>-2</v>
       </c>
-      <c r="E187" s="52">
+      <c r="E187" s="50">
         <v>-4</v>
       </c>
       <c r="G187" t="s">
@@ -4694,7 +4753,7 @@
       <c r="E197" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F197" s="52" t="s">
+      <c r="F197" s="50" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4722,10 +4781,10 @@
       <c r="A199" t="s">
         <v>59</v>
       </c>
-      <c r="B199" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" s="28" t="s">
+      <c r="B199" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" s="25" t="s">
         <v>3</v>
       </c>
       <c r="H199" s="10" t="s">
@@ -4751,13 +4810,13 @@
       <c r="A201" t="s">
         <v>60</v>
       </c>
-      <c r="B201" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="E201" s="28" t="s">
+      <c r="B201" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E201" s="25" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4765,13 +4824,13 @@
       <c r="A203" t="s">
         <v>64</v>
       </c>
-      <c r="B203" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="67" t="s">
+      <c r="B203" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="65" t="s">
         <v>3</v>
       </c>
       <c r="F203" t="s">
@@ -4780,7 +4839,7 @@
       <c r="G203" t="s">
         <v>135</v>
       </c>
-      <c r="J203" s="28" t="s">
+      <c r="J203" s="25" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4807,22 +4866,22 @@
       <c r="A207" t="s">
         <v>70</v>
       </c>
-      <c r="B207" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="67" t="s">
+      <c r="B207" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" s="65" t="s">
         <v>2</v>
       </c>
       <c r="G207" t="s">
         <v>95</v>
       </c>
-      <c r="H207" s="28" t="s">
+      <c r="H207" s="25" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4830,25 +4889,25 @@
       <c r="A210" t="s">
         <v>78</v>
       </c>
-      <c r="B210" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="F210" s="67" t="s">
+      <c r="B210" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" s="65" t="s">
         <v>5</v>
       </c>
       <c r="H210" t="s">
         <v>141</v>
       </c>
-      <c r="I210" s="28" t="s">
+      <c r="I210" s="25" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4928,10 +4987,10 @@
       <c r="A227" t="s">
         <v>59</v>
       </c>
-      <c r="B227" s="34">
-        <v>1</v>
-      </c>
-      <c r="D227" s="28" t="s">
+      <c r="B227" s="32">
+        <v>1</v>
+      </c>
+      <c r="D227" s="25" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4939,16 +4998,16 @@
       <c r="A229" t="s">
         <v>60</v>
       </c>
-      <c r="B229" s="34">
-        <v>1</v>
-      </c>
-      <c r="C229" s="52">
+      <c r="B229" s="32">
+        <v>1</v>
+      </c>
+      <c r="C229" s="50">
         <v>5</v>
       </c>
       <c r="E229" t="s">
         <v>152</v>
       </c>
-      <c r="F229" s="28">
+      <c r="F229" s="25">
         <v>5</v>
       </c>
     </row>
@@ -4956,7 +5015,7 @@
       <c r="E230" t="s">
         <v>153</v>
       </c>
-      <c r="F230" s="28">
+      <c r="F230" s="25">
         <v>6</v>
       </c>
     </row>
@@ -4964,19 +5023,19 @@
       <c r="A232" t="s">
         <v>64</v>
       </c>
-      <c r="B232" s="34">
-        <v>1</v>
-      </c>
-      <c r="C232" s="34">
+      <c r="B232" s="32">
+        <v>1</v>
+      </c>
+      <c r="C232" s="32">
         <v>5</v>
       </c>
-      <c r="D232" s="52">
+      <c r="D232" s="50">
         <v>11</v>
       </c>
       <c r="F232" t="s">
         <v>154</v>
       </c>
-      <c r="G232" s="68">
+      <c r="G232" s="66">
         <v>11</v>
       </c>
     </row>
@@ -5008,16 +5067,16 @@
       <c r="A237" t="s">
         <v>70</v>
       </c>
-      <c r="B237" s="34">
-        <v>1</v>
-      </c>
-      <c r="C237" s="34">
+      <c r="B237" s="32">
+        <v>1</v>
+      </c>
+      <c r="C237" s="32">
         <v>5</v>
       </c>
-      <c r="D237" s="34">
+      <c r="D237" s="32">
         <v>11</v>
       </c>
-      <c r="E237" s="52">
+      <c r="E237" s="50">
         <v>5</v>
       </c>
       <c r="G237" t="s">
@@ -5068,15 +5127,15 @@
       <c r="A250" s="1"/>
     </row>
     <row r="251" ht="15.75" spans="1:10">
-      <c r="A251" s="69" t="s">
+      <c r="A251" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="B251" s="70" t="s">
+      <c r="B251" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C251" s="71"/>
-      <c r="D251" s="71"/>
-      <c r="E251" s="72"/>
+      <c r="C251" s="69"/>
+      <c r="D251" s="69"/>
+      <c r="E251" s="70"/>
       <c r="G251" s="1" t="s">
         <v>161</v>
       </c>
@@ -5088,16 +5147,16 @@
       <c r="A252" s="1">
         <v>0</v>
       </c>
-      <c r="B252" s="51">
-        <v>0</v>
-      </c>
-      <c r="C252" s="51">
-        <v>0</v>
-      </c>
-      <c r="D252" s="51">
-        <v>0</v>
-      </c>
-      <c r="E252" s="51">
+      <c r="B252" s="49">
+        <v>0</v>
+      </c>
+      <c r="C252" s="49">
+        <v>0</v>
+      </c>
+      <c r="D252" s="49">
+        <v>0</v>
+      </c>
+      <c r="E252" s="49">
         <v>0</v>
       </c>
       <c r="G252">
@@ -5105,25 +5164,25 @@
       </c>
     </row>
     <row r="253" ht="15.75" spans="1:12">
-      <c r="A253" s="73">
-        <v>1</v>
-      </c>
-      <c r="B253" s="74">
-        <v>0</v>
-      </c>
-      <c r="C253" s="75">
-        <v>0</v>
-      </c>
-      <c r="D253" s="75">
-        <v>0</v>
-      </c>
-      <c r="E253" s="76">
+      <c r="A253" s="22">
+        <v>1</v>
+      </c>
+      <c r="B253" s="71">
+        <v>0</v>
+      </c>
+      <c r="C253" s="72">
+        <v>0</v>
+      </c>
+      <c r="D253" s="72">
+        <v>0</v>
+      </c>
+      <c r="E253" s="73">
         <v>1</v>
       </c>
       <c r="G253">
         <v>1</v>
       </c>
-      <c r="H253" s="77" t="s">
+      <c r="H253" s="74" t="s">
         <v>163</v>
       </c>
       <c r="J253">
@@ -5143,16 +5202,16 @@
       <c r="C254" s="12">
         <v>0</v>
       </c>
-      <c r="D254" s="78">
-        <v>1</v>
-      </c>
-      <c r="E254" s="79">
+      <c r="D254" s="75">
+        <v>1</v>
+      </c>
+      <c r="E254" s="76">
         <v>0</v>
       </c>
       <c r="G254">
         <v>1</v>
       </c>
-      <c r="H254" s="38" t="s">
+      <c r="H254" s="36" t="s">
         <v>165</v>
       </c>
       <c r="J254">
@@ -5166,22 +5225,22 @@
       <c r="A255" s="1">
         <v>3</v>
       </c>
-      <c r="B255" s="80">
-        <v>0</v>
-      </c>
-      <c r="C255" s="81">
-        <v>0</v>
-      </c>
-      <c r="D255" s="82">
-        <v>1</v>
-      </c>
-      <c r="E255" s="83">
+      <c r="B255" s="77">
+        <v>0</v>
+      </c>
+      <c r="C255" s="78">
+        <v>0</v>
+      </c>
+      <c r="D255" s="79">
+        <v>1</v>
+      </c>
+      <c r="E255" s="80">
         <v>1</v>
       </c>
       <c r="G255">
         <v>2</v>
       </c>
-      <c r="H255" s="84" t="s">
+      <c r="H255" s="81" t="s">
         <v>165</v>
       </c>
       <c r="J255">
@@ -5192,25 +5251,25 @@
       </c>
     </row>
     <row r="256" spans="1:12">
-      <c r="A256" s="85">
+      <c r="A256" s="82">
         <v>4</v>
       </c>
       <c r="B256" s="11">
         <v>0</v>
       </c>
-      <c r="C256" s="78">
+      <c r="C256" s="75">
         <v>1</v>
       </c>
       <c r="D256" s="12">
         <v>0</v>
       </c>
-      <c r="E256" s="79">
+      <c r="E256" s="76">
         <v>0</v>
       </c>
       <c r="G256">
         <v>1</v>
       </c>
-      <c r="H256" s="38" t="s">
+      <c r="H256" s="36" t="s">
         <v>168</v>
       </c>
       <c r="J256">
@@ -5221,25 +5280,25 @@
       </c>
     </row>
     <row r="257" spans="1:12">
-      <c r="A257" s="86">
+      <c r="A257" s="83">
         <v>5</v>
       </c>
-      <c r="B257" s="87">
-        <v>0</v>
-      </c>
-      <c r="C257" s="33">
+      <c r="B257" s="84">
+        <v>0</v>
+      </c>
+      <c r="C257" s="31">
         <v>1</v>
       </c>
       <c r="D257" s="15">
         <v>0</v>
       </c>
-      <c r="E257" s="88">
+      <c r="E257" s="85">
         <v>1</v>
       </c>
       <c r="G257">
         <v>2</v>
       </c>
-      <c r="H257" s="89" t="s">
+      <c r="H257" s="86" t="s">
         <v>168</v>
       </c>
       <c r="J257">
@@ -5250,25 +5309,25 @@
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="86">
+      <c r="A258" s="83">
         <v>6</v>
       </c>
-      <c r="B258" s="87">
-        <v>0</v>
-      </c>
-      <c r="C258" s="33">
-        <v>1</v>
-      </c>
-      <c r="D258" s="33">
-        <v>1</v>
-      </c>
-      <c r="E258" s="90">
+      <c r="B258" s="84">
+        <v>0</v>
+      </c>
+      <c r="C258" s="31">
+        <v>1</v>
+      </c>
+      <c r="D258" s="31">
+        <v>1</v>
+      </c>
+      <c r="E258" s="16">
         <v>0</v>
       </c>
       <c r="G258">
         <v>2</v>
       </c>
-      <c r="H258" s="89" t="s">
+      <c r="H258" s="86" t="s">
         <v>168</v>
       </c>
       <c r="J258">
@@ -5276,25 +5335,25 @@
       </c>
     </row>
     <row r="259" ht="15.75" spans="1:10">
-      <c r="A259" s="91">
+      <c r="A259" s="87">
         <v>7</v>
       </c>
-      <c r="B259" s="92">
-        <v>0</v>
-      </c>
-      <c r="C259" s="93">
-        <v>1</v>
-      </c>
-      <c r="D259" s="93">
-        <v>1</v>
-      </c>
-      <c r="E259" s="94">
+      <c r="B259" s="88">
+        <v>0</v>
+      </c>
+      <c r="C259" s="89">
+        <v>1</v>
+      </c>
+      <c r="D259" s="89">
+        <v>1</v>
+      </c>
+      <c r="E259" s="90">
         <v>1</v>
       </c>
       <c r="G259">
         <v>3</v>
       </c>
-      <c r="H259" s="84" t="s">
+      <c r="H259" s="81" t="s">
         <v>168</v>
       </c>
       <c r="J259">
@@ -5305,7 +5364,7 @@
       <c r="A260" s="23">
         <v>8</v>
       </c>
-      <c r="B260" s="95">
+      <c r="B260" s="91">
         <v>1</v>
       </c>
       <c r="C260" s="12">
@@ -5314,21 +5373,21 @@
       <c r="D260" s="12">
         <v>0</v>
       </c>
-      <c r="E260" s="79">
+      <c r="E260" s="76">
         <v>0</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
-      <c r="H260" s="38" t="s">
+      <c r="H260" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="96">
+      <c r="A261" s="92">
         <v>9</v>
       </c>
-      <c r="B261" s="97">
+      <c r="B261" s="93">
         <v>1</v>
       </c>
       <c r="C261" s="15">
@@ -5337,116 +5396,116 @@
       <c r="D261" s="15">
         <v>0</v>
       </c>
-      <c r="E261" s="88">
+      <c r="E261" s="85">
         <v>1</v>
       </c>
       <c r="G261">
         <v>2</v>
       </c>
-      <c r="H261" s="89" t="s">
+      <c r="H261" s="86" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="96">
+      <c r="A262" s="92">
         <v>10</v>
       </c>
-      <c r="B262" s="97">
+      <c r="B262" s="93">
         <v>1</v>
       </c>
       <c r="C262" s="15">
         <v>0</v>
       </c>
-      <c r="D262" s="33">
-        <v>1</v>
-      </c>
-      <c r="E262" s="90">
+      <c r="D262" s="31">
+        <v>1</v>
+      </c>
+      <c r="E262" s="16">
         <v>0</v>
       </c>
       <c r="G262">
         <v>2</v>
       </c>
-      <c r="H262" s="89" t="s">
+      <c r="H262" s="86" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="96">
+      <c r="A263" s="92">
         <v>11</v>
       </c>
-      <c r="B263" s="97">
+      <c r="B263" s="93">
         <v>1</v>
       </c>
       <c r="C263" s="15">
         <v>0</v>
       </c>
-      <c r="D263" s="33">
-        <v>1</v>
-      </c>
-      <c r="E263" s="33">
-        <v>1</v>
-      </c>
-      <c r="H263" s="89" t="s">
+      <c r="D263" s="31">
+        <v>1</v>
+      </c>
+      <c r="E263" s="31">
+        <v>1</v>
+      </c>
+      <c r="H263" s="86" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="96">
+      <c r="A264" s="92">
         <v>12</v>
       </c>
-      <c r="B264" s="97">
-        <v>1</v>
-      </c>
-      <c r="C264" s="33">
+      <c r="B264" s="93">
+        <v>1</v>
+      </c>
+      <c r="C264" s="31">
         <v>1</v>
       </c>
       <c r="D264" s="15">
         <v>0</v>
       </c>
-      <c r="E264" s="90">
-        <v>0</v>
-      </c>
-      <c r="H264" s="89" t="s">
+      <c r="E264" s="16">
+        <v>0</v>
+      </c>
+      <c r="H264" s="86" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="96">
+      <c r="A265" s="92">
         <v>13</v>
       </c>
-      <c r="B265" s="97">
-        <v>1</v>
-      </c>
-      <c r="C265" s="33">
+      <c r="B265" s="93">
+        <v>1</v>
+      </c>
+      <c r="C265" s="31">
         <v>1</v>
       </c>
       <c r="D265" s="15">
         <v>0</v>
       </c>
-      <c r="E265" s="88">
-        <v>1</v>
-      </c>
-      <c r="H265" s="89" t="s">
+      <c r="E265" s="85">
+        <v>1</v>
+      </c>
+      <c r="H265" s="86" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="96">
+      <c r="A266" s="92">
         <v>14</v>
       </c>
-      <c r="B266" s="97">
-        <v>1</v>
-      </c>
-      <c r="C266" s="33">
-        <v>1</v>
-      </c>
-      <c r="D266" s="33">
-        <v>1</v>
-      </c>
-      <c r="E266" s="90">
-        <v>0</v>
-      </c>
-      <c r="H266" s="89" t="s">
+      <c r="B266" s="93">
+        <v>1</v>
+      </c>
+      <c r="C266" s="31">
+        <v>1</v>
+      </c>
+      <c r="D266" s="31">
+        <v>1</v>
+      </c>
+      <c r="E266" s="16">
+        <v>0</v>
+      </c>
+      <c r="H266" s="86" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5454,19 +5513,19 @@
       <c r="A267" s="26">
         <v>15</v>
       </c>
-      <c r="B267" s="98">
-        <v>1</v>
-      </c>
-      <c r="C267" s="82">
-        <v>1</v>
-      </c>
-      <c r="D267" s="82">
-        <v>1</v>
-      </c>
-      <c r="E267" s="83">
-        <v>1</v>
-      </c>
-      <c r="H267" s="84" t="s">
+      <c r="B267" s="94">
+        <v>1</v>
+      </c>
+      <c r="C267" s="79">
+        <v>1</v>
+      </c>
+      <c r="D267" s="79">
+        <v>1</v>
+      </c>
+      <c r="E267" s="80">
+        <v>1</v>
+      </c>
+      <c r="H267" s="81" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5552,7 +5611,7 @@
       <c r="D280" s="12">
         <v>6000</v>
       </c>
-      <c r="E280" s="99">
+      <c r="E280" s="13">
         <v>18000</v>
       </c>
       <c r="H280" t="s">
@@ -5572,11 +5631,11 @@
       <c r="B281">
         <v>1</v>
       </c>
-      <c r="C281" s="87"/>
+      <c r="C281" s="84"/>
       <c r="D281" s="15">
         <v>0</v>
       </c>
-      <c r="E281" s="90">
+      <c r="E281" s="16">
         <v>24000</v>
       </c>
       <c r="H281" t="s">
@@ -5596,9 +5655,9 @@
       <c r="B282">
         <v>2</v>
       </c>
-      <c r="C282" s="80"/>
-      <c r="D282" s="81"/>
-      <c r="E282" s="100">
+      <c r="C282" s="77"/>
+      <c r="D282" s="78"/>
+      <c r="E282" s="20">
         <v>0</v>
       </c>
     </row>
@@ -5631,7 +5690,7 @@
       <c r="K285" t="s">
         <v>189</v>
       </c>
-      <c r="M285" s="28">
+      <c r="M285" s="25">
         <v>18000</v>
       </c>
     </row>
@@ -5649,19 +5708,113 @@
       <c r="M288" s="24"/>
       <c r="N288" s="24"/>
       <c r="O288" s="24"/>
-      <c r="P288" s="29"/>
+      <c r="P288" s="27"/>
     </row>
     <row r="289" ht="15.75" spans="10:16">
       <c r="J289" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="K289" s="27"/>
-      <c r="L289" s="27"/>
-      <c r="M289" s="27"/>
-      <c r="N289" s="27"/>
-      <c r="O289" s="27"/>
-      <c r="P289" s="30" t="s">
+      <c r="K289" s="19"/>
+      <c r="L289" s="19"/>
+      <c r="M289" s="19"/>
+      <c r="N289" s="19"/>
+      <c r="O289" s="19"/>
+      <c r="P289" s="28" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>12</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>195</v>
+      </c>
+      <c r="B297" s="95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C297" s="95" t="s">
+        <v>197</v>
+      </c>
+      <c r="D297" s="95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="B299" s="96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C299" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D299" s="98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301">
+        <v>14</v>
+      </c>
+      <c r="C301" s="99">
+        <v>2</v>
+      </c>
+      <c r="D301">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302" t="s">
+        <v>203</v>
+      </c>
+      <c r="C302" t="s">
+        <v>204</v>
+      </c>
+      <c r="D302" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303" t="s">
+        <v>206</v>
+      </c>
+      <c r="C303" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D303" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5678,7 +5831,7 @@
   <sheetPr/>
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -5693,13 +5846,13 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" ht="15.75"/>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -5711,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="G3" s="2">
         <v>7</v>
@@ -5747,39 +5900,39 @@
     </row>
     <row r="7" customFormat="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" ht="15.75"/>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="2:5">
       <c r="B10" s="5" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" ht="15.75"/>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B12" s="2">
         <v>58</v>
@@ -5798,37 +5951,37 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:2">
       <c r="A17" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:1">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5836,19 +5989,19 @@
         <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D22">
         <v>6000</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F22" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="H22">
         <v>12000</v>
@@ -5859,15 +6012,15 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D24" s="1">
         <v>32000</v>
@@ -5890,7 +6043,7 @@
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5898,30 +6051,30 @@
         <v>174</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="3:6">
       <c r="C30" s="10" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" ht="15.75" spans="3:20">
@@ -5948,11 +6101,11 @@
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
-      <c r="T31" s="29"/>
+      <c r="T31" s="27"/>
     </row>
     <row r="32" ht="15.75" spans="1:20">
       <c r="A32" s="10" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5970,29 +6123,29 @@
         <v>30</v>
       </c>
       <c r="I32" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="J32" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="K32" s="25">
         <v>6</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="30" t="s">
-        <v>335</v>
+        <v>349</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="28" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6008,10 +6161,10 @@
         <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="J33" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="K33" s="25">
         <v>24</v>
@@ -6019,7 +6172,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -6033,10 +6186,10 @@
         <v>36</v>
       </c>
       <c r="I34" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="J34" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="K34" s="25">
         <v>36</v>
@@ -6044,7 +6197,7 @@
     </row>
     <row r="35" ht="15.75" spans="1:6">
       <c r="A35" s="10" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -6063,30 +6216,30 @@
     </row>
     <row r="37" spans="9:13">
       <c r="I37" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="L37" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="M37">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:13">
-      <c r="J38" s="28" t="s">
-        <v>344</v>
+      <c r="J38" s="25" t="s">
+        <v>359</v>
       </c>
       <c r="K38" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="L38" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="M38" s="25">
         <v>18</v>
@@ -6094,30 +6247,30 @@
     </row>
     <row r="40" spans="9:13">
       <c r="I40" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="J40" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="M40">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="10:13">
-      <c r="J41" s="28" t="s">
-        <v>351</v>
+      <c r="J41" s="25" t="s">
+        <v>366</v>
       </c>
       <c r="K41" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="M41" s="25">
         <v>48</v>
@@ -6126,21 +6279,21 @@
     <row r="42" ht="15.75"/>
     <row r="43" ht="15.75" spans="9:9">
       <c r="I43" s="22" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="9:13">
       <c r="I44" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="J44" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="K44" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="M44">
         <v>54</v>
@@ -6148,27 +6301,27 @@
     </row>
     <row r="45" spans="10:13">
       <c r="J45" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="K45" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="M45">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="10:13">
-      <c r="J46" s="28" t="s">
-        <v>362</v>
+      <c r="J46" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="K46" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M46" s="25">
         <v>30</v>
@@ -6234,51 +6387,51 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="53">
-        <v>0</v>
-      </c>
-      <c r="C2" s="53">
-        <v>1</v>
-      </c>
-      <c r="D2" s="53">
+        <v>209</v>
+      </c>
+      <c r="B2" s="51">
+        <v>0</v>
+      </c>
+      <c r="C2" s="51">
+        <v>1</v>
+      </c>
+      <c r="D2" s="51">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="51">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="51">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="51">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="51">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="51">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="51">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -6308,27 +6461,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -6340,32 +6493,32 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="C9" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -6385,22 +6538,22 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
@@ -6408,13 +6561,13 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="52">
-        <v>2</v>
-      </c>
-      <c r="D20" s="34">
+      <c r="B20" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="50">
+        <v>2</v>
+      </c>
+      <c r="D20" s="32">
         <v>2</v>
       </c>
       <c r="E20" s="15">
@@ -6425,7 +6578,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="15">
@@ -6434,7 +6587,7 @@
       <c r="D21" s="15">
         <v>1</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="32">
         <v>1</v>
       </c>
       <c r="F21">
@@ -6454,7 +6607,7 @@
       <c r="E22" s="15">
         <v>0</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="34">
         <v>0</v>
       </c>
     </row>
@@ -6471,7 +6624,7 @@
       <c r="E23" s="15">
         <v>0</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="34">
         <v>0</v>
       </c>
     </row>
@@ -6488,13 +6641,13 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -6514,17 +6667,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>51</v>
@@ -6532,22 +6685,22 @@
       <c r="C37" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="34" t="s">
-        <v>206</v>
+      <c r="E37" s="32" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="B38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>206</v>
+      <c r="C38" s="32" t="s">
+        <v>221</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>6</v>
@@ -6555,18 +6708,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -6578,7 +6731,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -6586,20 +6739,20 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>206</v>
+      <c r="D47" s="25" t="s">
+        <v>221</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -6609,10 +6762,10 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="52">
+      <c r="C48" s="50">
         <v>2</v>
       </c>
       <c r="D48" s="15">
@@ -6626,10 +6779,10 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="34">
+      <c r="C49" s="32">
         <v>2</v>
       </c>
       <c r="D49" s="15">
@@ -6643,13 +6796,13 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="15">
         <v>2</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="32">
         <v>1</v>
       </c>
       <c r="E50" s="15">
@@ -6660,13 +6813,13 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="28" t="s">
-        <v>206</v>
+      <c r="B51" s="25" t="s">
+        <v>221</v>
       </c>
       <c r="C51" s="15">
         <v>1</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="32">
         <v>1</v>
       </c>
       <c r="E51" s="15">
@@ -6686,7 +6839,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="34">
         <v>0</v>
       </c>
       <c r="F52">
@@ -6695,7 +6848,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -6707,7 +6860,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -6735,12 +6888,12 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
-      <c r="A3" s="31" t="s">
-        <v>210</v>
+      <c r="A3" s="29" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6821,7 +6974,7 @@
       <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="25">
         <v>3</v>
       </c>
     </row>
@@ -6829,14 +6982,14 @@
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="25">
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -6846,12 +6999,12 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <v>1</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -6861,8 +7014,8 @@
       <c r="A11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="E11" t="s">
         <v>65</v>
       </c>
@@ -6871,9 +7024,9 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="28">
+        <v>229</v>
+      </c>
+      <c r="K11" s="25">
         <v>3</v>
       </c>
     </row>
@@ -6881,12 +7034,12 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="13:13">
-      <c r="M13" s="50">
+      <c r="M13" s="48">
         <v>1</v>
       </c>
     </row>
@@ -6894,30 +7047,30 @@
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M14" s="50">
+        <v>231</v>
+      </c>
+      <c r="M14" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="6:13">
       <c r="F15" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" s="28">
-        <v>2</v>
-      </c>
-      <c r="M15" s="50">
+        <v>232</v>
+      </c>
+      <c r="G15" s="25">
+        <v>2</v>
+      </c>
+      <c r="M15" s="48">
         <v>5</v>
       </c>
     </row>
@@ -6925,12 +7078,12 @@
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="G17" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -6938,36 +7091,36 @@
     </row>
     <row r="18" customFormat="1" spans="7:9">
       <c r="G18" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" s="28">
+        <v>234</v>
+      </c>
+      <c r="I18" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="15" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C20" s="15">
         <v>3</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G20" s="15">
         <v>2</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="K20" s="15">
         <v>3</v>
@@ -6976,21 +7129,21 @@
     <row r="21" spans="1:11">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C21" s="15">
         <v>3</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G21" s="15">
         <v>3</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="K21" s="15">
         <v>2</v>
@@ -6999,50 +7152,50 @@
     <row r="22" spans="1:11">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="33">
+        <v>244</v>
+      </c>
+      <c r="C22" s="31">
         <v>1</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="33">
+        <v>245</v>
+      </c>
+      <c r="G22" s="31">
         <v>2</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K22" s="33">
+        <v>246</v>
+      </c>
+      <c r="K22" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="15" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C24" s="15">
         <v>3</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="G24" s="15">
         <v>4</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="K24" s="15">
         <v>4</v>
@@ -7051,21 +7204,21 @@
     <row r="25" spans="1:11">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C25" s="15">
         <v>3</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="G25" s="15">
         <v>3</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="K25" s="15">
         <v>4</v>
@@ -7074,23 +7227,23 @@
     <row r="26" spans="1:11">
       <c r="A26" s="15"/>
       <c r="B26" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="33">
+        <v>256</v>
+      </c>
+      <c r="C26" s="31">
         <v>3</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" s="33">
+        <v>257</v>
+      </c>
+      <c r="G26" s="31">
         <v>3</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="K26" s="33">
+        <v>258</v>
+      </c>
+      <c r="K26" s="31">
         <v>2</v>
       </c>
     </row>
@@ -7118,7 +7271,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>31</v>
@@ -7138,7 +7291,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>28</v>
@@ -7160,10 +7313,10 @@
       <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7174,36 +7327,36 @@
       <c r="D7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -7318,7 +7471,7 @@
       <c r="E23" s="15">
         <v>4</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="31">
         <v>3</v>
       </c>
     </row>
@@ -7353,104 +7506,104 @@
     </row>
     <row r="3" ht="15.75" spans="2:12">
       <c r="B3" t="s">
-        <v>251</v>
-      </c>
-      <c r="L3" s="49">
+        <v>266</v>
+      </c>
+      <c r="L3" s="47">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="2:12">
-      <c r="B4" s="38">
-        <v>1</v>
-      </c>
-      <c r="I4" s="48">
-        <v>2</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>252</v>
+      <c r="B4" s="36">
+        <v>1</v>
+      </c>
+      <c r="I4" s="46">
+        <v>2</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:9">
-      <c r="B5" s="39"/>
-      <c r="C5" s="29">
-        <v>2</v>
-      </c>
-      <c r="I5" s="48">
+      <c r="B5" s="37"/>
+      <c r="C5" s="27">
+        <v>2</v>
+      </c>
+      <c r="I5" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="2:9">
-      <c r="B6" s="39"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="29">
-        <v>3</v>
-      </c>
-      <c r="I6" s="48">
+      <c r="D6" s="27">
+        <v>3</v>
+      </c>
+      <c r="I6" s="46">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="2:9">
-      <c r="B7" s="39"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <v>4</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="2:9">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40">
         <v>5</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="2:2">
       <c r="B10" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:9">
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
       <c r="H11" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="48">
+        <v>269</v>
+      </c>
+      <c r="I11" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>255</v>
-      </c>
-      <c r="I12" s="48">
+        <v>270</v>
+      </c>
+      <c r="I12" s="46">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>256</v>
-      </c>
-      <c r="I13" s="48">
+        <v>271</v>
+      </c>
+      <c r="I13" s="46">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>257</v>
-      </c>
-      <c r="I14" s="48">
+        <v>272</v>
+      </c>
+      <c r="I14" s="46">
         <v>10</v>
       </c>
     </row>
@@ -7458,23 +7611,23 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>258</v>
-      </c>
-      <c r="I16" s="46">
+        <v>273</v>
+      </c>
+      <c r="I16" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="46">
+        <v>274</v>
+      </c>
+      <c r="I17" s="44">
         <v>12</v>
       </c>
     </row>
@@ -7482,7 +7635,7 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="44">
         <v>0</v>
       </c>
     </row>
@@ -7491,13 +7644,13 @@
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="47">
-        <v>1</v>
-      </c>
-      <c r="D22" s="48" t="s">
+      <c r="B22" s="45">
+        <v>1</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="44">
         <v>2</v>
       </c>
     </row>
@@ -7506,8 +7659,8 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="45">
+      <c r="B24" s="41"/>
+      <c r="C24" s="43">
         <v>2</v>
       </c>
       <c r="E24" t="s">
@@ -7516,7 +7669,7 @@
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="46">
         <v>4</v>
       </c>
     </row>
@@ -7525,23 +7678,23 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" s="46">
+        <v>275</v>
+      </c>
+      <c r="G25" s="44">
         <v>5</v>
       </c>
       <c r="L25" t="s">
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="12:13">
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26" s="48">
+      <c r="M26" s="46">
         <v>2</v>
       </c>
     </row>
@@ -7549,9 +7702,9 @@
       <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43">
         <v>3</v>
       </c>
       <c r="F27" t="s">
@@ -7560,13 +7713,13 @@
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="46">
         <v>7</v>
       </c>
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27" s="48">
+      <c r="M27" s="46">
         <v>5</v>
       </c>
     </row>
@@ -7577,13 +7730,13 @@
       <c r="G28" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="46">
         <v>7</v>
       </c>
       <c r="L28">
         <v>3</v>
       </c>
-      <c r="M28" s="48">
+      <c r="M28" s="46">
         <v>7</v>
       </c>
     </row>
@@ -7592,15 +7745,15 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>262</v>
-      </c>
-      <c r="H29" s="46">
+        <v>277</v>
+      </c>
+      <c r="H29" s="44">
         <v>7</v>
       </c>
       <c r="L29">
         <v>4</v>
       </c>
-      <c r="M29" s="48">
+      <c r="M29" s="46">
         <v>8</v>
       </c>
     </row>
@@ -7608,7 +7761,7 @@
       <c r="L30">
         <v>5</v>
       </c>
-      <c r="M30" s="48">
+      <c r="M30" s="46">
         <v>10</v>
       </c>
     </row>
@@ -7617,10 +7770,10 @@
       <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45">
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43">
         <v>4</v>
       </c>
       <c r="G32" t="s">
@@ -7629,7 +7782,7 @@
       <c r="H32" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="46">
         <v>9</v>
       </c>
     </row>
@@ -7640,7 +7793,7 @@
       <c r="H33" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="44">
         <v>10</v>
       </c>
     </row>
@@ -7651,7 +7804,7 @@
       <c r="H34" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="48">
+      <c r="I34" s="46">
         <v>9</v>
       </c>
     </row>
@@ -7660,75 +7813,75 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
-      </c>
-      <c r="I35" s="48">
+        <v>278</v>
+      </c>
+      <c r="I35" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="37" ht="15.75"/>
     <row r="38" ht="15.75" spans="1:10">
       <c r="A38" t="s">
-        <v>220</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45">
+        <v>235</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43">
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
-      </c>
-      <c r="J38" s="48">
+        <v>279</v>
+      </c>
+      <c r="J38" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I39" t="s">
-        <v>265</v>
-      </c>
-      <c r="J39" s="48">
+        <v>280</v>
+      </c>
+      <c r="J39" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="I40" t="s">
-        <v>267</v>
-      </c>
-      <c r="J40" s="46">
+        <v>282</v>
+      </c>
+      <c r="J40" s="44">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="I41" t="s">
-        <v>269</v>
-      </c>
-      <c r="J41" s="48">
+        <v>284</v>
+      </c>
+      <c r="J41" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="I42" t="s">
-        <v>271</v>
-      </c>
-      <c r="J42" s="48">
+        <v>286</v>
+      </c>
+      <c r="J42" s="46">
         <v>10</v>
       </c>
     </row>
@@ -7756,17 +7909,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -7791,64 +7944,64 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="M15" s="15">
         <v>4</v>
       </c>
-      <c r="N15" s="34">
-        <v>2</v>
-      </c>
-      <c r="O15" s="34">
+      <c r="N15" s="32">
+        <v>2</v>
+      </c>
+      <c r="O15" s="32">
         <v>10</v>
       </c>
-      <c r="P15" s="34">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="34">
+      <c r="P15" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="32">
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="M16" s="15">
         <v>12</v>
       </c>
-      <c r="N16" s="34">
-        <v>1</v>
-      </c>
-      <c r="O16" s="34">
+      <c r="N16" s="32">
+        <v>1</v>
+      </c>
+      <c r="O16" s="32">
         <v>4</v>
       </c>
-      <c r="P16" s="34">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="34">
+      <c r="P16" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="32">
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>279</v>
-      </c>
-      <c r="M19" s="35">
+        <v>294</v>
+      </c>
+      <c r="M19" s="33">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -7901,7 +8054,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -7927,7 +8080,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="34">
         <v>0</v>
       </c>
       <c r="K29">
@@ -7957,7 +8110,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -7983,7 +8136,7 @@
       <c r="I30" s="15">
         <v>0</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="32">
         <v>0</v>
       </c>
       <c r="K30" s="15">
@@ -7998,7 +8151,7 @@
       <c r="N30" s="15">
         <v>0</v>
       </c>
-      <c r="O30" s="33">
+      <c r="O30" s="31">
         <v>4</v>
       </c>
       <c r="P30" s="15">
@@ -8013,7 +8166,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -8042,7 +8195,7 @@
       <c r="J31" s="15">
         <v>2</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="32">
         <v>2</v>
       </c>
       <c r="L31" s="15">
@@ -8057,7 +8210,7 @@
       <c r="O31" s="15">
         <v>4</v>
       </c>
-      <c r="P31" s="33">
+      <c r="P31" s="31">
         <v>6</v>
       </c>
       <c r="Q31" s="15">
@@ -8069,7 +8222,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -8089,7 +8242,7 @@
       <c r="G32" s="15">
         <v>10</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="31">
         <v>12</v>
       </c>
       <c r="I32" s="15">
@@ -8110,7 +8263,7 @@
       <c r="N32" s="15">
         <v>12</v>
       </c>
-      <c r="O32" s="34">
+      <c r="O32" s="32">
         <v>12</v>
       </c>
       <c r="P32" s="15">
@@ -8125,7 +8278,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -8148,7 +8301,7 @@
       <c r="H33" s="15">
         <v>12</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="31">
         <v>13</v>
       </c>
       <c r="J33" s="15">
@@ -8169,7 +8322,7 @@
       <c r="O33" s="15">
         <v>13</v>
       </c>
-      <c r="P33" s="34">
+      <c r="P33" s="32">
         <v>13</v>
       </c>
       <c r="Q33" s="15">
@@ -8181,7 +8334,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -8195,7 +8348,7 @@
       <c r="E34" s="15">
         <v>2</v>
       </c>
-      <c r="F34" s="33">
+      <c r="F34" s="31">
         <v>4</v>
       </c>
       <c r="G34" s="15">
@@ -8210,7 +8363,7 @@
       <c r="J34" s="15">
         <v>14</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="31">
         <v>15</v>
       </c>
       <c r="L34" s="15">
@@ -8231,23 +8384,23 @@
       <c r="Q34" s="15">
         <v>15</v>
       </c>
-      <c r="R34" s="37">
+      <c r="R34" s="35">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="101" t="s">
-        <v>289</v>
+      <c r="A38" s="100" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="101" t="s">
-        <v>290</v>
+      <c r="A39" s="100" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -8270,11 +8423,11 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="31"/>
+      <c r="B3" s="29"/>
     </row>
     <row r="5" spans="3:14">
       <c r="C5">
@@ -8319,40 +8472,40 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="I6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="J6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="L6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="M6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="N6" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8363,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8374,7 +8527,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8385,7 +8538,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8396,7 +8549,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -8422,8 +8575,8 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="31" t="s">
-        <v>294</v>
+      <c r="A5" s="29" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8458,42 +8611,42 @@
         <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="13:13">
@@ -8533,15 +8686,15 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="5:5">
@@ -8551,7 +8704,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="391">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -601,10 +601,10 @@
     <t>f(i,i)=0</t>
   </si>
   <si>
-    <t>f(i,k)=min[ f(i,j) + f(j+1,k) + (rows_i * cols_j * cols_k) ]</t>
-  </si>
-  <si>
-    <t>i&lt;=j&lt;k</t>
+    <t>f(i,j)=min[ f(i,k) + f(k+1,j) + (rows_i * cols_k * cols_j) ]</t>
+  </si>
+  <si>
+    <t>i&lt;=k&lt;j</t>
   </si>
   <si>
     <t>PaintHouse</t>
@@ -1021,6 +1021,12 @@
     <t>20*30</t>
   </si>
   <si>
+    <t>A1*A2*A3*A4</t>
+  </si>
+  <si>
+    <t>N=4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
@@ -1030,9 +1036,24 @@
     <t>20*40</t>
   </si>
   <si>
+    <t>A1*(A2*A3*A4)</t>
+  </si>
+  <si>
+    <t>(A1*A2)*(A3*A4)</t>
+  </si>
+  <si>
     <t>A1*A2*A3</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N-1</t>
+  </si>
+  <si>
+    <t>(A1*A2*A3)*A4</t>
+  </si>
+  <si>
     <t>10*20*30 = 6000 + 12000</t>
   </si>
   <si>
@@ -1066,18 +1087,15 @@
     <t>[4,3]</t>
   </si>
   <si>
+    <t>row_a*col_a*col_b</t>
+  </si>
+  <si>
     <t>(0*1)</t>
   </si>
   <si>
     <t>1*2*3</t>
   </si>
   <si>
-    <t>f(i,j)=min[ f(i,k) + f(k+1,j) + (rows_i * cols_k * cols_j) ]</t>
-  </si>
-  <si>
-    <t>i&lt;=k&lt;j</t>
-  </si>
-  <si>
     <t>(1*2)</t>
   </si>
   <si>
@@ -1093,76 +1111,91 @@
     <t>(0*1*2)</t>
   </si>
   <si>
-    <t>(0*(1*2))</t>
-  </si>
-  <si>
-    <t>(1*2*4) + 24</t>
-  </si>
-  <si>
-    <t>8+24</t>
-  </si>
-  <si>
-    <t>((0*1)*2)</t>
-  </si>
-  <si>
-    <t>6 + (1*3*4)</t>
-  </si>
-  <si>
-    <t>6+12</t>
+    <t>i=0</t>
+  </si>
+  <si>
+    <t>k=0</t>
+  </si>
+  <si>
+    <t>j=2</t>
+  </si>
+  <si>
+    <t>0*(1*2)</t>
+  </si>
+  <si>
+    <t>24+(1*2*4)</t>
+  </si>
+  <si>
+    <t>row_i * col_k * col_j</t>
+  </si>
+  <si>
+    <t>(0*1)*2</t>
+  </si>
+  <si>
+    <t>6+(1*3*4)</t>
+  </si>
+  <si>
+    <t>1*2*4</t>
+  </si>
+  <si>
+    <t>k=1</t>
   </si>
   <si>
     <t>(1*2*3)</t>
   </si>
   <si>
-    <t>(1*(2*3))</t>
+    <t>1*(2*3)</t>
   </si>
   <si>
     <t>36 + (2*3*3)</t>
   </si>
   <si>
-    <t>36+18</t>
-  </si>
-  <si>
-    <t>((1*2)*3)</t>
+    <t>1*3*4</t>
+  </si>
+  <si>
+    <t>(1*2)*3</t>
   </si>
   <si>
     <t>24 + (2*4*3)</t>
   </si>
   <si>
-    <t>24+24</t>
-  </si>
-  <si>
     <t>len=4</t>
   </si>
   <si>
+    <t>0*(1*2*3)</t>
+  </si>
+  <si>
+    <t>i=0,k=0,j=3</t>
+  </si>
+  <si>
     <t>(0*1*2*3)</t>
   </si>
   <si>
-    <t>(0*(1*2*3))</t>
-  </si>
-  <si>
     <t>48+(1*2*3)</t>
   </si>
   <si>
-    <t>48+6</t>
-  </si>
-  <si>
-    <t>((0*1)*(2*3))</t>
+    <t>(0*1)*(2*3)</t>
+  </si>
+  <si>
+    <t>i=0,k=1,j=3</t>
   </si>
   <si>
     <t>6+36+(1*3*3)</t>
   </si>
   <si>
-    <t>42+9</t>
-  </si>
-  <si>
-    <t>((0*1*2)*3)</t>
+    <t>(0*1*2)*3</t>
+  </si>
+  <si>
+    <t>i=0,k=2,j=3</t>
   </si>
   <si>
     <t>18+(1*4*3)</t>
   </si>
   <si>
-    <t>18+12</t>
+    <t>MIN(dp[i,k]+dp[k+1,j]+(row_i * col_k * col_j))</t>
+  </si>
+  <si>
+    <t>((0*1)*2)*3</t>
   </si>
 </sst>
 </file>
@@ -1170,13 +1203,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,9 +1233,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1212,6 +1243,14 @@
       <color rgb="FF263238"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -1226,23 +1265,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,17 +1287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,6 +1298,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1302,19 +1334,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1328,7 +1367,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1342,14 +1381,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,9 +1402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1403,25 +1442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,7 +1454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,43 +1472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1493,13 +1484,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,7 +1508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,13 +1538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,7 +1562,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1559,25 +1592,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,6 +1768,21 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1755,15 +1809,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1773,7 +1823,31 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1790,41 +1864,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2057,8 +2096,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2070,6 +2109,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2093,22 +2147,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2116,8 +2170,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2136,31 +2190,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2172,134 +2211,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2313,35 +2352,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -2349,9 +2387,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2372,29 +2410,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -2402,7 +2440,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2411,17 +2449,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2838,8 +2874,8 @@
   <sheetPr/>
   <dimension ref="A1:Z303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="J288" sqref="J288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2864,19 +2900,19 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H3" t="s">
@@ -2887,13 +2923,13 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
@@ -2918,19 +2954,19 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="28">
         <f>IF($B$8=C$7,1+D9,MAX(C9,D8))</f>
         <v>3</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="16">
         <f>IF($B$8=D$7,1+E9,MAX(D9,E8))</f>
         <v>2</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="16">
         <f>IF($B$8=E$7,1+F9,MAX(E9,F8))</f>
         <v>1</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2938,19 +2974,19 @@
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="16">
         <f>IF($B$9=C$7,1+D10,MAX(C10,D9))</f>
         <v>2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="16">
         <f>IF($B$9=D$7,1+E10,MAX(D10,E9))</f>
         <v>2</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <f>IF($B$9=E$7,1+F10,MAX(E10,F9))</f>
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2958,19 +2994,19 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <f>IF($B$10=C$7,1+D11,MAX(C11,D10))</f>
         <v>2</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="16">
         <f>IF($B$10=D$7,1+E11,MAX(D11,E10))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="16">
         <f>IF($B$10=E$7,1+F11,MAX(E11,F10))</f>
         <v>1</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2978,19 +3014,19 @@
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="16">
         <f>IF($B$11=C$7,1+D12,MAX(C12,D11))</f>
         <v>1</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <f>IF($B$11=D$7,1+E12,MAX(D12,E11))</f>
         <v>1</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="16">
         <f>IF($B$11=E$7,1+F12,MAX(E12,F11))</f>
         <v>1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2998,19 +3034,19 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <f>IF($B$12=C$7,1+D13,MAX(C13,D12))</f>
         <v>1</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <f>IF($B$12=D$7,1+E13,MAX(D13,E12))</f>
         <v>1</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="16">
         <f>IF($B$12=E$7,1+F13,MAX(E13,F12))</f>
         <v>1</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3018,16 +3054,16 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
         <v>0</v>
       </c>
     </row>
@@ -3064,7 +3100,7 @@
       <c r="I22">
         <v>7</v>
       </c>
-      <c r="J22" s="53" t="s">
+      <c r="J22" s="52" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3072,31 +3108,31 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="16">
         <v>10</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="16">
         <v>9</v>
       </c>
-      <c r="D23" s="15">
-        <v>2</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="D23" s="16">
+        <v>2</v>
+      </c>
+      <c r="E23" s="16">
         <v>5</v>
       </c>
-      <c r="F23" s="15">
-        <v>3</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="F23" s="16">
+        <v>3</v>
+      </c>
+      <c r="G23" s="16">
         <v>7</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="16">
         <v>101</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="16">
         <v>18</v>
       </c>
-      <c r="J23" s="53" t="s">
+      <c r="J23" s="52" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3110,7 +3146,7 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>4</v>
       </c>
       <c r="E25">
@@ -3219,16 +3255,16 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="15">
-        <v>0</v>
-      </c>
-      <c r="D41" s="15">
-        <v>1</v>
-      </c>
-      <c r="E41" s="15">
-        <v>2</v>
-      </c>
-      <c r="F41" s="15">
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1</v>
+      </c>
+      <c r="E41" s="16">
+        <v>2</v>
+      </c>
+      <c r="F41" s="16">
         <v>3</v>
       </c>
     </row>
@@ -3236,16 +3272,16 @@
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="15">
-        <v>1</v>
-      </c>
-      <c r="D42" s="15">
-        <v>1</v>
-      </c>
-      <c r="E42" s="15">
-        <v>2</v>
-      </c>
-      <c r="F42" s="15">
+      <c r="C42" s="16">
+        <v>1</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1</v>
+      </c>
+      <c r="E42" s="16">
+        <v>2</v>
+      </c>
+      <c r="F42" s="16">
         <v>3</v>
       </c>
     </row>
@@ -3253,16 +3289,16 @@
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="15">
-        <v>2</v>
-      </c>
-      <c r="D43" s="15">
-        <v>2</v>
-      </c>
-      <c r="E43" s="15">
-        <v>1</v>
-      </c>
-      <c r="F43" s="15">
+      <c r="C43" s="16">
+        <v>2</v>
+      </c>
+      <c r="D43" s="16">
+        <v>2</v>
+      </c>
+      <c r="E43" s="16">
+        <v>1</v>
+      </c>
+      <c r="F43" s="16">
         <v>2</v>
       </c>
     </row>
@@ -3270,16 +3306,16 @@
       <c r="B44" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="15">
-        <v>3</v>
-      </c>
-      <c r="D44" s="15">
-        <v>2</v>
-      </c>
-      <c r="E44" s="15">
-        <v>2</v>
-      </c>
-      <c r="F44" s="15">
+      <c r="C44" s="16">
+        <v>3</v>
+      </c>
+      <c r="D44" s="16">
+        <v>2</v>
+      </c>
+      <c r="E44" s="16">
+        <v>2</v>
+      </c>
+      <c r="F44" s="16">
         <v>2</v>
       </c>
     </row>
@@ -3287,16 +3323,16 @@
       <c r="B45" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="16">
         <v>4</v>
       </c>
-      <c r="D45" s="15">
-        <v>3</v>
-      </c>
-      <c r="E45" s="15">
-        <v>3</v>
-      </c>
-      <c r="F45" s="15">
+      <c r="D45" s="16">
+        <v>3</v>
+      </c>
+      <c r="E45" s="16">
+        <v>3</v>
+      </c>
+      <c r="F45" s="16">
         <v>2</v>
       </c>
     </row>
@@ -3304,16 +3340,16 @@
       <c r="B46" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="16">
         <v>5</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="16">
         <v>4</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="16">
         <v>4</v>
       </c>
-      <c r="F46" s="31">
+      <c r="F46" s="28">
         <v>3</v>
       </c>
     </row>
@@ -3358,28 +3394,28 @@
       <c r="A53" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="52" t="s">
+      <c r="C53" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="F53" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="52" t="s">
+      <c r="G53" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H53" s="52" t="s">
+      <c r="H53" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="52" t="s">
+      <c r="I53" s="51" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3387,7 +3423,7 @@
       <c r="A55" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="25" t="b">
+      <c r="B55" s="24" t="b">
         <v>1</v>
       </c>
       <c r="C55" t="b">
@@ -3419,7 +3455,7 @@
       <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3435,30 +3471,30 @@
     </row>
     <row r="66" ht="15.75"/>
     <row r="67" ht="15.75" spans="7:7">
-      <c r="G67" s="54"/>
+      <c r="G67" s="53"/>
     </row>
     <row r="68" ht="15.75" spans="6:7">
-      <c r="F68" s="55"/>
-      <c r="G68" s="56"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="55"/>
     </row>
     <row r="69" ht="15.75" spans="5:7">
-      <c r="E69" s="55"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="56"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="55"/>
     </row>
     <row r="70" ht="15.75" spans="4:7">
-      <c r="D70" s="55"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="56"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="55"/>
     </row>
     <row r="71" ht="15.75" spans="2:7">
-      <c r="B71" s="19"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="59"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="58"/>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
@@ -3487,7 +3523,7 @@
       <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B74" s="25">
+      <c r="B74" s="24">
         <v>8</v>
       </c>
       <c r="C74">
@@ -3527,30 +3563,30 @@
     </row>
     <row r="79" ht="15.75"/>
     <row r="80" ht="15.75" spans="7:7">
-      <c r="G80" s="54"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" ht="15.75" spans="6:7">
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="55"/>
     </row>
     <row r="82" ht="15.75" spans="5:7">
-      <c r="E82" s="55"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="56"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="55"/>
     </row>
     <row r="83" ht="15.75" spans="4:7">
-      <c r="D83" s="55"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="56"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="55"/>
     </row>
     <row r="84" ht="15.75" spans="2:7">
-      <c r="B84" s="19"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="59"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="58"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
@@ -3579,7 +3615,7 @@
       <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="25">
+      <c r="B87" s="24">
         <v>13</v>
       </c>
       <c r="C87">
@@ -3644,28 +3680,28 @@
       <c r="B96" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="60">
+      <c r="C96" s="59">
         <v>4</v>
       </c>
-      <c r="D96" s="61">
-        <v>3</v>
-      </c>
-      <c r="E96" s="61">
-        <v>3</v>
-      </c>
-      <c r="F96" s="15">
-        <v>2</v>
-      </c>
-      <c r="G96" s="15">
-        <v>2</v>
-      </c>
-      <c r="H96" s="15">
-        <v>1</v>
-      </c>
-      <c r="I96" s="15">
-        <v>1</v>
-      </c>
-      <c r="J96" s="17">
+      <c r="D96" s="60">
+        <v>3</v>
+      </c>
+      <c r="E96" s="60">
+        <v>3</v>
+      </c>
+      <c r="F96" s="16">
+        <v>2</v>
+      </c>
+      <c r="G96" s="16">
+        <v>2</v>
+      </c>
+      <c r="H96" s="16">
+        <v>1</v>
+      </c>
+      <c r="I96" s="16">
+        <v>1</v>
+      </c>
+      <c r="J96" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3673,28 +3709,28 @@
       <c r="B97" t="s">
         <v>51</v>
       </c>
-      <c r="C97" s="61">
+      <c r="C97" s="60">
         <v>4</v>
       </c>
-      <c r="D97" s="61">
-        <v>3</v>
-      </c>
-      <c r="E97" s="61">
-        <v>3</v>
-      </c>
-      <c r="F97" s="15">
-        <v>2</v>
-      </c>
-      <c r="G97" s="15">
-        <v>2</v>
-      </c>
-      <c r="H97" s="15">
-        <v>1</v>
-      </c>
-      <c r="I97" s="15">
-        <v>1</v>
-      </c>
-      <c r="J97" s="17">
+      <c r="D97" s="60">
+        <v>3</v>
+      </c>
+      <c r="E97" s="60">
+        <v>3</v>
+      </c>
+      <c r="F97" s="16">
+        <v>2</v>
+      </c>
+      <c r="G97" s="16">
+        <v>2</v>
+      </c>
+      <c r="H97" s="16">
+        <v>1</v>
+      </c>
+      <c r="I97" s="16">
+        <v>1</v>
+      </c>
+      <c r="J97" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3702,28 +3738,28 @@
       <c r="B98" t="s">
         <v>51</v>
       </c>
-      <c r="C98" s="61">
+      <c r="C98" s="60">
         <v>4</v>
       </c>
-      <c r="D98" s="61">
-        <v>3</v>
-      </c>
-      <c r="E98" s="61">
-        <v>3</v>
-      </c>
-      <c r="F98" s="15">
-        <v>2</v>
-      </c>
-      <c r="G98" s="15">
-        <v>2</v>
-      </c>
-      <c r="H98" s="15">
-        <v>1</v>
-      </c>
-      <c r="I98" s="15">
-        <v>1</v>
-      </c>
-      <c r="J98" s="17">
+      <c r="D98" s="60">
+        <v>3</v>
+      </c>
+      <c r="E98" s="60">
+        <v>3</v>
+      </c>
+      <c r="F98" s="16">
+        <v>2</v>
+      </c>
+      <c r="G98" s="16">
+        <v>2</v>
+      </c>
+      <c r="H98" s="16">
+        <v>1</v>
+      </c>
+      <c r="I98" s="16">
+        <v>1</v>
+      </c>
+      <c r="J98" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3731,28 +3767,28 @@
       <c r="B99" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="15">
-        <v>3</v>
-      </c>
-      <c r="D99" s="15">
-        <v>3</v>
-      </c>
-      <c r="E99" s="15">
-        <v>3</v>
-      </c>
-      <c r="F99" s="15">
-        <v>2</v>
-      </c>
-      <c r="G99" s="15">
-        <v>2</v>
-      </c>
-      <c r="H99" s="15">
-        <v>1</v>
-      </c>
-      <c r="I99" s="15">
-        <v>1</v>
-      </c>
-      <c r="J99" s="17">
+      <c r="C99" s="16">
+        <v>3</v>
+      </c>
+      <c r="D99" s="16">
+        <v>3</v>
+      </c>
+      <c r="E99" s="16">
+        <v>3</v>
+      </c>
+      <c r="F99" s="16">
+        <v>2</v>
+      </c>
+      <c r="G99" s="16">
+        <v>2</v>
+      </c>
+      <c r="H99" s="16">
+        <v>1</v>
+      </c>
+      <c r="I99" s="16">
+        <v>1</v>
+      </c>
+      <c r="J99" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3760,28 +3796,28 @@
       <c r="B100" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="15">
-        <v>2</v>
-      </c>
-      <c r="D100" s="15">
-        <v>2</v>
-      </c>
-      <c r="E100" s="15">
-        <v>2</v>
-      </c>
-      <c r="F100" s="15">
-        <v>2</v>
-      </c>
-      <c r="G100" s="15">
-        <v>2</v>
-      </c>
-      <c r="H100" s="15">
-        <v>1</v>
-      </c>
-      <c r="I100" s="15">
-        <v>1</v>
-      </c>
-      <c r="J100" s="17">
+      <c r="C100" s="16">
+        <v>2</v>
+      </c>
+      <c r="D100" s="16">
+        <v>2</v>
+      </c>
+      <c r="E100" s="16">
+        <v>2</v>
+      </c>
+      <c r="F100" s="16">
+        <v>2</v>
+      </c>
+      <c r="G100" s="16">
+        <v>2</v>
+      </c>
+      <c r="H100" s="16">
+        <v>1</v>
+      </c>
+      <c r="I100" s="16">
+        <v>1</v>
+      </c>
+      <c r="J100" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3789,28 +3825,28 @@
       <c r="B101" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="15">
-        <v>1</v>
-      </c>
-      <c r="D101" s="15">
-        <v>1</v>
-      </c>
-      <c r="E101" s="15">
-        <v>1</v>
-      </c>
-      <c r="F101" s="15">
-        <v>1</v>
-      </c>
-      <c r="G101" s="15">
-        <v>1</v>
-      </c>
-      <c r="H101" s="15">
-        <v>1</v>
-      </c>
-      <c r="I101" s="15">
-        <v>1</v>
-      </c>
-      <c r="J101" s="17">
+      <c r="C101" s="16">
+        <v>1</v>
+      </c>
+      <c r="D101" s="16">
+        <v>1</v>
+      </c>
+      <c r="E101" s="16">
+        <v>1</v>
+      </c>
+      <c r="F101" s="16">
+        <v>1</v>
+      </c>
+      <c r="G101" s="16">
+        <v>1</v>
+      </c>
+      <c r="H101" s="16">
+        <v>1</v>
+      </c>
+      <c r="I101" s="16">
+        <v>1</v>
+      </c>
+      <c r="J101" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3818,28 +3854,28 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="17">
-        <v>0</v>
-      </c>
-      <c r="D102" s="17">
-        <v>0</v>
-      </c>
-      <c r="E102" s="17">
-        <v>0</v>
-      </c>
-      <c r="F102" s="17">
-        <v>0</v>
-      </c>
-      <c r="G102" s="17">
-        <v>0</v>
-      </c>
-      <c r="H102" s="17">
-        <v>0</v>
-      </c>
-      <c r="I102" s="17">
-        <v>0</v>
-      </c>
-      <c r="J102" s="17">
+      <c r="C102" s="18">
+        <v>0</v>
+      </c>
+      <c r="D102" s="18">
+        <v>0</v>
+      </c>
+      <c r="E102" s="18">
+        <v>0</v>
+      </c>
+      <c r="F102" s="18">
+        <v>0</v>
+      </c>
+      <c r="G102" s="18">
+        <v>0</v>
+      </c>
+      <c r="H102" s="18">
+        <v>0</v>
+      </c>
+      <c r="I102" s="18">
+        <v>0</v>
+      </c>
+      <c r="J102" s="18">
         <v>0</v>
       </c>
     </row>
@@ -3859,34 +3895,34 @@
       </c>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="62"/>
+      <c r="G111" s="61"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>57</v>
       </c>
-      <c r="B112" s="61">
-        <v>1</v>
-      </c>
-      <c r="C112" s="15">
-        <v>2</v>
-      </c>
-      <c r="D112" s="15">
-        <v>3</v>
-      </c>
-      <c r="E112" s="15">
+      <c r="B112" s="60">
+        <v>1</v>
+      </c>
+      <c r="C112" s="16">
+        <v>2</v>
+      </c>
+      <c r="D112" s="16">
+        <v>3</v>
+      </c>
+      <c r="E112" s="16">
         <v>4</v>
       </c>
-      <c r="F112" s="15">
+      <c r="F112" s="16">
         <v>5</v>
       </c>
-      <c r="G112" s="15">
+      <c r="G112" s="16">
         <v>6</v>
       </c>
-      <c r="H112" s="15">
+      <c r="H112" s="16">
         <v>7</v>
       </c>
-      <c r="I112" s="15">
+      <c r="I112" s="16">
         <v>8</v>
       </c>
     </row>
@@ -3894,28 +3930,28 @@
       <c r="A113" t="s">
         <v>58</v>
       </c>
-      <c r="B113" s="15">
-        <v>1</v>
-      </c>
-      <c r="C113" s="15">
+      <c r="B113" s="16">
+        <v>1</v>
+      </c>
+      <c r="C113" s="16">
         <v>5</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="16">
         <v>8</v>
       </c>
-      <c r="E113" s="15">
+      <c r="E113" s="16">
         <v>9</v>
       </c>
-      <c r="F113" s="15">
+      <c r="F113" s="16">
         <v>10</v>
       </c>
-      <c r="G113" s="15">
+      <c r="G113" s="16">
         <v>17</v>
       </c>
-      <c r="H113" s="15">
+      <c r="H113" s="16">
         <v>17</v>
       </c>
-      <c r="I113" s="15">
+      <c r="I113" s="16">
         <v>20</v>
       </c>
     </row>
@@ -3960,7 +3996,7 @@
       <c r="A118" t="s">
         <v>60</v>
       </c>
-      <c r="B118" s="61">
+      <c r="B118" s="60">
         <v>1</v>
       </c>
       <c r="D118" t="s">
@@ -3969,7 +4005,7 @@
       <c r="E118" t="s">
         <v>62</v>
       </c>
-      <c r="F118" s="25">
+      <c r="F118" s="24">
         <v>1</v>
       </c>
     </row>
@@ -3982,10 +4018,10 @@
       <c r="A121" t="s">
         <v>64</v>
       </c>
-      <c r="B121" s="61">
-        <v>1</v>
-      </c>
-      <c r="C121" s="15">
+      <c r="B121" s="60">
+        <v>1</v>
+      </c>
+      <c r="C121" s="16">
         <v>2</v>
       </c>
       <c r="E121" t="s">
@@ -3997,7 +4033,7 @@
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121" s="25">
+      <c r="H121" s="24">
         <v>5</v>
       </c>
     </row>
@@ -4022,13 +4058,13 @@
       <c r="A124" t="s">
         <v>70</v>
       </c>
-      <c r="B124" s="61">
-        <v>1</v>
-      </c>
-      <c r="C124" s="15">
-        <v>2</v>
-      </c>
-      <c r="D124" s="15">
+      <c r="B124" s="60">
+        <v>1</v>
+      </c>
+      <c r="C124" s="16">
+        <v>2</v>
+      </c>
+      <c r="D124" s="16">
         <v>3</v>
       </c>
       <c r="F124" t="s">
@@ -4040,7 +4076,7 @@
       <c r="H124">
         <v>6</v>
       </c>
-      <c r="I124" s="25">
+      <c r="I124" s="24">
         <v>8</v>
       </c>
     </row>
@@ -4079,16 +4115,16 @@
       <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="61">
-        <v>1</v>
-      </c>
-      <c r="C128" s="15">
-        <v>2</v>
-      </c>
-      <c r="D128" s="15">
-        <v>3</v>
-      </c>
-      <c r="E128" s="15">
+      <c r="B128" s="60">
+        <v>1</v>
+      </c>
+      <c r="C128" s="16">
+        <v>2</v>
+      </c>
+      <c r="D128" s="16">
+        <v>3</v>
+      </c>
+      <c r="E128" s="16">
         <v>4</v>
       </c>
       <c r="G128" t="s">
@@ -4100,7 +4136,7 @@
       <c r="I128">
         <v>9</v>
       </c>
-      <c r="J128" s="25">
+      <c r="J128" s="24">
         <v>10</v>
       </c>
     </row>
@@ -4160,7 +4196,7 @@
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:1">
-      <c r="A141" s="29" t="s">
+      <c r="A141" s="25" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4188,19 +4224,19 @@
       <c r="A144" t="s">
         <v>13</v>
       </c>
-      <c r="B144" s="15">
-        <v>2</v>
-      </c>
-      <c r="C144" s="15">
+      <c r="B144" s="16">
+        <v>2</v>
+      </c>
+      <c r="C144" s="16">
         <v>7</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D144" s="16">
         <v>9</v>
       </c>
-      <c r="E144" s="15">
-        <v>3</v>
-      </c>
-      <c r="F144" s="15">
+      <c r="E144" s="16">
+        <v>3</v>
+      </c>
+      <c r="F144" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4208,10 +4244,10 @@
       <c r="A146" t="s">
         <v>59</v>
       </c>
-      <c r="B146" s="32">
-        <v>2</v>
-      </c>
-      <c r="D146" s="25">
+      <c r="B146" s="29">
+        <v>2</v>
+      </c>
+      <c r="D146" s="24">
         <v>2</v>
       </c>
     </row>
@@ -4219,13 +4255,13 @@
       <c r="A148" t="s">
         <v>60</v>
       </c>
-      <c r="B148" s="32">
-        <v>2</v>
-      </c>
-      <c r="C148" s="32">
+      <c r="B148" s="29">
+        <v>2</v>
+      </c>
+      <c r="C148" s="29">
         <v>7</v>
       </c>
-      <c r="E148" s="25">
+      <c r="E148" s="24">
         <v>7</v>
       </c>
     </row>
@@ -4233,19 +4269,19 @@
       <c r="A150" t="s">
         <v>64</v>
       </c>
-      <c r="B150" s="32">
-        <v>2</v>
-      </c>
-      <c r="C150" s="32">
+      <c r="B150" s="29">
+        <v>2</v>
+      </c>
+      <c r="C150" s="29">
         <v>7</v>
       </c>
-      <c r="D150" s="32">
+      <c r="D150" s="29">
         <v>9</v>
       </c>
       <c r="F150" t="s">
         <v>91</v>
       </c>
-      <c r="G150" s="25">
+      <c r="G150" s="24">
         <v>11</v>
       </c>
     </row>
@@ -4261,16 +4297,16 @@
       <c r="A153" t="s">
         <v>70</v>
       </c>
-      <c r="B153" s="32">
-        <v>2</v>
-      </c>
-      <c r="C153" s="32">
+      <c r="B153" s="29">
+        <v>2</v>
+      </c>
+      <c r="C153" s="29">
         <v>7</v>
       </c>
-      <c r="D153" s="32">
+      <c r="D153" s="29">
         <v>9</v>
       </c>
-      <c r="E153" s="32">
+      <c r="E153" s="29">
         <v>3</v>
       </c>
       <c r="G153" t="s">
@@ -4287,7 +4323,7 @@
       <c r="G154" t="s">
         <v>94</v>
       </c>
-      <c r="H154" s="25">
+      <c r="H154" s="24">
         <v>11</v>
       </c>
       <c r="J154" s="1" t="s">
@@ -4298,25 +4334,25 @@
       <c r="A156" t="s">
         <v>78</v>
       </c>
-      <c r="B156" s="32">
-        <v>2</v>
-      </c>
-      <c r="C156" s="32">
+      <c r="B156" s="29">
+        <v>2</v>
+      </c>
+      <c r="C156" s="29">
         <v>7</v>
       </c>
-      <c r="D156" s="32">
+      <c r="D156" s="29">
         <v>9</v>
       </c>
-      <c r="E156" s="32">
-        <v>3</v>
-      </c>
-      <c r="F156" s="32">
+      <c r="E156" s="29">
+        <v>3</v>
+      </c>
+      <c r="F156" s="29">
         <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>96</v>
       </c>
-      <c r="J156" s="25">
+      <c r="J156" s="24">
         <v>12</v>
       </c>
     </row>
@@ -4334,7 +4370,7 @@
       </c>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="29" t="s">
+      <c r="A164" s="25" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4359,53 +4395,53 @@
       <c r="A167" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="15">
-        <v>2</v>
-      </c>
-      <c r="C167" s="15">
-        <v>3</v>
-      </c>
-      <c r="D167" s="15">
+      <c r="B167" s="16">
+        <v>2</v>
+      </c>
+      <c r="C167" s="16">
+        <v>3</v>
+      </c>
+      <c r="D167" s="16">
         <v>-2</v>
       </c>
-      <c r="E167" s="15">
+      <c r="E167" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="63">
-        <v>2</v>
-      </c>
-      <c r="C168" s="63">
-        <v>3</v>
-      </c>
-      <c r="D168" s="63">
+      <c r="B168" s="62">
+        <v>2</v>
+      </c>
+      <c r="C168" s="62">
+        <v>3</v>
+      </c>
+      <c r="D168" s="62">
         <v>-2</v>
       </c>
-      <c r="E168" s="25">
+      <c r="E168" s="24">
         <v>-4</v>
       </c>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="63"/>
-      <c r="C169" s="63"/>
-      <c r="D169" s="63"/>
-      <c r="E169" s="63"/>
+      <c r="B169" s="62"/>
+      <c r="C169" s="62"/>
+      <c r="D169" s="62"/>
+      <c r="E169" s="62"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="48">
+      <c r="B170" s="47">
         <v>4</v>
       </c>
-      <c r="C170" s="48">
+      <c r="C170" s="47">
         <v>6</v>
       </c>
-      <c r="D170" s="48">
+      <c r="D170" s="47">
         <v>6</v>
       </c>
-      <c r="E170" s="15">
+      <c r="E170" s="16">
         <v>6</v>
       </c>
       <c r="H170" s="1" t="s">
@@ -4413,7 +4449,7 @@
       </c>
     </row>
     <row r="171" spans="8:14">
-      <c r="H171" s="64">
+      <c r="H171" s="63">
         <v>6</v>
       </c>
       <c r="M171" s="1" t="s">
@@ -4461,7 +4497,7 @@
       <c r="A175" t="s">
         <v>59</v>
       </c>
-      <c r="B175" s="32">
+      <c r="B175" s="29">
         <v>2</v>
       </c>
       <c r="D175" t="s">
@@ -4479,7 +4515,7 @@
       <c r="K175" t="s">
         <v>105</v>
       </c>
-      <c r="M175" s="25">
+      <c r="M175" s="24">
         <v>4</v>
       </c>
     </row>
@@ -4501,10 +4537,10 @@
       <c r="A178" t="s">
         <v>60</v>
       </c>
-      <c r="B178" s="32">
-        <v>2</v>
-      </c>
-      <c r="C178" s="32">
+      <c r="B178" s="29">
+        <v>2</v>
+      </c>
+      <c r="C178" s="29">
         <v>3</v>
       </c>
       <c r="E178" t="s">
@@ -4522,10 +4558,10 @@
       <c r="L178" t="s">
         <v>110</v>
       </c>
-      <c r="N178" s="25">
+      <c r="N178" s="24">
         <v>6</v>
       </c>
-      <c r="Z178" s="25">
+      <c r="Z178" s="24">
         <v>4</v>
       </c>
     </row>
@@ -4547,13 +4583,13 @@
       <c r="A181" t="s">
         <v>64</v>
       </c>
-      <c r="B181" s="32">
-        <v>2</v>
-      </c>
-      <c r="C181" s="32">
-        <v>3</v>
-      </c>
-      <c r="D181" s="32">
+      <c r="B181" s="29">
+        <v>2</v>
+      </c>
+      <c r="C181" s="29">
+        <v>3</v>
+      </c>
+      <c r="D181" s="29">
         <v>-2</v>
       </c>
       <c r="F181" t="s">
@@ -4571,7 +4607,7 @@
       <c r="N181" t="s">
         <v>115</v>
       </c>
-      <c r="P181" s="25">
+      <c r="P181" s="24">
         <v>6</v>
       </c>
     </row>
@@ -4593,16 +4629,16 @@
       <c r="A184" t="s">
         <v>70</v>
       </c>
-      <c r="B184" s="32">
-        <v>2</v>
-      </c>
-      <c r="C184" s="32">
-        <v>3</v>
-      </c>
-      <c r="D184" s="32">
+      <c r="B184" s="29">
+        <v>2</v>
+      </c>
+      <c r="C184" s="29">
+        <v>3</v>
+      </c>
+      <c r="D184" s="29">
         <v>-2</v>
       </c>
-      <c r="E184" s="32">
+      <c r="E184" s="29">
         <v>4</v>
       </c>
       <c r="G184" t="s">
@@ -4620,7 +4656,7 @@
       <c r="O184" t="s">
         <v>120</v>
       </c>
-      <c r="Q184" s="25">
+      <c r="Q184" s="24">
         <v>6</v>
       </c>
     </row>
@@ -4639,16 +4675,16 @@
       </c>
     </row>
     <row r="187" spans="2:17">
-      <c r="B187" s="32">
-        <v>2</v>
-      </c>
-      <c r="C187" s="32">
-        <v>3</v>
-      </c>
-      <c r="D187" s="32">
+      <c r="B187" s="29">
+        <v>2</v>
+      </c>
+      <c r="C187" s="29">
+        <v>3</v>
+      </c>
+      <c r="D187" s="29">
         <v>-2</v>
       </c>
-      <c r="E187" s="50">
+      <c r="E187" s="49">
         <v>-4</v>
       </c>
       <c r="G187" t="s">
@@ -4741,19 +4777,19 @@
       <c r="A197" t="s">
         <v>41</v>
       </c>
-      <c r="B197" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="15" t="s">
+      <c r="B197" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D197" s="15" t="s">
+      <c r="D197" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E197" s="15" t="s">
+      <c r="E197" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F197" s="50" t="s">
+      <c r="F197" s="49" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4781,10 +4817,10 @@
       <c r="A199" t="s">
         <v>59</v>
       </c>
-      <c r="B199" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" s="25" t="s">
+      <c r="B199" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" s="24" t="s">
         <v>3</v>
       </c>
       <c r="H199" s="10" t="s">
@@ -4810,13 +4846,13 @@
       <c r="A201" t="s">
         <v>60</v>
       </c>
-      <c r="B201" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="E201" s="25" t="s">
+      <c r="B201" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E201" s="24" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4824,13 +4860,13 @@
       <c r="A203" t="s">
         <v>64</v>
       </c>
-      <c r="B203" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D203" s="65" t="s">
+      <c r="B203" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="64" t="s">
         <v>3</v>
       </c>
       <c r="F203" t="s">
@@ -4839,7 +4875,7 @@
       <c r="G203" t="s">
         <v>135</v>
       </c>
-      <c r="J203" s="25" t="s">
+      <c r="J203" s="24" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4866,22 +4902,22 @@
       <c r="A207" t="s">
         <v>70</v>
       </c>
-      <c r="B207" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D207" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="65" t="s">
+      <c r="B207" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E207" s="64" t="s">
         <v>2</v>
       </c>
       <c r="G207" t="s">
         <v>95</v>
       </c>
-      <c r="H207" s="25" t="s">
+      <c r="H207" s="24" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4889,25 +4925,25 @@
       <c r="A210" t="s">
         <v>78</v>
       </c>
-      <c r="B210" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D210" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="F210" s="65" t="s">
+      <c r="B210" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F210" s="64" t="s">
         <v>5</v>
       </c>
       <c r="H210" t="s">
         <v>141</v>
       </c>
-      <c r="I210" s="25" t="s">
+      <c r="I210" s="24" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4942,16 +4978,16 @@
       <c r="A222" t="s">
         <v>13</v>
       </c>
-      <c r="B222" s="15">
-        <v>1</v>
-      </c>
-      <c r="C222" s="15">
+      <c r="B222" s="16">
+        <v>1</v>
+      </c>
+      <c r="C222" s="16">
         <v>5</v>
       </c>
-      <c r="D222" s="15">
+      <c r="D222" s="16">
         <v>11</v>
       </c>
-      <c r="E222" s="15">
+      <c r="E222" s="16">
         <v>5</v>
       </c>
       <c r="G222" s="1" t="s">
@@ -4962,7 +4998,7 @@
       <c r="G223" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I223" s="21">
+      <c r="I223" s="27">
         <v>11</v>
       </c>
     </row>
@@ -4970,16 +5006,16 @@
       <c r="A225" t="s">
         <v>147</v>
       </c>
-      <c r="B225" s="15" t="s">
+      <c r="B225" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C225" s="15" t="s">
+      <c r="C225" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D225" s="15" t="s">
+      <c r="D225" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E225" s="15" t="s">
+      <c r="E225" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4987,10 +5023,10 @@
       <c r="A227" t="s">
         <v>59</v>
       </c>
-      <c r="B227" s="32">
-        <v>1</v>
-      </c>
-      <c r="D227" s="25" t="s">
+      <c r="B227" s="29">
+        <v>1</v>
+      </c>
+      <c r="D227" s="24" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4998,16 +5034,16 @@
       <c r="A229" t="s">
         <v>60</v>
       </c>
-      <c r="B229" s="32">
-        <v>1</v>
-      </c>
-      <c r="C229" s="50">
+      <c r="B229" s="29">
+        <v>1</v>
+      </c>
+      <c r="C229" s="49">
         <v>5</v>
       </c>
       <c r="E229" t="s">
         <v>152</v>
       </c>
-      <c r="F229" s="25">
+      <c r="F229" s="24">
         <v>5</v>
       </c>
     </row>
@@ -5015,7 +5051,7 @@
       <c r="E230" t="s">
         <v>153</v>
       </c>
-      <c r="F230" s="25">
+      <c r="F230" s="24">
         <v>6</v>
       </c>
     </row>
@@ -5023,19 +5059,19 @@
       <c r="A232" t="s">
         <v>64</v>
       </c>
-      <c r="B232" s="32">
-        <v>1</v>
-      </c>
-      <c r="C232" s="32">
+      <c r="B232" s="29">
+        <v>1</v>
+      </c>
+      <c r="C232" s="29">
         <v>5</v>
       </c>
-      <c r="D232" s="50">
+      <c r="D232" s="49">
         <v>11</v>
       </c>
       <c r="F232" t="s">
         <v>154</v>
       </c>
-      <c r="G232" s="66">
+      <c r="G232" s="65">
         <v>11</v>
       </c>
     </row>
@@ -5067,16 +5103,16 @@
       <c r="A237" t="s">
         <v>70</v>
       </c>
-      <c r="B237" s="32">
-        <v>1</v>
-      </c>
-      <c r="C237" s="32">
+      <c r="B237" s="29">
+        <v>1</v>
+      </c>
+      <c r="C237" s="29">
         <v>5</v>
       </c>
-      <c r="D237" s="32">
+      <c r="D237" s="29">
         <v>11</v>
       </c>
-      <c r="E237" s="50">
+      <c r="E237" s="49">
         <v>5</v>
       </c>
       <c r="G237" t="s">
@@ -5127,15 +5163,15 @@
       <c r="A250" s="1"/>
     </row>
     <row r="251" ht="15.75" spans="1:10">
-      <c r="A251" s="67" t="s">
+      <c r="A251" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="B251" s="68" t="s">
+      <c r="B251" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C251" s="69"/>
-      <c r="D251" s="69"/>
-      <c r="E251" s="70"/>
+      <c r="C251" s="68"/>
+      <c r="D251" s="68"/>
+      <c r="E251" s="69"/>
       <c r="G251" s="1" t="s">
         <v>161</v>
       </c>
@@ -5147,16 +5183,16 @@
       <c r="A252" s="1">
         <v>0</v>
       </c>
-      <c r="B252" s="49">
-        <v>0</v>
-      </c>
-      <c r="C252" s="49">
-        <v>0</v>
-      </c>
-      <c r="D252" s="49">
-        <v>0</v>
-      </c>
-      <c r="E252" s="49">
+      <c r="B252" s="48">
+        <v>0</v>
+      </c>
+      <c r="C252" s="48">
+        <v>0</v>
+      </c>
+      <c r="D252" s="48">
+        <v>0</v>
+      </c>
+      <c r="E252" s="48">
         <v>0</v>
       </c>
       <c r="G252">
@@ -5164,25 +5200,25 @@
       </c>
     </row>
     <row r="253" ht="15.75" spans="1:12">
-      <c r="A253" s="22">
-        <v>1</v>
-      </c>
-      <c r="B253" s="71">
-        <v>0</v>
-      </c>
-      <c r="C253" s="72">
-        <v>0</v>
-      </c>
-      <c r="D253" s="72">
-        <v>0</v>
-      </c>
-      <c r="E253" s="73">
+      <c r="A253" s="11">
+        <v>1</v>
+      </c>
+      <c r="B253" s="70">
+        <v>0</v>
+      </c>
+      <c r="C253" s="71">
+        <v>0</v>
+      </c>
+      <c r="D253" s="71">
+        <v>0</v>
+      </c>
+      <c r="E253" s="72">
         <v>1</v>
       </c>
       <c r="G253">
         <v>1</v>
       </c>
-      <c r="H253" s="74" t="s">
+      <c r="H253" s="73" t="s">
         <v>163</v>
       </c>
       <c r="J253">
@@ -5196,22 +5232,22 @@
       <c r="A254" s="1">
         <v>2</v>
       </c>
-      <c r="B254" s="11">
-        <v>0</v>
-      </c>
-      <c r="C254" s="12">
-        <v>0</v>
-      </c>
-      <c r="D254" s="75">
-        <v>1</v>
-      </c>
-      <c r="E254" s="76">
+      <c r="B254" s="12">
+        <v>0</v>
+      </c>
+      <c r="C254" s="13">
+        <v>0</v>
+      </c>
+      <c r="D254" s="74">
+        <v>1</v>
+      </c>
+      <c r="E254" s="75">
         <v>0</v>
       </c>
       <c r="G254">
         <v>1</v>
       </c>
-      <c r="H254" s="36" t="s">
+      <c r="H254" s="33" t="s">
         <v>165</v>
       </c>
       <c r="J254">
@@ -5225,22 +5261,22 @@
       <c r="A255" s="1">
         <v>3</v>
       </c>
-      <c r="B255" s="77">
-        <v>0</v>
-      </c>
-      <c r="C255" s="78">
-        <v>0</v>
-      </c>
-      <c r="D255" s="79">
-        <v>1</v>
-      </c>
-      <c r="E255" s="80">
+      <c r="B255" s="76">
+        <v>0</v>
+      </c>
+      <c r="C255" s="77">
+        <v>0</v>
+      </c>
+      <c r="D255" s="78">
+        <v>1</v>
+      </c>
+      <c r="E255" s="79">
         <v>1</v>
       </c>
       <c r="G255">
         <v>2</v>
       </c>
-      <c r="H255" s="81" t="s">
+      <c r="H255" s="80" t="s">
         <v>165</v>
       </c>
       <c r="J255">
@@ -5251,25 +5287,25 @@
       </c>
     </row>
     <row r="256" spans="1:12">
-      <c r="A256" s="82">
+      <c r="A256" s="81">
         <v>4</v>
       </c>
-      <c r="B256" s="11">
-        <v>0</v>
-      </c>
-      <c r="C256" s="75">
-        <v>1</v>
-      </c>
-      <c r="D256" s="12">
-        <v>0</v>
-      </c>
-      <c r="E256" s="76">
+      <c r="B256" s="12">
+        <v>0</v>
+      </c>
+      <c r="C256" s="74">
+        <v>1</v>
+      </c>
+      <c r="D256" s="13">
+        <v>0</v>
+      </c>
+      <c r="E256" s="75">
         <v>0</v>
       </c>
       <c r="G256">
         <v>1</v>
       </c>
-      <c r="H256" s="36" t="s">
+      <c r="H256" s="33" t="s">
         <v>168</v>
       </c>
       <c r="J256">
@@ -5280,25 +5316,25 @@
       </c>
     </row>
     <row r="257" spans="1:12">
-      <c r="A257" s="83">
+      <c r="A257" s="82">
         <v>5</v>
       </c>
-      <c r="B257" s="84">
-        <v>0</v>
-      </c>
-      <c r="C257" s="31">
-        <v>1</v>
-      </c>
-      <c r="D257" s="15">
-        <v>0</v>
-      </c>
-      <c r="E257" s="85">
+      <c r="B257" s="83">
+        <v>0</v>
+      </c>
+      <c r="C257" s="28">
+        <v>1</v>
+      </c>
+      <c r="D257" s="16">
+        <v>0</v>
+      </c>
+      <c r="E257" s="84">
         <v>1</v>
       </c>
       <c r="G257">
         <v>2</v>
       </c>
-      <c r="H257" s="86" t="s">
+      <c r="H257" s="85" t="s">
         <v>168</v>
       </c>
       <c r="J257">
@@ -5309,25 +5345,25 @@
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="83">
+      <c r="A258" s="82">
         <v>6</v>
       </c>
-      <c r="B258" s="84">
-        <v>0</v>
-      </c>
-      <c r="C258" s="31">
-        <v>1</v>
-      </c>
-      <c r="D258" s="31">
-        <v>1</v>
-      </c>
-      <c r="E258" s="16">
+      <c r="B258" s="83">
+        <v>0</v>
+      </c>
+      <c r="C258" s="28">
+        <v>1</v>
+      </c>
+      <c r="D258" s="28">
+        <v>1</v>
+      </c>
+      <c r="E258" s="17">
         <v>0</v>
       </c>
       <c r="G258">
         <v>2</v>
       </c>
-      <c r="H258" s="86" t="s">
+      <c r="H258" s="85" t="s">
         <v>168</v>
       </c>
       <c r="J258">
@@ -5335,25 +5371,25 @@
       </c>
     </row>
     <row r="259" ht="15.75" spans="1:10">
-      <c r="A259" s="87">
+      <c r="A259" s="86">
         <v>7</v>
       </c>
-      <c r="B259" s="88">
-        <v>0</v>
-      </c>
-      <c r="C259" s="89">
-        <v>1</v>
-      </c>
-      <c r="D259" s="89">
-        <v>1</v>
-      </c>
-      <c r="E259" s="90">
+      <c r="B259" s="87">
+        <v>0</v>
+      </c>
+      <c r="C259" s="88">
+        <v>1</v>
+      </c>
+      <c r="D259" s="88">
+        <v>1</v>
+      </c>
+      <c r="E259" s="89">
         <v>1</v>
       </c>
       <c r="G259">
         <v>3</v>
       </c>
-      <c r="H259" s="81" t="s">
+      <c r="H259" s="80" t="s">
         <v>168</v>
       </c>
       <c r="J259">
@@ -5361,25 +5397,25 @@
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="23">
+      <c r="A260" s="90">
         <v>8</v>
       </c>
       <c r="B260" s="91">
         <v>1</v>
       </c>
-      <c r="C260" s="12">
-        <v>0</v>
-      </c>
-      <c r="D260" s="12">
-        <v>0</v>
-      </c>
-      <c r="E260" s="76">
+      <c r="C260" s="13">
+        <v>0</v>
+      </c>
+      <c r="D260" s="13">
+        <v>0</v>
+      </c>
+      <c r="E260" s="75">
         <v>0</v>
       </c>
       <c r="G260">
         <v>1</v>
       </c>
-      <c r="H260" s="36" t="s">
+      <c r="H260" s="33" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5390,19 +5426,19 @@
       <c r="B261" s="93">
         <v>1</v>
       </c>
-      <c r="C261" s="15">
-        <v>0</v>
-      </c>
-      <c r="D261" s="15">
-        <v>0</v>
-      </c>
-      <c r="E261" s="85">
+      <c r="C261" s="16">
+        <v>0</v>
+      </c>
+      <c r="D261" s="16">
+        <v>0</v>
+      </c>
+      <c r="E261" s="84">
         <v>1</v>
       </c>
       <c r="G261">
         <v>2</v>
       </c>
-      <c r="H261" s="86" t="s">
+      <c r="H261" s="85" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5413,19 +5449,19 @@
       <c r="B262" s="93">
         <v>1</v>
       </c>
-      <c r="C262" s="15">
-        <v>0</v>
-      </c>
-      <c r="D262" s="31">
-        <v>1</v>
-      </c>
-      <c r="E262" s="16">
+      <c r="C262" s="16">
+        <v>0</v>
+      </c>
+      <c r="D262" s="28">
+        <v>1</v>
+      </c>
+      <c r="E262" s="17">
         <v>0</v>
       </c>
       <c r="G262">
         <v>2</v>
       </c>
-      <c r="H262" s="86" t="s">
+      <c r="H262" s="85" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5436,16 +5472,16 @@
       <c r="B263" s="93">
         <v>1</v>
       </c>
-      <c r="C263" s="15">
-        <v>0</v>
-      </c>
-      <c r="D263" s="31">
-        <v>1</v>
-      </c>
-      <c r="E263" s="31">
-        <v>1</v>
-      </c>
-      <c r="H263" s="86" t="s">
+      <c r="C263" s="16">
+        <v>0</v>
+      </c>
+      <c r="D263" s="28">
+        <v>1</v>
+      </c>
+      <c r="E263" s="28">
+        <v>1</v>
+      </c>
+      <c r="H263" s="85" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5456,16 +5492,16 @@
       <c r="B264" s="93">
         <v>1</v>
       </c>
-      <c r="C264" s="31">
-        <v>1</v>
-      </c>
-      <c r="D264" s="15">
-        <v>0</v>
-      </c>
-      <c r="E264" s="16">
-        <v>0</v>
-      </c>
-      <c r="H264" s="86" t="s">
+      <c r="C264" s="28">
+        <v>1</v>
+      </c>
+      <c r="D264" s="16">
+        <v>0</v>
+      </c>
+      <c r="E264" s="17">
+        <v>0</v>
+      </c>
+      <c r="H264" s="85" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5476,16 +5512,16 @@
       <c r="B265" s="93">
         <v>1</v>
       </c>
-      <c r="C265" s="31">
-        <v>1</v>
-      </c>
-      <c r="D265" s="15">
-        <v>0</v>
-      </c>
-      <c r="E265" s="85">
-        <v>1</v>
-      </c>
-      <c r="H265" s="86" t="s">
+      <c r="C265" s="28">
+        <v>1</v>
+      </c>
+      <c r="D265" s="16">
+        <v>0</v>
+      </c>
+      <c r="E265" s="84">
+        <v>1</v>
+      </c>
+      <c r="H265" s="85" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5496,36 +5532,36 @@
       <c r="B266" s="93">
         <v>1</v>
       </c>
-      <c r="C266" s="31">
-        <v>1</v>
-      </c>
-      <c r="D266" s="31">
-        <v>1</v>
-      </c>
-      <c r="E266" s="16">
-        <v>0</v>
-      </c>
-      <c r="H266" s="86" t="s">
+      <c r="C266" s="28">
+        <v>1</v>
+      </c>
+      <c r="D266" s="28">
+        <v>1</v>
+      </c>
+      <c r="E266" s="17">
+        <v>0</v>
+      </c>
+      <c r="H266" s="85" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="267" ht="15.75" spans="1:8">
-      <c r="A267" s="26">
+      <c r="A267" s="94">
         <v>15</v>
       </c>
-      <c r="B267" s="94">
-        <v>1</v>
-      </c>
-      <c r="C267" s="79">
-        <v>1</v>
-      </c>
-      <c r="D267" s="79">
-        <v>1</v>
-      </c>
-      <c r="E267" s="80">
-        <v>1</v>
-      </c>
-      <c r="H267" s="81" t="s">
+      <c r="B267" s="95">
+        <v>1</v>
+      </c>
+      <c r="C267" s="78">
+        <v>1</v>
+      </c>
+      <c r="D267" s="78">
+        <v>1</v>
+      </c>
+      <c r="E267" s="79">
+        <v>1</v>
+      </c>
+      <c r="H267" s="80" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5605,13 +5641,13 @@
       <c r="B280">
         <v>0</v>
       </c>
-      <c r="C280" s="11">
-        <v>0</v>
-      </c>
-      <c r="D280" s="12">
+      <c r="C280" s="12">
+        <v>0</v>
+      </c>
+      <c r="D280" s="13">
         <v>6000</v>
       </c>
-      <c r="E280" s="13">
+      <c r="E280" s="14">
         <v>18000</v>
       </c>
       <c r="H280" t="s">
@@ -5631,11 +5667,11 @@
       <c r="B281">
         <v>1</v>
       </c>
-      <c r="C281" s="84"/>
-      <c r="D281" s="15">
-        <v>0</v>
-      </c>
-      <c r="E281" s="16">
+      <c r="C281" s="83"/>
+      <c r="D281" s="16">
+        <v>0</v>
+      </c>
+      <c r="E281" s="17">
         <v>24000</v>
       </c>
       <c r="H281" t="s">
@@ -5655,9 +5691,9 @@
       <c r="B282">
         <v>2</v>
       </c>
-      <c r="C282" s="77"/>
-      <c r="D282" s="78"/>
-      <c r="E282" s="20">
+      <c r="C282" s="76"/>
+      <c r="D282" s="77"/>
+      <c r="E282" s="21">
         <v>0</v>
       </c>
     </row>
@@ -5690,7 +5726,7 @@
       <c r="K285" t="s">
         <v>189</v>
       </c>
-      <c r="M285" s="25">
+      <c r="M285" s="24">
         <v>18000</v>
       </c>
     </row>
@@ -5700,26 +5736,26 @@
       </c>
     </row>
     <row r="288" spans="10:16">
-      <c r="J288" s="23" t="s">
+      <c r="J288" s="90" t="s">
         <v>191</v>
       </c>
-      <c r="K288" s="24"/>
-      <c r="L288" s="24"/>
-      <c r="M288" s="24"/>
-      <c r="N288" s="24"/>
-      <c r="O288" s="24"/>
-      <c r="P288" s="27"/>
+      <c r="K288" s="36"/>
+      <c r="L288" s="36"/>
+      <c r="M288" s="36"/>
+      <c r="N288" s="36"/>
+      <c r="O288" s="36"/>
+      <c r="P288" s="35"/>
     </row>
     <row r="289" ht="15.75" spans="10:16">
-      <c r="J289" s="26" t="s">
+      <c r="J289" s="94" t="s">
         <v>192</v>
       </c>
-      <c r="K289" s="19"/>
-      <c r="L289" s="19"/>
-      <c r="M289" s="19"/>
-      <c r="N289" s="19"/>
-      <c r="O289" s="19"/>
-      <c r="P289" s="28" t="s">
+      <c r="K289" s="20"/>
+      <c r="L289" s="20"/>
+      <c r="M289" s="20"/>
+      <c r="N289" s="20"/>
+      <c r="O289" s="20"/>
+      <c r="P289" s="22" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5749,13 +5785,13 @@
       <c r="A297" t="s">
         <v>195</v>
       </c>
-      <c r="B297" s="95" t="s">
+      <c r="B297" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C297" s="95" t="s">
+      <c r="C297" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D297" s="95" t="s">
+      <c r="D297" s="10" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5782,7 +5818,7 @@
       <c r="B301">
         <v>14</v>
       </c>
-      <c r="C301" s="99">
+      <c r="C301" s="24">
         <v>2</v>
       </c>
       <c r="D301">
@@ -5799,7 +5835,7 @@
       <c r="C302" t="s">
         <v>204</v>
       </c>
-      <c r="D302" s="25" t="s">
+      <c r="D302" s="24" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5810,7 +5846,7 @@
       <c r="B303" t="s">
         <v>206</v>
       </c>
-      <c r="C303" s="25" t="s">
+      <c r="C303" s="24" t="s">
         <v>207</v>
       </c>
       <c r="D303" t="s">
@@ -5829,19 +5865,21 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.57142857142857" customWidth="1"/>
-    <col min="2" max="2" width="15.7047619047619" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="22.352380952381" customWidth="1"/>
-    <col min="10" max="10" width="14.5714285714286" customWidth="1"/>
-    <col min="11" max="11" width="13.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="10.5047619047619" customWidth="1"/>
+    <col min="9" max="9" width="12.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="11.4952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
@@ -5850,7 +5888,7 @@
       </c>
     </row>
     <row r="2" ht="15.75"/>
-    <row r="3" spans="1:8">
+    <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
         <v>318</v>
       </c>
@@ -5873,7 +5911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="2:8">
+    <row r="4" customFormat="1" ht="15.75" spans="2:8">
       <c r="B4" s="5">
         <v>4</v>
       </c>
@@ -5890,7 +5928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="7:8">
+    <row r="5" customFormat="1" ht="15.75" spans="7:8">
       <c r="G5" s="5">
         <v>11</v>
       </c>
@@ -5904,7 +5942,7 @@
       </c>
     </row>
     <row r="8" ht="15.75"/>
-    <row r="9" spans="1:5">
+    <row r="9" customFormat="1" spans="1:5">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -5918,7 +5956,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="2:5">
+    <row r="10" customFormat="1" ht="15.75" spans="2:5">
       <c r="B10" s="5" t="s">
         <v>325</v>
       </c>
@@ -5930,7 +5968,7 @@
       </c>
     </row>
     <row r="11" ht="15.75"/>
-    <row r="12" spans="1:3">
+    <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -5941,7 +5979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="2:3">
+    <row r="13" customFormat="1" ht="15.75" spans="2:3">
       <c r="B13" s="5">
         <v>139</v>
       </c>
@@ -5949,7 +5987,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" customFormat="1" spans="1:3">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -5960,371 +5998,433 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:2">
+    <row r="17" customFormat="1" spans="1:9">
       <c r="A17" t="s">
         <v>330</v>
       </c>
       <c r="B17" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="F17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:9">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C18" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:1">
+        <v>336</v>
+      </c>
+      <c r="F18" t="s">
+        <v>337</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="6:6">
+      <c r="F19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:6">
       <c r="A20" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>339</v>
+      </c>
+      <c r="C20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:9">
       <c r="A22" t="s">
         <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D22">
         <v>6000</v>
       </c>
       <c r="E22" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H22">
         <v>12000</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="1">
         <v>18000</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="3:4">
       <c r="C24" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D24" s="1">
         <v>32000</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
+    <row r="27" customFormat="1" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:5">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:9">
+      <c r="A30" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" spans="3:6">
+      <c r="B30" s="10" t="s">
+        <v>350</v>
+      </c>
       <c r="C30" s="10" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" spans="3:20">
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
-      <c r="I31" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75"/>
+    <row r="32" customFormat="1" ht="15.75" spans="3:10">
+      <c r="C32" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J32" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="15.75" spans="3:8">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="N31" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="27"/>
-    </row>
-    <row r="32" ht="15.75" spans="1:20">
-      <c r="A32" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32" s="11">
-        <v>0</v>
-      </c>
-      <c r="D32" s="12">
+    </row>
+    <row r="34" customFormat="1" spans="1:10">
+      <c r="A34" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
         <v>6</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E34" s="13">
         <v>18</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F34" s="14">
         <v>30</v>
       </c>
-      <c r="I32" t="s">
-        <v>347</v>
-      </c>
-      <c r="J32" t="s">
-        <v>348</v>
-      </c>
-      <c r="K32" s="25">
+      <c r="H34" t="s">
+        <v>355</v>
+      </c>
+      <c r="I34" t="s">
+        <v>356</v>
+      </c>
+      <c r="J34" s="24">
         <v>6</v>
       </c>
-      <c r="N32" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
+      <c r="A35" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
         <v>24</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F35" s="17">
         <v>48</v>
       </c>
-      <c r="I33" t="s">
-        <v>351</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="H35" t="s">
+        <v>357</v>
+      </c>
+      <c r="I35" t="s">
+        <v>358</v>
+      </c>
+      <c r="J35" s="24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:10">
+      <c r="A36" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="K33" s="25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="15">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
         <v>36</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H36" t="s">
+        <v>359</v>
+      </c>
+      <c r="I36" t="s">
+        <v>360</v>
+      </c>
+      <c r="J36" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="15.75" spans="1:6">
+      <c r="A37" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="J34" t="s">
-        <v>354</v>
-      </c>
-      <c r="K34" s="25">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" spans="1:6">
-      <c r="A35" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" spans="9:9">
-      <c r="I36" s="22" t="s">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="15.75" spans="8:8">
+      <c r="H38" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="9:13">
-      <c r="I37" t="s">
-        <v>355</v>
-      </c>
-      <c r="J37" t="s">
-        <v>356</v>
-      </c>
-      <c r="K37" t="s">
-        <v>357</v>
-      </c>
-      <c r="L37" t="s">
-        <v>358</v>
-      </c>
-      <c r="M37">
+    <row r="39" ht="15.75" spans="2:11">
+      <c r="B39" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" t="s">
+        <v>362</v>
+      </c>
+      <c r="E39" t="s">
+        <v>363</v>
+      </c>
+      <c r="F39" t="s">
+        <v>364</v>
+      </c>
+      <c r="H39" t="s">
+        <v>361</v>
+      </c>
+      <c r="I39" t="s">
+        <v>365</v>
+      </c>
+      <c r="J39" t="s">
+        <v>366</v>
+      </c>
+      <c r="K39">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="10:13">
-      <c r="J38" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="K38" t="s">
-        <v>360</v>
-      </c>
-      <c r="L38" t="s">
-        <v>361</v>
-      </c>
-      <c r="M38" s="25">
+    <row r="40" spans="4:11">
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="J40" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" s="24">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="9:13">
-      <c r="I40" t="s">
+    <row r="41" customFormat="1" spans="4:4">
+      <c r="D41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11">
+      <c r="D42" t="s">
         <v>362</v>
       </c>
-      <c r="J40" t="s">
-        <v>363</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="E42" t="s">
+        <v>371</v>
+      </c>
+      <c r="F42" t="s">
         <v>364</v>
       </c>
-      <c r="L40" t="s">
-        <v>365</v>
-      </c>
-      <c r="M40">
+      <c r="H42" t="s">
+        <v>372</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="10:13">
-      <c r="J41" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="K41" t="s">
-        <v>367</v>
-      </c>
-      <c r="L41" t="s">
-        <v>368</v>
-      </c>
-      <c r="M41" s="25">
+    <row r="43" spans="4:11">
+      <c r="D43" t="s">
+        <v>375</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="J43" t="s">
+        <v>377</v>
+      </c>
+      <c r="K43" s="24">
         <v>48</v>
       </c>
     </row>
-    <row r="42" ht="15.75"/>
-    <row r="43" ht="15.75" spans="9:9">
-      <c r="I43" s="22" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="44" spans="9:13">
-      <c r="I44" t="s">
-        <v>370</v>
-      </c>
-      <c r="J44" t="s">
-        <v>371</v>
-      </c>
-      <c r="K44" t="s">
-        <v>372</v>
-      </c>
-      <c r="L44" t="s">
-        <v>373</v>
-      </c>
-      <c r="M44">
+    <row r="44" ht="15.75"/>
+    <row r="45" customFormat="1" ht="15.75" spans="7:7">
+      <c r="G45" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="2:10">
+      <c r="B46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" t="s">
+        <v>381</v>
+      </c>
+      <c r="H46" t="s">
+        <v>379</v>
+      </c>
+      <c r="I46" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="10:13">
-      <c r="J45" t="s">
-        <v>374</v>
-      </c>
-      <c r="K45" t="s">
-        <v>375</v>
-      </c>
-      <c r="L45" t="s">
-        <v>376</v>
-      </c>
-      <c r="M45">
+    <row r="47" customFormat="1" spans="2:10">
+      <c r="B47" t="s">
+        <v>383</v>
+      </c>
+      <c r="C47" t="s">
+        <v>384</v>
+      </c>
+      <c r="H47" t="s">
+        <v>383</v>
+      </c>
+      <c r="I47" t="s">
+        <v>385</v>
+      </c>
+      <c r="J47">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="10:13">
-      <c r="J46" s="25" t="s">
-        <v>377</v>
-      </c>
-      <c r="K46" t="s">
-        <v>378</v>
-      </c>
-      <c r="L46" t="s">
-        <v>379</v>
-      </c>
-      <c r="M46" s="25">
+    <row r="48" customFormat="1" spans="2:10">
+      <c r="B48" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" t="s">
+        <v>387</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="I48" t="s">
+        <v>388</v>
+      </c>
+      <c r="J48" s="24">
         <v>30</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="15.75" spans="1:6">
+      <c r="A50" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" t="s">
+        <v>389</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6389,49 +6489,49 @@
       <c r="A2" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="51">
-        <v>0</v>
-      </c>
-      <c r="C2" s="51">
-        <v>1</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="B2" s="50">
+        <v>0</v>
+      </c>
+      <c r="C2" s="50">
+        <v>1</v>
+      </c>
+      <c r="D2" s="50">
         <f t="shared" ref="D2:M2" si="0">C2+B2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I2" s="51">
+      <c r="I2" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J2" s="51">
+      <c r="J2" s="50">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K2" s="51">
+      <c r="K2" s="50">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="L2" s="51">
+      <c r="L2" s="50">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="50">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -6478,16 +6578,16 @@
       <c r="A8" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="B8" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6495,13 +6595,13 @@
       <c r="A9" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6509,10 +6609,10 @@
       <c r="A11" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6523,10 +6623,10 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
@@ -6547,13 +6647,13 @@
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="25" t="s">
+      <c r="D19" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>3</v>
       </c>
       <c r="F19" t="s">
@@ -6561,16 +6661,16 @@
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="50">
-        <v>2</v>
-      </c>
-      <c r="D20" s="32">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="B20" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="49">
+        <v>2</v>
+      </c>
+      <c r="D20" s="29">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16">
         <v>1</v>
       </c>
       <c r="F20">
@@ -6578,16 +6678,16 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15">
-        <v>1</v>
-      </c>
-      <c r="E21" s="32">
+      <c r="B21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="29">
         <v>1</v>
       </c>
       <c r="F21">
@@ -6598,16 +6698,16 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="15">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="31">
         <v>0</v>
       </c>
     </row>
@@ -6615,16 +6715,16 @@
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="15">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34">
+      <c r="C23" s="16">
+        <v>1</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="31">
         <v>0</v>
       </c>
     </row>
@@ -6641,7 +6741,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="31">
         <v>0</v>
       </c>
     </row>
@@ -6679,16 +6779,16 @@
       <c r="A37" t="s">
         <v>213</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E37" s="29" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6696,13 +6796,13 @@
       <c r="A38" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6710,10 +6810,10 @@
       <c r="A40" t="s">
         <v>215</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="16" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6727,10 +6827,10 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="16" t="s">
         <v>221</v>
       </c>
       <c r="F41" t="s">
@@ -6748,10 +6848,10 @@
       </c>
     </row>
     <row r="47" spans="3:6">
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E47" t="s">
@@ -6762,16 +6862,16 @@
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="50">
-        <v>2</v>
-      </c>
-      <c r="D48" s="15">
-        <v>1</v>
-      </c>
-      <c r="E48" s="15">
+      <c r="C48" s="49">
+        <v>2</v>
+      </c>
+      <c r="D48" s="16">
+        <v>1</v>
+      </c>
+      <c r="E48" s="16">
         <v>1</v>
       </c>
       <c r="F48">
@@ -6779,16 +6879,16 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="32">
-        <v>2</v>
-      </c>
-      <c r="D49" s="15">
-        <v>1</v>
-      </c>
-      <c r="E49" s="15">
+      <c r="C49" s="29">
+        <v>2</v>
+      </c>
+      <c r="D49" s="16">
+        <v>1</v>
+      </c>
+      <c r="E49" s="16">
         <v>1</v>
       </c>
       <c r="F49">
@@ -6796,16 +6896,16 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="15">
-        <v>2</v>
-      </c>
-      <c r="D50" s="32">
-        <v>1</v>
-      </c>
-      <c r="E50" s="15">
+      <c r="C50" s="16">
+        <v>2</v>
+      </c>
+      <c r="D50" s="29">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16">
         <v>1</v>
       </c>
       <c r="F50">
@@ -6813,16 +6913,16 @@
       </c>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="C51" s="15">
-        <v>1</v>
-      </c>
-      <c r="D51" s="32">
-        <v>1</v>
-      </c>
-      <c r="E51" s="15">
+      <c r="C51" s="16">
+        <v>1</v>
+      </c>
+      <c r="D51" s="29">
+        <v>1</v>
+      </c>
+      <c r="E51" s="16">
         <v>0</v>
       </c>
       <c r="F51">
@@ -6839,7 +6939,7 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="31">
         <v>0</v>
       </c>
       <c r="F52">
@@ -6892,7 +6992,7 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="25" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6900,40 +7000,40 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>3</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>3</v>
+      </c>
+      <c r="F5" s="16">
         <v>4</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="16">
         <v>5</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="16">
         <v>6</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="16">
         <v>7</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="16">
         <v>8</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="16">
         <v>9</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="16">
         <v>10</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="16">
         <v>11</v>
       </c>
     </row>
@@ -6974,7 +7074,7 @@
       <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="24">
         <v>3</v>
       </c>
     </row>
@@ -6982,13 +7082,13 @@
       <c r="A9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="16" t="s">
         <v>227</v>
       </c>
       <c r="K9">
@@ -6999,11 +7099,11 @@
       <c r="A10" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="25">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
+      <c r="B10" s="24">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
         <v>228</v>
       </c>
       <c r="K10">
@@ -7014,19 +7114,19 @@
       <c r="A11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
       <c r="E11" t="s">
         <v>65</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="24">
         <v>3</v>
       </c>
     </row>
@@ -7034,12 +7134,12 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="13:13">
-      <c r="M13" s="48">
+      <c r="M13" s="47">
         <v>1</v>
       </c>
     </row>
@@ -7047,9 +7147,9 @@
       <c r="A14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="F14" t="s">
         <v>230</v>
       </c>
@@ -7059,7 +7159,7 @@
       <c r="J14" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="47">
         <v>2</v>
       </c>
     </row>
@@ -7067,10 +7167,10 @@
       <c r="F15" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="25">
-        <v>2</v>
-      </c>
-      <c r="M15" s="48">
+      <c r="G15" s="24">
+        <v>2</v>
+      </c>
+      <c r="M15" s="47">
         <v>5</v>
       </c>
     </row>
@@ -7078,10 +7178,10 @@
       <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
       <c r="G17" t="s">
         <v>233</v>
       </c>
@@ -7093,157 +7193,157 @@
       <c r="G18" t="s">
         <v>234</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="15">
-        <v>3</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="C20" s="16">
+        <v>3</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="G20" s="15">
-        <v>2</v>
-      </c>
-      <c r="I20" s="15" t="s">
+      <c r="G20" s="16">
+        <v>2</v>
+      </c>
+      <c r="I20" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="15">
-        <v>3</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15" t="s">
+      <c r="C21" s="16">
+        <v>3</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="G21" s="15">
-        <v>3</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15" t="s">
+      <c r="G21" s="16">
+        <v>3</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="31">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
+      <c r="C22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="G22" s="31">
-        <v>2</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15" t="s">
+      <c r="G22" s="28">
+        <v>2</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="15">
-        <v>3</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="C24" s="16">
+        <v>3</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="16">
         <v>4</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="15">
-        <v>3</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
+      <c r="C25" s="16">
+        <v>3</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="G25" s="15">
-        <v>3</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15" t="s">
+      <c r="G25" s="16">
+        <v>3</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="16">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C26" s="31">
-        <v>3</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
+      <c r="C26" s="28">
+        <v>3</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="G26" s="31">
-        <v>3</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15" t="s">
+      <c r="G26" s="28">
+        <v>3</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="28">
         <v>2</v>
       </c>
     </row>
@@ -7273,19 +7373,19 @@
       <c r="A3" t="s">
         <v>259</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7293,44 +7393,44 @@
       <c r="A4" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7377,16 +7477,16 @@
       <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="15">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
-        <v>2</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16">
         <v>3</v>
       </c>
     </row>
@@ -7394,16 +7494,16 @@
       <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="15">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15">
-        <v>2</v>
-      </c>
-      <c r="F19" s="15">
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
+        <v>2</v>
+      </c>
+      <c r="F19" s="16">
         <v>3</v>
       </c>
     </row>
@@ -7411,16 +7511,16 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="15">
-        <v>2</v>
-      </c>
-      <c r="D20" s="15">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="C20" s="16">
+        <v>2</v>
+      </c>
+      <c r="D20" s="16">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
         <v>2</v>
       </c>
     </row>
@@ -7428,16 +7528,16 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="15">
-        <v>3</v>
-      </c>
-      <c r="D21" s="15">
-        <v>2</v>
-      </c>
-      <c r="E21" s="15">
-        <v>2</v>
-      </c>
-      <c r="F21" s="15">
+      <c r="C21" s="16">
+        <v>3</v>
+      </c>
+      <c r="D21" s="16">
+        <v>2</v>
+      </c>
+      <c r="E21" s="16">
+        <v>2</v>
+      </c>
+      <c r="F21" s="16">
         <v>2</v>
       </c>
     </row>
@@ -7445,16 +7545,16 @@
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="16">
         <v>4</v>
       </c>
-      <c r="D22" s="15">
-        <v>3</v>
-      </c>
-      <c r="E22" s="15">
-        <v>3</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="D22" s="16">
+        <v>3</v>
+      </c>
+      <c r="E22" s="16">
+        <v>3</v>
+      </c>
+      <c r="F22" s="16">
         <v>2</v>
       </c>
     </row>
@@ -7462,16 +7562,16 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="16">
         <v>5</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="16">
         <v>4</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="16">
         <v>4</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="28">
         <v>3</v>
       </c>
     </row>
@@ -7508,60 +7608,60 @@
       <c r="B3" t="s">
         <v>266</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="2:12">
-      <c r="B4" s="36">
-        <v>1</v>
-      </c>
-      <c r="I4" s="46">
-        <v>2</v>
-      </c>
-      <c r="L4" s="47" t="s">
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="I4" s="45">
+        <v>2</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:9">
-      <c r="B5" s="37"/>
-      <c r="C5" s="27">
-        <v>2</v>
-      </c>
-      <c r="I5" s="46">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35">
+        <v>2</v>
+      </c>
+      <c r="I5" s="45">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="2:9">
-      <c r="B6" s="37"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="27">
-        <v>3</v>
-      </c>
-      <c r="I6" s="46">
+      <c r="B6" s="34"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="I6" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="2:9">
-      <c r="B7" s="37"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27">
+      <c r="B7" s="34"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35">
         <v>4</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="45">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="2:9">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39">
         <v>5</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="45">
         <v>10</v>
       </c>
     </row>
@@ -7571,15 +7671,15 @@
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:9">
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
       <c r="H11" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="45">
         <v>10</v>
       </c>
     </row>
@@ -7587,7 +7687,7 @@
       <c r="H12" t="s">
         <v>270</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="45">
         <v>11</v>
       </c>
     </row>
@@ -7595,7 +7695,7 @@
       <c r="H13" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="45">
         <v>11</v>
       </c>
     </row>
@@ -7603,7 +7703,7 @@
       <c r="H14" t="s">
         <v>272</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="45">
         <v>10</v>
       </c>
     </row>
@@ -7611,7 +7711,7 @@
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="45">
         <v>10</v>
       </c>
     </row>
@@ -7619,7 +7719,7 @@
       <c r="H16" t="s">
         <v>273</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="43">
         <v>12</v>
       </c>
     </row>
@@ -7627,7 +7727,7 @@
       <c r="H17" t="s">
         <v>274</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="43">
         <v>12</v>
       </c>
     </row>
@@ -7635,7 +7735,7 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <v>0</v>
       </c>
     </row>
@@ -7644,13 +7744,13 @@
       <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="45">
-        <v>1</v>
-      </c>
-      <c r="D22" s="46" t="s">
+      <c r="B22" s="44">
+        <v>1</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="43">
         <v>2</v>
       </c>
     </row>
@@ -7659,8 +7759,8 @@
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="43">
+      <c r="B24" s="40"/>
+      <c r="C24" s="42">
         <v>2</v>
       </c>
       <c r="E24" t="s">
@@ -7669,7 +7769,7 @@
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="45">
         <v>4</v>
       </c>
     </row>
@@ -7680,7 +7780,7 @@
       <c r="F25" t="s">
         <v>275</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <v>5</v>
       </c>
       <c r="L25" t="s">
@@ -7694,7 +7794,7 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26" s="46">
+      <c r="M26" s="45">
         <v>2</v>
       </c>
     </row>
@@ -7702,9 +7802,9 @@
       <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42">
         <v>3</v>
       </c>
       <c r="F27" t="s">
@@ -7713,13 +7813,13 @@
       <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="45">
         <v>7</v>
       </c>
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="45">
         <v>5</v>
       </c>
     </row>
@@ -7730,13 +7830,13 @@
       <c r="G28" t="s">
         <v>75</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="45">
         <v>7</v>
       </c>
       <c r="L28">
         <v>3</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="45">
         <v>7</v>
       </c>
     </row>
@@ -7747,13 +7847,13 @@
       <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="43">
         <v>7</v>
       </c>
       <c r="L29">
         <v>4</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="45">
         <v>8</v>
       </c>
     </row>
@@ -7761,7 +7861,7 @@
       <c r="L30">
         <v>5</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="45">
         <v>10</v>
       </c>
     </row>
@@ -7770,10 +7870,10 @@
       <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="43">
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42">
         <v>4</v>
       </c>
       <c r="G32" t="s">
@@ -7782,7 +7882,7 @@
       <c r="H32" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="45">
         <v>9</v>
       </c>
     </row>
@@ -7793,7 +7893,7 @@
       <c r="H33" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="43">
         <v>10</v>
       </c>
     </row>
@@ -7804,7 +7904,7 @@
       <c r="H34" t="s">
         <v>85</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="45">
         <v>9</v>
       </c>
     </row>
@@ -7815,7 +7915,7 @@
       <c r="H35" t="s">
         <v>278</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="45">
         <v>8</v>
       </c>
     </row>
@@ -7824,11 +7924,11 @@
       <c r="A38" t="s">
         <v>235</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43">
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42">
         <v>5</v>
       </c>
       <c r="H38" t="s">
@@ -7837,7 +7937,7 @@
       <c r="I38" t="s">
         <v>279</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="45">
         <v>12</v>
       </c>
     </row>
@@ -7848,7 +7948,7 @@
       <c r="I39" t="s">
         <v>280</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="45">
         <v>12</v>
       </c>
     </row>
@@ -7859,7 +7959,7 @@
       <c r="I40" t="s">
         <v>282</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="43">
         <v>12</v>
       </c>
     </row>
@@ -7870,7 +7970,7 @@
       <c r="I41" t="s">
         <v>284</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="45">
         <v>10</v>
       </c>
     </row>
@@ -7881,7 +7981,7 @@
       <c r="I42" t="s">
         <v>286</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="45">
         <v>10</v>
       </c>
     </row>
@@ -7946,19 +8046,19 @@
       <c r="L15" t="s">
         <v>290</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="16">
         <v>4</v>
       </c>
-      <c r="N15" s="32">
-        <v>2</v>
-      </c>
-      <c r="O15" s="32">
+      <c r="N15" s="29">
+        <v>2</v>
+      </c>
+      <c r="O15" s="29">
         <v>10</v>
       </c>
-      <c r="P15" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="32">
+      <c r="P15" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="29">
         <v>2</v>
       </c>
       <c r="R15" t="s">
@@ -7969,19 +8069,19 @@
       <c r="L16" t="s">
         <v>292</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="16">
         <v>12</v>
       </c>
-      <c r="N16" s="32">
-        <v>1</v>
-      </c>
-      <c r="O16" s="32">
+      <c r="N16" s="29">
+        <v>1</v>
+      </c>
+      <c r="O16" s="29">
         <v>4</v>
       </c>
-      <c r="P16" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="32">
+      <c r="P16" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="29">
         <v>2</v>
       </c>
       <c r="R16" t="s">
@@ -7992,7 +8092,7 @@
       <c r="L19" t="s">
         <v>294</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="30">
         <v>15</v>
       </c>
     </row>
@@ -8080,7 +8180,7 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J29" s="31">
         <v>0</v>
       </c>
       <c r="K29">
@@ -8115,52 +8215,52 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="15">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-      <c r="I30" s="15">
-        <v>0</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0</v>
-      </c>
-      <c r="K30" s="15">
-        <v>0</v>
-      </c>
-      <c r="L30" s="15">
-        <v>0</v>
-      </c>
-      <c r="M30" s="15">
-        <v>0</v>
-      </c>
-      <c r="N30" s="15">
-        <v>0</v>
-      </c>
-      <c r="O30" s="31">
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="29">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0</v>
+      </c>
+      <c r="O30" s="28">
         <v>4</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="16">
         <v>4</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="16">
         <v>4</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="16">
         <v>4</v>
       </c>
     </row>
@@ -8171,52 +8271,52 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" s="15">
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
-        <v>2</v>
-      </c>
-      <c r="E31" s="15">
-        <v>2</v>
-      </c>
-      <c r="F31" s="15">
-        <v>2</v>
-      </c>
-      <c r="G31" s="15">
-        <v>2</v>
-      </c>
-      <c r="H31" s="15">
-        <v>2</v>
-      </c>
-      <c r="I31" s="15">
-        <v>2</v>
-      </c>
-      <c r="J31" s="15">
-        <v>2</v>
-      </c>
-      <c r="K31" s="32">
-        <v>2</v>
-      </c>
-      <c r="L31" s="15">
-        <v>2</v>
-      </c>
-      <c r="M31" s="15">
-        <v>2</v>
-      </c>
-      <c r="N31" s="15">
-        <v>2</v>
-      </c>
-      <c r="O31" s="15">
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>2</v>
+      </c>
+      <c r="E31" s="16">
+        <v>2</v>
+      </c>
+      <c r="F31" s="16">
+        <v>2</v>
+      </c>
+      <c r="G31" s="16">
+        <v>2</v>
+      </c>
+      <c r="H31" s="16">
+        <v>2</v>
+      </c>
+      <c r="I31" s="16">
+        <v>2</v>
+      </c>
+      <c r="J31" s="16">
+        <v>2</v>
+      </c>
+      <c r="K31" s="29">
+        <v>2</v>
+      </c>
+      <c r="L31" s="16">
+        <v>2</v>
+      </c>
+      <c r="M31" s="16">
+        <v>2</v>
+      </c>
+      <c r="N31" s="16">
+        <v>2</v>
+      </c>
+      <c r="O31" s="16">
         <v>4</v>
       </c>
-      <c r="P31" s="31">
+      <c r="P31" s="28">
         <v>6</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="16">
         <v>6</v>
       </c>
-      <c r="R31" s="15">
+      <c r="R31" s="16">
         <v>6</v>
       </c>
     </row>
@@ -8227,52 +8327,52 @@
       <c r="B32">
         <v>3</v>
       </c>
-      <c r="C32" s="15">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
-        <v>2</v>
-      </c>
-      <c r="E32" s="15">
-        <v>2</v>
-      </c>
-      <c r="F32" s="15">
-        <v>2</v>
-      </c>
-      <c r="G32" s="15">
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <v>2</v>
+      </c>
+      <c r="E32" s="16">
+        <v>2</v>
+      </c>
+      <c r="F32" s="16">
+        <v>2</v>
+      </c>
+      <c r="G32" s="16">
         <v>10</v>
       </c>
-      <c r="H32" s="31">
+      <c r="H32" s="28">
         <v>12</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="16">
         <v>12</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="16">
         <v>12</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="16">
         <v>12</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="16">
         <v>12</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="16">
         <v>12</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="16">
         <v>12</v>
       </c>
-      <c r="O32" s="32">
+      <c r="O32" s="29">
         <v>12</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="16">
         <v>12</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="16">
         <v>12</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32" s="16">
         <v>12</v>
       </c>
     </row>
@@ -8283,52 +8383,52 @@
       <c r="B33">
         <v>4</v>
       </c>
-      <c r="C33" s="15">
-        <v>0</v>
-      </c>
-      <c r="D33" s="15">
-        <v>2</v>
-      </c>
-      <c r="E33" s="15">
-        <v>2</v>
-      </c>
-      <c r="F33" s="15">
-        <v>2</v>
-      </c>
-      <c r="G33" s="15">
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>2</v>
+      </c>
+      <c r="E33" s="16">
+        <v>2</v>
+      </c>
+      <c r="F33" s="16">
+        <v>2</v>
+      </c>
+      <c r="G33" s="16">
         <v>10</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="16">
         <v>12</v>
       </c>
-      <c r="I33" s="31">
+      <c r="I33" s="28">
         <v>13</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="16">
         <v>13</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="16">
         <v>13</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="16">
         <v>13</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="16">
         <v>13</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N33" s="16">
         <v>13</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O33" s="16">
         <v>13</v>
       </c>
-      <c r="P33" s="32">
+      <c r="P33" s="29">
         <v>13</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q33" s="16">
         <v>13</v>
       </c>
-      <c r="R33" s="15">
+      <c r="R33" s="16">
         <v>13</v>
       </c>
     </row>
@@ -8339,52 +8439,52 @@
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" s="15">
-        <v>0</v>
-      </c>
-      <c r="D34" s="15">
-        <v>2</v>
-      </c>
-      <c r="E34" s="15">
-        <v>2</v>
-      </c>
-      <c r="F34" s="31">
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
+        <v>2</v>
+      </c>
+      <c r="E34" s="16">
+        <v>2</v>
+      </c>
+      <c r="F34" s="28">
         <v>4</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="16">
         <v>10</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="16">
         <v>12</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="16">
         <v>13</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="16">
         <v>14</v>
       </c>
-      <c r="K34" s="31">
+      <c r="K34" s="28">
         <v>15</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="16">
         <v>15</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="16">
         <v>15</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N34" s="16">
         <v>15</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O34" s="16">
         <v>15</v>
       </c>
-      <c r="P34" s="15">
+      <c r="P34" s="16">
         <v>15</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="16">
         <v>15</v>
       </c>
-      <c r="R34" s="35">
+      <c r="R34" s="32">
         <v>15</v>
       </c>
     </row>
@@ -8394,12 +8494,12 @@
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="99" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="99" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8427,7 +8527,7 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="29"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="5" spans="3:14">
       <c r="C5">
@@ -8575,7 +8675,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8618,28 +8718,28 @@
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="J8" t="s">
@@ -8656,7 +8756,7 @@
       <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="21" t="b">
+      <c r="B11" s="27" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="397">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -652,6 +652,30 @@
     <t>10+13=23</t>
   </si>
   <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>numRows = 5</t>
+  </si>
+  <si>
+    <t>i,j</t>
+  </si>
+  <si>
+    <t>i=0</t>
+  </si>
+  <si>
+    <t>j=1</t>
+  </si>
+  <si>
+    <t>row[n]=row_prev[i]+row_prev[j]</t>
+  </si>
+  <si>
+    <t>i++; j++</t>
+  </si>
+  <si>
+    <t>dp[5]</t>
+  </si>
+  <si>
     <t>fib(n)</t>
   </si>
   <si>
@@ -730,9 +754,6 @@
     <t>1+dp[4-2]</t>
   </si>
   <si>
-    <t>dp[5]</t>
-  </si>
-  <si>
     <t>1+dp[5-1]</t>
   </si>
   <si>
@@ -1109,9 +1130,6 @@
   </si>
   <si>
     <t>(0*1*2)</t>
-  </si>
-  <si>
-    <t>i=0</t>
   </si>
   <si>
     <t>k=0</t>
@@ -1203,13 +1221,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1266,10 +1284,39 @@
     </font>
     <font>
       <b/>
+      <sz val="9.75"/>
+      <color rgb="FF263238"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1281,9 +1328,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1295,17 +1350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,15 +1373,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,31 +1412,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1390,13 +1422,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1442,7 +1467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,7 +1479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,31 +1515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,6 +1545,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1526,13 +1563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,25 +1575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,13 +1605,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,25 +1641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,6 +2118,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2104,11 +2144,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2124,6 +2162,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2145,33 +2192,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2193,7 +2218,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2211,134 +2236,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2458,6 +2483,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2872,10 +2905,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z303"/>
+  <dimension ref="A1:Z313"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="J288" sqref="J288"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5851,6 +5884,140 @@
       </c>
       <c r="D303" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="307" customFormat="1" spans="1:7">
+      <c r="A307" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B307"/>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307"/>
+      <c r="G307" s="99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="308" customFormat="1" ht="15.75"/>
+    <row r="309" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A309" t="s">
+        <v>60</v>
+      </c>
+      <c r="B309"/>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309" s="100">
+        <v>1</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309"/>
+      <c r="G309"/>
+      <c r="H309"/>
+      <c r="I309"/>
+      <c r="J309" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="310" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A310" t="s">
+        <v>64</v>
+      </c>
+      <c r="B310"/>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310" s="101">
+        <v>1</v>
+      </c>
+      <c r="E310" s="102">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310"/>
+      <c r="H310"/>
+      <c r="I310"/>
+      <c r="J310" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="311" ht="15.75" spans="1:11">
+      <c r="A311" t="s">
+        <v>70</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311" s="101">
+        <v>1</v>
+      </c>
+      <c r="E311" s="103">
+        <v>2</v>
+      </c>
+      <c r="F311" s="102">
+        <v>1</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="J311" t="s">
+        <v>213</v>
+      </c>
+      <c r="K311" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="312" ht="15.75" spans="1:11">
+      <c r="A312" t="s">
+        <v>78</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312" s="101">
+        <v>1</v>
+      </c>
+      <c r="E312" s="103">
+        <v>3</v>
+      </c>
+      <c r="F312" s="103">
+        <v>3</v>
+      </c>
+      <c r="G312" s="102">
+        <v>1</v>
+      </c>
+      <c r="H312">
+        <v>0</v>
+      </c>
+      <c r="K312" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="313" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A313" t="s">
+        <v>216</v>
+      </c>
+      <c r="B313"/>
+      <c r="C313"/>
+      <c r="D313" s="104">
+        <v>1</v>
+      </c>
+      <c r="E313" s="105">
+        <v>4</v>
+      </c>
+      <c r="F313" s="105">
+        <v>6</v>
+      </c>
+      <c r="G313" s="105">
+        <v>4</v>
+      </c>
+      <c r="H313" s="106">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5884,13 +6051,13 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" ht="15.75"/>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -5902,7 +6069,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G3" s="2">
         <v>7</v>
@@ -5938,39 +6105,39 @@
     </row>
     <row r="7" customFormat="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" ht="15.75"/>
     <row r="9" customFormat="1" spans="1:5">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="2:5">
       <c r="B10" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" ht="15.75"/>
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B12" s="2">
         <v>58</v>
@@ -5989,41 +6156,41 @@
     </row>
     <row r="16" customFormat="1" spans="1:3">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:9">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B17" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F17" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="I17" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:9">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F18" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -6031,21 +6198,21 @@
     </row>
     <row r="19" customFormat="1" spans="6:6">
       <c r="F19" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:6">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C20" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D20" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="F20" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:9">
@@ -6053,19 +6220,19 @@
         <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D22">
         <v>6000</v>
       </c>
       <c r="E22" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G22" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H22">
         <v>12000</v>
@@ -6076,15 +6243,15 @@
     </row>
     <row r="23" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C23" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="3:4">
       <c r="C24" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D24" s="1">
         <v>32000</v>
@@ -6092,7 +6259,7 @@
     </row>
     <row r="27" customFormat="1" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:5">
@@ -6117,34 +6284,34 @@
         <v>174</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" ht="15.75"/>
     <row r="32" customFormat="1" ht="15.75" spans="3:10">
       <c r="C32" s="10" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>178</v>
@@ -6172,7 +6339,7 @@
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="10" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6190,10 +6357,10 @@
         <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="I34" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="J34" s="24">
         <v>6</v>
@@ -6201,7 +6368,7 @@
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="10" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6217,10 +6384,10 @@
         <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="I35" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="J35" s="24">
         <v>24</v>
@@ -6228,7 +6395,7 @@
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="10" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -6242,10 +6409,10 @@
         <v>36</v>
       </c>
       <c r="H36" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="I36" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="J36" s="24">
         <v>36</v>
@@ -6253,7 +6420,7 @@
     </row>
     <row r="37" customFormat="1" ht="15.75" spans="1:6">
       <c r="A37" s="10" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -6275,25 +6442,25 @@
         <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D39" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H39" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="I39" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="J39" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -6301,13 +6468,13 @@
     </row>
     <row r="40" spans="4:11">
       <c r="D40" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J40" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K40" s="24">
         <v>18</v>
@@ -6315,27 +6482,27 @@
     </row>
     <row r="41" customFormat="1" spans="4:4">
       <c r="D41" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="4:11">
       <c r="D42" t="s">
-        <v>362</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="H42" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K42">
         <v>54</v>
@@ -6343,13 +6510,13 @@
     </row>
     <row r="43" spans="4:11">
       <c r="D43" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="J43" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K43" s="24">
         <v>48</v>
@@ -6358,24 +6525,24 @@
     <row r="44" ht="15.75"/>
     <row r="45" customFormat="1" ht="15.75" spans="7:7">
       <c r="G45" s="11" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="2:10">
       <c r="B46" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C46" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G46" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H46" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="J46">
         <v>54</v>
@@ -6383,16 +6550,16 @@
     </row>
     <row r="47" customFormat="1" spans="2:10">
       <c r="B47" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C47" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H47" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I47" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="J47">
         <v>51</v>
@@ -6400,17 +6567,17 @@
     </row>
     <row r="48" customFormat="1" spans="2:10">
       <c r="B48" s="23" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C48" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="I48" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="J48" s="24">
         <v>30</v>
@@ -6421,10 +6588,10 @@
         <v>193</v>
       </c>
       <c r="B50" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6487,7 +6654,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B2" s="50">
         <v>0</v>
@@ -6561,22 +6728,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>2</v>
@@ -6593,7 +6760,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>4</v>
@@ -6607,7 +6774,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>2</v>
@@ -6618,7 +6785,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -6638,12 +6805,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -6747,7 +6914,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -6767,17 +6934,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>51</v>
@@ -6789,18 +6956,18 @@
         <v>6</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>6</v>
@@ -6808,18 +6975,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -6831,7 +6998,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -6839,12 +7006,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -6852,7 +7019,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -6914,7 +7081,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C51" s="16">
         <v>1</v>
@@ -6948,7 +7115,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -6960,7 +7127,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -6988,12 +7155,12 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
       <c r="A3" s="25" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7086,10 +7253,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -7104,7 +7271,7 @@
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -7124,7 +7291,7 @@
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K11" s="24">
         <v>3</v>
@@ -7151,13 +7318,13 @@
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M14" s="47">
         <v>2</v>
@@ -7165,7 +7332,7 @@
     </row>
     <row r="15" spans="6:13">
       <c r="F15" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="G15" s="24">
         <v>2</v>
@@ -7183,7 +7350,7 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="G17" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -7191,7 +7358,7 @@
     </row>
     <row r="18" customFormat="1" spans="7:9">
       <c r="G18" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I18" s="24">
         <v>2</v>
@@ -7199,28 +7366,28 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="16" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C20" s="16">
         <v>3</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G20" s="16">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K20" s="16">
         <v>3</v>
@@ -7229,21 +7396,21 @@
     <row r="21" spans="1:11">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C21" s="16">
         <v>3</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G21" s="16">
         <v>3</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="K21" s="16">
         <v>2</v>
@@ -7252,21 +7419,21 @@
     <row r="22" spans="1:11">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C22" s="28">
         <v>1</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G22" s="28">
         <v>2</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K22" s="28">
         <v>2</v>
@@ -7274,28 +7441,28 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C24" s="16">
         <v>3</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="G24" s="16">
         <v>4</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="K24" s="16">
         <v>4</v>
@@ -7304,21 +7471,21 @@
     <row r="25" spans="1:11">
       <c r="A25" s="16"/>
       <c r="B25" s="16" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C25" s="16">
         <v>3</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G25" s="16">
         <v>3</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="16" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K25" s="16">
         <v>4</v>
@@ -7327,21 +7494,21 @@
     <row r="26" spans="1:11">
       <c r="A26" s="16"/>
       <c r="B26" s="16" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C26" s="28">
         <v>3</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="G26" s="28">
         <v>3</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="16" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="K26" s="28">
         <v>2</v>
@@ -7371,7 +7538,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>31</v>
@@ -7391,7 +7558,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>28</v>
@@ -7436,27 +7603,27 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -7606,7 +7773,7 @@
     </row>
     <row r="3" ht="15.75" spans="2:12">
       <c r="B3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L3" s="46">
         <v>5</v>
@@ -7620,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:9">
@@ -7667,7 +7834,7 @@
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="2:2">
       <c r="B10" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:9">
@@ -7677,7 +7844,7 @@
       <c r="E11" s="41"/>
       <c r="F11" s="42"/>
       <c r="H11" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="I11" s="45">
         <v>10</v>
@@ -7685,7 +7852,7 @@
     </row>
     <row r="12" spans="8:9">
       <c r="H12" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="I12" s="45">
         <v>11</v>
@@ -7693,7 +7860,7 @@
     </row>
     <row r="13" spans="8:9">
       <c r="H13" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I13" s="45">
         <v>11</v>
@@ -7701,7 +7868,7 @@
     </row>
     <row r="14" spans="8:9">
       <c r="H14" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I14" s="45">
         <v>10</v>
@@ -7717,7 +7884,7 @@
     </row>
     <row r="16" spans="8:9">
       <c r="H16" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="I16" s="43">
         <v>12</v>
@@ -7725,7 +7892,7 @@
     </row>
     <row r="17" spans="8:9">
       <c r="H17" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I17" s="43">
         <v>12</v>
@@ -7778,7 +7945,7 @@
         <v>68</v>
       </c>
       <c r="F25" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G25" s="43">
         <v>5</v>
@@ -7787,7 +7954,7 @@
         <v>57</v>
       </c>
       <c r="M25" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="12:13">
@@ -7845,7 +8012,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="H29" s="43">
         <v>7</v>
@@ -7913,7 +8080,7 @@
         <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="I35" s="45">
         <v>8</v>
@@ -7922,7 +8089,7 @@
     <row r="37" ht="15.75"/>
     <row r="38" ht="15.75" spans="1:10">
       <c r="A38" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="41"/>
@@ -7932,10 +8099,10 @@
         <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I38" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="J38" s="45">
         <v>12</v>
@@ -7943,10 +8110,10 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="J39" s="45">
         <v>12</v>
@@ -7954,10 +8121,10 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="I40" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="J40" s="43">
         <v>12</v>
@@ -7965,10 +8132,10 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="J41" s="45">
         <v>10</v>
@@ -7976,10 +8143,10 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="J42" s="45">
         <v>10</v>
@@ -8009,17 +8176,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="12:12">
       <c r="L11" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="12:12">
       <c r="L12" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="12:17">
@@ -8044,7 +8211,7 @@
     </row>
     <row r="15" spans="12:18">
       <c r="L15" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M15" s="16">
         <v>4</v>
@@ -8062,12 +8229,12 @@
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="12:18">
       <c r="L16" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="M16" s="16">
         <v>12</v>
@@ -8085,12 +8252,12 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="12:13">
       <c r="L19" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M19" s="30">
         <v>15</v>
@@ -8098,10 +8265,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -8154,7 +8321,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -8210,7 +8377,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -8266,7 +8433,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -8322,7 +8489,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -8378,7 +8545,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -8434,7 +8601,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -8490,17 +8657,17 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="99" t="s">
-        <v>304</v>
+      <c r="A38" s="107" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="99" t="s">
-        <v>305</v>
+      <c r="A39" s="107" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -8523,7 +8690,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -8572,40 +8739,40 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="J6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="N6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8616,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8627,7 +8794,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8638,7 +8805,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8649,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -8676,7 +8843,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="25" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8711,7 +8878,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -8743,10 +8910,10 @@
         <v>6</v>
       </c>
       <c r="J8" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="13:13">
@@ -8786,15 +8953,15 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="5:5">
@@ -8804,7 +8971,7 @@
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/DP.xlsx
+++ b/DP.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="409">
   <si>
     <t>LongestCommonSubsequence</t>
   </si>
@@ -674,6 +674,42 @@
   </si>
   <si>
     <t>dp[5]</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>s="226"</t>
+  </si>
+  <si>
+    <t>dp[i]=dp[i+1]</t>
+  </si>
+  <si>
+    <t>26 together is 1</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>dp[0]=dp[1]</t>
+  </si>
+  <si>
+    <t>dp[0]=dp[0]+dp[0+2]</t>
+  </si>
+  <si>
+    <t>dp[i]=dp[i]+dp[i+2]</t>
+  </si>
+  <si>
+    <t>s="12106"</t>
+  </si>
+  <si>
+    <t>dp[2]+dp[4]</t>
+  </si>
+  <si>
+    <t>dp[1]+dp[3]</t>
+  </si>
+  <si>
+    <t>dp[0]+dp[2]</t>
   </si>
   <si>
     <t>fib(n)</t>
@@ -1221,11 +1257,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1290,29 +1326,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1327,8 +1340,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1339,21 +1361,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1373,9 +1380,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,8 +1418,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,6 +1450,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1467,25 +1503,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,13 +1527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,13 +1545,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,7 +1569,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,25 +1623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1587,19 +1641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,37 +1659,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2118,17 +2154,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2147,6 +2183,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2175,16 +2226,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2200,25 +2251,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2236,134 +2272,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2491,6 +2527,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2905,10 +2961,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z313"/>
+  <dimension ref="A1:Z358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="B316" sqref="B316"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="H338" sqref="H338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5890,21 +5946,15 @@
       <c r="A307" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B307"/>
-      <c r="C307"/>
-      <c r="D307"/>
-      <c r="E307"/>
-      <c r="F307"/>
       <c r="G307" s="99" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="308" customFormat="1" ht="15.75"/>
+    <row r="308" ht="15.75"/>
     <row r="309" customFormat="1" ht="15.75" spans="1:10">
       <c r="A309" t="s">
         <v>60</v>
       </c>
-      <c r="B309"/>
       <c r="C309">
         <v>0</v>
       </c>
@@ -5914,10 +5964,6 @@
       <c r="E309">
         <v>0</v>
       </c>
-      <c r="F309"/>
-      <c r="G309"/>
-      <c r="H309"/>
-      <c r="I309"/>
       <c r="J309" t="s">
         <v>211</v>
       </c>
@@ -5926,7 +5972,6 @@
       <c r="A310" t="s">
         <v>64</v>
       </c>
-      <c r="B310"/>
       <c r="C310">
         <v>0</v>
       </c>
@@ -5939,9 +5984,6 @@
       <c r="F310">
         <v>0</v>
       </c>
-      <c r="G310"/>
-      <c r="H310"/>
-      <c r="I310"/>
       <c r="J310" t="s">
         <v>212</v>
       </c>
@@ -6002,8 +6044,6 @@
       <c r="A313" t="s">
         <v>216</v>
       </c>
-      <c r="B313"/>
-      <c r="C313"/>
       <c r="D313" s="104">
         <v>1</v>
       </c>
@@ -6018,6 +6058,326 @@
       </c>
       <c r="H313" s="106">
         <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="319" spans="4:4">
+      <c r="D319" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="321" ht="15.75" spans="1:4">
+      <c r="A321" t="s">
+        <v>12</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" ht="15.75" spans="1:5">
+      <c r="A322" t="s">
+        <v>33</v>
+      </c>
+      <c r="B322" s="107">
+        <v>2</v>
+      </c>
+      <c r="C322" s="108">
+        <v>2</v>
+      </c>
+      <c r="D322" s="109">
+        <v>6</v>
+      </c>
+      <c r="E322" s="50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>41</v>
+      </c>
+      <c r="B324" s="110">
+        <v>3</v>
+      </c>
+      <c r="C324" s="111">
+        <v>2</v>
+      </c>
+      <c r="D324" s="111">
+        <v>1</v>
+      </c>
+      <c r="E324" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>64</v>
+      </c>
+      <c r="B327" s="113">
+        <v>6</v>
+      </c>
+      <c r="D327" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="s">
+        <v>60</v>
+      </c>
+      <c r="B329" s="113">
+        <v>2</v>
+      </c>
+      <c r="C329" s="113">
+        <v>6</v>
+      </c>
+      <c r="E329" t="s">
+        <v>219</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="5:7">
+      <c r="E330" t="s">
+        <v>220</v>
+      </c>
+      <c r="F330" t="s">
+        <v>221</v>
+      </c>
+      <c r="G330" s="114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" ht="15.75" spans="1:8">
+      <c r="A332" t="s">
+        <v>59</v>
+      </c>
+      <c r="B332" s="113">
+        <v>2</v>
+      </c>
+      <c r="C332" s="113">
+        <v>2</v>
+      </c>
+      <c r="D332" s="113">
+        <v>6</v>
+      </c>
+      <c r="F332" t="s">
+        <v>222</v>
+      </c>
+      <c r="H332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="6:8">
+      <c r="F333" t="s">
+        <v>223</v>
+      </c>
+      <c r="H333" s="114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="6:6">
+      <c r="F335" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4">
+      <c r="D339" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="341" ht="15.75" spans="1:6">
+      <c r="A341" t="s">
+        <v>12</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>2</v>
+      </c>
+      <c r="E341">
+        <v>3</v>
+      </c>
+      <c r="F341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" ht="15.75" spans="1:6">
+      <c r="A342" t="s">
+        <v>33</v>
+      </c>
+      <c r="B342" s="115">
+        <v>1</v>
+      </c>
+      <c r="C342" s="116">
+        <v>2</v>
+      </c>
+      <c r="D342" s="116">
+        <v>1</v>
+      </c>
+      <c r="E342" s="117">
+        <v>0</v>
+      </c>
+      <c r="F342" s="118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="s">
+        <v>41</v>
+      </c>
+      <c r="B344" s="110">
+        <v>2</v>
+      </c>
+      <c r="C344" s="111">
+        <v>1</v>
+      </c>
+      <c r="D344" s="111">
+        <v>1</v>
+      </c>
+      <c r="E344" s="111">
+        <v>0</v>
+      </c>
+      <c r="F344" s="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>78</v>
+      </c>
+      <c r="B347" s="113">
+        <v>6</v>
+      </c>
+      <c r="D347" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>70</v>
+      </c>
+      <c r="B349" s="113">
+        <v>0</v>
+      </c>
+      <c r="C349" s="113">
+        <v>6</v>
+      </c>
+      <c r="E349" s="114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>64</v>
+      </c>
+      <c r="B351" s="113">
+        <v>1</v>
+      </c>
+      <c r="C351" s="113">
+        <v>0</v>
+      </c>
+      <c r="D351" s="113">
+        <v>6</v>
+      </c>
+      <c r="F351" t="s">
+        <v>219</v>
+      </c>
+      <c r="G351"/>
+      <c r="H351" t="s">
+        <v>70</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="6:9">
+      <c r="F352" t="s">
+        <v>224</v>
+      </c>
+      <c r="H352" t="s">
+        <v>226</v>
+      </c>
+      <c r="I352" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" ht="15.75" spans="1:8">
+      <c r="A354" t="s">
+        <v>60</v>
+      </c>
+      <c r="B354" s="119">
+        <v>2</v>
+      </c>
+      <c r="C354" s="119">
+        <v>1</v>
+      </c>
+      <c r="D354" s="120">
+        <v>0</v>
+      </c>
+      <c r="E354" s="121">
+        <v>6</v>
+      </c>
+      <c r="G354" t="s">
+        <v>64</v>
+      </c>
+      <c r="H354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="7:8">
+      <c r="G355" t="s">
+        <v>227</v>
+      </c>
+      <c r="H355" s="114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" ht="15.75" spans="1:9">
+      <c r="A357" t="s">
+        <v>59</v>
+      </c>
+      <c r="B357" s="122">
+        <v>1</v>
+      </c>
+      <c r="C357" s="119">
+        <v>2</v>
+      </c>
+      <c r="D357" s="119">
+        <v>1</v>
+      </c>
+      <c r="E357" s="120">
+        <v>0</v>
+      </c>
+      <c r="F357" s="121">
+        <v>6</v>
+      </c>
+      <c r="H357" t="s">
+        <v>60</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="8:9">
+      <c r="H358" t="s">
+        <v>228</v>
+      </c>
+      <c r="I358" s="114">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6051,13 +6411,13 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" ht="15.75"/>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -6069,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G3" s="2">
         <v>7</v>
@@ -6105,39 +6465,39 @@
     </row>
     <row r="7" customFormat="1" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" ht="15.75"/>
     <row r="9" customFormat="1" spans="1:5">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.75" spans="2:5">
       <c r="B10" s="5" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E10" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" ht="15.75"/>
     <row r="12" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B12" s="2">
         <v>58</v>
@@ -6156,41 +6516,41 @@
     </row>
     <row r="16" customFormat="1" spans="1:3">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:9">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="F17" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="I17" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:9">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B18" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C18" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F18" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -6198,21 +6558,21 @@
     </row>
     <row r="19" customFormat="1" spans="6:6">
       <c r="F19" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:6">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C20" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="D20" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F20" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:9">
@@ -6220,19 +6580,19 @@
         <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="D22">
         <v>6000</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="F22" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G22" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="H22">
         <v>12000</v>
@@ -6243,15 +6603,15 @@
     </row>
     <row r="23" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="3:4">
       <c r="C24" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D24" s="1">
         <v>32000</v>
@@ -6259,7 +6619,7 @@
     </row>
     <row r="27" customFormat="1" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:5">
@@ -6284,34 +6644,34 @@
         <v>174</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" ht="15.75"/>
     <row r="32" customFormat="1" ht="15.75" spans="3:10">
       <c r="C32" s="10" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>178</v>
@@ -6339,7 +6699,7 @@
     </row>
     <row r="34" customFormat="1" spans="1:10">
       <c r="A34" s="10" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -6357,10 +6717,10 @@
         <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="I34" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="J34" s="24">
         <v>6</v>
@@ -6368,7 +6728,7 @@
     </row>
     <row r="35" customFormat="1" spans="1:10">
       <c r="A35" s="10" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6384,10 +6744,10 @@
         <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="I35" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="J35" s="24">
         <v>24</v>
@@ -6395,7 +6755,7 @@
     </row>
     <row r="36" customFormat="1" spans="1:10">
       <c r="A36" s="10" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -6409,10 +6769,10 @@
         <v>36</v>
       </c>
       <c r="H36" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="I36" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="J36" s="24">
         <v>36</v>
@@ -6420,7 +6780,7 @@
     </row>
     <row r="37" customFormat="1" ht="15.75" spans="1:6">
       <c r="A37" s="10" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -6442,25 +6802,25 @@
         <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D39" t="s">
         <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F39" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="H39" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="I39" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="J39" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="K39">
         <v>32</v>
@@ -6468,13 +6828,13 @@
     </row>
     <row r="40" spans="4:11">
       <c r="D40" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="J40" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="K40" s="24">
         <v>18</v>
@@ -6482,7 +6842,7 @@
     </row>
     <row r="41" customFormat="1" spans="4:4">
       <c r="D41" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="4:11">
@@ -6490,19 +6850,19 @@
         <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="H42" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I42" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="J42" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="K42">
         <v>54</v>
@@ -6510,13 +6870,13 @@
     </row>
     <row r="43" spans="4:11">
       <c r="D43" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="I43" s="24" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="J43" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K43" s="24">
         <v>48</v>
@@ -6525,24 +6885,24 @@
     <row r="44" ht="15.75"/>
     <row r="45" customFormat="1" ht="15.75" spans="7:7">
       <c r="G45" s="11" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="2:10">
       <c r="B46" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C46" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="G46" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="H46" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="I46" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="J46">
         <v>54</v>
@@ -6550,16 +6910,16 @@
     </row>
     <row r="47" customFormat="1" spans="2:10">
       <c r="B47" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C47" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="H47" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="I47" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="J47">
         <v>51</v>
@@ -6567,17 +6927,17 @@
     </row>
     <row r="48" customFormat="1" spans="2:10">
       <c r="B48" s="23" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C48" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="G48" s="24"/>
       <c r="H48" s="24" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="I48" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="J48" s="24">
         <v>30</v>
@@ -6588,10 +6948,10 @@
         <v>193</v>
       </c>
       <c r="B50" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6654,7 +7014,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="50">
         <v>0</v>
@@ -6728,22 +7088,22 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>2</v>
@@ -6760,7 +7120,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>4</v>
@@ -6774,7 +7134,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>2</v>
@@ -6785,7 +7145,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -6805,12 +7165,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -6914,7 +7274,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
@@ -6934,17 +7294,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>51</v>
@@ -6956,18 +7316,18 @@
         <v>6</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>6</v>
@@ -6975,18 +7335,18 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
@@ -6998,7 +7358,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -7006,12 +7366,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="3:6">
@@ -7019,7 +7379,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -7081,7 +7441,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="24" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C51" s="16">
         <v>1</v>
@@ -7115,7 +7475,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B55" t="s">
         <v>51</v>
@@ -7127,7 +7487,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
@@ -7155,12 +7515,12 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:1">
       <c r="A3" s="25" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7253,10 +7613,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -7271,7 +7631,7 @@
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="16" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -7291,7 +7651,7 @@
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="K11" s="24">
         <v>3</v>
@@ -7318,13 +7678,13 @@
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="F14" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="M14" s="47">
         <v>2</v>
@@ -7332,7 +7692,7 @@
     </row>
     <row r="15" spans="6:13">
       <c r="F15" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G15" s="24">
         <v>2</v>
@@ -7350,7 +7710,7 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="G17" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="I17">
         <v>3</v>
@@ -7358,7 +7718,7 @@
     </row>
     <row r="18" customFormat="1" spans="7:9">
       <c r="G18" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="I18" s="24">
         <v>2</v>
@@ -7369,25 +7729,25 @@
         <v>216</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C20" s="16">
         <v>3</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G20" s="16">
         <v>2</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="K20" s="16">
         <v>3</v>
@@ -7396,21 +7756,21 @@
     <row r="21" spans="1:11">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C21" s="16">
         <v>3</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="G21" s="16">
         <v>3</v>
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="16" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="K21" s="16">
         <v>2</v>
@@ -7419,21 +7779,21 @@
     <row r="22" spans="1:11">
       <c r="A22" s="16"/>
       <c r="B22" s="16" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C22" s="28">
         <v>1</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G22" s="28">
         <v>2</v>
       </c>
       <c r="I22" s="16"/>
       <c r="J22" s="16" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="K22" s="28">
         <v>2</v>
@@ -7441,28 +7801,28 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C24" s="16">
         <v>3</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G24" s="16">
         <v>4</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
 